--- a/bin/supplment_analysis/个性化汇总-9月.xlsx
+++ b/bin/supplment_analysis/个性化汇总-9月.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1190" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1986,33 +1986,33 @@
   <dimension ref="A1:BO524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="9" customWidth="1"/>
-    <col min="9" max="9" width="19.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="3" customWidth="1"/>
-    <col min="11" max="12" width="12.5" style="11" customWidth="1"/>
-    <col min="13" max="13" width="9.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="19.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.453125" style="3" customWidth="1"/>
+    <col min="11" max="12" width="12.453125" style="11" customWidth="1"/>
+    <col min="13" max="13" width="9.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="9" style="3"/>
-    <col min="16" max="16" width="11.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="9" style="3"/>
     <col min="19" max="67" width="9" style="1"/>
     <col min="68" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>448</v>
       </c>
@@ -2117,7 +2117,7 @@
       <c r="BN1" s="1"/>
       <c r="BO1" s="1"/>
     </row>
-    <row r="2" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>961</v>
       </c>
@@ -2212,7 +2212,7 @@
       <c r="BN2" s="1"/>
       <c r="BO2" s="1"/>
     </row>
-    <row r="3" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>962</v>
       </c>
@@ -2303,7 +2303,7 @@
       <c r="BN3" s="1"/>
       <c r="BO3" s="1"/>
     </row>
-    <row r="4" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>963</v>
       </c>
@@ -2394,7 +2394,7 @@
       <c r="BN4" s="1"/>
       <c r="BO4" s="1"/>
     </row>
-    <row r="5" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>964</v>
       </c>
@@ -2485,7 +2485,7 @@
       <c r="BN5" s="1"/>
       <c r="BO5" s="1"/>
     </row>
-    <row r="6" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>965</v>
       </c>
@@ -2576,7 +2576,7 @@
       <c r="BN6" s="1"/>
       <c r="BO6" s="1"/>
     </row>
-    <row r="7" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>966</v>
       </c>
@@ -2667,7 +2667,7 @@
       <c r="BN7" s="1"/>
       <c r="BO7" s="1"/>
     </row>
-    <row r="8" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>967</v>
       </c>
@@ -2764,7 +2764,7 @@
       <c r="BN8" s="1"/>
       <c r="BO8" s="1"/>
     </row>
-    <row r="9" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>968</v>
       </c>
@@ -2855,7 +2855,7 @@
       <c r="BN9" s="1"/>
       <c r="BO9" s="1"/>
     </row>
-    <row r="10" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>969</v>
       </c>
@@ -2950,7 +2950,7 @@
       <c r="BN10" s="1"/>
       <c r="BO10" s="1"/>
     </row>
-    <row r="11" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>970</v>
       </c>
@@ -3041,7 +3041,7 @@
       <c r="BN11" s="1"/>
       <c r="BO11" s="1"/>
     </row>
-    <row r="12" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>971</v>
       </c>
@@ -3132,7 +3132,7 @@
       <c r="BN12" s="1"/>
       <c r="BO12" s="1"/>
     </row>
-    <row r="13" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>972</v>
       </c>
@@ -3223,7 +3223,7 @@
       <c r="BN13" s="1"/>
       <c r="BO13" s="1"/>
     </row>
-    <row r="14" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>973</v>
       </c>
@@ -3316,7 +3316,7 @@
       <c r="BN14" s="1"/>
       <c r="BO14" s="1"/>
     </row>
-    <row r="15" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>974</v>
       </c>
@@ -3409,7 +3409,7 @@
       <c r="BN15" s="1"/>
       <c r="BO15" s="1"/>
     </row>
-    <row r="16" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>975</v>
       </c>
@@ -3502,7 +3502,7 @@
       <c r="BN16" s="1"/>
       <c r="BO16" s="1"/>
     </row>
-    <row r="17" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>976</v>
       </c>
@@ -3597,7 +3597,7 @@
       <c r="BN17" s="1"/>
       <c r="BO17" s="1"/>
     </row>
-    <row r="18" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>977</v>
       </c>
@@ -3688,7 +3688,7 @@
       <c r="BN18" s="1"/>
       <c r="BO18" s="1"/>
     </row>
-    <row r="19" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>978</v>
       </c>
@@ -3779,7 +3779,7 @@
       <c r="BN19" s="1"/>
       <c r="BO19" s="1"/>
     </row>
-    <row r="20" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>979</v>
       </c>
@@ -3870,7 +3870,7 @@
       <c r="BN20" s="1"/>
       <c r="BO20" s="1"/>
     </row>
-    <row r="21" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>980</v>
       </c>
@@ -3965,7 +3965,7 @@
       <c r="BN21" s="1"/>
       <c r="BO21" s="1"/>
     </row>
-    <row r="22" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>981</v>
       </c>
@@ -4056,7 +4056,7 @@
       <c r="BN22" s="1"/>
       <c r="BO22" s="1"/>
     </row>
-    <row r="23" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>982</v>
       </c>
@@ -4151,7 +4151,7 @@
       <c r="BN23" s="1"/>
       <c r="BO23" s="1"/>
     </row>
-    <row r="24" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>983</v>
       </c>
@@ -4242,7 +4242,7 @@
       <c r="BN24" s="1"/>
       <c r="BO24" s="1"/>
     </row>
-    <row r="25" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>984</v>
       </c>
@@ -4333,7 +4333,7 @@
       <c r="BN25" s="1"/>
       <c r="BO25" s="1"/>
     </row>
-    <row r="26" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>985</v>
       </c>
@@ -4420,7 +4420,7 @@
       <c r="BN26" s="1"/>
       <c r="BO26" s="1"/>
     </row>
-    <row r="27" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>986</v>
       </c>
@@ -4515,7 +4515,7 @@
       <c r="BN27" s="1"/>
       <c r="BO27" s="1"/>
     </row>
-    <row r="28" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>987</v>
       </c>
@@ -4612,7 +4612,7 @@
       <c r="BN28" s="1"/>
       <c r="BO28" s="1"/>
     </row>
-    <row r="29" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>988</v>
       </c>
@@ -4707,7 +4707,7 @@
       <c r="BN29" s="1"/>
       <c r="BO29" s="1"/>
     </row>
-    <row r="30" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>989</v>
       </c>
@@ -4802,7 +4802,7 @@
       <c r="BN30" s="1"/>
       <c r="BO30" s="1"/>
     </row>
-    <row r="31" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>990</v>
       </c>
@@ -4897,7 +4897,7 @@
       <c r="BN31" s="1"/>
       <c r="BO31" s="1"/>
     </row>
-    <row r="32" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>991</v>
       </c>
@@ -4992,7 +4992,7 @@
       <c r="BN32" s="1"/>
       <c r="BO32" s="1"/>
     </row>
-    <row r="33" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>992</v>
       </c>
@@ -5081,7 +5081,7 @@
       <c r="BN33" s="1"/>
       <c r="BO33" s="1"/>
     </row>
-    <row r="34" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>993</v>
       </c>
@@ -5172,7 +5172,7 @@
       <c r="BN34" s="1"/>
       <c r="BO34" s="1"/>
     </row>
-    <row r="35" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>994</v>
       </c>
@@ -5269,7 +5269,7 @@
       <c r="BN35" s="1"/>
       <c r="BO35" s="1"/>
     </row>
-    <row r="36" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>995</v>
       </c>
@@ -5366,7 +5366,7 @@
       <c r="BN36" s="1"/>
       <c r="BO36" s="1"/>
     </row>
-    <row r="37" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>996</v>
       </c>
@@ -5463,7 +5463,7 @@
       <c r="BN37" s="1"/>
       <c r="BO37" s="1"/>
     </row>
-    <row r="38" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>997</v>
       </c>
@@ -5554,7 +5554,7 @@
       <c r="BN38" s="1"/>
       <c r="BO38" s="1"/>
     </row>
-    <row r="39" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>998</v>
       </c>
@@ -5645,7 +5645,7 @@
       <c r="BN39" s="1"/>
       <c r="BO39" s="1"/>
     </row>
-    <row r="40" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>999</v>
       </c>
@@ -5738,7 +5738,7 @@
       <c r="BN40" s="1"/>
       <c r="BO40" s="1"/>
     </row>
-    <row r="41" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>1000</v>
       </c>
@@ -5829,7 +5829,7 @@
       <c r="BN41" s="1"/>
       <c r="BO41" s="1"/>
     </row>
-    <row r="42" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>1001</v>
       </c>
@@ -5918,7 +5918,7 @@
       <c r="BN42" s="1"/>
       <c r="BO42" s="1"/>
     </row>
-    <row r="43" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>1002</v>
       </c>
@@ -6007,7 +6007,7 @@
       <c r="BN43" s="1"/>
       <c r="BO43" s="1"/>
     </row>
-    <row r="44" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>1003</v>
       </c>
@@ -6098,7 +6098,7 @@
       <c r="BN44" s="1"/>
       <c r="BO44" s="1"/>
     </row>
-    <row r="45" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>1004</v>
       </c>
@@ -6189,7 +6189,7 @@
       <c r="BN45" s="1"/>
       <c r="BO45" s="1"/>
     </row>
-    <row r="46" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>1005</v>
       </c>
@@ -6284,7 +6284,7 @@
       <c r="BN46" s="1"/>
       <c r="BO46" s="1"/>
     </row>
-    <row r="47" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>1006</v>
       </c>
@@ -6379,7 +6379,7 @@
       <c r="BN47" s="1"/>
       <c r="BO47" s="1"/>
     </row>
-    <row r="48" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>1007</v>
       </c>
@@ -6474,7 +6474,7 @@
       <c r="BN48" s="1"/>
       <c r="BO48" s="1"/>
     </row>
-    <row r="49" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>1008</v>
       </c>
@@ -6565,7 +6565,7 @@
       <c r="BN49" s="1"/>
       <c r="BO49" s="1"/>
     </row>
-    <row r="50" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>1009</v>
       </c>
@@ -6656,7 +6656,7 @@
       <c r="BN50" s="1"/>
       <c r="BO50" s="1"/>
     </row>
-    <row r="51" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>1010</v>
       </c>
@@ -6751,7 +6751,7 @@
       <c r="BN51" s="1"/>
       <c r="BO51" s="1"/>
     </row>
-    <row r="52" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>1011</v>
       </c>
@@ -6842,7 +6842,7 @@
       <c r="BN52" s="1"/>
       <c r="BO52" s="1"/>
     </row>
-    <row r="53" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>1012</v>
       </c>
@@ -6933,7 +6933,7 @@
       <c r="BN53" s="1"/>
       <c r="BO53" s="1"/>
     </row>
-    <row r="54" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>1013</v>
       </c>
@@ -7022,7 +7022,7 @@
       <c r="BN54" s="1"/>
       <c r="BO54" s="1"/>
     </row>
-    <row r="55" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>1014</v>
       </c>
@@ -7117,7 +7117,7 @@
       <c r="BN55" s="1"/>
       <c r="BO55" s="1"/>
     </row>
-    <row r="56" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>1015</v>
       </c>
@@ -7206,7 +7206,7 @@
       <c r="BN56" s="1"/>
       <c r="BO56" s="1"/>
     </row>
-    <row r="57" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>1016</v>
       </c>
@@ -7301,7 +7301,7 @@
       <c r="BN57" s="1"/>
       <c r="BO57" s="1"/>
     </row>
-    <row r="58" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>1017</v>
       </c>
@@ -7392,7 +7392,7 @@
       <c r="BN58" s="1"/>
       <c r="BO58" s="1"/>
     </row>
-    <row r="59" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>1018</v>
       </c>
@@ -7489,7 +7489,7 @@
       <c r="BN59" s="1"/>
       <c r="BO59" s="1"/>
     </row>
-    <row r="60" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>1019</v>
       </c>
@@ -7580,7 +7580,7 @@
       <c r="BN60" s="1"/>
       <c r="BO60" s="1"/>
     </row>
-    <row r="61" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>1020</v>
       </c>
@@ -7671,7 +7671,7 @@
       <c r="BN61" s="1"/>
       <c r="BO61" s="1"/>
     </row>
-    <row r="62" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>1021</v>
       </c>
@@ -7762,7 +7762,7 @@
       <c r="BN62" s="1"/>
       <c r="BO62" s="1"/>
     </row>
-    <row r="63" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>1022</v>
       </c>
@@ -7857,7 +7857,7 @@
       <c r="BN63" s="1"/>
       <c r="BO63" s="1"/>
     </row>
-    <row r="64" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>1023</v>
       </c>
@@ -7952,7 +7952,7 @@
       <c r="BN64" s="1"/>
       <c r="BO64" s="1"/>
     </row>
-    <row r="65" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>1024</v>
       </c>
@@ -8047,7 +8047,7 @@
       <c r="BN65" s="1"/>
       <c r="BO65" s="1"/>
     </row>
-    <row r="66" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>1025</v>
       </c>
@@ -8138,7 +8138,7 @@
       <c r="BN66" s="1"/>
       <c r="BO66" s="1"/>
     </row>
-    <row r="67" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>1026</v>
       </c>
@@ -8229,7 +8229,7 @@
       <c r="BN67" s="1"/>
       <c r="BO67" s="1"/>
     </row>
-    <row r="68" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>1027</v>
       </c>
@@ -8320,7 +8320,7 @@
       <c r="BN68" s="1"/>
       <c r="BO68" s="1"/>
     </row>
-    <row r="69" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>1028</v>
       </c>
@@ -8411,7 +8411,7 @@
       <c r="BN69" s="1"/>
       <c r="BO69" s="1"/>
     </row>
-    <row r="70" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>1029</v>
       </c>
@@ -8508,7 +8508,7 @@
       <c r="BN70" s="1"/>
       <c r="BO70" s="1"/>
     </row>
-    <row r="71" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>1030</v>
       </c>
@@ -8605,7 +8605,7 @@
       <c r="BN71" s="1"/>
       <c r="BO71" s="1"/>
     </row>
-    <row r="72" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>1031</v>
       </c>
@@ -8700,7 +8700,7 @@
       <c r="BN72" s="1"/>
       <c r="BO72" s="1"/>
     </row>
-    <row r="73" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>1032</v>
       </c>
@@ -8791,7 +8791,7 @@
       <c r="BN73" s="1"/>
       <c r="BO73" s="1"/>
     </row>
-    <row r="74" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>1033</v>
       </c>
@@ -8878,7 +8878,7 @@
       <c r="BN74" s="1"/>
       <c r="BO74" s="1"/>
     </row>
-    <row r="75" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>1034</v>
       </c>
@@ -8973,7 +8973,7 @@
       <c r="BN75" s="1"/>
       <c r="BO75" s="1"/>
     </row>
-    <row r="76" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>1035</v>
       </c>
@@ -9064,7 +9064,7 @@
       <c r="BN76" s="1"/>
       <c r="BO76" s="1"/>
     </row>
-    <row r="77" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>1036</v>
       </c>
@@ -9155,7 +9155,7 @@
       <c r="BN77" s="1"/>
       <c r="BO77" s="1"/>
     </row>
-    <row r="78" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>1037</v>
       </c>
@@ -9246,7 +9246,7 @@
       <c r="BN78" s="1"/>
       <c r="BO78" s="1"/>
     </row>
-    <row r="79" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>1038</v>
       </c>
@@ -9341,7 +9341,7 @@
       <c r="BN79" s="1"/>
       <c r="BO79" s="1"/>
     </row>
-    <row r="80" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>1039</v>
       </c>
@@ -9436,7 +9436,7 @@
       <c r="BN80" s="1"/>
       <c r="BO80" s="1"/>
     </row>
-    <row r="81" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>1040</v>
       </c>
@@ -9531,7 +9531,7 @@
       <c r="BN81" s="1"/>
       <c r="BO81" s="1"/>
     </row>
-    <row r="82" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>1041</v>
       </c>
@@ -9622,7 +9622,7 @@
       <c r="BN82" s="1"/>
       <c r="BO82" s="1"/>
     </row>
-    <row r="83" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>1042</v>
       </c>
@@ -9717,7 +9717,7 @@
       <c r="BN83" s="1"/>
       <c r="BO83" s="1"/>
     </row>
-    <row r="84" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>1043</v>
       </c>
@@ -9808,7 +9808,7 @@
       <c r="BN84" s="1"/>
       <c r="BO84" s="1"/>
     </row>
-    <row r="85" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>1044</v>
       </c>
@@ -9899,7 +9899,7 @@
       <c r="BN85" s="1"/>
       <c r="BO85" s="1"/>
     </row>
-    <row r="86" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>1045</v>
       </c>
@@ -9994,7 +9994,7 @@
       <c r="BN86" s="1"/>
       <c r="BO86" s="1"/>
     </row>
-    <row r="87" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>1046</v>
       </c>
@@ -10085,7 +10085,7 @@
       <c r="BN87" s="1"/>
       <c r="BO87" s="1"/>
     </row>
-    <row r="88" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>1047</v>
       </c>
@@ -10174,7 +10174,7 @@
       <c r="BN88" s="1"/>
       <c r="BO88" s="1"/>
     </row>
-    <row r="89" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>1048</v>
       </c>
@@ -10265,7 +10265,7 @@
       <c r="BN89" s="1"/>
       <c r="BO89" s="1"/>
     </row>
-    <row r="90" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>1049</v>
       </c>
@@ -10354,7 +10354,7 @@
       <c r="BN90" s="1"/>
       <c r="BO90" s="1"/>
     </row>
-    <row r="91" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>1050</v>
       </c>
@@ -10445,7 +10445,7 @@
       <c r="BN91" s="1"/>
       <c r="BO91" s="1"/>
     </row>
-    <row r="92" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>1051</v>
       </c>
@@ -10540,7 +10540,7 @@
       <c r="BN92" s="1"/>
       <c r="BO92" s="1"/>
     </row>
-    <row r="93" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>1052</v>
       </c>
@@ -10635,7 +10635,7 @@
       <c r="BN93" s="1"/>
       <c r="BO93" s="1"/>
     </row>
-    <row r="94" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>1053</v>
       </c>
@@ -10730,7 +10730,7 @@
       <c r="BN94" s="1"/>
       <c r="BO94" s="1"/>
     </row>
-    <row r="95" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>1054</v>
       </c>
@@ -10825,7 +10825,7 @@
       <c r="BN95" s="1"/>
       <c r="BO95" s="1"/>
     </row>
-    <row r="96" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>1055</v>
       </c>
@@ -10916,7 +10916,7 @@
       <c r="BN96" s="1"/>
       <c r="BO96" s="1"/>
     </row>
-    <row r="97" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>1056</v>
       </c>
@@ -11007,7 +11007,7 @@
       <c r="BN97" s="1"/>
       <c r="BO97" s="1"/>
     </row>
-    <row r="98" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>1057</v>
       </c>
@@ -11096,7 +11096,7 @@
       <c r="BN98" s="1"/>
       <c r="BO98" s="1"/>
     </row>
-    <row r="99" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>1058</v>
       </c>
@@ -11183,7 +11183,7 @@
       <c r="BN99" s="1"/>
       <c r="BO99" s="1"/>
     </row>
-    <row r="100" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>1059</v>
       </c>
@@ -11278,7 +11278,7 @@
       <c r="BN100" s="1"/>
       <c r="BO100" s="1"/>
     </row>
-    <row r="101" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>1060</v>
       </c>
@@ -11373,7 +11373,7 @@
       <c r="BN101" s="1"/>
       <c r="BO101" s="1"/>
     </row>
-    <row r="102" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>1061</v>
       </c>
@@ -11472,7 +11472,7 @@
       <c r="BN102" s="1"/>
       <c r="BO102" s="1"/>
     </row>
-    <row r="103" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>1062</v>
       </c>
@@ -11559,7 +11559,7 @@
       <c r="BN103" s="1"/>
       <c r="BO103" s="1"/>
     </row>
-    <row r="104" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>1063</v>
       </c>
@@ -11650,7 +11650,7 @@
       <c r="BN104" s="1"/>
       <c r="BO104" s="1"/>
     </row>
-    <row r="105" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>1064</v>
       </c>
@@ -11741,7 +11741,7 @@
       <c r="BN105" s="1"/>
       <c r="BO105" s="1"/>
     </row>
-    <row r="106" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>1065</v>
       </c>
@@ -11840,7 +11840,7 @@
       <c r="BN106" s="1"/>
       <c r="BO106" s="1"/>
     </row>
-    <row r="107" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>1066</v>
       </c>
@@ -11931,7 +11931,7 @@
       <c r="BN107" s="1"/>
       <c r="BO107" s="1"/>
     </row>
-    <row r="108" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>1067</v>
       </c>
@@ -12026,7 +12026,7 @@
       <c r="BN108" s="1"/>
       <c r="BO108" s="1"/>
     </row>
-    <row r="109" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>1068</v>
       </c>
@@ -12117,7 +12117,7 @@
       <c r="BN109" s="1"/>
       <c r="BO109" s="1"/>
     </row>
-    <row r="110" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>1070</v>
       </c>
@@ -12212,7 +12212,7 @@
       <c r="BN110" s="1"/>
       <c r="BO110" s="1"/>
     </row>
-    <row r="111" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>1071</v>
       </c>
@@ -12309,7 +12309,7 @@
       <c r="BN111" s="1"/>
       <c r="BO111" s="1"/>
     </row>
-    <row r="112" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>1072</v>
       </c>
@@ -12400,7 +12400,7 @@
       <c r="BN112" s="1"/>
       <c r="BO112" s="1"/>
     </row>
-    <row r="113" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>1073</v>
       </c>
@@ -12491,7 +12491,7 @@
       <c r="BN113" s="1"/>
       <c r="BO113" s="1"/>
     </row>
-    <row r="114" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>1074</v>
       </c>
@@ -12580,7 +12580,7 @@
       <c r="BN114" s="1"/>
       <c r="BO114" s="1"/>
     </row>
-    <row r="115" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>1075</v>
       </c>
@@ -12675,7 +12675,7 @@
       <c r="BN115" s="1"/>
       <c r="BO115" s="1"/>
     </row>
-    <row r="116" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>1076</v>
       </c>
@@ -12762,7 +12762,7 @@
       <c r="BN116" s="1"/>
       <c r="BO116" s="1"/>
     </row>
-    <row r="117" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>1077</v>
       </c>
@@ -12853,7 +12853,7 @@
       <c r="BN117" s="1"/>
       <c r="BO117" s="1"/>
     </row>
-    <row r="118" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>1078</v>
       </c>
@@ -12944,7 +12944,7 @@
       <c r="BN118" s="1"/>
       <c r="BO118" s="1"/>
     </row>
-    <row r="119" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>1079</v>
       </c>
@@ -13035,7 +13035,7 @@
       <c r="BN119" s="1"/>
       <c r="BO119" s="1"/>
     </row>
-    <row r="120" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>1080</v>
       </c>
@@ -13126,7 +13126,7 @@
       <c r="BN120" s="1"/>
       <c r="BO120" s="1"/>
     </row>
-    <row r="121" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>1081</v>
       </c>
@@ -13217,7 +13217,7 @@
       <c r="BN121" s="1"/>
       <c r="BO121" s="1"/>
     </row>
-    <row r="122" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>1082</v>
       </c>
@@ -13314,7 +13314,7 @@
       <c r="BN122" s="1"/>
       <c r="BO122" s="1"/>
     </row>
-    <row r="123" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>1083</v>
       </c>
@@ -13403,7 +13403,7 @@
       <c r="BN123" s="1"/>
       <c r="BO123" s="1"/>
     </row>
-    <row r="124" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>1084</v>
       </c>
@@ -13500,7 +13500,7 @@
       <c r="BN124" s="1"/>
       <c r="BO124" s="1"/>
     </row>
-    <row r="125" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>1085</v>
       </c>
@@ -13597,7 +13597,7 @@
       <c r="BN125" s="1"/>
       <c r="BO125" s="1"/>
     </row>
-    <row r="126" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>1086</v>
       </c>
@@ -13688,7 +13688,7 @@
       <c r="BN126" s="1"/>
       <c r="BO126" s="1"/>
     </row>
-    <row r="127" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>1087</v>
       </c>
@@ -13783,7 +13783,7 @@
       <c r="BN127" s="1"/>
       <c r="BO127" s="1"/>
     </row>
-    <row r="128" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>1088</v>
       </c>
@@ -13872,7 +13872,7 @@
       <c r="BN128" s="1"/>
       <c r="BO128" s="1"/>
     </row>
-    <row r="129" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>1089</v>
       </c>
@@ -13967,7 +13967,7 @@
       <c r="BN129" s="1"/>
       <c r="BO129" s="1"/>
     </row>
-    <row r="130" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>1090</v>
       </c>
@@ -14062,7 +14062,7 @@
       <c r="BN130" s="1"/>
       <c r="BO130" s="1"/>
     </row>
-    <row r="131" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>1091</v>
       </c>
@@ -14157,7 +14157,7 @@
       <c r="BN131" s="1"/>
       <c r="BO131" s="1"/>
     </row>
-    <row r="132" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>1092</v>
       </c>
@@ -14252,7 +14252,7 @@
       <c r="BN132" s="1"/>
       <c r="BO132" s="1"/>
     </row>
-    <row r="133" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>1093</v>
       </c>
@@ -14347,7 +14347,7 @@
       <c r="BN133" s="1"/>
       <c r="BO133" s="1"/>
     </row>
-    <row r="134" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>1094</v>
       </c>
@@ -14440,7 +14440,7 @@
       <c r="BN134" s="1"/>
       <c r="BO134" s="1"/>
     </row>
-    <row r="135" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>1095</v>
       </c>
@@ -14529,7 +14529,7 @@
       <c r="BN135" s="1"/>
       <c r="BO135" s="1"/>
     </row>
-    <row r="136" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>1096</v>
       </c>
@@ -14616,7 +14616,7 @@
       <c r="BN136" s="1"/>
       <c r="BO136" s="1"/>
     </row>
-    <row r="137" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>1097</v>
       </c>
@@ -14705,7 +14705,7 @@
       <c r="BN137" s="1"/>
       <c r="BO137" s="1"/>
     </row>
-    <row r="138" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>1098</v>
       </c>
@@ -14792,7 +14792,7 @@
       <c r="BN138" s="1"/>
       <c r="BO138" s="1"/>
     </row>
-    <row r="139" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>1099</v>
       </c>
@@ -14881,7 +14881,7 @@
       <c r="BN139" s="1"/>
       <c r="BO139" s="1"/>
     </row>
-    <row r="140" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>1100</v>
       </c>
@@ -14970,7 +14970,7 @@
       <c r="BN140" s="1"/>
       <c r="BO140" s="1"/>
     </row>
-    <row r="141" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>1101</v>
       </c>
@@ -15063,7 +15063,7 @@
       <c r="BN141" s="1"/>
       <c r="BO141" s="1"/>
     </row>
-    <row r="142" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>1102</v>
       </c>
@@ -15152,7 +15152,7 @@
       <c r="BN142" s="1"/>
       <c r="BO142" s="1"/>
     </row>
-    <row r="143" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>1103</v>
       </c>
@@ -15239,7 +15239,7 @@
       <c r="BN143" s="1"/>
       <c r="BO143" s="1"/>
     </row>
-    <row r="144" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>1104</v>
       </c>
@@ -15332,7 +15332,7 @@
       <c r="BN144" s="1"/>
       <c r="BO144" s="1"/>
     </row>
-    <row r="145" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>1105</v>
       </c>
@@ -15421,7 +15421,7 @@
       <c r="BN145" s="1"/>
       <c r="BO145" s="1"/>
     </row>
-    <row r="146" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>1106</v>
       </c>
@@ -15510,7 +15510,7 @@
       <c r="BN146" s="1"/>
       <c r="BO146" s="1"/>
     </row>
-    <row r="147" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>1107</v>
       </c>
@@ -15601,7 +15601,7 @@
       <c r="BN147" s="1"/>
       <c r="BO147" s="1"/>
     </row>
-    <row r="148" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>1108</v>
       </c>
@@ -15692,7 +15692,7 @@
       <c r="BN148" s="1"/>
       <c r="BO148" s="1"/>
     </row>
-    <row r="149" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>1109</v>
       </c>
@@ -15783,7 +15783,7 @@
       <c r="BN149" s="1"/>
       <c r="BO149" s="1"/>
     </row>
-    <row r="150" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>1110</v>
       </c>
@@ -15874,7 +15874,7 @@
       <c r="BN150" s="1"/>
       <c r="BO150" s="1"/>
     </row>
-    <row r="151" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>1111</v>
       </c>
@@ -15971,7 +15971,7 @@
       <c r="BN151" s="1"/>
       <c r="BO151" s="1"/>
     </row>
-    <row r="152" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>1112</v>
       </c>
@@ -16058,7 +16058,7 @@
       <c r="BN152" s="1"/>
       <c r="BO152" s="1"/>
     </row>
-    <row r="153" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>1113</v>
       </c>
@@ -16145,7 +16145,7 @@
       <c r="BN153" s="1"/>
       <c r="BO153" s="1"/>
     </row>
-    <row r="154" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>1114</v>
       </c>
@@ -16238,7 +16238,7 @@
       <c r="BN154" s="1"/>
       <c r="BO154" s="1"/>
     </row>
-    <row r="155" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>1115</v>
       </c>
@@ -16325,7 +16325,7 @@
       <c r="BN155" s="1"/>
       <c r="BO155" s="1"/>
     </row>
-    <row r="156" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>1116</v>
       </c>
@@ -16412,7 +16412,7 @@
       <c r="BN156" s="1"/>
       <c r="BO156" s="1"/>
     </row>
-    <row r="157" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>1117</v>
       </c>
@@ -16499,7 +16499,7 @@
       <c r="BN157" s="1"/>
       <c r="BO157" s="1"/>
     </row>
-    <row r="158" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>1118</v>
       </c>
@@ -16586,7 +16586,7 @@
       <c r="BN158" s="1"/>
       <c r="BO158" s="1"/>
     </row>
-    <row r="159" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>1119</v>
       </c>
@@ -16673,7 +16673,7 @@
       <c r="BN159" s="1"/>
       <c r="BO159" s="1"/>
     </row>
-    <row r="160" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>1120</v>
       </c>
@@ -16760,7 +16760,7 @@
       <c r="BN160" s="1"/>
       <c r="BO160" s="1"/>
     </row>
-    <row r="161" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>1121</v>
       </c>
@@ -16847,7 +16847,7 @@
       <c r="BN161" s="1"/>
       <c r="BO161" s="1"/>
     </row>
-    <row r="162" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>1122</v>
       </c>
@@ -16942,7 +16942,7 @@
       <c r="BN162" s="1"/>
       <c r="BO162" s="1"/>
     </row>
-    <row r="163" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>1123</v>
       </c>
@@ -17031,7 +17031,7 @@
       <c r="BN163" s="1"/>
       <c r="BO163" s="1"/>
     </row>
-    <row r="164" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>1124</v>
       </c>
@@ -17126,7 +17126,7 @@
       <c r="BN164" s="1"/>
       <c r="BO164" s="1"/>
     </row>
-    <row r="165" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>1125</v>
       </c>
@@ -17215,7 +17215,7 @@
       <c r="BN165" s="1"/>
       <c r="BO165" s="1"/>
     </row>
-    <row r="166" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>1126</v>
       </c>
@@ -17302,7 +17302,7 @@
       <c r="BN166" s="1"/>
       <c r="BO166" s="1"/>
     </row>
-    <row r="167" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>1127</v>
       </c>
@@ -17395,7 +17395,7 @@
       <c r="BN167" s="1"/>
       <c r="BO167" s="1"/>
     </row>
-    <row r="168" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>1128</v>
       </c>
@@ -17488,7 +17488,7 @@
       <c r="BN168" s="1"/>
       <c r="BO168" s="1"/>
     </row>
-    <row r="169" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>1129</v>
       </c>
@@ -17583,7 +17583,7 @@
       <c r="BN169" s="1"/>
       <c r="BO169" s="1"/>
     </row>
-    <row r="170" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>1130</v>
       </c>
@@ -17674,7 +17674,7 @@
       <c r="BN170" s="1"/>
       <c r="BO170" s="1"/>
     </row>
-    <row r="171" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>1131</v>
       </c>
@@ -17763,7 +17763,7 @@
       <c r="BN171" s="1"/>
       <c r="BO171" s="1"/>
     </row>
-    <row r="172" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>1132</v>
       </c>
@@ -17852,7 +17852,7 @@
       <c r="BN172" s="1"/>
       <c r="BO172" s="1"/>
     </row>
-    <row r="173" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>1133</v>
       </c>
@@ -17941,7 +17941,7 @@
       <c r="BN173" s="1"/>
       <c r="BO173" s="1"/>
     </row>
-    <row r="174" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>1134</v>
       </c>
@@ -18030,7 +18030,7 @@
       <c r="BN174" s="1"/>
       <c r="BO174" s="1"/>
     </row>
-    <row r="175" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>1135</v>
       </c>
@@ -18121,7 +18121,7 @@
       <c r="BN175" s="1"/>
       <c r="BO175" s="1"/>
     </row>
-    <row r="176" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>1136</v>
       </c>
@@ -18210,7 +18210,7 @@
       <c r="BN176" s="1"/>
       <c r="BO176" s="1"/>
     </row>
-    <row r="177" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>1137</v>
       </c>
@@ -18299,7 +18299,7 @@
       <c r="BN177" s="1"/>
       <c r="BO177" s="1"/>
     </row>
-    <row r="178" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>1138</v>
       </c>
@@ -18388,7 +18388,7 @@
       <c r="BN178" s="1"/>
       <c r="BO178" s="1"/>
     </row>
-    <row r="179" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>1139</v>
       </c>
@@ -18477,7 +18477,7 @@
       <c r="BN179" s="1"/>
       <c r="BO179" s="1"/>
     </row>
-    <row r="180" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>1140</v>
       </c>
@@ -18564,7 +18564,7 @@
       <c r="BN180" s="1"/>
       <c r="BO180" s="1"/>
     </row>
-    <row r="181" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>1141</v>
       </c>
@@ -18651,7 +18651,7 @@
       <c r="BN181" s="1"/>
       <c r="BO181" s="1"/>
     </row>
-    <row r="182" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>1142</v>
       </c>
@@ -18740,7 +18740,7 @@
       <c r="BN182" s="1"/>
       <c r="BO182" s="1"/>
     </row>
-    <row r="183" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>1143</v>
       </c>
@@ -18827,7 +18827,7 @@
       <c r="BN183" s="1"/>
       <c r="BO183" s="1"/>
     </row>
-    <row r="184" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>1144</v>
       </c>
@@ -18914,7 +18914,7 @@
       <c r="BN184" s="1"/>
       <c r="BO184" s="1"/>
     </row>
-    <row r="185" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>1145</v>
       </c>
@@ -19005,7 +19005,7 @@
       <c r="BN185" s="1"/>
       <c r="BO185" s="1"/>
     </row>
-    <row r="186" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>1146</v>
       </c>
@@ -19098,7 +19098,7 @@
       <c r="BN186" s="1"/>
       <c r="BO186" s="1"/>
     </row>
-    <row r="187" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>1147</v>
       </c>
@@ -19185,7 +19185,7 @@
       <c r="BN187" s="1"/>
       <c r="BO187" s="1"/>
     </row>
-    <row r="188" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>1148</v>
       </c>
@@ -19278,7 +19278,7 @@
       <c r="BN188" s="1"/>
       <c r="BO188" s="1"/>
     </row>
-    <row r="189" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>1149</v>
       </c>
@@ -19365,7 +19365,7 @@
       <c r="BN189" s="1"/>
       <c r="BO189" s="1"/>
     </row>
-    <row r="190" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>1150</v>
       </c>
@@ -19456,7 +19456,7 @@
       <c r="BN190" s="1"/>
       <c r="BO190" s="1"/>
     </row>
-    <row r="191" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>1151</v>
       </c>
@@ -19543,7 +19543,7 @@
       <c r="BN191" s="1"/>
       <c r="BO191" s="1"/>
     </row>
-    <row r="192" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>1152</v>
       </c>
@@ -19630,7 +19630,7 @@
       <c r="BN192" s="1"/>
       <c r="BO192" s="1"/>
     </row>
-    <row r="193" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>1153</v>
       </c>
@@ -19715,7 +19715,7 @@
       <c r="BN193" s="1"/>
       <c r="BO193" s="1"/>
     </row>
-    <row r="194" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>1154</v>
       </c>
@@ -19806,7 +19806,7 @@
       <c r="BN194" s="1"/>
       <c r="BO194" s="1"/>
     </row>
-    <row r="195" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>1155</v>
       </c>
@@ -19893,7 +19893,7 @@
       <c r="BN195" s="1"/>
       <c r="BO195" s="1"/>
     </row>
-    <row r="196" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>1156</v>
       </c>
@@ -19980,7 +19980,7 @@
       <c r="BN196" s="1"/>
       <c r="BO196" s="1"/>
     </row>
-    <row r="197" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>1157</v>
       </c>
@@ -20067,7 +20067,7 @@
       <c r="BN197" s="1"/>
       <c r="BO197" s="1"/>
     </row>
-    <row r="198" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:67" x14ac:dyDescent="0.45">
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
@@ -20075,7 +20075,7 @@
       <c r="K198" s="3"/>
       <c r="L198" s="3"/>
     </row>
-    <row r="199" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:67" x14ac:dyDescent="0.45">
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
@@ -20083,7 +20083,7 @@
       <c r="K199" s="3"/>
       <c r="L199" s="3"/>
     </row>
-    <row r="200" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:67" x14ac:dyDescent="0.45">
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
@@ -20091,7 +20091,7 @@
       <c r="K200" s="3"/>
       <c r="L200" s="3"/>
     </row>
-    <row r="201" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:67" x14ac:dyDescent="0.45">
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
@@ -20099,7 +20099,7 @@
       <c r="K201" s="3"/>
       <c r="L201" s="3"/>
     </row>
-    <row r="202" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:67" x14ac:dyDescent="0.45">
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
       <c r="H202" s="3"/>
@@ -20107,7 +20107,7 @@
       <c r="K202" s="3"/>
       <c r="L202" s="3"/>
     </row>
-    <row r="203" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:67" x14ac:dyDescent="0.45">
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
@@ -20115,7 +20115,7 @@
       <c r="K203" s="3"/>
       <c r="L203" s="3"/>
     </row>
-    <row r="204" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:67" x14ac:dyDescent="0.45">
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
@@ -20123,7 +20123,7 @@
       <c r="K204" s="3"/>
       <c r="L204" s="3"/>
     </row>
-    <row r="205" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:67" x14ac:dyDescent="0.45">
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
@@ -20131,7 +20131,7 @@
       <c r="K205" s="3"/>
       <c r="L205" s="3"/>
     </row>
-    <row r="206" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:67" x14ac:dyDescent="0.45">
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
@@ -20139,7 +20139,7 @@
       <c r="K206" s="3"/>
       <c r="L206" s="3"/>
     </row>
-    <row r="207" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:67" x14ac:dyDescent="0.45">
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
@@ -20147,7 +20147,7 @@
       <c r="K207" s="3"/>
       <c r="L207" s="3"/>
     </row>
-    <row r="208" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:67" x14ac:dyDescent="0.45">
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
@@ -20155,7 +20155,7 @@
       <c r="K208" s="3"/>
       <c r="L208" s="3"/>
     </row>
-    <row r="209" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
@@ -20163,7 +20163,7 @@
       <c r="K209" s="3"/>
       <c r="L209" s="3"/>
     </row>
-    <row r="210" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
@@ -20171,7 +20171,7 @@
       <c r="K210" s="3"/>
       <c r="L210" s="3"/>
     </row>
-    <row r="211" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
@@ -20179,7 +20179,7 @@
       <c r="K211" s="3"/>
       <c r="L211" s="3"/>
     </row>
-    <row r="212" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
       <c r="H212" s="3"/>
@@ -20187,7 +20187,7 @@
       <c r="K212" s="3"/>
       <c r="L212" s="3"/>
     </row>
-    <row r="213" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
@@ -20195,7 +20195,7 @@
       <c r="K213" s="3"/>
       <c r="L213" s="3"/>
     </row>
-    <row r="214" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
       <c r="H214" s="3"/>
@@ -20203,7 +20203,7 @@
       <c r="K214" s="3"/>
       <c r="L214" s="3"/>
     </row>
-    <row r="215" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
       <c r="H215" s="3"/>
@@ -20211,7 +20211,7 @@
       <c r="K215" s="3"/>
       <c r="L215" s="3"/>
     </row>
-    <row r="216" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
       <c r="H216" s="3"/>
@@ -20219,7 +20219,7 @@
       <c r="K216" s="3"/>
       <c r="L216" s="3"/>
     </row>
-    <row r="217" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
       <c r="H217" s="3"/>
@@ -20227,7 +20227,7 @@
       <c r="K217" s="3"/>
       <c r="L217" s="3"/>
     </row>
-    <row r="218" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
       <c r="H218" s="3"/>
@@ -20235,7 +20235,7 @@
       <c r="K218" s="3"/>
       <c r="L218" s="3"/>
     </row>
-    <row r="219" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
       <c r="H219" s="3"/>
@@ -20243,7 +20243,7 @@
       <c r="K219" s="3"/>
       <c r="L219" s="3"/>
     </row>
-    <row r="220" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
       <c r="H220" s="3"/>
@@ -20251,7 +20251,7 @@
       <c r="K220" s="3"/>
       <c r="L220" s="3"/>
     </row>
-    <row r="221" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
       <c r="H221" s="3"/>
@@ -20259,7 +20259,7 @@
       <c r="K221" s="3"/>
       <c r="L221" s="3"/>
     </row>
-    <row r="222" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
       <c r="H222" s="3"/>
@@ -20267,7 +20267,7 @@
       <c r="K222" s="3"/>
       <c r="L222" s="3"/>
     </row>
-    <row r="223" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
       <c r="H223" s="3"/>
@@ -20275,7 +20275,7 @@
       <c r="K223" s="3"/>
       <c r="L223" s="3"/>
     </row>
-    <row r="224" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
       <c r="H224" s="3"/>
@@ -20283,7 +20283,7 @@
       <c r="K224" s="3"/>
       <c r="L224" s="3"/>
     </row>
-    <row r="225" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="225" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
       <c r="H225" s="3"/>
@@ -20291,7 +20291,7 @@
       <c r="K225" s="3"/>
       <c r="L225" s="3"/>
     </row>
-    <row r="226" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="226" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
       <c r="H226" s="3"/>
@@ -20299,7 +20299,7 @@
       <c r="K226" s="3"/>
       <c r="L226" s="3"/>
     </row>
-    <row r="227" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="227" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
       <c r="H227" s="3"/>
@@ -20307,7 +20307,7 @@
       <c r="K227" s="3"/>
       <c r="L227" s="3"/>
     </row>
-    <row r="228" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="228" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
       <c r="H228" s="3"/>
@@ -20315,7 +20315,7 @@
       <c r="K228" s="3"/>
       <c r="L228" s="3"/>
     </row>
-    <row r="229" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="229" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
       <c r="H229" s="3"/>
@@ -20323,7 +20323,7 @@
       <c r="K229" s="3"/>
       <c r="L229" s="3"/>
     </row>
-    <row r="230" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="230" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
       <c r="H230" s="3"/>
@@ -20331,7 +20331,7 @@
       <c r="K230" s="3"/>
       <c r="L230" s="3"/>
     </row>
-    <row r="231" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="231" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F231" s="3"/>
       <c r="G231" s="3"/>
       <c r="H231" s="3"/>
@@ -20339,7 +20339,7 @@
       <c r="K231" s="3"/>
       <c r="L231" s="3"/>
     </row>
-    <row r="232" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="232" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
       <c r="H232" s="3"/>
@@ -20347,7 +20347,7 @@
       <c r="K232" s="3"/>
       <c r="L232" s="3"/>
     </row>
-    <row r="233" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="233" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
       <c r="H233" s="3"/>
@@ -20355,7 +20355,7 @@
       <c r="K233" s="3"/>
       <c r="L233" s="3"/>
     </row>
-    <row r="234" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="234" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
       <c r="H234" s="3"/>
@@ -20363,7 +20363,7 @@
       <c r="K234" s="3"/>
       <c r="L234" s="3"/>
     </row>
-    <row r="235" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="235" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>
       <c r="H235" s="3"/>
@@ -20371,7 +20371,7 @@
       <c r="K235" s="3"/>
       <c r="L235" s="3"/>
     </row>
-    <row r="236" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="236" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F236" s="3"/>
       <c r="G236" s="3"/>
       <c r="H236" s="3"/>
@@ -20379,7 +20379,7 @@
       <c r="K236" s="3"/>
       <c r="L236" s="3"/>
     </row>
-    <row r="237" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="237" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F237" s="3"/>
       <c r="G237" s="3"/>
       <c r="H237" s="3"/>
@@ -20387,7 +20387,7 @@
       <c r="K237" s="3"/>
       <c r="L237" s="3"/>
     </row>
-    <row r="238" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="238" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F238" s="3"/>
       <c r="G238" s="3"/>
       <c r="H238" s="3"/>
@@ -20395,7 +20395,7 @@
       <c r="K238" s="3"/>
       <c r="L238" s="3"/>
     </row>
-    <row r="239" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="239" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F239" s="3"/>
       <c r="G239" s="3"/>
       <c r="H239" s="3"/>
@@ -20403,7 +20403,7 @@
       <c r="K239" s="3"/>
       <c r="L239" s="3"/>
     </row>
-    <row r="240" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="240" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F240" s="3"/>
       <c r="G240" s="3"/>
       <c r="H240" s="3"/>
@@ -20411,7 +20411,7 @@
       <c r="K240" s="3"/>
       <c r="L240" s="3"/>
     </row>
-    <row r="241" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="241" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F241" s="3"/>
       <c r="G241" s="3"/>
       <c r="H241" s="3"/>
@@ -20419,7 +20419,7 @@
       <c r="K241" s="3"/>
       <c r="L241" s="3"/>
     </row>
-    <row r="242" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="242" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F242" s="3"/>
       <c r="G242" s="3"/>
       <c r="H242" s="3"/>
@@ -20427,7 +20427,7 @@
       <c r="K242" s="3"/>
       <c r="L242" s="3"/>
     </row>
-    <row r="243" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="243" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F243" s="3"/>
       <c r="G243" s="3"/>
       <c r="H243" s="3"/>
@@ -20435,7 +20435,7 @@
       <c r="K243" s="3"/>
       <c r="L243" s="3"/>
     </row>
-    <row r="244" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="244" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F244" s="3"/>
       <c r="G244" s="3"/>
       <c r="H244" s="3"/>
@@ -20443,7 +20443,7 @@
       <c r="K244" s="3"/>
       <c r="L244" s="3"/>
     </row>
-    <row r="245" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="245" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F245" s="3"/>
       <c r="G245" s="3"/>
       <c r="H245" s="3"/>
@@ -20451,7 +20451,7 @@
       <c r="K245" s="3"/>
       <c r="L245" s="3"/>
     </row>
-    <row r="246" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="246" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F246" s="3"/>
       <c r="G246" s="3"/>
       <c r="H246" s="3"/>
@@ -20459,7 +20459,7 @@
       <c r="K246" s="3"/>
       <c r="L246" s="3"/>
     </row>
-    <row r="247" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="247" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F247" s="3"/>
       <c r="G247" s="3"/>
       <c r="H247" s="3"/>
@@ -20467,7 +20467,7 @@
       <c r="K247" s="3"/>
       <c r="L247" s="3"/>
     </row>
-    <row r="248" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="248" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F248" s="3"/>
       <c r="G248" s="3"/>
       <c r="H248" s="3"/>
@@ -20475,7 +20475,7 @@
       <c r="K248" s="3"/>
       <c r="L248" s="3"/>
     </row>
-    <row r="249" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="249" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F249" s="3"/>
       <c r="G249" s="3"/>
       <c r="H249" s="3"/>
@@ -20483,7 +20483,7 @@
       <c r="K249" s="3"/>
       <c r="L249" s="3"/>
     </row>
-    <row r="250" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="250" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F250" s="3"/>
       <c r="G250" s="3"/>
       <c r="H250" s="3"/>
@@ -20491,7 +20491,7 @@
       <c r="K250" s="3"/>
       <c r="L250" s="3"/>
     </row>
-    <row r="251" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="251" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
       <c r="H251" s="3"/>
@@ -20499,7 +20499,7 @@
       <c r="K251" s="3"/>
       <c r="L251" s="3"/>
     </row>
-    <row r="252" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="252" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F252" s="3"/>
       <c r="G252" s="3"/>
       <c r="H252" s="3"/>
@@ -20507,7 +20507,7 @@
       <c r="K252" s="3"/>
       <c r="L252" s="3"/>
     </row>
-    <row r="253" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="253" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F253" s="3"/>
       <c r="G253" s="3"/>
       <c r="H253" s="3"/>
@@ -20515,7 +20515,7 @@
       <c r="K253" s="3"/>
       <c r="L253" s="3"/>
     </row>
-    <row r="254" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="254" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F254" s="3"/>
       <c r="G254" s="3"/>
       <c r="H254" s="3"/>
@@ -20523,7 +20523,7 @@
       <c r="K254" s="3"/>
       <c r="L254" s="3"/>
     </row>
-    <row r="255" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="255" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F255" s="3"/>
       <c r="G255" s="3"/>
       <c r="H255" s="3"/>
@@ -20531,7 +20531,7 @@
       <c r="K255" s="3"/>
       <c r="L255" s="3"/>
     </row>
-    <row r="256" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="256" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
       <c r="H256" s="3"/>
@@ -20539,7 +20539,7 @@
       <c r="K256" s="3"/>
       <c r="L256" s="3"/>
     </row>
-    <row r="257" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="257" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
       <c r="H257" s="3"/>
@@ -20547,7 +20547,7 @@
       <c r="K257" s="3"/>
       <c r="L257" s="3"/>
     </row>
-    <row r="258" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="258" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F258" s="3"/>
       <c r="G258" s="3"/>
       <c r="H258" s="3"/>
@@ -20555,7 +20555,7 @@
       <c r="K258" s="3"/>
       <c r="L258" s="3"/>
     </row>
-    <row r="259" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="259" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F259" s="3"/>
       <c r="G259" s="3"/>
       <c r="H259" s="3"/>
@@ -20563,7 +20563,7 @@
       <c r="K259" s="3"/>
       <c r="L259" s="3"/>
     </row>
-    <row r="260" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="260" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F260" s="3"/>
       <c r="G260" s="3"/>
       <c r="H260" s="3"/>
@@ -20571,7 +20571,7 @@
       <c r="K260" s="3"/>
       <c r="L260" s="3"/>
     </row>
-    <row r="261" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="261" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F261" s="3"/>
       <c r="G261" s="3"/>
       <c r="H261" s="3"/>
@@ -20579,7 +20579,7 @@
       <c r="K261" s="3"/>
       <c r="L261" s="3"/>
     </row>
-    <row r="262" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="262" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F262" s="3"/>
       <c r="G262" s="3"/>
       <c r="H262" s="3"/>
@@ -20587,7 +20587,7 @@
       <c r="K262" s="3"/>
       <c r="L262" s="3"/>
     </row>
-    <row r="263" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="263" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F263" s="3"/>
       <c r="G263" s="3"/>
       <c r="H263" s="3"/>
@@ -20595,7 +20595,7 @@
       <c r="K263" s="3"/>
       <c r="L263" s="3"/>
     </row>
-    <row r="264" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="264" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F264" s="3"/>
       <c r="G264" s="3"/>
       <c r="H264" s="3"/>
@@ -20603,7 +20603,7 @@
       <c r="K264" s="3"/>
       <c r="L264" s="3"/>
     </row>
-    <row r="265" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="265" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F265" s="3"/>
       <c r="G265" s="3"/>
       <c r="H265" s="3"/>
@@ -20611,7 +20611,7 @@
       <c r="K265" s="3"/>
       <c r="L265" s="3"/>
     </row>
-    <row r="266" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="266" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F266" s="3"/>
       <c r="G266" s="3"/>
       <c r="H266" s="3"/>
@@ -20619,7 +20619,7 @@
       <c r="K266" s="3"/>
       <c r="L266" s="3"/>
     </row>
-    <row r="267" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="267" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F267" s="3"/>
       <c r="G267" s="3"/>
       <c r="H267" s="3"/>
@@ -20627,7 +20627,7 @@
       <c r="K267" s="3"/>
       <c r="L267" s="3"/>
     </row>
-    <row r="268" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="268" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F268" s="3"/>
       <c r="G268" s="3"/>
       <c r="H268" s="3"/>
@@ -20635,7 +20635,7 @@
       <c r="K268" s="3"/>
       <c r="L268" s="3"/>
     </row>
-    <row r="269" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="269" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F269" s="3"/>
       <c r="G269" s="3"/>
       <c r="H269" s="3"/>
@@ -20643,7 +20643,7 @@
       <c r="K269" s="3"/>
       <c r="L269" s="3"/>
     </row>
-    <row r="270" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="270" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F270" s="3"/>
       <c r="G270" s="3"/>
       <c r="H270" s="3"/>
@@ -20651,7 +20651,7 @@
       <c r="K270" s="3"/>
       <c r="L270" s="3"/>
     </row>
-    <row r="271" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="271" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F271" s="3"/>
       <c r="G271" s="3"/>
       <c r="H271" s="3"/>
@@ -20659,7 +20659,7 @@
       <c r="K271" s="3"/>
       <c r="L271" s="3"/>
     </row>
-    <row r="272" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="272" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F272" s="3"/>
       <c r="G272" s="3"/>
       <c r="H272" s="3"/>
@@ -20667,7 +20667,7 @@
       <c r="K272" s="3"/>
       <c r="L272" s="3"/>
     </row>
-    <row r="273" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="273" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F273" s="3"/>
       <c r="G273" s="3"/>
       <c r="H273" s="3"/>
@@ -20675,7 +20675,7 @@
       <c r="K273" s="3"/>
       <c r="L273" s="3"/>
     </row>
-    <row r="274" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="274" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F274" s="3"/>
       <c r="G274" s="3"/>
       <c r="H274" s="3"/>
@@ -20683,7 +20683,7 @@
       <c r="K274" s="3"/>
       <c r="L274" s="3"/>
     </row>
-    <row r="275" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="275" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F275" s="3"/>
       <c r="G275" s="3"/>
       <c r="H275" s="3"/>
@@ -20691,7 +20691,7 @@
       <c r="K275" s="3"/>
       <c r="L275" s="3"/>
     </row>
-    <row r="276" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="276" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F276" s="3"/>
       <c r="G276" s="3"/>
       <c r="H276" s="3"/>
@@ -20699,7 +20699,7 @@
       <c r="K276" s="3"/>
       <c r="L276" s="3"/>
     </row>
-    <row r="277" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="277" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F277" s="3"/>
       <c r="G277" s="3"/>
       <c r="H277" s="3"/>
@@ -20707,7 +20707,7 @@
       <c r="K277" s="3"/>
       <c r="L277" s="3"/>
     </row>
-    <row r="278" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="278" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F278" s="3"/>
       <c r="G278" s="3"/>
       <c r="H278" s="3"/>
@@ -20715,7 +20715,7 @@
       <c r="K278" s="3"/>
       <c r="L278" s="3"/>
     </row>
-    <row r="279" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="279" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F279" s="3"/>
       <c r="G279" s="3"/>
       <c r="H279" s="3"/>
@@ -20723,7 +20723,7 @@
       <c r="K279" s="3"/>
       <c r="L279" s="3"/>
     </row>
-    <row r="280" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="280" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F280" s="3"/>
       <c r="G280" s="3"/>
       <c r="H280" s="3"/>
@@ -20731,7 +20731,7 @@
       <c r="K280" s="3"/>
       <c r="L280" s="3"/>
     </row>
-    <row r="281" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="281" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F281" s="3"/>
       <c r="G281" s="3"/>
       <c r="H281" s="3"/>
@@ -20739,7 +20739,7 @@
       <c r="K281" s="3"/>
       <c r="L281" s="3"/>
     </row>
-    <row r="282" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="282" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F282" s="3"/>
       <c r="G282" s="3"/>
       <c r="H282" s="3"/>
@@ -20747,7 +20747,7 @@
       <c r="K282" s="3"/>
       <c r="L282" s="3"/>
     </row>
-    <row r="283" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="283" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F283" s="3"/>
       <c r="G283" s="3"/>
       <c r="H283" s="3"/>
@@ -20755,7 +20755,7 @@
       <c r="K283" s="3"/>
       <c r="L283" s="3"/>
     </row>
-    <row r="284" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="284" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F284" s="3"/>
       <c r="G284" s="3"/>
       <c r="H284" s="3"/>
@@ -20763,7 +20763,7 @@
       <c r="K284" s="3"/>
       <c r="L284" s="3"/>
     </row>
-    <row r="285" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="285" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F285" s="3"/>
       <c r="G285" s="3"/>
       <c r="H285" s="3"/>
@@ -20771,7 +20771,7 @@
       <c r="K285" s="3"/>
       <c r="L285" s="3"/>
     </row>
-    <row r="286" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="286" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F286" s="3"/>
       <c r="G286" s="3"/>
       <c r="H286" s="3"/>
@@ -20779,7 +20779,7 @@
       <c r="K286" s="3"/>
       <c r="L286" s="3"/>
     </row>
-    <row r="287" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="287" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F287" s="3"/>
       <c r="G287" s="3"/>
       <c r="H287" s="3"/>
@@ -20787,7 +20787,7 @@
       <c r="K287" s="3"/>
       <c r="L287" s="3"/>
     </row>
-    <row r="288" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="288" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F288" s="3"/>
       <c r="G288" s="3"/>
       <c r="H288" s="3"/>
@@ -20795,7 +20795,7 @@
       <c r="K288" s="3"/>
       <c r="L288" s="3"/>
     </row>
-    <row r="289" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="289" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F289" s="3"/>
       <c r="G289" s="3"/>
       <c r="H289" s="3"/>
@@ -20803,7 +20803,7 @@
       <c r="K289" s="3"/>
       <c r="L289" s="3"/>
     </row>
-    <row r="290" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="290" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F290" s="3"/>
       <c r="G290" s="3"/>
       <c r="H290" s="3"/>
@@ -20811,7 +20811,7 @@
       <c r="K290" s="3"/>
       <c r="L290" s="3"/>
     </row>
-    <row r="291" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="291" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F291" s="3"/>
       <c r="G291" s="3"/>
       <c r="H291" s="3"/>
@@ -20819,7 +20819,7 @@
       <c r="K291" s="3"/>
       <c r="L291" s="3"/>
     </row>
-    <row r="292" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="292" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F292" s="3"/>
       <c r="G292" s="3"/>
       <c r="H292" s="3"/>
@@ -20827,7 +20827,7 @@
       <c r="K292" s="3"/>
       <c r="L292" s="3"/>
     </row>
-    <row r="293" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="293" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F293" s="3"/>
       <c r="G293" s="3"/>
       <c r="H293" s="3"/>
@@ -20835,7 +20835,7 @@
       <c r="K293" s="3"/>
       <c r="L293" s="3"/>
     </row>
-    <row r="294" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="294" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F294" s="3"/>
       <c r="G294" s="3"/>
       <c r="H294" s="3"/>
@@ -20843,7 +20843,7 @@
       <c r="K294" s="3"/>
       <c r="L294" s="3"/>
     </row>
-    <row r="295" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="295" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F295" s="3"/>
       <c r="G295" s="3"/>
       <c r="H295" s="3"/>
@@ -20851,7 +20851,7 @@
       <c r="K295" s="3"/>
       <c r="L295" s="3"/>
     </row>
-    <row r="296" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="296" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F296" s="3"/>
       <c r="G296" s="3"/>
       <c r="H296" s="3"/>
@@ -20859,7 +20859,7 @@
       <c r="K296" s="3"/>
       <c r="L296" s="3"/>
     </row>
-    <row r="297" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="297" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F297" s="3"/>
       <c r="G297" s="3"/>
       <c r="H297" s="3"/>
@@ -20867,7 +20867,7 @@
       <c r="K297" s="3"/>
       <c r="L297" s="3"/>
     </row>
-    <row r="298" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="298" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F298" s="3"/>
       <c r="G298" s="3"/>
       <c r="H298" s="3"/>
@@ -20875,7 +20875,7 @@
       <c r="K298" s="3"/>
       <c r="L298" s="3"/>
     </row>
-    <row r="299" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="299" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F299" s="3"/>
       <c r="G299" s="3"/>
       <c r="H299" s="3"/>
@@ -20883,7 +20883,7 @@
       <c r="K299" s="3"/>
       <c r="L299" s="3"/>
     </row>
-    <row r="300" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="300" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F300" s="3"/>
       <c r="G300" s="3"/>
       <c r="H300" s="3"/>
@@ -20891,7 +20891,7 @@
       <c r="K300" s="3"/>
       <c r="L300" s="3"/>
     </row>
-    <row r="301" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="301" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F301" s="3"/>
       <c r="G301" s="3"/>
       <c r="H301" s="3"/>
@@ -20899,7 +20899,7 @@
       <c r="K301" s="3"/>
       <c r="L301" s="3"/>
     </row>
-    <row r="302" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="302" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F302" s="3"/>
       <c r="G302" s="3"/>
       <c r="H302" s="3"/>
@@ -20907,7 +20907,7 @@
       <c r="K302" s="3"/>
       <c r="L302" s="3"/>
     </row>
-    <row r="303" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="303" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F303" s="3"/>
       <c r="G303" s="3"/>
       <c r="H303" s="3"/>
@@ -20915,7 +20915,7 @@
       <c r="K303" s="3"/>
       <c r="L303" s="3"/>
     </row>
-    <row r="304" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="304" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F304" s="3"/>
       <c r="G304" s="3"/>
       <c r="H304" s="3"/>
@@ -20923,7 +20923,7 @@
       <c r="K304" s="3"/>
       <c r="L304" s="3"/>
     </row>
-    <row r="305" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="305" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F305" s="3"/>
       <c r="G305" s="3"/>
       <c r="H305" s="3"/>
@@ -20931,7 +20931,7 @@
       <c r="K305" s="3"/>
       <c r="L305" s="3"/>
     </row>
-    <row r="306" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="306" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F306" s="3"/>
       <c r="G306" s="3"/>
       <c r="H306" s="3"/>
@@ -20939,7 +20939,7 @@
       <c r="K306" s="3"/>
       <c r="L306" s="3"/>
     </row>
-    <row r="307" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="307" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F307" s="3"/>
       <c r="G307" s="3"/>
       <c r="H307" s="3"/>
@@ -20947,7 +20947,7 @@
       <c r="K307" s="3"/>
       <c r="L307" s="3"/>
     </row>
-    <row r="308" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="308" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F308" s="3"/>
       <c r="G308" s="3"/>
       <c r="H308" s="3"/>
@@ -20955,7 +20955,7 @@
       <c r="K308" s="3"/>
       <c r="L308" s="3"/>
     </row>
-    <row r="309" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="309" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F309" s="3"/>
       <c r="G309" s="3"/>
       <c r="H309" s="3"/>
@@ -20963,7 +20963,7 @@
       <c r="K309" s="3"/>
       <c r="L309" s="3"/>
     </row>
-    <row r="310" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="310" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F310" s="3"/>
       <c r="G310" s="3"/>
       <c r="H310" s="3"/>
@@ -20971,7 +20971,7 @@
       <c r="K310" s="3"/>
       <c r="L310" s="3"/>
     </row>
-    <row r="311" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="311" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F311" s="3"/>
       <c r="G311" s="3"/>
       <c r="H311" s="3"/>
@@ -20979,7 +20979,7 @@
       <c r="K311" s="3"/>
       <c r="L311" s="3"/>
     </row>
-    <row r="312" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="312" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F312" s="3"/>
       <c r="G312" s="3"/>
       <c r="H312" s="3"/>
@@ -20987,7 +20987,7 @@
       <c r="K312" s="3"/>
       <c r="L312" s="3"/>
     </row>
-    <row r="313" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="313" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F313" s="3"/>
       <c r="G313" s="3"/>
       <c r="H313" s="3"/>
@@ -20995,7 +20995,7 @@
       <c r="K313" s="3"/>
       <c r="L313" s="3"/>
     </row>
-    <row r="314" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="314" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F314" s="3"/>
       <c r="G314" s="3"/>
       <c r="H314" s="3"/>
@@ -21003,7 +21003,7 @@
       <c r="K314" s="3"/>
       <c r="L314" s="3"/>
     </row>
-    <row r="315" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="315" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F315" s="3"/>
       <c r="G315" s="3"/>
       <c r="H315" s="3"/>
@@ -21011,7 +21011,7 @@
       <c r="K315" s="3"/>
       <c r="L315" s="3"/>
     </row>
-    <row r="316" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="316" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F316" s="3"/>
       <c r="G316" s="3"/>
       <c r="H316" s="3"/>
@@ -21019,7 +21019,7 @@
       <c r="K316" s="3"/>
       <c r="L316" s="3"/>
     </row>
-    <row r="317" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="317" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F317" s="3"/>
       <c r="G317" s="3"/>
       <c r="H317" s="3"/>
@@ -21027,7 +21027,7 @@
       <c r="K317" s="3"/>
       <c r="L317" s="3"/>
     </row>
-    <row r="318" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="318" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F318" s="3"/>
       <c r="G318" s="3"/>
       <c r="H318" s="3"/>
@@ -21035,7 +21035,7 @@
       <c r="K318" s="3"/>
       <c r="L318" s="3"/>
     </row>
-    <row r="319" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="319" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F319" s="3"/>
       <c r="G319" s="3"/>
       <c r="H319" s="3"/>
@@ -21043,7 +21043,7 @@
       <c r="K319" s="3"/>
       <c r="L319" s="3"/>
     </row>
-    <row r="320" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="320" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F320" s="3"/>
       <c r="G320" s="3"/>
       <c r="H320" s="3"/>
@@ -21051,7 +21051,7 @@
       <c r="K320" s="3"/>
       <c r="L320" s="3"/>
     </row>
-    <row r="321" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="321" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F321" s="3"/>
       <c r="G321" s="3"/>
       <c r="H321" s="3"/>
@@ -21059,7 +21059,7 @@
       <c r="K321" s="3"/>
       <c r="L321" s="3"/>
     </row>
-    <row r="322" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="322" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F322" s="3"/>
       <c r="G322" s="3"/>
       <c r="H322" s="3"/>
@@ -21067,7 +21067,7 @@
       <c r="K322" s="3"/>
       <c r="L322" s="3"/>
     </row>
-    <row r="323" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="323" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F323" s="3"/>
       <c r="G323" s="3"/>
       <c r="H323" s="3"/>
@@ -21075,7 +21075,7 @@
       <c r="K323" s="3"/>
       <c r="L323" s="3"/>
     </row>
-    <row r="324" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="324" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F324" s="3"/>
       <c r="G324" s="3"/>
       <c r="H324" s="3"/>
@@ -21083,7 +21083,7 @@
       <c r="K324" s="3"/>
       <c r="L324" s="3"/>
     </row>
-    <row r="325" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="325" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F325" s="3"/>
       <c r="G325" s="3"/>
       <c r="H325" s="3"/>
@@ -21091,7 +21091,7 @@
       <c r="K325" s="3"/>
       <c r="L325" s="3"/>
     </row>
-    <row r="326" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="326" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F326" s="3"/>
       <c r="G326" s="3"/>
       <c r="H326" s="3"/>
@@ -21099,7 +21099,7 @@
       <c r="K326" s="3"/>
       <c r="L326" s="3"/>
     </row>
-    <row r="327" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="327" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F327" s="3"/>
       <c r="G327" s="3"/>
       <c r="H327" s="3"/>
@@ -21107,7 +21107,7 @@
       <c r="K327" s="3"/>
       <c r="L327" s="3"/>
     </row>
-    <row r="328" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="328" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F328" s="3"/>
       <c r="G328" s="3"/>
       <c r="H328" s="3"/>
@@ -21115,7 +21115,7 @@
       <c r="K328" s="3"/>
       <c r="L328" s="3"/>
     </row>
-    <row r="329" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="329" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F329" s="3"/>
       <c r="G329" s="3"/>
       <c r="H329" s="3"/>
@@ -21123,7 +21123,7 @@
       <c r="K329" s="3"/>
       <c r="L329" s="3"/>
     </row>
-    <row r="330" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="330" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F330" s="3"/>
       <c r="G330" s="3"/>
       <c r="H330" s="3"/>
@@ -21131,7 +21131,7 @@
       <c r="K330" s="3"/>
       <c r="L330" s="3"/>
     </row>
-    <row r="331" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="331" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F331" s="3"/>
       <c r="G331" s="3"/>
       <c r="H331" s="3"/>
@@ -21139,7 +21139,7 @@
       <c r="K331" s="3"/>
       <c r="L331" s="3"/>
     </row>
-    <row r="332" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="332" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
       <c r="H332" s="3"/>
@@ -21147,7 +21147,7 @@
       <c r="K332" s="3"/>
       <c r="L332" s="3"/>
     </row>
-    <row r="333" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="333" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F333" s="3"/>
       <c r="G333" s="3"/>
       <c r="H333" s="3"/>
@@ -21155,7 +21155,7 @@
       <c r="K333" s="3"/>
       <c r="L333" s="3"/>
     </row>
-    <row r="334" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="334" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F334" s="3"/>
       <c r="G334" s="3"/>
       <c r="H334" s="3"/>
@@ -21163,7 +21163,7 @@
       <c r="K334" s="3"/>
       <c r="L334" s="3"/>
     </row>
-    <row r="335" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="335" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F335" s="3"/>
       <c r="G335" s="3"/>
       <c r="H335" s="3"/>
@@ -21171,7 +21171,7 @@
       <c r="K335" s="3"/>
       <c r="L335" s="3"/>
     </row>
-    <row r="336" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="336" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F336" s="3"/>
       <c r="G336" s="3"/>
       <c r="H336" s="3"/>
@@ -21179,7 +21179,7 @@
       <c r="K336" s="3"/>
       <c r="L336" s="3"/>
     </row>
-    <row r="337" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="337" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F337" s="3"/>
       <c r="G337" s="3"/>
       <c r="H337" s="3"/>
@@ -21187,7 +21187,7 @@
       <c r="K337" s="3"/>
       <c r="L337" s="3"/>
     </row>
-    <row r="338" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="338" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F338" s="3"/>
       <c r="G338" s="3"/>
       <c r="H338" s="3"/>
@@ -21195,7 +21195,7 @@
       <c r="K338" s="3"/>
       <c r="L338" s="3"/>
     </row>
-    <row r="339" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="339" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F339" s="3"/>
       <c r="G339" s="3"/>
       <c r="H339" s="3"/>
@@ -21203,7 +21203,7 @@
       <c r="K339" s="3"/>
       <c r="L339" s="3"/>
     </row>
-    <row r="340" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="340" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F340" s="3"/>
       <c r="G340" s="3"/>
       <c r="H340" s="3"/>
@@ -21211,7 +21211,7 @@
       <c r="K340" s="3"/>
       <c r="L340" s="3"/>
     </row>
-    <row r="341" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="341" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F341" s="3"/>
       <c r="G341" s="3"/>
       <c r="H341" s="3"/>
@@ -21219,7 +21219,7 @@
       <c r="K341" s="3"/>
       <c r="L341" s="3"/>
     </row>
-    <row r="342" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="342" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F342" s="3"/>
       <c r="G342" s="3"/>
       <c r="H342" s="3"/>
@@ -21227,7 +21227,7 @@
       <c r="K342" s="3"/>
       <c r="L342" s="3"/>
     </row>
-    <row r="343" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="343" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F343" s="3"/>
       <c r="G343" s="3"/>
       <c r="H343" s="3"/>
@@ -21235,7 +21235,7 @@
       <c r="K343" s="3"/>
       <c r="L343" s="3"/>
     </row>
-    <row r="344" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="344" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F344" s="3"/>
       <c r="G344" s="3"/>
       <c r="H344" s="3"/>
@@ -21243,7 +21243,7 @@
       <c r="K344" s="3"/>
       <c r="L344" s="3"/>
     </row>
-    <row r="345" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="345" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F345" s="3"/>
       <c r="G345" s="3"/>
       <c r="H345" s="3"/>
@@ -21251,7 +21251,7 @@
       <c r="K345" s="3"/>
       <c r="L345" s="3"/>
     </row>
-    <row r="346" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="346" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F346" s="3"/>
       <c r="G346" s="3"/>
       <c r="H346" s="3"/>
@@ -21259,7 +21259,7 @@
       <c r="K346" s="3"/>
       <c r="L346" s="3"/>
     </row>
-    <row r="347" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="347" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F347" s="3"/>
       <c r="G347" s="3"/>
       <c r="H347" s="3"/>
@@ -21267,7 +21267,7 @@
       <c r="K347" s="3"/>
       <c r="L347" s="3"/>
     </row>
-    <row r="348" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="348" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F348" s="3"/>
       <c r="G348" s="3"/>
       <c r="H348" s="3"/>
@@ -21275,7 +21275,7 @@
       <c r="K348" s="3"/>
       <c r="L348" s="3"/>
     </row>
-    <row r="349" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="349" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F349" s="3"/>
       <c r="G349" s="3"/>
       <c r="H349" s="3"/>
@@ -21283,7 +21283,7 @@
       <c r="K349" s="3"/>
       <c r="L349" s="3"/>
     </row>
-    <row r="350" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="350" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F350" s="3"/>
       <c r="G350" s="3"/>
       <c r="H350" s="3"/>
@@ -21291,7 +21291,7 @@
       <c r="K350" s="3"/>
       <c r="L350" s="3"/>
     </row>
-    <row r="351" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="351" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F351" s="3"/>
       <c r="G351" s="3"/>
       <c r="H351" s="3"/>
@@ -21299,7 +21299,7 @@
       <c r="K351" s="3"/>
       <c r="L351" s="3"/>
     </row>
-    <row r="352" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="352" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F352" s="3"/>
       <c r="G352" s="3"/>
       <c r="H352" s="3"/>
@@ -21307,7 +21307,7 @@
       <c r="K352" s="3"/>
       <c r="L352" s="3"/>
     </row>
-    <row r="353" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="353" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F353" s="3"/>
       <c r="G353" s="3"/>
       <c r="H353" s="3"/>
@@ -21315,7 +21315,7 @@
       <c r="K353" s="3"/>
       <c r="L353" s="3"/>
     </row>
-    <row r="354" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="354" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F354" s="3"/>
       <c r="G354" s="3"/>
       <c r="H354" s="3"/>
@@ -21323,7 +21323,7 @@
       <c r="K354" s="3"/>
       <c r="L354" s="3"/>
     </row>
-    <row r="355" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="355" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F355" s="3"/>
       <c r="G355" s="3"/>
       <c r="H355" s="3"/>
@@ -21331,7 +21331,7 @@
       <c r="K355" s="3"/>
       <c r="L355" s="3"/>
     </row>
-    <row r="356" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="356" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F356" s="3"/>
       <c r="G356" s="3"/>
       <c r="H356" s="3"/>
@@ -21339,7 +21339,7 @@
       <c r="K356" s="3"/>
       <c r="L356" s="3"/>
     </row>
-    <row r="357" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="357" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F357" s="3"/>
       <c r="G357" s="3"/>
       <c r="H357" s="3"/>
@@ -21347,7 +21347,7 @@
       <c r="K357" s="3"/>
       <c r="L357" s="3"/>
     </row>
-    <row r="358" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="358" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F358" s="3"/>
       <c r="G358" s="3"/>
       <c r="H358" s="3"/>
@@ -21355,7 +21355,7 @@
       <c r="K358" s="3"/>
       <c r="L358" s="3"/>
     </row>
-    <row r="359" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="359" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F359" s="3"/>
       <c r="G359" s="3"/>
       <c r="H359" s="3"/>
@@ -21363,7 +21363,7 @@
       <c r="K359" s="3"/>
       <c r="L359" s="3"/>
     </row>
-    <row r="360" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="360" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F360" s="3"/>
       <c r="G360" s="3"/>
       <c r="H360" s="3"/>
@@ -21371,7 +21371,7 @@
       <c r="K360" s="3"/>
       <c r="L360" s="3"/>
     </row>
-    <row r="361" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="361" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F361" s="3"/>
       <c r="G361" s="3"/>
       <c r="H361" s="3"/>
@@ -21379,7 +21379,7 @@
       <c r="K361" s="3"/>
       <c r="L361" s="3"/>
     </row>
-    <row r="362" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="362" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F362" s="3"/>
       <c r="G362" s="3"/>
       <c r="H362" s="3"/>
@@ -21387,7 +21387,7 @@
       <c r="K362" s="3"/>
       <c r="L362" s="3"/>
     </row>
-    <row r="363" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="363" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F363" s="3"/>
       <c r="G363" s="3"/>
       <c r="H363" s="3"/>
@@ -21395,7 +21395,7 @@
       <c r="K363" s="3"/>
       <c r="L363" s="3"/>
     </row>
-    <row r="364" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="364" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F364" s="3"/>
       <c r="G364" s="3"/>
       <c r="H364" s="3"/>
@@ -21403,7 +21403,7 @@
       <c r="K364" s="3"/>
       <c r="L364" s="3"/>
     </row>
-    <row r="365" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="365" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F365" s="3"/>
       <c r="G365" s="3"/>
       <c r="H365" s="3"/>
@@ -21411,7 +21411,7 @@
       <c r="K365" s="3"/>
       <c r="L365" s="3"/>
     </row>
-    <row r="366" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="366" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F366" s="3"/>
       <c r="G366" s="3"/>
       <c r="H366" s="3"/>
@@ -21419,7 +21419,7 @@
       <c r="K366" s="3"/>
       <c r="L366" s="3"/>
     </row>
-    <row r="367" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="367" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F367" s="3"/>
       <c r="G367" s="3"/>
       <c r="H367" s="3"/>
@@ -21427,7 +21427,7 @@
       <c r="K367" s="3"/>
       <c r="L367" s="3"/>
     </row>
-    <row r="368" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="368" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F368" s="3"/>
       <c r="G368" s="3"/>
       <c r="H368" s="3"/>
@@ -21435,7 +21435,7 @@
       <c r="K368" s="3"/>
       <c r="L368" s="3"/>
     </row>
-    <row r="369" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="369" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F369" s="3"/>
       <c r="G369" s="3"/>
       <c r="H369" s="3"/>
@@ -21443,7 +21443,7 @@
       <c r="K369" s="3"/>
       <c r="L369" s="3"/>
     </row>
-    <row r="370" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="370" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F370" s="3"/>
       <c r="G370" s="3"/>
       <c r="H370" s="3"/>
@@ -21451,7 +21451,7 @@
       <c r="K370" s="3"/>
       <c r="L370" s="3"/>
     </row>
-    <row r="371" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="371" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F371" s="3"/>
       <c r="G371" s="3"/>
       <c r="H371" s="3"/>
@@ -21459,7 +21459,7 @@
       <c r="K371" s="3"/>
       <c r="L371" s="3"/>
     </row>
-    <row r="372" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="372" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F372" s="3"/>
       <c r="G372" s="3"/>
       <c r="H372" s="3"/>
@@ -21467,7 +21467,7 @@
       <c r="K372" s="3"/>
       <c r="L372" s="3"/>
     </row>
-    <row r="373" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="373" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F373" s="3"/>
       <c r="G373" s="3"/>
       <c r="H373" s="3"/>
@@ -21475,7 +21475,7 @@
       <c r="K373" s="3"/>
       <c r="L373" s="3"/>
     </row>
-    <row r="374" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="374" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F374" s="3"/>
       <c r="G374" s="3"/>
       <c r="H374" s="3"/>
@@ -21483,7 +21483,7 @@
       <c r="K374" s="3"/>
       <c r="L374" s="3"/>
     </row>
-    <row r="375" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="375" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F375" s="3"/>
       <c r="G375" s="3"/>
       <c r="H375" s="3"/>
@@ -21491,7 +21491,7 @@
       <c r="K375" s="3"/>
       <c r="L375" s="3"/>
     </row>
-    <row r="376" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="376" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F376" s="3"/>
       <c r="G376" s="3"/>
       <c r="H376" s="3"/>
@@ -21499,7 +21499,7 @@
       <c r="K376" s="3"/>
       <c r="L376" s="3"/>
     </row>
-    <row r="377" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="377" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F377" s="3"/>
       <c r="G377" s="3"/>
       <c r="H377" s="3"/>
@@ -21507,7 +21507,7 @@
       <c r="K377" s="3"/>
       <c r="L377" s="3"/>
     </row>
-    <row r="378" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="378" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F378" s="3"/>
       <c r="G378" s="3"/>
       <c r="H378" s="3"/>
@@ -21515,7 +21515,7 @@
       <c r="K378" s="3"/>
       <c r="L378" s="3"/>
     </row>
-    <row r="379" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="379" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F379" s="3"/>
       <c r="G379" s="3"/>
       <c r="H379" s="3"/>
@@ -21523,7 +21523,7 @@
       <c r="K379" s="3"/>
       <c r="L379" s="3"/>
     </row>
-    <row r="380" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="380" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F380" s="3"/>
       <c r="G380" s="3"/>
       <c r="H380" s="3"/>
@@ -21531,7 +21531,7 @@
       <c r="K380" s="3"/>
       <c r="L380" s="3"/>
     </row>
-    <row r="381" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="381" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F381" s="3"/>
       <c r="G381" s="3"/>
       <c r="H381" s="3"/>
@@ -21539,7 +21539,7 @@
       <c r="K381" s="3"/>
       <c r="L381" s="3"/>
     </row>
-    <row r="382" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="382" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F382" s="3"/>
       <c r="G382" s="3"/>
       <c r="H382" s="3"/>
@@ -21547,7 +21547,7 @@
       <c r="K382" s="3"/>
       <c r="L382" s="3"/>
     </row>
-    <row r="383" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="383" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F383" s="3"/>
       <c r="G383" s="3"/>
       <c r="H383" s="3"/>
@@ -21555,7 +21555,7 @@
       <c r="K383" s="3"/>
       <c r="L383" s="3"/>
     </row>
-    <row r="384" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="384" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F384" s="3"/>
       <c r="G384" s="3"/>
       <c r="H384" s="3"/>
@@ -21563,7 +21563,7 @@
       <c r="K384" s="3"/>
       <c r="L384" s="3"/>
     </row>
-    <row r="385" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="385" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F385" s="3"/>
       <c r="G385" s="3"/>
       <c r="H385" s="3"/>
@@ -21571,7 +21571,7 @@
       <c r="K385" s="3"/>
       <c r="L385" s="3"/>
     </row>
-    <row r="386" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="386" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F386" s="3"/>
       <c r="G386" s="3"/>
       <c r="H386" s="3"/>
@@ -21579,7 +21579,7 @@
       <c r="K386" s="3"/>
       <c r="L386" s="3"/>
     </row>
-    <row r="387" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="387" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F387" s="3"/>
       <c r="G387" s="3"/>
       <c r="H387" s="3"/>
@@ -21587,7 +21587,7 @@
       <c r="K387" s="3"/>
       <c r="L387" s="3"/>
     </row>
-    <row r="388" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="388" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F388" s="3"/>
       <c r="G388" s="3"/>
       <c r="H388" s="3"/>
@@ -21595,7 +21595,7 @@
       <c r="K388" s="3"/>
       <c r="L388" s="3"/>
     </row>
-    <row r="389" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="389" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F389" s="3"/>
       <c r="G389" s="3"/>
       <c r="H389" s="3"/>
@@ -21603,7 +21603,7 @@
       <c r="K389" s="3"/>
       <c r="L389" s="3"/>
     </row>
-    <row r="390" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="390" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F390" s="3"/>
       <c r="G390" s="3"/>
       <c r="H390" s="3"/>
@@ -21611,7 +21611,7 @@
       <c r="K390" s="3"/>
       <c r="L390" s="3"/>
     </row>
-    <row r="391" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="391" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F391" s="3"/>
       <c r="G391" s="3"/>
       <c r="H391" s="3"/>
@@ -21619,7 +21619,7 @@
       <c r="K391" s="3"/>
       <c r="L391" s="3"/>
     </row>
-    <row r="392" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="392" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F392" s="3"/>
       <c r="G392" s="3"/>
       <c r="H392" s="3"/>
@@ -21627,7 +21627,7 @@
       <c r="K392" s="3"/>
       <c r="L392" s="3"/>
     </row>
-    <row r="393" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="393" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F393" s="3"/>
       <c r="G393" s="3"/>
       <c r="H393" s="3"/>
@@ -21635,7 +21635,7 @@
       <c r="K393" s="3"/>
       <c r="L393" s="3"/>
     </row>
-    <row r="394" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="394" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F394" s="3"/>
       <c r="G394" s="3"/>
       <c r="H394" s="3"/>
@@ -21643,7 +21643,7 @@
       <c r="K394" s="3"/>
       <c r="L394" s="3"/>
     </row>
-    <row r="395" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="395" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F395" s="3"/>
       <c r="G395" s="3"/>
       <c r="H395" s="3"/>
@@ -21651,7 +21651,7 @@
       <c r="K395" s="3"/>
       <c r="L395" s="3"/>
     </row>
-    <row r="396" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="396" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F396" s="3"/>
       <c r="G396" s="3"/>
       <c r="H396" s="3"/>
@@ -21659,7 +21659,7 @@
       <c r="K396" s="3"/>
       <c r="L396" s="3"/>
     </row>
-    <row r="397" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="397" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F397" s="3"/>
       <c r="G397" s="3"/>
       <c r="H397" s="3"/>
@@ -21667,7 +21667,7 @@
       <c r="K397" s="3"/>
       <c r="L397" s="3"/>
     </row>
-    <row r="398" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="398" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F398" s="3"/>
       <c r="G398" s="3"/>
       <c r="H398" s="3"/>
@@ -21675,7 +21675,7 @@
       <c r="K398" s="3"/>
       <c r="L398" s="3"/>
     </row>
-    <row r="399" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="399" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F399" s="3"/>
       <c r="G399" s="3"/>
       <c r="H399" s="3"/>
@@ -21683,7 +21683,7 @@
       <c r="K399" s="3"/>
       <c r="L399" s="3"/>
     </row>
-    <row r="400" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="400" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F400" s="3"/>
       <c r="G400" s="3"/>
       <c r="H400" s="3"/>
@@ -21691,7 +21691,7 @@
       <c r="K400" s="3"/>
       <c r="L400" s="3"/>
     </row>
-    <row r="401" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="401" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F401" s="3"/>
       <c r="G401" s="3"/>
       <c r="H401" s="3"/>
@@ -21699,7 +21699,7 @@
       <c r="K401" s="3"/>
       <c r="L401" s="3"/>
     </row>
-    <row r="402" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="402" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F402" s="3"/>
       <c r="G402" s="3"/>
       <c r="H402" s="3"/>
@@ -21707,7 +21707,7 @@
       <c r="K402" s="3"/>
       <c r="L402" s="3"/>
     </row>
-    <row r="403" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="403" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F403" s="3"/>
       <c r="G403" s="3"/>
       <c r="H403" s="3"/>
@@ -21715,7 +21715,7 @@
       <c r="K403" s="3"/>
       <c r="L403" s="3"/>
     </row>
-    <row r="404" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="404" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F404" s="3"/>
       <c r="G404" s="3"/>
       <c r="H404" s="3"/>
@@ -21723,7 +21723,7 @@
       <c r="K404" s="3"/>
       <c r="L404" s="3"/>
     </row>
-    <row r="405" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="405" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F405" s="3"/>
       <c r="G405" s="3"/>
       <c r="H405" s="3"/>
@@ -21731,7 +21731,7 @@
       <c r="K405" s="3"/>
       <c r="L405" s="3"/>
     </row>
-    <row r="406" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="406" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F406" s="3"/>
       <c r="G406" s="3"/>
       <c r="H406" s="3"/>
@@ -21739,7 +21739,7 @@
       <c r="K406" s="3"/>
       <c r="L406" s="3"/>
     </row>
-    <row r="407" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="407" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F407" s="3"/>
       <c r="G407" s="3"/>
       <c r="H407" s="3"/>
@@ -21747,7 +21747,7 @@
       <c r="K407" s="3"/>
       <c r="L407" s="3"/>
     </row>
-    <row r="408" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="408" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F408" s="3"/>
       <c r="G408" s="3"/>
       <c r="H408" s="3"/>
@@ -21755,7 +21755,7 @@
       <c r="K408" s="3"/>
       <c r="L408" s="3"/>
     </row>
-    <row r="409" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="409" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F409" s="3"/>
       <c r="G409" s="3"/>
       <c r="H409" s="3"/>
@@ -21763,7 +21763,7 @@
       <c r="K409" s="3"/>
       <c r="L409" s="3"/>
     </row>
-    <row r="410" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="410" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F410" s="3"/>
       <c r="G410" s="3"/>
       <c r="H410" s="3"/>
@@ -21771,7 +21771,7 @@
       <c r="K410" s="3"/>
       <c r="L410" s="3"/>
     </row>
-    <row r="411" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="411" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F411" s="3"/>
       <c r="G411" s="3"/>
       <c r="H411" s="3"/>
@@ -21779,7 +21779,7 @@
       <c r="K411" s="3"/>
       <c r="L411" s="3"/>
     </row>
-    <row r="412" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="412" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F412" s="3"/>
       <c r="G412" s="3"/>
       <c r="H412" s="3"/>
@@ -21787,7 +21787,7 @@
       <c r="K412" s="3"/>
       <c r="L412" s="3"/>
     </row>
-    <row r="413" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="413" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F413" s="3"/>
       <c r="G413" s="3"/>
       <c r="H413" s="3"/>
@@ -21795,7 +21795,7 @@
       <c r="K413" s="3"/>
       <c r="L413" s="3"/>
     </row>
-    <row r="414" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="414" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F414" s="3"/>
       <c r="G414" s="3"/>
       <c r="H414" s="3"/>
@@ -21803,7 +21803,7 @@
       <c r="K414" s="3"/>
       <c r="L414" s="3"/>
     </row>
-    <row r="415" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="415" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F415" s="3"/>
       <c r="G415" s="3"/>
       <c r="H415" s="3"/>
@@ -21811,7 +21811,7 @@
       <c r="K415" s="3"/>
       <c r="L415" s="3"/>
     </row>
-    <row r="416" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="416" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F416" s="3"/>
       <c r="G416" s="3"/>
       <c r="H416" s="3"/>
@@ -21819,7 +21819,7 @@
       <c r="K416" s="3"/>
       <c r="L416" s="3"/>
     </row>
-    <row r="417" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="417" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F417" s="3"/>
       <c r="G417" s="3"/>
       <c r="H417" s="3"/>
@@ -21827,7 +21827,7 @@
       <c r="K417" s="3"/>
       <c r="L417" s="3"/>
     </row>
-    <row r="418" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="418" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F418" s="3"/>
       <c r="G418" s="3"/>
       <c r="H418" s="3"/>
@@ -21835,7 +21835,7 @@
       <c r="K418" s="3"/>
       <c r="L418" s="3"/>
     </row>
-    <row r="419" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="419" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F419" s="3"/>
       <c r="G419" s="3"/>
       <c r="H419" s="3"/>
@@ -21843,7 +21843,7 @@
       <c r="K419" s="3"/>
       <c r="L419" s="3"/>
     </row>
-    <row r="420" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="420" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F420" s="3"/>
       <c r="G420" s="3"/>
       <c r="H420" s="3"/>
@@ -21851,7 +21851,7 @@
       <c r="K420" s="3"/>
       <c r="L420" s="3"/>
     </row>
-    <row r="421" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="421" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F421" s="3"/>
       <c r="G421" s="3"/>
       <c r="H421" s="3"/>
@@ -21859,7 +21859,7 @@
       <c r="K421" s="3"/>
       <c r="L421" s="3"/>
     </row>
-    <row r="422" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="422" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F422" s="3"/>
       <c r="G422" s="3"/>
       <c r="H422" s="3"/>
@@ -21867,7 +21867,7 @@
       <c r="K422" s="3"/>
       <c r="L422" s="3"/>
     </row>
-    <row r="423" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="423" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F423" s="3"/>
       <c r="G423" s="3"/>
       <c r="H423" s="3"/>
@@ -21875,7 +21875,7 @@
       <c r="K423" s="3"/>
       <c r="L423" s="3"/>
     </row>
-    <row r="424" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="424" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F424" s="3"/>
       <c r="G424" s="3"/>
       <c r="H424" s="3"/>
@@ -21883,7 +21883,7 @@
       <c r="K424" s="3"/>
       <c r="L424" s="3"/>
     </row>
-    <row r="425" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="425" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F425" s="3"/>
       <c r="G425" s="3"/>
       <c r="H425" s="3"/>
@@ -21891,7 +21891,7 @@
       <c r="K425" s="3"/>
       <c r="L425" s="3"/>
     </row>
-    <row r="426" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="426" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F426" s="3"/>
       <c r="G426" s="3"/>
       <c r="H426" s="3"/>
@@ -21899,7 +21899,7 @@
       <c r="K426" s="3"/>
       <c r="L426" s="3"/>
     </row>
-    <row r="427" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="427" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F427" s="3"/>
       <c r="G427" s="3"/>
       <c r="H427" s="3"/>
@@ -21907,7 +21907,7 @@
       <c r="K427" s="3"/>
       <c r="L427" s="3"/>
     </row>
-    <row r="428" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="428" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F428" s="3"/>
       <c r="G428" s="3"/>
       <c r="H428" s="3"/>
@@ -21915,7 +21915,7 @@
       <c r="K428" s="3"/>
       <c r="L428" s="3"/>
     </row>
-    <row r="429" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="429" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F429" s="3"/>
       <c r="G429" s="3"/>
       <c r="H429" s="3"/>
@@ -21923,7 +21923,7 @@
       <c r="K429" s="3"/>
       <c r="L429" s="3"/>
     </row>
-    <row r="430" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="430" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F430" s="3"/>
       <c r="G430" s="3"/>
       <c r="H430" s="3"/>
@@ -21931,7 +21931,7 @@
       <c r="K430" s="3"/>
       <c r="L430" s="3"/>
     </row>
-    <row r="431" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="431" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F431" s="3"/>
       <c r="G431" s="3"/>
       <c r="H431" s="3"/>
@@ -21939,7 +21939,7 @@
       <c r="K431" s="3"/>
       <c r="L431" s="3"/>
     </row>
-    <row r="432" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="432" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F432" s="3"/>
       <c r="G432" s="3"/>
       <c r="H432" s="3"/>
@@ -21947,7 +21947,7 @@
       <c r="K432" s="3"/>
       <c r="L432" s="3"/>
     </row>
-    <row r="433" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="433" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F433" s="3"/>
       <c r="G433" s="3"/>
       <c r="H433" s="3"/>
@@ -21955,7 +21955,7 @@
       <c r="K433" s="3"/>
       <c r="L433" s="3"/>
     </row>
-    <row r="434" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="434" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F434" s="3"/>
       <c r="G434" s="3"/>
       <c r="H434" s="3"/>
@@ -21963,7 +21963,7 @@
       <c r="K434" s="3"/>
       <c r="L434" s="3"/>
     </row>
-    <row r="435" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="435" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F435" s="3"/>
       <c r="G435" s="3"/>
       <c r="H435" s="3"/>
@@ -21971,7 +21971,7 @@
       <c r="K435" s="3"/>
       <c r="L435" s="3"/>
     </row>
-    <row r="436" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="436" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F436" s="3"/>
       <c r="G436" s="3"/>
       <c r="H436" s="3"/>
@@ -21979,7 +21979,7 @@
       <c r="K436" s="3"/>
       <c r="L436" s="3"/>
     </row>
-    <row r="437" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="437" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F437" s="3"/>
       <c r="G437" s="3"/>
       <c r="H437" s="3"/>
@@ -21987,7 +21987,7 @@
       <c r="K437" s="3"/>
       <c r="L437" s="3"/>
     </row>
-    <row r="438" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="438" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F438" s="3"/>
       <c r="G438" s="3"/>
       <c r="H438" s="3"/>
@@ -21995,7 +21995,7 @@
       <c r="K438" s="3"/>
       <c r="L438" s="3"/>
     </row>
-    <row r="439" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="439" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F439" s="3"/>
       <c r="G439" s="3"/>
       <c r="H439" s="3"/>
@@ -22003,7 +22003,7 @@
       <c r="K439" s="3"/>
       <c r="L439" s="3"/>
     </row>
-    <row r="440" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="440" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F440" s="3"/>
       <c r="G440" s="3"/>
       <c r="H440" s="3"/>
@@ -22011,7 +22011,7 @@
       <c r="K440" s="3"/>
       <c r="L440" s="3"/>
     </row>
-    <row r="441" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="441" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F441" s="3"/>
       <c r="G441" s="3"/>
       <c r="H441" s="3"/>
@@ -22019,7 +22019,7 @@
       <c r="K441" s="3"/>
       <c r="L441" s="3"/>
     </row>
-    <row r="442" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="442" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F442" s="3"/>
       <c r="G442" s="3"/>
       <c r="H442" s="3"/>
@@ -22027,7 +22027,7 @@
       <c r="K442" s="3"/>
       <c r="L442" s="3"/>
     </row>
-    <row r="443" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="443" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F443" s="3"/>
       <c r="G443" s="3"/>
       <c r="H443" s="3"/>
@@ -22035,7 +22035,7 @@
       <c r="K443" s="3"/>
       <c r="L443" s="3"/>
     </row>
-    <row r="444" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="444" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F444" s="3"/>
       <c r="G444" s="3"/>
       <c r="H444" s="3"/>
@@ -22043,7 +22043,7 @@
       <c r="K444" s="3"/>
       <c r="L444" s="3"/>
     </row>
-    <row r="445" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="445" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F445" s="3"/>
       <c r="G445" s="3"/>
       <c r="H445" s="3"/>
@@ -22051,7 +22051,7 @@
       <c r="K445" s="3"/>
       <c r="L445" s="3"/>
     </row>
-    <row r="446" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="446" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F446" s="3"/>
       <c r="G446" s="3"/>
       <c r="H446" s="3"/>
@@ -22059,7 +22059,7 @@
       <c r="K446" s="3"/>
       <c r="L446" s="3"/>
     </row>
-    <row r="447" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="447" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F447" s="3"/>
       <c r="G447" s="3"/>
       <c r="H447" s="3"/>
@@ -22067,7 +22067,7 @@
       <c r="K447" s="3"/>
       <c r="L447" s="3"/>
     </row>
-    <row r="448" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="448" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F448" s="3"/>
       <c r="G448" s="3"/>
       <c r="H448" s="3"/>
@@ -22075,7 +22075,7 @@
       <c r="K448" s="3"/>
       <c r="L448" s="3"/>
     </row>
-    <row r="449" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="449" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F449" s="3"/>
       <c r="G449" s="3"/>
       <c r="H449" s="3"/>
@@ -22083,7 +22083,7 @@
       <c r="K449" s="3"/>
       <c r="L449" s="3"/>
     </row>
-    <row r="450" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="450" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F450" s="3"/>
       <c r="G450" s="3"/>
       <c r="H450" s="3"/>
@@ -22091,7 +22091,7 @@
       <c r="K450" s="3"/>
       <c r="L450" s="3"/>
     </row>
-    <row r="451" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="451" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F451" s="3"/>
       <c r="G451" s="3"/>
       <c r="H451" s="3"/>
@@ -22099,7 +22099,7 @@
       <c r="K451" s="3"/>
       <c r="L451" s="3"/>
     </row>
-    <row r="452" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="452" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F452" s="3"/>
       <c r="G452" s="3"/>
       <c r="H452" s="3"/>
@@ -22107,7 +22107,7 @@
       <c r="K452" s="3"/>
       <c r="L452" s="3"/>
     </row>
-    <row r="453" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="453" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F453" s="3"/>
       <c r="G453" s="3"/>
       <c r="H453" s="3"/>
@@ -22115,7 +22115,7 @@
       <c r="K453" s="3"/>
       <c r="L453" s="3"/>
     </row>
-    <row r="454" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="454" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F454" s="3"/>
       <c r="G454" s="3"/>
       <c r="H454" s="3"/>
@@ -22123,7 +22123,7 @@
       <c r="K454" s="3"/>
       <c r="L454" s="3"/>
     </row>
-    <row r="455" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="455" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F455" s="3"/>
       <c r="G455" s="3"/>
       <c r="H455" s="3"/>
@@ -22131,7 +22131,7 @@
       <c r="K455" s="3"/>
       <c r="L455" s="3"/>
     </row>
-    <row r="456" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="456" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F456" s="3"/>
       <c r="G456" s="3"/>
       <c r="H456" s="3"/>
@@ -22139,7 +22139,7 @@
       <c r="K456" s="3"/>
       <c r="L456" s="3"/>
     </row>
-    <row r="457" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="457" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F457" s="3"/>
       <c r="G457" s="3"/>
       <c r="H457" s="3"/>
@@ -22147,7 +22147,7 @@
       <c r="K457" s="3"/>
       <c r="L457" s="3"/>
     </row>
-    <row r="458" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="458" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F458" s="3"/>
       <c r="G458" s="3"/>
       <c r="H458" s="3"/>
@@ -22155,7 +22155,7 @@
       <c r="K458" s="3"/>
       <c r="L458" s="3"/>
     </row>
-    <row r="459" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="459" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F459" s="3"/>
       <c r="G459" s="3"/>
       <c r="H459" s="3"/>
@@ -22163,7 +22163,7 @@
       <c r="K459" s="3"/>
       <c r="L459" s="3"/>
     </row>
-    <row r="460" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="460" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F460" s="3"/>
       <c r="G460" s="3"/>
       <c r="H460" s="3"/>
@@ -22171,7 +22171,7 @@
       <c r="K460" s="3"/>
       <c r="L460" s="3"/>
     </row>
-    <row r="461" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="461" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F461" s="3"/>
       <c r="G461" s="3"/>
       <c r="H461" s="3"/>
@@ -22179,7 +22179,7 @@
       <c r="K461" s="3"/>
       <c r="L461" s="3"/>
     </row>
-    <row r="462" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="462" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F462" s="3"/>
       <c r="G462" s="3"/>
       <c r="H462" s="3"/>
@@ -22187,7 +22187,7 @@
       <c r="K462" s="3"/>
       <c r="L462" s="3"/>
     </row>
-    <row r="463" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="463" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F463" s="3"/>
       <c r="G463" s="3"/>
       <c r="H463" s="3"/>
@@ -22195,7 +22195,7 @@
       <c r="K463" s="3"/>
       <c r="L463" s="3"/>
     </row>
-    <row r="464" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="464" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F464" s="3"/>
       <c r="G464" s="3"/>
       <c r="H464" s="3"/>
@@ -22203,7 +22203,7 @@
       <c r="K464" s="3"/>
       <c r="L464" s="3"/>
     </row>
-    <row r="465" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="465" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F465" s="3"/>
       <c r="G465" s="3"/>
       <c r="H465" s="3"/>
@@ -22211,7 +22211,7 @@
       <c r="K465" s="3"/>
       <c r="L465" s="3"/>
     </row>
-    <row r="466" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="466" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F466" s="3"/>
       <c r="G466" s="3"/>
       <c r="H466" s="3"/>
@@ -22219,7 +22219,7 @@
       <c r="K466" s="3"/>
       <c r="L466" s="3"/>
     </row>
-    <row r="467" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="467" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F467" s="3"/>
       <c r="G467" s="3"/>
       <c r="H467" s="3"/>
@@ -22227,7 +22227,7 @@
       <c r="K467" s="3"/>
       <c r="L467" s="3"/>
     </row>
-    <row r="468" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="468" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F468" s="3"/>
       <c r="G468" s="3"/>
       <c r="H468" s="3"/>
@@ -22235,7 +22235,7 @@
       <c r="K468" s="3"/>
       <c r="L468" s="3"/>
     </row>
-    <row r="469" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="469" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F469" s="3"/>
       <c r="G469" s="3"/>
       <c r="H469" s="3"/>
@@ -22243,7 +22243,7 @@
       <c r="K469" s="3"/>
       <c r="L469" s="3"/>
     </row>
-    <row r="470" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="470" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F470" s="3"/>
       <c r="G470" s="3"/>
       <c r="H470" s="3"/>
@@ -22251,7 +22251,7 @@
       <c r="K470" s="3"/>
       <c r="L470" s="3"/>
     </row>
-    <row r="471" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="471" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F471" s="3"/>
       <c r="G471" s="3"/>
       <c r="H471" s="3"/>
@@ -22259,7 +22259,7 @@
       <c r="K471" s="3"/>
       <c r="L471" s="3"/>
     </row>
-    <row r="472" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="472" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F472" s="3"/>
       <c r="G472" s="3"/>
       <c r="H472" s="3"/>
@@ -22267,7 +22267,7 @@
       <c r="K472" s="3"/>
       <c r="L472" s="3"/>
     </row>
-    <row r="473" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="473" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F473" s="3"/>
       <c r="G473" s="3"/>
       <c r="H473" s="3"/>
@@ -22275,7 +22275,7 @@
       <c r="K473" s="3"/>
       <c r="L473" s="3"/>
     </row>
-    <row r="474" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="474" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F474" s="3"/>
       <c r="G474" s="3"/>
       <c r="H474" s="3"/>
@@ -22283,7 +22283,7 @@
       <c r="K474" s="3"/>
       <c r="L474" s="3"/>
     </row>
-    <row r="475" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="475" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F475" s="3"/>
       <c r="G475" s="3"/>
       <c r="H475" s="3"/>
@@ -22291,7 +22291,7 @@
       <c r="K475" s="3"/>
       <c r="L475" s="3"/>
     </row>
-    <row r="476" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="476" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F476" s="3"/>
       <c r="G476" s="3"/>
       <c r="H476" s="3"/>
@@ -22299,7 +22299,7 @@
       <c r="K476" s="3"/>
       <c r="L476" s="3"/>
     </row>
-    <row r="477" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="477" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F477" s="3"/>
       <c r="G477" s="3"/>
       <c r="H477" s="3"/>
@@ -22307,7 +22307,7 @@
       <c r="K477" s="3"/>
       <c r="L477" s="3"/>
     </row>
-    <row r="478" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="478" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F478" s="3"/>
       <c r="G478" s="3"/>
       <c r="H478" s="3"/>
@@ -22315,7 +22315,7 @@
       <c r="K478" s="3"/>
       <c r="L478" s="3"/>
     </row>
-    <row r="479" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="479" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F479" s="3"/>
       <c r="G479" s="3"/>
       <c r="H479" s="3"/>
@@ -22323,7 +22323,7 @@
       <c r="K479" s="3"/>
       <c r="L479" s="3"/>
     </row>
-    <row r="480" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="480" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F480" s="3"/>
       <c r="G480" s="3"/>
       <c r="H480" s="3"/>
@@ -22331,7 +22331,7 @@
       <c r="K480" s="3"/>
       <c r="L480" s="3"/>
     </row>
-    <row r="481" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="481" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F481" s="3"/>
       <c r="G481" s="3"/>
       <c r="H481" s="3"/>
@@ -22339,7 +22339,7 @@
       <c r="K481" s="3"/>
       <c r="L481" s="3"/>
     </row>
-    <row r="482" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="482" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F482" s="3"/>
       <c r="G482" s="3"/>
       <c r="H482" s="3"/>
@@ -22347,7 +22347,7 @@
       <c r="K482" s="3"/>
       <c r="L482" s="3"/>
     </row>
-    <row r="483" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="483" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F483" s="3"/>
       <c r="G483" s="3"/>
       <c r="H483" s="3"/>
@@ -22355,7 +22355,7 @@
       <c r="K483" s="3"/>
       <c r="L483" s="3"/>
     </row>
-    <row r="484" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="484" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F484" s="3"/>
       <c r="G484" s="3"/>
       <c r="H484" s="3"/>
@@ -22363,7 +22363,7 @@
       <c r="K484" s="3"/>
       <c r="L484" s="3"/>
     </row>
-    <row r="485" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="485" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F485" s="3"/>
       <c r="G485" s="3"/>
       <c r="H485" s="3"/>
@@ -22371,7 +22371,7 @@
       <c r="K485" s="3"/>
       <c r="L485" s="3"/>
     </row>
-    <row r="486" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="486" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F486" s="3"/>
       <c r="G486" s="3"/>
       <c r="H486" s="3"/>
@@ -22379,7 +22379,7 @@
       <c r="K486" s="3"/>
       <c r="L486" s="3"/>
     </row>
-    <row r="487" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="487" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F487" s="3"/>
       <c r="G487" s="3"/>
       <c r="H487" s="3"/>
@@ -22387,7 +22387,7 @@
       <c r="K487" s="3"/>
       <c r="L487" s="3"/>
     </row>
-    <row r="488" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="488" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F488" s="3"/>
       <c r="G488" s="3"/>
       <c r="H488" s="3"/>
@@ -22395,7 +22395,7 @@
       <c r="K488" s="3"/>
       <c r="L488" s="3"/>
     </row>
-    <row r="489" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="489" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F489" s="3"/>
       <c r="G489" s="3"/>
       <c r="H489" s="3"/>
@@ -22403,7 +22403,7 @@
       <c r="K489" s="3"/>
       <c r="L489" s="3"/>
     </row>
-    <row r="490" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="490" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F490" s="3"/>
       <c r="G490" s="3"/>
       <c r="H490" s="3"/>
@@ -22411,7 +22411,7 @@
       <c r="K490" s="3"/>
       <c r="L490" s="3"/>
     </row>
-    <row r="491" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="491" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F491" s="3"/>
       <c r="G491" s="3"/>
       <c r="H491" s="3"/>
@@ -22419,7 +22419,7 @@
       <c r="K491" s="3"/>
       <c r="L491" s="3"/>
     </row>
-    <row r="492" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="492" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F492" s="3"/>
       <c r="G492" s="3"/>
       <c r="H492" s="3"/>
@@ -22427,7 +22427,7 @@
       <c r="K492" s="3"/>
       <c r="L492" s="3"/>
     </row>
-    <row r="493" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="493" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F493" s="3"/>
       <c r="G493" s="3"/>
       <c r="H493" s="3"/>
@@ -22435,7 +22435,7 @@
       <c r="K493" s="3"/>
       <c r="L493" s="3"/>
     </row>
-    <row r="494" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="494" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F494" s="3"/>
       <c r="G494" s="3"/>
       <c r="H494" s="3"/>
@@ -22443,7 +22443,7 @@
       <c r="K494" s="3"/>
       <c r="L494" s="3"/>
     </row>
-    <row r="495" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="495" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F495" s="3"/>
       <c r="G495" s="3"/>
       <c r="H495" s="3"/>
@@ -22451,7 +22451,7 @@
       <c r="K495" s="3"/>
       <c r="L495" s="3"/>
     </row>
-    <row r="496" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="496" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F496" s="3"/>
       <c r="G496" s="3"/>
       <c r="H496" s="3"/>
@@ -22459,7 +22459,7 @@
       <c r="K496" s="3"/>
       <c r="L496" s="3"/>
     </row>
-    <row r="497" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="497" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F497" s="3"/>
       <c r="G497" s="3"/>
       <c r="H497" s="3"/>
@@ -22467,7 +22467,7 @@
       <c r="K497" s="3"/>
       <c r="L497" s="3"/>
     </row>
-    <row r="498" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="498" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F498" s="3"/>
       <c r="G498" s="3"/>
       <c r="H498" s="3"/>
@@ -22475,7 +22475,7 @@
       <c r="K498" s="3"/>
       <c r="L498" s="3"/>
     </row>
-    <row r="499" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="499" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F499" s="3"/>
       <c r="G499" s="3"/>
       <c r="H499" s="3"/>
@@ -22483,7 +22483,7 @@
       <c r="K499" s="3"/>
       <c r="L499" s="3"/>
     </row>
-    <row r="500" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="500" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F500" s="3"/>
       <c r="G500" s="3"/>
       <c r="H500" s="3"/>
@@ -22491,7 +22491,7 @@
       <c r="K500" s="3"/>
       <c r="L500" s="3"/>
     </row>
-    <row r="501" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="501" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F501" s="3"/>
       <c r="G501" s="3"/>
       <c r="H501" s="3"/>
@@ -22499,7 +22499,7 @@
       <c r="K501" s="3"/>
       <c r="L501" s="3"/>
     </row>
-    <row r="502" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="502" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F502" s="3"/>
       <c r="G502" s="3"/>
       <c r="H502" s="3"/>
@@ -22507,7 +22507,7 @@
       <c r="K502" s="3"/>
       <c r="L502" s="3"/>
     </row>
-    <row r="503" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="503" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F503" s="3"/>
       <c r="G503" s="3"/>
       <c r="H503" s="3"/>
@@ -22515,7 +22515,7 @@
       <c r="K503" s="3"/>
       <c r="L503" s="3"/>
     </row>
-    <row r="504" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="504" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F504" s="3"/>
       <c r="G504" s="3"/>
       <c r="H504" s="3"/>
@@ -22523,7 +22523,7 @@
       <c r="K504" s="3"/>
       <c r="L504" s="3"/>
     </row>
-    <row r="505" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="505" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F505" s="3"/>
       <c r="G505" s="3"/>
       <c r="H505" s="3"/>
@@ -22531,7 +22531,7 @@
       <c r="K505" s="3"/>
       <c r="L505" s="3"/>
     </row>
-    <row r="506" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="506" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F506" s="3"/>
       <c r="G506" s="3"/>
       <c r="H506" s="3"/>
@@ -22539,7 +22539,7 @@
       <c r="K506" s="3"/>
       <c r="L506" s="3"/>
     </row>
-    <row r="507" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="507" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F507" s="3"/>
       <c r="G507" s="3"/>
       <c r="H507" s="3"/>
@@ -22547,7 +22547,7 @@
       <c r="K507" s="3"/>
       <c r="L507" s="3"/>
     </row>
-    <row r="508" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="508" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F508" s="3"/>
       <c r="G508" s="3"/>
       <c r="H508" s="3"/>
@@ -22555,7 +22555,7 @@
       <c r="K508" s="3"/>
       <c r="L508" s="3"/>
     </row>
-    <row r="509" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="509" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F509" s="3"/>
       <c r="G509" s="3"/>
       <c r="H509" s="3"/>
@@ -22563,7 +22563,7 @@
       <c r="K509" s="3"/>
       <c r="L509" s="3"/>
     </row>
-    <row r="510" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="510" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F510" s="3"/>
       <c r="G510" s="3"/>
       <c r="H510" s="3"/>
@@ -22571,7 +22571,7 @@
       <c r="K510" s="3"/>
       <c r="L510" s="3"/>
     </row>
-    <row r="511" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="511" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F511" s="3"/>
       <c r="G511" s="3"/>
       <c r="H511" s="3"/>
@@ -22579,7 +22579,7 @@
       <c r="K511" s="3"/>
       <c r="L511" s="3"/>
     </row>
-    <row r="512" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="512" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F512" s="3"/>
       <c r="G512" s="3"/>
       <c r="H512" s="3"/>
@@ -22587,7 +22587,7 @@
       <c r="K512" s="3"/>
       <c r="L512" s="3"/>
     </row>
-    <row r="513" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="513" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F513" s="3"/>
       <c r="G513" s="3"/>
       <c r="H513" s="3"/>
@@ -22595,7 +22595,7 @@
       <c r="K513" s="3"/>
       <c r="L513" s="3"/>
     </row>
-    <row r="514" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="514" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F514" s="3"/>
       <c r="G514" s="3"/>
       <c r="H514" s="3"/>
@@ -22603,7 +22603,7 @@
       <c r="K514" s="3"/>
       <c r="L514" s="3"/>
     </row>
-    <row r="515" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="515" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F515" s="3"/>
       <c r="G515" s="3"/>
       <c r="H515" s="3"/>
@@ -22611,7 +22611,7 @@
       <c r="K515" s="3"/>
       <c r="L515" s="3"/>
     </row>
-    <row r="516" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="516" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F516" s="3"/>
       <c r="G516" s="3"/>
       <c r="H516" s="3"/>
@@ -22619,7 +22619,7 @@
       <c r="K516" s="3"/>
       <c r="L516" s="3"/>
     </row>
-    <row r="517" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="517" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F517" s="3"/>
       <c r="G517" s="3"/>
       <c r="H517" s="3"/>
@@ -22627,7 +22627,7 @@
       <c r="K517" s="3"/>
       <c r="L517" s="3"/>
     </row>
-    <row r="518" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="518" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F518" s="3"/>
       <c r="G518" s="3"/>
       <c r="H518" s="3"/>
@@ -22635,7 +22635,7 @@
       <c r="K518" s="3"/>
       <c r="L518" s="3"/>
     </row>
-    <row r="519" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="519" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F519" s="3"/>
       <c r="G519" s="3"/>
       <c r="H519" s="3"/>
@@ -22643,7 +22643,7 @@
       <c r="K519" s="3"/>
       <c r="L519" s="3"/>
     </row>
-    <row r="520" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="520" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F520" s="3"/>
       <c r="G520" s="3"/>
       <c r="H520" s="3"/>
@@ -22651,7 +22651,7 @@
       <c r="K520" s="3"/>
       <c r="L520" s="3"/>
     </row>
-    <row r="521" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="521" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F521" s="3"/>
       <c r="G521" s="3"/>
       <c r="H521" s="3"/>
@@ -22659,7 +22659,7 @@
       <c r="K521" s="3"/>
       <c r="L521" s="3"/>
     </row>
-    <row r="522" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="522" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F522" s="3"/>
       <c r="G522" s="3"/>
       <c r="H522" s="3"/>
@@ -22667,7 +22667,7 @@
       <c r="K522" s="3"/>
       <c r="L522" s="3"/>
     </row>
-    <row r="523" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="523" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F523" s="3"/>
       <c r="G523" s="3"/>
       <c r="H523" s="3"/>
@@ -22675,7 +22675,7 @@
       <c r="K523" s="3"/>
       <c r="L523" s="3"/>
     </row>
-    <row r="524" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="524" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F524" s="3"/>
       <c r="G524" s="3"/>
       <c r="H524" s="3"/>

--- a/bin/supplment_analysis/个性化汇总-9月.xlsx
+++ b/bin/supplment_analysis/个性化汇总-9月.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$197</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="494">
   <si>
     <t>20180902-001</t>
   </si>
@@ -1394,9 +1397,6 @@
     <t>评估反馈时间</t>
   </si>
   <si>
-    <t>预计交付时间</t>
-  </si>
-  <si>
     <t>数据迁回花费时间（天）</t>
   </si>
   <si>
@@ -1428,26 +1428,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>驳回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售前评估</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>靳甜甜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>取消，下bms单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沟通更改为标准分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冯敬岩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1488,10 +1472,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>驳回，改下BMS单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>何胜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1500,34 +1480,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项管发邮件暂停项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>驳回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项管发邮件终止项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20180925-004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目问题沟通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>屈昂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>驳回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>交付结果给业珍，老师要调整数据后再做</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1541,6 +1501,34 @@
   </si>
   <si>
     <t>封彦杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售前评估</t>
+  </si>
+  <si>
+    <t>驳回</t>
+  </si>
+  <si>
+    <t>取消，下bms单</t>
+  </si>
+  <si>
+    <t>沟通更改为标准分析</t>
+  </si>
+  <si>
+    <t>驳回，改下BMS单</t>
+  </si>
+  <si>
+    <t>项管发邮件暂停项目</t>
+  </si>
+  <si>
+    <t>项管发邮件终止项目</t>
+  </si>
+  <si>
+    <t>项目问题沟通</t>
+  </si>
+  <si>
+    <t>预计交付时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1634,7 +1622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1668,6 +1656,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1986,9 +1976,9 @@
   <dimension ref="A1:BO524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1997,16 +1987,16 @@
     <col min="2" max="2" width="15.375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="9.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="9" customWidth="1"/>
-    <col min="9" max="9" width="19.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.5" style="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.5" style="3" customWidth="1"/>
-    <col min="11" max="12" width="12.5" style="11" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="11" customWidth="1"/>
     <col min="13" max="13" width="9.25" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="9" style="3"/>
-    <col min="16" max="16" width="11.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.25" style="13" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="9" style="3"/>
     <col min="19" max="67" width="9" style="1"/>
     <col min="68" max="16384" width="9" style="3"/>
@@ -2025,10 +2015,10 @@
       <c r="D1" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>453</v>
       </c>
       <c r="G1" s="8" t="s">
@@ -2038,34 +2028,34 @@
         <v>455</v>
       </c>
       <c r="I1" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>464</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>465</v>
       </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -2672,7 +2662,7 @@
         <v>967</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>17</v>
@@ -2696,7 +2686,7 @@
         <v>43353</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="K8" s="9">
         <v>43350</v>
@@ -3252,7 +3242,7 @@
         <v>43355</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="K14" s="9">
         <v>43354</v>
@@ -3710,11 +3700,11 @@
       <c r="G19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="9">
-        <v>43347</v>
+      <c r="H19" s="9" t="s">
+        <v>485</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="9">
@@ -4362,12 +4352,12 @@
         <v>77</v>
       </c>
       <c r="J26" s="4"/>
-      <c r="K26" s="8"/>
+      <c r="K26" s="9"/>
       <c r="L26" s="8"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
+      <c r="P26" s="5"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="1"/>
@@ -4544,7 +4534,7 @@
         <v>43363</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="K28" s="9">
         <v>43361</v>
@@ -5018,10 +5008,10 @@
         <v>43348</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="J33" s="4"/>
-      <c r="K33" s="8"/>
+      <c r="K33" s="9"/>
       <c r="L33" s="8"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -5855,10 +5845,10 @@
         <v>43714</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="J42" s="4"/>
-      <c r="K42" s="8"/>
+      <c r="K42" s="9"/>
       <c r="L42" s="8"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
@@ -5938,16 +5928,16 @@
         <v>43349</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="H43" s="9">
         <v>43349</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="J43" s="4"/>
-      <c r="K43" s="8"/>
+      <c r="K43" s="9"/>
       <c r="L43" s="8"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
@@ -6324,7 +6314,7 @@
       </c>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
-      <c r="P47" s="4" t="s">
+      <c r="P47" s="5" t="s">
         <v>136</v>
       </c>
       <c r="Q47" s="4"/>
@@ -6953,16 +6943,16 @@
         <v>43353</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="H54" s="9">
         <v>43353</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="J54" s="4"/>
-      <c r="K54" s="8"/>
+      <c r="K54" s="9"/>
       <c r="L54" s="8"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
@@ -7143,10 +7133,10 @@
         <v>43353</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="J56" s="4"/>
-      <c r="K56" s="8"/>
+      <c r="K56" s="9"/>
       <c r="L56" s="8"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
@@ -7899,7 +7889,7 @@
         <v>175</v>
       </c>
       <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
+      <c r="P64" s="5"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
       <c r="S64" s="1"/>
@@ -8820,12 +8810,12 @@
         <v>197</v>
       </c>
       <c r="J74" s="4"/>
-      <c r="K74" s="8"/>
+      <c r="K74" s="9"/>
       <c r="L74" s="8"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
+      <c r="P74" s="5"/>
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
       <c r="S74" s="1"/>
@@ -10111,10 +10101,10 @@
         <v>43356</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="J88" s="4"/>
-      <c r="K88" s="8"/>
+      <c r="K88" s="9"/>
       <c r="L88" s="8"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
@@ -10270,7 +10260,7 @@
         <v>1049</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>227</v>
@@ -10294,7 +10284,7 @@
         <v>43368</v>
       </c>
       <c r="J90" s="4"/>
-      <c r="K90" s="8"/>
+      <c r="K90" s="9"/>
       <c r="L90" s="8"/>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
@@ -11043,7 +11033,7 @@
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
-      <c r="P98" s="4"/>
+      <c r="P98" s="5"/>
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
       <c r="S98" s="1"/>
@@ -11116,21 +11106,21 @@
         <v>43357</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="H99" s="9">
         <v>43357</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="J99" s="4"/>
-      <c r="K99" s="8"/>
+      <c r="K99" s="9"/>
       <c r="L99" s="8"/>
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
-      <c r="P99" s="4"/>
+      <c r="P99" s="5"/>
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
       <c r="S99" s="1"/>
@@ -11477,7 +11467,7 @@
         <v>1062</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>254</v>
@@ -11492,21 +11482,21 @@
         <v>43357</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="H103" s="9">
         <v>43368</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="J103" s="4"/>
-      <c r="K103" s="8"/>
+      <c r="K103" s="9"/>
       <c r="L103" s="8"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
-      <c r="P103" s="4"/>
+      <c r="P103" s="5"/>
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
       <c r="S103" s="1"/>
@@ -11845,7 +11835,7 @@
         <v>1066</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>261</v>
@@ -11878,7 +11868,7 @@
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
-      <c r="P107" s="4"/>
+      <c r="P107" s="5"/>
       <c r="Q107" s="4"/>
       <c r="R107" s="4"/>
       <c r="S107" s="1"/>
@@ -12527,7 +12517,7 @@
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
-      <c r="P114" s="4"/>
+      <c r="P114" s="5"/>
       <c r="Q114" s="4"/>
       <c r="R114" s="4"/>
       <c r="S114" s="1"/>
@@ -12622,7 +12612,7 @@
         <v>175</v>
       </c>
       <c r="O115" s="4"/>
-      <c r="P115" s="4"/>
+      <c r="P115" s="5"/>
       <c r="Q115" s="4"/>
       <c r="R115" s="4"/>
       <c r="S115" s="1"/>
@@ -12695,21 +12685,21 @@
         <v>43362</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="H116" s="9">
         <v>43362</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="J116" s="4"/>
-      <c r="K116" s="8"/>
+      <c r="K116" s="9"/>
       <c r="L116" s="8"/>
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
-      <c r="P116" s="4"/>
+      <c r="P116" s="5"/>
       <c r="Q116" s="4"/>
       <c r="R116" s="4"/>
       <c r="S116" s="1"/>
@@ -13319,7 +13309,7 @@
         <v>1083</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>294</v>
@@ -13350,7 +13340,7 @@
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
       <c r="O123" s="4"/>
-      <c r="P123" s="4"/>
+      <c r="P123" s="5"/>
       <c r="Q123" s="4"/>
       <c r="R123" s="4"/>
       <c r="S123" s="1"/>
@@ -13626,7 +13616,7 @@
         <v>43385</v>
       </c>
       <c r="J126" s="4"/>
-      <c r="K126" s="8"/>
+      <c r="K126" s="9"/>
       <c r="L126" s="8">
         <v>8</v>
       </c>
@@ -13635,7 +13625,7 @@
       </c>
       <c r="N126" s="4"/>
       <c r="O126" s="4"/>
-      <c r="P126" s="4"/>
+      <c r="P126" s="5"/>
       <c r="Q126" s="4"/>
       <c r="R126" s="4"/>
       <c r="S126" s="1"/>
@@ -13819,7 +13809,7 @@
       <c r="M128" s="4"/>
       <c r="N128" s="4"/>
       <c r="O128" s="4"/>
-      <c r="P128" s="4"/>
+      <c r="P128" s="5"/>
       <c r="Q128" s="4"/>
       <c r="R128" s="4"/>
       <c r="S128" s="1"/>
@@ -14104,7 +14094,7 @@
         <v>162</v>
       </c>
       <c r="O131" s="4"/>
-      <c r="P131" s="4"/>
+      <c r="P131" s="5"/>
       <c r="Q131" s="4"/>
       <c r="R131" s="4"/>
       <c r="S131" s="1"/>
@@ -14387,7 +14377,7 @@
       </c>
       <c r="N134" s="4"/>
       <c r="O134" s="4"/>
-      <c r="P134" s="4"/>
+      <c r="P134" s="5"/>
       <c r="Q134" s="4"/>
       <c r="R134" s="4"/>
       <c r="S134" s="1"/>
@@ -14476,7 +14466,7 @@
       <c r="M135" s="4"/>
       <c r="N135" s="4"/>
       <c r="O135" s="4"/>
-      <c r="P135" s="4"/>
+      <c r="P135" s="5"/>
       <c r="Q135" s="4"/>
       <c r="R135" s="4"/>
       <c r="S135" s="1"/>
@@ -14534,7 +14524,7 @@
         <v>1096</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>323</v>
@@ -14549,21 +14539,21 @@
         <v>43364</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="H136" s="9">
         <v>43364</v>
       </c>
       <c r="I136" s="9" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="J136" s="4"/>
-      <c r="K136" s="8"/>
+      <c r="K136" s="9"/>
       <c r="L136" s="8"/>
       <c r="M136" s="4"/>
       <c r="N136" s="4"/>
       <c r="O136" s="4"/>
-      <c r="P136" s="4"/>
+      <c r="P136" s="5"/>
       <c r="Q136" s="4"/>
       <c r="R136" s="4"/>
       <c r="S136" s="1"/>
@@ -14652,7 +14642,7 @@
       <c r="M137" s="4"/>
       <c r="N137" s="4"/>
       <c r="O137" s="4"/>
-      <c r="P137" s="4"/>
+      <c r="P137" s="5"/>
       <c r="Q137" s="4"/>
       <c r="R137" s="4"/>
       <c r="S137" s="1"/>
@@ -14710,10 +14700,10 @@
         <v>1098</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>326</v>
@@ -14734,12 +14724,12 @@
         <v>43384</v>
       </c>
       <c r="J138" s="4"/>
-      <c r="K138" s="8"/>
+      <c r="K138" s="9"/>
       <c r="L138" s="8"/>
       <c r="M138" s="4"/>
       <c r="N138" s="4"/>
       <c r="O138" s="4"/>
-      <c r="P138" s="4"/>
+      <c r="P138" s="5"/>
       <c r="Q138" s="4"/>
       <c r="R138" s="4"/>
       <c r="S138" s="1"/>
@@ -14821,14 +14811,14 @@
         <v>43373</v>
       </c>
       <c r="J139" s="4"/>
-      <c r="K139" s="8" t="s">
+      <c r="K139" s="9" t="s">
         <v>329</v>
       </c>
       <c r="L139" s="8"/>
       <c r="M139" s="4"/>
       <c r="N139" s="4"/>
       <c r="O139" s="4"/>
-      <c r="P139" s="4"/>
+      <c r="P139" s="5"/>
       <c r="Q139" s="4"/>
       <c r="R139" s="4"/>
       <c r="S139" s="1"/>
@@ -14910,14 +14900,14 @@
         <v>43373</v>
       </c>
       <c r="J140" s="4"/>
-      <c r="K140" s="8" t="s">
+      <c r="K140" s="9" t="s">
         <v>329</v>
       </c>
       <c r="L140" s="8"/>
       <c r="M140" s="4"/>
       <c r="N140" s="4"/>
       <c r="O140" s="4"/>
-      <c r="P140" s="4"/>
+      <c r="P140" s="5"/>
       <c r="Q140" s="4"/>
       <c r="R140" s="4"/>
       <c r="S140" s="1"/>
@@ -14999,7 +14989,7 @@
         <v>43371</v>
       </c>
       <c r="J141" s="4"/>
-      <c r="K141" s="8" t="s">
+      <c r="K141" s="9" t="s">
         <v>329</v>
       </c>
       <c r="L141" s="8">
@@ -15010,7 +15000,7 @@
       </c>
       <c r="N141" s="4"/>
       <c r="O141" s="4"/>
-      <c r="P141" s="4"/>
+      <c r="P141" s="5"/>
       <c r="Q141" s="4"/>
       <c r="R141" s="4"/>
       <c r="S141" s="1"/>
@@ -15099,7 +15089,7 @@
       <c r="M142" s="4"/>
       <c r="N142" s="4"/>
       <c r="O142" s="4"/>
-      <c r="P142" s="4"/>
+      <c r="P142" s="5"/>
       <c r="Q142" s="4"/>
       <c r="R142" s="4"/>
       <c r="S142" s="1"/>
@@ -15157,7 +15147,7 @@
         <v>1103</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>336</v>
@@ -15178,15 +15168,15 @@
         <v>43364</v>
       </c>
       <c r="I143" s="9" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="J143" s="4"/>
-      <c r="K143" s="8"/>
+      <c r="K143" s="9"/>
       <c r="L143" s="8"/>
       <c r="M143" s="4"/>
       <c r="N143" s="4"/>
       <c r="O143" s="4"/>
-      <c r="P143" s="4"/>
+      <c r="P143" s="5"/>
       <c r="Q143" s="4"/>
       <c r="R143" s="4"/>
       <c r="S143" s="1"/>
@@ -15268,7 +15258,7 @@
         <v>43371</v>
       </c>
       <c r="J144" s="4"/>
-      <c r="K144" s="8" t="s">
+      <c r="K144" s="9" t="s">
         <v>329</v>
       </c>
       <c r="L144" s="8">
@@ -15279,7 +15269,7 @@
       </c>
       <c r="N144" s="4"/>
       <c r="O144" s="4"/>
-      <c r="P144" s="4"/>
+      <c r="P144" s="5"/>
       <c r="Q144" s="4"/>
       <c r="R144" s="4"/>
       <c r="S144" s="1"/>
@@ -15361,14 +15351,14 @@
         <v>43373</v>
       </c>
       <c r="J145" s="4"/>
-      <c r="K145" s="8" t="s">
+      <c r="K145" s="9" t="s">
         <v>329</v>
       </c>
       <c r="L145" s="8"/>
       <c r="M145" s="4"/>
       <c r="N145" s="4"/>
       <c r="O145" s="4"/>
-      <c r="P145" s="4"/>
+      <c r="P145" s="5"/>
       <c r="Q145" s="4"/>
       <c r="R145" s="4"/>
       <c r="S145" s="1"/>
@@ -15450,14 +15440,14 @@
         <v>43373</v>
       </c>
       <c r="J146" s="4"/>
-      <c r="K146" s="8" t="s">
+      <c r="K146" s="9" t="s">
         <v>329</v>
       </c>
       <c r="L146" s="8"/>
       <c r="M146" s="4"/>
       <c r="N146" s="4"/>
       <c r="O146" s="4"/>
-      <c r="P146" s="4"/>
+      <c r="P146" s="5"/>
       <c r="Q146" s="4"/>
       <c r="R146" s="4"/>
       <c r="S146" s="1"/>
@@ -16000,12 +15990,12 @@
         <v>486</v>
       </c>
       <c r="J152" s="4"/>
-      <c r="K152" s="8"/>
+      <c r="K152" s="9"/>
       <c r="L152" s="8"/>
       <c r="M152" s="4"/>
       <c r="N152" s="4"/>
       <c r="O152" s="4"/>
-      <c r="P152" s="4"/>
+      <c r="P152" s="5"/>
       <c r="Q152" s="4"/>
       <c r="R152" s="4"/>
       <c r="S152" s="1"/>
@@ -16084,15 +16074,15 @@
         <v>43368</v>
       </c>
       <c r="I153" s="9" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="J153" s="4"/>
-      <c r="K153" s="8"/>
+      <c r="K153" s="9"/>
       <c r="L153" s="8"/>
       <c r="M153" s="4"/>
       <c r="N153" s="4"/>
       <c r="O153" s="4"/>
-      <c r="P153" s="4"/>
+      <c r="P153" s="5"/>
       <c r="Q153" s="4"/>
       <c r="R153" s="4"/>
       <c r="S153" s="1"/>
@@ -16185,7 +16175,7 @@
       </c>
       <c r="N154" s="4"/>
       <c r="O154" s="4"/>
-      <c r="P154" s="4"/>
+      <c r="P154" s="5"/>
       <c r="Q154" s="4"/>
       <c r="R154" s="4"/>
       <c r="S154" s="1"/>
@@ -16243,7 +16233,7 @@
         <v>1115</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>358</v>
@@ -16264,15 +16254,15 @@
         <v>43368</v>
       </c>
       <c r="I155" s="9" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="J155" s="4"/>
-      <c r="K155" s="8"/>
+      <c r="K155" s="9"/>
       <c r="L155" s="8"/>
       <c r="M155" s="4"/>
       <c r="N155" s="4"/>
       <c r="O155" s="4"/>
-      <c r="P155" s="4"/>
+      <c r="P155" s="5"/>
       <c r="Q155" s="4"/>
       <c r="R155" s="4"/>
       <c r="S155" s="1"/>
@@ -16351,15 +16341,15 @@
         <v>43368</v>
       </c>
       <c r="I156" s="9" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="J156" s="4"/>
-      <c r="K156" s="8"/>
+      <c r="K156" s="9"/>
       <c r="L156" s="8"/>
       <c r="M156" s="4"/>
       <c r="N156" s="4"/>
       <c r="O156" s="4"/>
-      <c r="P156" s="4"/>
+      <c r="P156" s="5"/>
       <c r="Q156" s="4"/>
       <c r="R156" s="4"/>
       <c r="S156" s="1"/>
@@ -16441,12 +16431,12 @@
         <v>43382</v>
       </c>
       <c r="J157" s="4"/>
-      <c r="K157" s="8"/>
+      <c r="K157" s="9"/>
       <c r="L157" s="8"/>
       <c r="M157" s="4"/>
       <c r="N157" s="4"/>
       <c r="O157" s="4"/>
-      <c r="P157" s="4"/>
+      <c r="P157" s="5"/>
       <c r="Q157" s="4"/>
       <c r="R157" s="4"/>
       <c r="S157" s="1"/>
@@ -16528,12 +16518,12 @@
         <v>43388</v>
       </c>
       <c r="J158" s="4"/>
-      <c r="K158" s="8"/>
+      <c r="K158" s="9"/>
       <c r="L158" s="8"/>
       <c r="M158" s="4"/>
       <c r="N158" s="4"/>
       <c r="O158" s="4"/>
-      <c r="P158" s="4"/>
+      <c r="P158" s="5"/>
       <c r="Q158" s="4"/>
       <c r="R158" s="4"/>
       <c r="S158" s="1"/>
@@ -16615,12 +16605,12 @@
         <v>43382</v>
       </c>
       <c r="J159" s="4"/>
-      <c r="K159" s="8"/>
+      <c r="K159" s="9"/>
       <c r="L159" s="8"/>
       <c r="M159" s="4"/>
       <c r="N159" s="4"/>
       <c r="O159" s="4"/>
-      <c r="P159" s="4"/>
+      <c r="P159" s="5"/>
       <c r="Q159" s="4"/>
       <c r="R159" s="4"/>
       <c r="S159" s="1"/>
@@ -16702,12 +16692,12 @@
         <v>43382</v>
       </c>
       <c r="J160" s="4"/>
-      <c r="K160" s="8"/>
+      <c r="K160" s="9"/>
       <c r="L160" s="8"/>
       <c r="M160" s="4"/>
       <c r="N160" s="4"/>
       <c r="O160" s="4"/>
-      <c r="P160" s="4"/>
+      <c r="P160" s="5"/>
       <c r="Q160" s="4"/>
       <c r="R160" s="4"/>
       <c r="S160" s="1"/>
@@ -16789,12 +16779,12 @@
         <v>43382</v>
       </c>
       <c r="J161" s="4"/>
-      <c r="K161" s="8"/>
+      <c r="K161" s="9"/>
       <c r="L161" s="8"/>
       <c r="M161" s="4"/>
       <c r="N161" s="4"/>
       <c r="O161" s="4"/>
-      <c r="P161" s="4"/>
+      <c r="P161" s="5"/>
       <c r="Q161" s="4"/>
       <c r="R161" s="4"/>
       <c r="S161" s="1"/>
@@ -16971,14 +16961,14 @@
         <v>43372</v>
       </c>
       <c r="J163" s="4"/>
-      <c r="K163" s="8" t="s">
+      <c r="K163" s="9" t="s">
         <v>329</v>
       </c>
       <c r="L163" s="8"/>
       <c r="M163" s="4"/>
       <c r="N163" s="4"/>
       <c r="O163" s="4"/>
-      <c r="P163" s="4"/>
+      <c r="P163" s="5"/>
       <c r="Q163" s="4"/>
       <c r="R163" s="4"/>
       <c r="S163" s="1"/>
@@ -17073,7 +17063,7 @@
         <v>175</v>
       </c>
       <c r="O164" s="4"/>
-      <c r="P164" s="4"/>
+      <c r="P164" s="5"/>
       <c r="Q164" s="4"/>
       <c r="R164" s="4"/>
       <c r="S164" s="1"/>
@@ -17152,15 +17142,15 @@
         <v>43369</v>
       </c>
       <c r="I165" s="9" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="J165" s="4"/>
-      <c r="K165" s="8"/>
+      <c r="K165" s="9"/>
       <c r="L165" s="8"/>
       <c r="M165" s="4"/>
       <c r="N165" s="4"/>
       <c r="O165" s="4"/>
-      <c r="P165" s="4" t="s">
+      <c r="P165" s="5" t="s">
         <v>381</v>
       </c>
       <c r="Q165" s="4"/>
@@ -17241,15 +17231,15 @@
         <v>43369</v>
       </c>
       <c r="I166" s="9" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="J166" s="4"/>
-      <c r="K166" s="8"/>
+      <c r="K166" s="9"/>
       <c r="L166" s="8"/>
       <c r="M166" s="4"/>
       <c r="N166" s="4"/>
       <c r="O166" s="4"/>
-      <c r="P166" s="4"/>
+      <c r="P166" s="5"/>
       <c r="Q166" s="4"/>
       <c r="R166" s="4"/>
       <c r="S166" s="1"/>
@@ -17342,7 +17332,7 @@
       </c>
       <c r="N167" s="4"/>
       <c r="O167" s="4"/>
-      <c r="P167" s="4"/>
+      <c r="P167" s="5"/>
       <c r="Q167" s="4"/>
       <c r="R167" s="4"/>
       <c r="S167" s="1"/>
@@ -17435,7 +17425,7 @@
       </c>
       <c r="N168" s="4"/>
       <c r="O168" s="4"/>
-      <c r="P168" s="4"/>
+      <c r="P168" s="5"/>
       <c r="Q168" s="4"/>
       <c r="R168" s="4"/>
       <c r="S168" s="1"/>
@@ -17530,7 +17520,7 @@
         <v>175</v>
       </c>
       <c r="O169" s="4"/>
-      <c r="P169" s="4"/>
+      <c r="P169" s="5"/>
       <c r="Q169" s="4"/>
       <c r="R169" s="4"/>
       <c r="S169" s="1"/>
@@ -17710,7 +17700,7 @@
       <c r="M171" s="4"/>
       <c r="N171" s="4"/>
       <c r="O171" s="4"/>
-      <c r="P171" s="4"/>
+      <c r="P171" s="5"/>
       <c r="Q171" s="4"/>
       <c r="R171" s="4"/>
       <c r="S171" s="1"/>
@@ -17799,7 +17789,7 @@
       <c r="M172" s="4"/>
       <c r="N172" s="4"/>
       <c r="O172" s="4"/>
-      <c r="P172" s="4"/>
+      <c r="P172" s="5"/>
       <c r="Q172" s="4"/>
       <c r="R172" s="4"/>
       <c r="S172" s="1"/>
@@ -17888,7 +17878,7 @@
       <c r="M173" s="4"/>
       <c r="N173" s="4"/>
       <c r="O173" s="4"/>
-      <c r="P173" s="4"/>
+      <c r="P173" s="5"/>
       <c r="Q173" s="4"/>
       <c r="R173" s="4"/>
       <c r="S173" s="1"/>
@@ -17977,7 +17967,7 @@
       <c r="M174" s="4"/>
       <c r="N174" s="4"/>
       <c r="O174" s="4"/>
-      <c r="P174" s="4"/>
+      <c r="P174" s="5"/>
       <c r="Q174" s="4"/>
       <c r="R174" s="4"/>
       <c r="S174" s="1"/>
@@ -18150,14 +18140,14 @@
         <v>43372</v>
       </c>
       <c r="J176" s="4"/>
-      <c r="K176" s="8" t="s">
+      <c r="K176" s="9" t="s">
         <v>403</v>
       </c>
       <c r="L176" s="8"/>
       <c r="M176" s="4"/>
       <c r="N176" s="4"/>
       <c r="O176" s="4"/>
-      <c r="P176" s="4"/>
+      <c r="P176" s="5"/>
       <c r="Q176" s="4"/>
       <c r="R176" s="4"/>
       <c r="S176" s="1"/>
@@ -18246,7 +18236,7 @@
       <c r="M177" s="4"/>
       <c r="N177" s="4"/>
       <c r="O177" s="4"/>
-      <c r="P177" s="4"/>
+      <c r="P177" s="5"/>
       <c r="Q177" s="4"/>
       <c r="R177" s="4"/>
       <c r="S177" s="1"/>
@@ -18335,7 +18325,7 @@
       <c r="M178" s="4"/>
       <c r="N178" s="4"/>
       <c r="O178" s="4"/>
-      <c r="P178" s="4"/>
+      <c r="P178" s="5"/>
       <c r="Q178" s="4"/>
       <c r="R178" s="4"/>
       <c r="S178" s="1"/>
@@ -18424,7 +18414,7 @@
       <c r="M179" s="4"/>
       <c r="N179" s="4"/>
       <c r="O179" s="4"/>
-      <c r="P179" s="4"/>
+      <c r="P179" s="5"/>
       <c r="Q179" s="4"/>
       <c r="R179" s="4"/>
       <c r="S179" s="1"/>
@@ -18497,7 +18487,7 @@
         <v>43370</v>
       </c>
       <c r="G180" s="8" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="H180" s="9">
         <v>43373</v>
@@ -18506,12 +18496,12 @@
         <v>43387</v>
       </c>
       <c r="J180" s="4"/>
-      <c r="K180" s="8"/>
+      <c r="K180" s="9"/>
       <c r="L180" s="8"/>
       <c r="M180" s="4"/>
       <c r="N180" s="4"/>
       <c r="O180" s="4"/>
-      <c r="P180" s="4"/>
+      <c r="P180" s="5"/>
       <c r="Q180" s="4"/>
       <c r="R180" s="4"/>
       <c r="S180" s="1"/>
@@ -18593,12 +18583,12 @@
         <v>43385</v>
       </c>
       <c r="J181" s="4"/>
-      <c r="K181" s="8"/>
+      <c r="K181" s="9"/>
       <c r="L181" s="8"/>
       <c r="M181" s="4"/>
       <c r="N181" s="4"/>
       <c r="O181" s="4"/>
-      <c r="P181" s="4"/>
+      <c r="P181" s="5"/>
       <c r="Q181" s="4"/>
       <c r="R181" s="4"/>
       <c r="S181" s="1"/>
@@ -18687,7 +18677,7 @@
       <c r="M182" s="4"/>
       <c r="N182" s="4"/>
       <c r="O182" s="4"/>
-      <c r="P182" s="4"/>
+      <c r="P182" s="5"/>
       <c r="Q182" s="4"/>
       <c r="R182" s="4"/>
       <c r="S182" s="1"/>
@@ -18762,19 +18752,19 @@
       <c r="G183" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="H183" s="9">
+      <c r="H183" s="10">
         <v>43383</v>
       </c>
-      <c r="I183" s="9">
+      <c r="I183" s="10">
         <v>43389</v>
       </c>
       <c r="J183" s="7"/>
-      <c r="K183" s="12"/>
+      <c r="K183" s="10"/>
       <c r="L183" s="12"/>
       <c r="M183" s="7"/>
       <c r="N183" s="7"/>
       <c r="O183" s="7"/>
-      <c r="P183" s="7"/>
+      <c r="P183" s="2"/>
       <c r="Q183" s="7"/>
       <c r="R183" s="7"/>
       <c r="S183" s="1"/>
@@ -18856,12 +18846,12 @@
         <v>43389</v>
       </c>
       <c r="J184" s="4"/>
-      <c r="K184" s="8"/>
+      <c r="K184" s="9"/>
       <c r="L184" s="8"/>
       <c r="M184" s="4"/>
       <c r="N184" s="4"/>
       <c r="O184" s="4"/>
-      <c r="P184" s="4"/>
+      <c r="P184" s="5"/>
       <c r="Q184" s="4"/>
       <c r="R184" s="4"/>
       <c r="S184" s="1"/>
@@ -19045,7 +19035,7 @@
       </c>
       <c r="N186" s="4"/>
       <c r="O186" s="4"/>
-      <c r="P186" s="4"/>
+      <c r="P186" s="5"/>
       <c r="Q186" s="4"/>
       <c r="R186" s="4"/>
       <c r="S186" s="1"/>
@@ -19127,12 +19117,12 @@
         <v>43385</v>
       </c>
       <c r="J187" s="4"/>
-      <c r="K187" s="8"/>
+      <c r="K187" s="9"/>
       <c r="L187" s="8"/>
       <c r="M187" s="4"/>
       <c r="N187" s="4"/>
       <c r="O187" s="4"/>
-      <c r="P187" s="4"/>
+      <c r="P187" s="5"/>
       <c r="Q187" s="4"/>
       <c r="R187" s="4"/>
       <c r="S187" s="1"/>
@@ -19225,7 +19215,7 @@
       </c>
       <c r="N188" s="4"/>
       <c r="O188" s="4"/>
-      <c r="P188" s="4"/>
+      <c r="P188" s="5"/>
       <c r="Q188" s="4"/>
       <c r="R188" s="4"/>
       <c r="S188" s="1"/>
@@ -19307,12 +19297,12 @@
         <v>43385</v>
       </c>
       <c r="J189" s="4"/>
-      <c r="K189" s="8"/>
+      <c r="K189" s="9"/>
       <c r="L189" s="8"/>
       <c r="M189" s="4"/>
       <c r="N189" s="4"/>
       <c r="O189" s="4"/>
-      <c r="P189" s="4"/>
+      <c r="P189" s="5"/>
       <c r="Q189" s="4"/>
       <c r="R189" s="4"/>
       <c r="S189" s="1"/>
@@ -19394,7 +19384,7 @@
         <v>43385</v>
       </c>
       <c r="J190" s="4"/>
-      <c r="K190" s="8"/>
+      <c r="K190" s="9"/>
       <c r="L190" s="8">
         <v>3</v>
       </c>
@@ -19403,7 +19393,7 @@
       </c>
       <c r="N190" s="4"/>
       <c r="O190" s="4"/>
-      <c r="P190" s="4"/>
+      <c r="P190" s="5"/>
       <c r="Q190" s="4"/>
       <c r="R190" s="4"/>
       <c r="S190" s="1"/>
@@ -19482,15 +19472,15 @@
         <v>43372</v>
       </c>
       <c r="I191" s="9" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="J191" s="4"/>
-      <c r="K191" s="8"/>
+      <c r="K191" s="9"/>
       <c r="L191" s="8"/>
       <c r="M191" s="4"/>
       <c r="N191" s="4"/>
       <c r="O191" s="4"/>
-      <c r="P191" s="4"/>
+      <c r="P191" s="5"/>
       <c r="Q191" s="4"/>
       <c r="R191" s="4"/>
       <c r="S191" s="1"/>
@@ -19572,12 +19562,12 @@
         <v>43389</v>
       </c>
       <c r="J192" s="4"/>
-      <c r="K192" s="8"/>
+      <c r="K192" s="9"/>
       <c r="L192" s="8"/>
       <c r="M192" s="4"/>
       <c r="N192" s="4"/>
       <c r="O192" s="4"/>
-      <c r="P192" s="4"/>
+      <c r="P192" s="5"/>
       <c r="Q192" s="4"/>
       <c r="R192" s="4"/>
       <c r="S192" s="1"/>
@@ -19657,12 +19647,12 @@
         <v>43385</v>
       </c>
       <c r="J193" s="4"/>
-      <c r="K193" s="8"/>
+      <c r="K193" s="9"/>
       <c r="L193" s="8"/>
       <c r="M193" s="4"/>
       <c r="N193" s="4"/>
       <c r="O193" s="4"/>
-      <c r="P193" s="4"/>
+      <c r="P193" s="5"/>
       <c r="Q193" s="4"/>
       <c r="R193" s="4"/>
       <c r="S193" s="1"/>
@@ -19744,7 +19734,7 @@
         <v>43385</v>
       </c>
       <c r="J194" s="4"/>
-      <c r="K194" s="8"/>
+      <c r="K194" s="9"/>
       <c r="L194" s="8">
         <v>2</v>
       </c>
@@ -19753,7 +19743,7 @@
       </c>
       <c r="N194" s="4"/>
       <c r="O194" s="4"/>
-      <c r="P194" s="4"/>
+      <c r="P194" s="5"/>
       <c r="Q194" s="4"/>
       <c r="R194" s="4"/>
       <c r="S194" s="1"/>
@@ -19835,12 +19825,12 @@
         <v>43387</v>
       </c>
       <c r="J195" s="4"/>
-      <c r="K195" s="8"/>
+      <c r="K195" s="9"/>
       <c r="L195" s="8"/>
       <c r="M195" s="4"/>
       <c r="N195" s="4"/>
       <c r="O195" s="4"/>
-      <c r="P195" s="4"/>
+      <c r="P195" s="5"/>
       <c r="Q195" s="4"/>
       <c r="R195" s="4"/>
       <c r="S195" s="1"/>
@@ -19922,12 +19912,12 @@
         <v>43388</v>
       </c>
       <c r="J196" s="4"/>
-      <c r="K196" s="8"/>
+      <c r="K196" s="9"/>
       <c r="L196" s="8"/>
       <c r="M196" s="4"/>
       <c r="N196" s="4"/>
       <c r="O196" s="4"/>
-      <c r="P196" s="4"/>
+      <c r="P196" s="5"/>
       <c r="Q196" s="4"/>
       <c r="R196" s="4"/>
       <c r="S196" s="1"/>
@@ -20000,7 +19990,7 @@
         <v>43373</v>
       </c>
       <c r="G197" s="8" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="H197" s="9">
         <v>43373</v>
@@ -20009,12 +19999,12 @@
         <v>43389</v>
       </c>
       <c r="J197" s="4"/>
-      <c r="K197" s="8"/>
+      <c r="K197" s="9"/>
       <c r="L197" s="8"/>
       <c r="M197" s="4"/>
       <c r="N197" s="4"/>
       <c r="O197" s="4"/>
-      <c r="P197" s="4"/>
+      <c r="P197" s="5"/>
       <c r="Q197" s="4"/>
       <c r="R197" s="4"/>
       <c r="S197" s="1"/>
@@ -20068,2619 +20058,2619 @@
       <c r="BO197" s="1"/>
     </row>
     <row r="198" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="F198" s="3"/>
+      <c r="F198" s="13"/>
       <c r="G198" s="3"/>
-      <c r="H198" s="3"/>
-      <c r="I198" s="3"/>
-      <c r="K198" s="3"/>
+      <c r="H198" s="13"/>
+      <c r="I198" s="13"/>
+      <c r="K198" s="13"/>
       <c r="L198" s="3"/>
     </row>
     <row r="199" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="F199" s="3"/>
+      <c r="F199" s="13"/>
       <c r="G199" s="3"/>
-      <c r="H199" s="3"/>
-      <c r="I199" s="3"/>
-      <c r="K199" s="3"/>
+      <c r="H199" s="13"/>
+      <c r="I199" s="13"/>
+      <c r="K199" s="13"/>
       <c r="L199" s="3"/>
     </row>
     <row r="200" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="F200" s="3"/>
+      <c r="F200" s="13"/>
       <c r="G200" s="3"/>
-      <c r="H200" s="3"/>
-      <c r="I200" s="3"/>
-      <c r="K200" s="3"/>
+      <c r="H200" s="13"/>
+      <c r="I200" s="13"/>
+      <c r="K200" s="13"/>
       <c r="L200" s="3"/>
     </row>
     <row r="201" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="F201" s="3"/>
+      <c r="F201" s="13"/>
       <c r="G201" s="3"/>
-      <c r="H201" s="3"/>
-      <c r="I201" s="3"/>
-      <c r="K201" s="3"/>
+      <c r="H201" s="13"/>
+      <c r="I201" s="13"/>
+      <c r="K201" s="13"/>
       <c r="L201" s="3"/>
     </row>
     <row r="202" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="F202" s="3"/>
+      <c r="F202" s="13"/>
       <c r="G202" s="3"/>
-      <c r="H202" s="3"/>
-      <c r="I202" s="3"/>
-      <c r="K202" s="3"/>
+      <c r="H202" s="13"/>
+      <c r="I202" s="13"/>
+      <c r="K202" s="13"/>
       <c r="L202" s="3"/>
     </row>
     <row r="203" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="F203" s="3"/>
+      <c r="F203" s="13"/>
       <c r="G203" s="3"/>
-      <c r="H203" s="3"/>
-      <c r="I203" s="3"/>
-      <c r="K203" s="3"/>
+      <c r="H203" s="13"/>
+      <c r="I203" s="13"/>
+      <c r="K203" s="13"/>
       <c r="L203" s="3"/>
     </row>
     <row r="204" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="F204" s="3"/>
+      <c r="F204" s="13"/>
       <c r="G204" s="3"/>
-      <c r="H204" s="3"/>
-      <c r="I204" s="3"/>
-      <c r="K204" s="3"/>
+      <c r="H204" s="13"/>
+      <c r="I204" s="13"/>
+      <c r="K204" s="13"/>
       <c r="L204" s="3"/>
     </row>
     <row r="205" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="F205" s="3"/>
+      <c r="F205" s="13"/>
       <c r="G205" s="3"/>
-      <c r="H205" s="3"/>
-      <c r="I205" s="3"/>
-      <c r="K205" s="3"/>
+      <c r="H205" s="13"/>
+      <c r="I205" s="13"/>
+      <c r="K205" s="13"/>
       <c r="L205" s="3"/>
     </row>
     <row r="206" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="F206" s="3"/>
+      <c r="F206" s="13"/>
       <c r="G206" s="3"/>
-      <c r="H206" s="3"/>
-      <c r="I206" s="3"/>
-      <c r="K206" s="3"/>
+      <c r="H206" s="13"/>
+      <c r="I206" s="13"/>
+      <c r="K206" s="13"/>
       <c r="L206" s="3"/>
     </row>
     <row r="207" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="F207" s="3"/>
+      <c r="F207" s="13"/>
       <c r="G207" s="3"/>
-      <c r="H207" s="3"/>
-      <c r="I207" s="3"/>
-      <c r="K207" s="3"/>
+      <c r="H207" s="13"/>
+      <c r="I207" s="13"/>
+      <c r="K207" s="13"/>
       <c r="L207" s="3"/>
     </row>
     <row r="208" spans="1:67" x14ac:dyDescent="0.3">
-      <c r="F208" s="3"/>
+      <c r="F208" s="13"/>
       <c r="G208" s="3"/>
-      <c r="H208" s="3"/>
-      <c r="I208" s="3"/>
-      <c r="K208" s="3"/>
+      <c r="H208" s="13"/>
+      <c r="I208" s="13"/>
+      <c r="K208" s="13"/>
       <c r="L208" s="3"/>
     </row>
     <row r="209" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F209" s="3"/>
+      <c r="F209" s="13"/>
       <c r="G209" s="3"/>
-      <c r="H209" s="3"/>
-      <c r="I209" s="3"/>
-      <c r="K209" s="3"/>
+      <c r="H209" s="13"/>
+      <c r="I209" s="13"/>
+      <c r="K209" s="13"/>
       <c r="L209" s="3"/>
     </row>
     <row r="210" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F210" s="3"/>
+      <c r="F210" s="13"/>
       <c r="G210" s="3"/>
-      <c r="H210" s="3"/>
-      <c r="I210" s="3"/>
-      <c r="K210" s="3"/>
+      <c r="H210" s="13"/>
+      <c r="I210" s="13"/>
+      <c r="K210" s="13"/>
       <c r="L210" s="3"/>
     </row>
     <row r="211" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F211" s="3"/>
+      <c r="F211" s="13"/>
       <c r="G211" s="3"/>
-      <c r="H211" s="3"/>
-      <c r="I211" s="3"/>
-      <c r="K211" s="3"/>
+      <c r="H211" s="13"/>
+      <c r="I211" s="13"/>
+      <c r="K211" s="13"/>
       <c r="L211" s="3"/>
     </row>
     <row r="212" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F212" s="3"/>
+      <c r="F212" s="13"/>
       <c r="G212" s="3"/>
-      <c r="H212" s="3"/>
-      <c r="I212" s="3"/>
-      <c r="K212" s="3"/>
+      <c r="H212" s="13"/>
+      <c r="I212" s="13"/>
+      <c r="K212" s="13"/>
       <c r="L212" s="3"/>
     </row>
     <row r="213" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F213" s="3"/>
+      <c r="F213" s="13"/>
       <c r="G213" s="3"/>
-      <c r="H213" s="3"/>
-      <c r="I213" s="3"/>
-      <c r="K213" s="3"/>
+      <c r="H213" s="13"/>
+      <c r="I213" s="13"/>
+      <c r="K213" s="13"/>
       <c r="L213" s="3"/>
     </row>
     <row r="214" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F214" s="3"/>
+      <c r="F214" s="13"/>
       <c r="G214" s="3"/>
-      <c r="H214" s="3"/>
-      <c r="I214" s="3"/>
-      <c r="K214" s="3"/>
+      <c r="H214" s="13"/>
+      <c r="I214" s="13"/>
+      <c r="K214" s="13"/>
       <c r="L214" s="3"/>
     </row>
     <row r="215" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F215" s="3"/>
+      <c r="F215" s="13"/>
       <c r="G215" s="3"/>
-      <c r="H215" s="3"/>
-      <c r="I215" s="3"/>
-      <c r="K215" s="3"/>
+      <c r="H215" s="13"/>
+      <c r="I215" s="13"/>
+      <c r="K215" s="13"/>
       <c r="L215" s="3"/>
     </row>
     <row r="216" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F216" s="3"/>
+      <c r="F216" s="13"/>
       <c r="G216" s="3"/>
-      <c r="H216" s="3"/>
-      <c r="I216" s="3"/>
-      <c r="K216" s="3"/>
+      <c r="H216" s="13"/>
+      <c r="I216" s="13"/>
+      <c r="K216" s="13"/>
       <c r="L216" s="3"/>
     </row>
     <row r="217" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F217" s="3"/>
+      <c r="F217" s="13"/>
       <c r="G217" s="3"/>
-      <c r="H217" s="3"/>
-      <c r="I217" s="3"/>
-      <c r="K217" s="3"/>
+      <c r="H217" s="13"/>
+      <c r="I217" s="13"/>
+      <c r="K217" s="13"/>
       <c r="L217" s="3"/>
     </row>
     <row r="218" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F218" s="3"/>
+      <c r="F218" s="13"/>
       <c r="G218" s="3"/>
-      <c r="H218" s="3"/>
-      <c r="I218" s="3"/>
-      <c r="K218" s="3"/>
+      <c r="H218" s="13"/>
+      <c r="I218" s="13"/>
+      <c r="K218" s="13"/>
       <c r="L218" s="3"/>
     </row>
     <row r="219" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F219" s="3"/>
+      <c r="F219" s="13"/>
       <c r="G219" s="3"/>
-      <c r="H219" s="3"/>
-      <c r="I219" s="3"/>
-      <c r="K219" s="3"/>
+      <c r="H219" s="13"/>
+      <c r="I219" s="13"/>
+      <c r="K219" s="13"/>
       <c r="L219" s="3"/>
     </row>
     <row r="220" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F220" s="3"/>
+      <c r="F220" s="13"/>
       <c r="G220" s="3"/>
-      <c r="H220" s="3"/>
-      <c r="I220" s="3"/>
-      <c r="K220" s="3"/>
+      <c r="H220" s="13"/>
+      <c r="I220" s="13"/>
+      <c r="K220" s="13"/>
       <c r="L220" s="3"/>
     </row>
     <row r="221" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F221" s="3"/>
+      <c r="F221" s="13"/>
       <c r="G221" s="3"/>
-      <c r="H221" s="3"/>
-      <c r="I221" s="3"/>
-      <c r="K221" s="3"/>
+      <c r="H221" s="13"/>
+      <c r="I221" s="13"/>
+      <c r="K221" s="13"/>
       <c r="L221" s="3"/>
     </row>
     <row r="222" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F222" s="3"/>
+      <c r="F222" s="13"/>
       <c r="G222" s="3"/>
-      <c r="H222" s="3"/>
-      <c r="I222" s="3"/>
-      <c r="K222" s="3"/>
+      <c r="H222" s="13"/>
+      <c r="I222" s="13"/>
+      <c r="K222" s="13"/>
       <c r="L222" s="3"/>
     </row>
     <row r="223" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F223" s="3"/>
+      <c r="F223" s="13"/>
       <c r="G223" s="3"/>
-      <c r="H223" s="3"/>
-      <c r="I223" s="3"/>
-      <c r="K223" s="3"/>
+      <c r="H223" s="13"/>
+      <c r="I223" s="13"/>
+      <c r="K223" s="13"/>
       <c r="L223" s="3"/>
     </row>
     <row r="224" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F224" s="3"/>
+      <c r="F224" s="13"/>
       <c r="G224" s="3"/>
-      <c r="H224" s="3"/>
-      <c r="I224" s="3"/>
-      <c r="K224" s="3"/>
+      <c r="H224" s="13"/>
+      <c r="I224" s="13"/>
+      <c r="K224" s="13"/>
       <c r="L224" s="3"/>
     </row>
     <row r="225" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F225" s="3"/>
+      <c r="F225" s="13"/>
       <c r="G225" s="3"/>
-      <c r="H225" s="3"/>
-      <c r="I225" s="3"/>
-      <c r="K225" s="3"/>
+      <c r="H225" s="13"/>
+      <c r="I225" s="13"/>
+      <c r="K225" s="13"/>
       <c r="L225" s="3"/>
     </row>
     <row r="226" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F226" s="3"/>
+      <c r="F226" s="13"/>
       <c r="G226" s="3"/>
-      <c r="H226" s="3"/>
-      <c r="I226" s="3"/>
-      <c r="K226" s="3"/>
+      <c r="H226" s="13"/>
+      <c r="I226" s="13"/>
+      <c r="K226" s="13"/>
       <c r="L226" s="3"/>
     </row>
     <row r="227" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F227" s="3"/>
+      <c r="F227" s="13"/>
       <c r="G227" s="3"/>
-      <c r="H227" s="3"/>
-      <c r="I227" s="3"/>
-      <c r="K227" s="3"/>
+      <c r="H227" s="13"/>
+      <c r="I227" s="13"/>
+      <c r="K227" s="13"/>
       <c r="L227" s="3"/>
     </row>
     <row r="228" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F228" s="3"/>
+      <c r="F228" s="13"/>
       <c r="G228" s="3"/>
-      <c r="H228" s="3"/>
-      <c r="I228" s="3"/>
-      <c r="K228" s="3"/>
+      <c r="H228" s="13"/>
+      <c r="I228" s="13"/>
+      <c r="K228" s="13"/>
       <c r="L228" s="3"/>
     </row>
     <row r="229" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F229" s="3"/>
+      <c r="F229" s="13"/>
       <c r="G229" s="3"/>
-      <c r="H229" s="3"/>
-      <c r="I229" s="3"/>
-      <c r="K229" s="3"/>
+      <c r="H229" s="13"/>
+      <c r="I229" s="13"/>
+      <c r="K229" s="13"/>
       <c r="L229" s="3"/>
     </row>
     <row r="230" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F230" s="3"/>
+      <c r="F230" s="13"/>
       <c r="G230" s="3"/>
-      <c r="H230" s="3"/>
-      <c r="I230" s="3"/>
-      <c r="K230" s="3"/>
+      <c r="H230" s="13"/>
+      <c r="I230" s="13"/>
+      <c r="K230" s="13"/>
       <c r="L230" s="3"/>
     </row>
     <row r="231" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F231" s="3"/>
+      <c r="F231" s="13"/>
       <c r="G231" s="3"/>
-      <c r="H231" s="3"/>
-      <c r="I231" s="3"/>
-      <c r="K231" s="3"/>
+      <c r="H231" s="13"/>
+      <c r="I231" s="13"/>
+      <c r="K231" s="13"/>
       <c r="L231" s="3"/>
     </row>
     <row r="232" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F232" s="3"/>
+      <c r="F232" s="13"/>
       <c r="G232" s="3"/>
-      <c r="H232" s="3"/>
-      <c r="I232" s="3"/>
-      <c r="K232" s="3"/>
+      <c r="H232" s="13"/>
+      <c r="I232" s="13"/>
+      <c r="K232" s="13"/>
       <c r="L232" s="3"/>
     </row>
     <row r="233" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F233" s="3"/>
+      <c r="F233" s="13"/>
       <c r="G233" s="3"/>
-      <c r="H233" s="3"/>
-      <c r="I233" s="3"/>
-      <c r="K233" s="3"/>
+      <c r="H233" s="13"/>
+      <c r="I233" s="13"/>
+      <c r="K233" s="13"/>
       <c r="L233" s="3"/>
     </row>
     <row r="234" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F234" s="3"/>
+      <c r="F234" s="13"/>
       <c r="G234" s="3"/>
-      <c r="H234" s="3"/>
-      <c r="I234" s="3"/>
-      <c r="K234" s="3"/>
+      <c r="H234" s="13"/>
+      <c r="I234" s="13"/>
+      <c r="K234" s="13"/>
       <c r="L234" s="3"/>
     </row>
     <row r="235" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F235" s="3"/>
+      <c r="F235" s="13"/>
       <c r="G235" s="3"/>
-      <c r="H235" s="3"/>
-      <c r="I235" s="3"/>
-      <c r="K235" s="3"/>
+      <c r="H235" s="13"/>
+      <c r="I235" s="13"/>
+      <c r="K235" s="13"/>
       <c r="L235" s="3"/>
     </row>
     <row r="236" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F236" s="3"/>
+      <c r="F236" s="13"/>
       <c r="G236" s="3"/>
-      <c r="H236" s="3"/>
-      <c r="I236" s="3"/>
-      <c r="K236" s="3"/>
+      <c r="H236" s="13"/>
+      <c r="I236" s="13"/>
+      <c r="K236" s="13"/>
       <c r="L236" s="3"/>
     </row>
     <row r="237" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F237" s="3"/>
+      <c r="F237" s="13"/>
       <c r="G237" s="3"/>
-      <c r="H237" s="3"/>
-      <c r="I237" s="3"/>
-      <c r="K237" s="3"/>
+      <c r="H237" s="13"/>
+      <c r="I237" s="13"/>
+      <c r="K237" s="13"/>
       <c r="L237" s="3"/>
     </row>
     <row r="238" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F238" s="3"/>
+      <c r="F238" s="13"/>
       <c r="G238" s="3"/>
-      <c r="H238" s="3"/>
-      <c r="I238" s="3"/>
-      <c r="K238" s="3"/>
+      <c r="H238" s="13"/>
+      <c r="I238" s="13"/>
+      <c r="K238" s="13"/>
       <c r="L238" s="3"/>
     </row>
     <row r="239" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F239" s="3"/>
+      <c r="F239" s="13"/>
       <c r="G239" s="3"/>
-      <c r="H239" s="3"/>
-      <c r="I239" s="3"/>
-      <c r="K239" s="3"/>
+      <c r="H239" s="13"/>
+      <c r="I239" s="13"/>
+      <c r="K239" s="13"/>
       <c r="L239" s="3"/>
     </row>
     <row r="240" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F240" s="3"/>
+      <c r="F240" s="13"/>
       <c r="G240" s="3"/>
-      <c r="H240" s="3"/>
-      <c r="I240" s="3"/>
-      <c r="K240" s="3"/>
+      <c r="H240" s="13"/>
+      <c r="I240" s="13"/>
+      <c r="K240" s="13"/>
       <c r="L240" s="3"/>
     </row>
     <row r="241" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F241" s="3"/>
+      <c r="F241" s="13"/>
       <c r="G241" s="3"/>
-      <c r="H241" s="3"/>
-      <c r="I241" s="3"/>
-      <c r="K241" s="3"/>
+      <c r="H241" s="13"/>
+      <c r="I241" s="13"/>
+      <c r="K241" s="13"/>
       <c r="L241" s="3"/>
     </row>
     <row r="242" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F242" s="3"/>
+      <c r="F242" s="13"/>
       <c r="G242" s="3"/>
-      <c r="H242" s="3"/>
-      <c r="I242" s="3"/>
-      <c r="K242" s="3"/>
+      <c r="H242" s="13"/>
+      <c r="I242" s="13"/>
+      <c r="K242" s="13"/>
       <c r="L242" s="3"/>
     </row>
     <row r="243" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F243" s="3"/>
+      <c r="F243" s="13"/>
       <c r="G243" s="3"/>
-      <c r="H243" s="3"/>
-      <c r="I243" s="3"/>
-      <c r="K243" s="3"/>
+      <c r="H243" s="13"/>
+      <c r="I243" s="13"/>
+      <c r="K243" s="13"/>
       <c r="L243" s="3"/>
     </row>
     <row r="244" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F244" s="3"/>
+      <c r="F244" s="13"/>
       <c r="G244" s="3"/>
-      <c r="H244" s="3"/>
-      <c r="I244" s="3"/>
-      <c r="K244" s="3"/>
+      <c r="H244" s="13"/>
+      <c r="I244" s="13"/>
+      <c r="K244" s="13"/>
       <c r="L244" s="3"/>
     </row>
     <row r="245" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F245" s="3"/>
+      <c r="F245" s="13"/>
       <c r="G245" s="3"/>
-      <c r="H245" s="3"/>
-      <c r="I245" s="3"/>
-      <c r="K245" s="3"/>
+      <c r="H245" s="13"/>
+      <c r="I245" s="13"/>
+      <c r="K245" s="13"/>
       <c r="L245" s="3"/>
     </row>
     <row r="246" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F246" s="3"/>
+      <c r="F246" s="13"/>
       <c r="G246" s="3"/>
-      <c r="H246" s="3"/>
-      <c r="I246" s="3"/>
-      <c r="K246" s="3"/>
+      <c r="H246" s="13"/>
+      <c r="I246" s="13"/>
+      <c r="K246" s="13"/>
       <c r="L246" s="3"/>
     </row>
     <row r="247" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F247" s="3"/>
+      <c r="F247" s="13"/>
       <c r="G247" s="3"/>
-      <c r="H247" s="3"/>
-      <c r="I247" s="3"/>
-      <c r="K247" s="3"/>
+      <c r="H247" s="13"/>
+      <c r="I247" s="13"/>
+      <c r="K247" s="13"/>
       <c r="L247" s="3"/>
     </row>
     <row r="248" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F248" s="3"/>
+      <c r="F248" s="13"/>
       <c r="G248" s="3"/>
-      <c r="H248" s="3"/>
-      <c r="I248" s="3"/>
-      <c r="K248" s="3"/>
+      <c r="H248" s="13"/>
+      <c r="I248" s="13"/>
+      <c r="K248" s="13"/>
       <c r="L248" s="3"/>
     </row>
     <row r="249" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F249" s="3"/>
+      <c r="F249" s="13"/>
       <c r="G249" s="3"/>
-      <c r="H249" s="3"/>
-      <c r="I249" s="3"/>
-      <c r="K249" s="3"/>
+      <c r="H249" s="13"/>
+      <c r="I249" s="13"/>
+      <c r="K249" s="13"/>
       <c r="L249" s="3"/>
     </row>
     <row r="250" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F250" s="3"/>
+      <c r="F250" s="13"/>
       <c r="G250" s="3"/>
-      <c r="H250" s="3"/>
-      <c r="I250" s="3"/>
-      <c r="K250" s="3"/>
+      <c r="H250" s="13"/>
+      <c r="I250" s="13"/>
+      <c r="K250" s="13"/>
       <c r="L250" s="3"/>
     </row>
     <row r="251" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F251" s="3"/>
+      <c r="F251" s="13"/>
       <c r="G251" s="3"/>
-      <c r="H251" s="3"/>
-      <c r="I251" s="3"/>
-      <c r="K251" s="3"/>
+      <c r="H251" s="13"/>
+      <c r="I251" s="13"/>
+      <c r="K251" s="13"/>
       <c r="L251" s="3"/>
     </row>
     <row r="252" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F252" s="3"/>
+      <c r="F252" s="13"/>
       <c r="G252" s="3"/>
-      <c r="H252" s="3"/>
-      <c r="I252" s="3"/>
-      <c r="K252" s="3"/>
+      <c r="H252" s="13"/>
+      <c r="I252" s="13"/>
+      <c r="K252" s="13"/>
       <c r="L252" s="3"/>
     </row>
     <row r="253" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F253" s="3"/>
+      <c r="F253" s="13"/>
       <c r="G253" s="3"/>
-      <c r="H253" s="3"/>
-      <c r="I253" s="3"/>
-      <c r="K253" s="3"/>
+      <c r="H253" s="13"/>
+      <c r="I253" s="13"/>
+      <c r="K253" s="13"/>
       <c r="L253" s="3"/>
     </row>
     <row r="254" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F254" s="3"/>
+      <c r="F254" s="13"/>
       <c r="G254" s="3"/>
-      <c r="H254" s="3"/>
-      <c r="I254" s="3"/>
-      <c r="K254" s="3"/>
+      <c r="H254" s="13"/>
+      <c r="I254" s="13"/>
+      <c r="K254" s="13"/>
       <c r="L254" s="3"/>
     </row>
     <row r="255" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F255" s="3"/>
+      <c r="F255" s="13"/>
       <c r="G255" s="3"/>
-      <c r="H255" s="3"/>
-      <c r="I255" s="3"/>
-      <c r="K255" s="3"/>
+      <c r="H255" s="13"/>
+      <c r="I255" s="13"/>
+      <c r="K255" s="13"/>
       <c r="L255" s="3"/>
     </row>
     <row r="256" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F256" s="3"/>
+      <c r="F256" s="13"/>
       <c r="G256" s="3"/>
-      <c r="H256" s="3"/>
-      <c r="I256" s="3"/>
-      <c r="K256" s="3"/>
+      <c r="H256" s="13"/>
+      <c r="I256" s="13"/>
+      <c r="K256" s="13"/>
       <c r="L256" s="3"/>
     </row>
     <row r="257" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F257" s="3"/>
+      <c r="F257" s="13"/>
       <c r="G257" s="3"/>
-      <c r="H257" s="3"/>
-      <c r="I257" s="3"/>
-      <c r="K257" s="3"/>
+      <c r="H257" s="13"/>
+      <c r="I257" s="13"/>
+      <c r="K257" s="13"/>
       <c r="L257" s="3"/>
     </row>
     <row r="258" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F258" s="3"/>
+      <c r="F258" s="13"/>
       <c r="G258" s="3"/>
-      <c r="H258" s="3"/>
-      <c r="I258" s="3"/>
-      <c r="K258" s="3"/>
+      <c r="H258" s="13"/>
+      <c r="I258" s="13"/>
+      <c r="K258" s="13"/>
       <c r="L258" s="3"/>
     </row>
     <row r="259" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F259" s="3"/>
+      <c r="F259" s="13"/>
       <c r="G259" s="3"/>
-      <c r="H259" s="3"/>
-      <c r="I259" s="3"/>
-      <c r="K259" s="3"/>
+      <c r="H259" s="13"/>
+      <c r="I259" s="13"/>
+      <c r="K259" s="13"/>
       <c r="L259" s="3"/>
     </row>
     <row r="260" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F260" s="3"/>
+      <c r="F260" s="13"/>
       <c r="G260" s="3"/>
-      <c r="H260" s="3"/>
-      <c r="I260" s="3"/>
-      <c r="K260" s="3"/>
+      <c r="H260" s="13"/>
+      <c r="I260" s="13"/>
+      <c r="K260" s="13"/>
       <c r="L260" s="3"/>
     </row>
     <row r="261" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F261" s="3"/>
+      <c r="F261" s="13"/>
       <c r="G261" s="3"/>
-      <c r="H261" s="3"/>
-      <c r="I261" s="3"/>
-      <c r="K261" s="3"/>
+      <c r="H261" s="13"/>
+      <c r="I261" s="13"/>
+      <c r="K261" s="13"/>
       <c r="L261" s="3"/>
     </row>
     <row r="262" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F262" s="3"/>
+      <c r="F262" s="13"/>
       <c r="G262" s="3"/>
-      <c r="H262" s="3"/>
-      <c r="I262" s="3"/>
-      <c r="K262" s="3"/>
+      <c r="H262" s="13"/>
+      <c r="I262" s="13"/>
+      <c r="K262" s="13"/>
       <c r="L262" s="3"/>
     </row>
     <row r="263" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F263" s="3"/>
+      <c r="F263" s="13"/>
       <c r="G263" s="3"/>
-      <c r="H263" s="3"/>
-      <c r="I263" s="3"/>
-      <c r="K263" s="3"/>
+      <c r="H263" s="13"/>
+      <c r="I263" s="13"/>
+      <c r="K263" s="13"/>
       <c r="L263" s="3"/>
     </row>
     <row r="264" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F264" s="3"/>
+      <c r="F264" s="13"/>
       <c r="G264" s="3"/>
-      <c r="H264" s="3"/>
-      <c r="I264" s="3"/>
-      <c r="K264" s="3"/>
+      <c r="H264" s="13"/>
+      <c r="I264" s="13"/>
+      <c r="K264" s="13"/>
       <c r="L264" s="3"/>
     </row>
     <row r="265" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F265" s="3"/>
+      <c r="F265" s="13"/>
       <c r="G265" s="3"/>
-      <c r="H265" s="3"/>
-      <c r="I265" s="3"/>
-      <c r="K265" s="3"/>
+      <c r="H265" s="13"/>
+      <c r="I265" s="13"/>
+      <c r="K265" s="13"/>
       <c r="L265" s="3"/>
     </row>
     <row r="266" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F266" s="3"/>
+      <c r="F266" s="13"/>
       <c r="G266" s="3"/>
-      <c r="H266" s="3"/>
-      <c r="I266" s="3"/>
-      <c r="K266" s="3"/>
+      <c r="H266" s="13"/>
+      <c r="I266" s="13"/>
+      <c r="K266" s="13"/>
       <c r="L266" s="3"/>
     </row>
     <row r="267" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F267" s="3"/>
+      <c r="F267" s="13"/>
       <c r="G267" s="3"/>
-      <c r="H267" s="3"/>
-      <c r="I267" s="3"/>
-      <c r="K267" s="3"/>
+      <c r="H267" s="13"/>
+      <c r="I267" s="13"/>
+      <c r="K267" s="13"/>
       <c r="L267" s="3"/>
     </row>
     <row r="268" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F268" s="3"/>
+      <c r="F268" s="13"/>
       <c r="G268" s="3"/>
-      <c r="H268" s="3"/>
-      <c r="I268" s="3"/>
-      <c r="K268" s="3"/>
+      <c r="H268" s="13"/>
+      <c r="I268" s="13"/>
+      <c r="K268" s="13"/>
       <c r="L268" s="3"/>
     </row>
     <row r="269" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F269" s="3"/>
+      <c r="F269" s="13"/>
       <c r="G269" s="3"/>
-      <c r="H269" s="3"/>
-      <c r="I269" s="3"/>
-      <c r="K269" s="3"/>
+      <c r="H269" s="13"/>
+      <c r="I269" s="13"/>
+      <c r="K269" s="13"/>
       <c r="L269" s="3"/>
     </row>
     <row r="270" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F270" s="3"/>
+      <c r="F270" s="13"/>
       <c r="G270" s="3"/>
-      <c r="H270" s="3"/>
-      <c r="I270" s="3"/>
-      <c r="K270" s="3"/>
+      <c r="H270" s="13"/>
+      <c r="I270" s="13"/>
+      <c r="K270" s="13"/>
       <c r="L270" s="3"/>
     </row>
     <row r="271" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F271" s="3"/>
+      <c r="F271" s="13"/>
       <c r="G271" s="3"/>
-      <c r="H271" s="3"/>
-      <c r="I271" s="3"/>
-      <c r="K271" s="3"/>
+      <c r="H271" s="13"/>
+      <c r="I271" s="13"/>
+      <c r="K271" s="13"/>
       <c r="L271" s="3"/>
     </row>
     <row r="272" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F272" s="3"/>
+      <c r="F272" s="13"/>
       <c r="G272" s="3"/>
-      <c r="H272" s="3"/>
-      <c r="I272" s="3"/>
-      <c r="K272" s="3"/>
+      <c r="H272" s="13"/>
+      <c r="I272" s="13"/>
+      <c r="K272" s="13"/>
       <c r="L272" s="3"/>
     </row>
     <row r="273" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F273" s="3"/>
+      <c r="F273" s="13"/>
       <c r="G273" s="3"/>
-      <c r="H273" s="3"/>
-      <c r="I273" s="3"/>
-      <c r="K273" s="3"/>
+      <c r="H273" s="13"/>
+      <c r="I273" s="13"/>
+      <c r="K273" s="13"/>
       <c r="L273" s="3"/>
     </row>
     <row r="274" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F274" s="3"/>
+      <c r="F274" s="13"/>
       <c r="G274" s="3"/>
-      <c r="H274" s="3"/>
-      <c r="I274" s="3"/>
-      <c r="K274" s="3"/>
+      <c r="H274" s="13"/>
+      <c r="I274" s="13"/>
+      <c r="K274" s="13"/>
       <c r="L274" s="3"/>
     </row>
     <row r="275" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F275" s="3"/>
+      <c r="F275" s="13"/>
       <c r="G275" s="3"/>
-      <c r="H275" s="3"/>
-      <c r="I275" s="3"/>
-      <c r="K275" s="3"/>
+      <c r="H275" s="13"/>
+      <c r="I275" s="13"/>
+      <c r="K275" s="13"/>
       <c r="L275" s="3"/>
     </row>
     <row r="276" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F276" s="3"/>
+      <c r="F276" s="13"/>
       <c r="G276" s="3"/>
-      <c r="H276" s="3"/>
-      <c r="I276" s="3"/>
-      <c r="K276" s="3"/>
+      <c r="H276" s="13"/>
+      <c r="I276" s="13"/>
+      <c r="K276" s="13"/>
       <c r="L276" s="3"/>
     </row>
     <row r="277" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F277" s="3"/>
+      <c r="F277" s="13"/>
       <c r="G277" s="3"/>
-      <c r="H277" s="3"/>
-      <c r="I277" s="3"/>
-      <c r="K277" s="3"/>
+      <c r="H277" s="13"/>
+      <c r="I277" s="13"/>
+      <c r="K277" s="13"/>
       <c r="L277" s="3"/>
     </row>
     <row r="278" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F278" s="3"/>
+      <c r="F278" s="13"/>
       <c r="G278" s="3"/>
-      <c r="H278" s="3"/>
-      <c r="I278" s="3"/>
-      <c r="K278" s="3"/>
+      <c r="H278" s="13"/>
+      <c r="I278" s="13"/>
+      <c r="K278" s="13"/>
       <c r="L278" s="3"/>
     </row>
     <row r="279" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F279" s="3"/>
+      <c r="F279" s="13"/>
       <c r="G279" s="3"/>
-      <c r="H279" s="3"/>
-      <c r="I279" s="3"/>
-      <c r="K279" s="3"/>
+      <c r="H279" s="13"/>
+      <c r="I279" s="13"/>
+      <c r="K279" s="13"/>
       <c r="L279" s="3"/>
     </row>
     <row r="280" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F280" s="3"/>
+      <c r="F280" s="13"/>
       <c r="G280" s="3"/>
-      <c r="H280" s="3"/>
-      <c r="I280" s="3"/>
-      <c r="K280" s="3"/>
+      <c r="H280" s="13"/>
+      <c r="I280" s="13"/>
+      <c r="K280" s="13"/>
       <c r="L280" s="3"/>
     </row>
     <row r="281" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F281" s="3"/>
+      <c r="F281" s="13"/>
       <c r="G281" s="3"/>
-      <c r="H281" s="3"/>
-      <c r="I281" s="3"/>
-      <c r="K281" s="3"/>
+      <c r="H281" s="13"/>
+      <c r="I281" s="13"/>
+      <c r="K281" s="13"/>
       <c r="L281" s="3"/>
     </row>
     <row r="282" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F282" s="3"/>
+      <c r="F282" s="13"/>
       <c r="G282" s="3"/>
-      <c r="H282" s="3"/>
-      <c r="I282" s="3"/>
-      <c r="K282" s="3"/>
+      <c r="H282" s="13"/>
+      <c r="I282" s="13"/>
+      <c r="K282" s="13"/>
       <c r="L282" s="3"/>
     </row>
     <row r="283" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F283" s="3"/>
+      <c r="F283" s="13"/>
       <c r="G283" s="3"/>
-      <c r="H283" s="3"/>
-      <c r="I283" s="3"/>
-      <c r="K283" s="3"/>
+      <c r="H283" s="13"/>
+      <c r="I283" s="13"/>
+      <c r="K283" s="13"/>
       <c r="L283" s="3"/>
     </row>
     <row r="284" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F284" s="3"/>
+      <c r="F284" s="13"/>
       <c r="G284" s="3"/>
-      <c r="H284" s="3"/>
-      <c r="I284" s="3"/>
-      <c r="K284" s="3"/>
+      <c r="H284" s="13"/>
+      <c r="I284" s="13"/>
+      <c r="K284" s="13"/>
       <c r="L284" s="3"/>
     </row>
     <row r="285" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F285" s="3"/>
+      <c r="F285" s="13"/>
       <c r="G285" s="3"/>
-      <c r="H285" s="3"/>
-      <c r="I285" s="3"/>
-      <c r="K285" s="3"/>
+      <c r="H285" s="13"/>
+      <c r="I285" s="13"/>
+      <c r="K285" s="13"/>
       <c r="L285" s="3"/>
     </row>
     <row r="286" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F286" s="3"/>
+      <c r="F286" s="13"/>
       <c r="G286" s="3"/>
-      <c r="H286" s="3"/>
-      <c r="I286" s="3"/>
-      <c r="K286" s="3"/>
+      <c r="H286" s="13"/>
+      <c r="I286" s="13"/>
+      <c r="K286" s="13"/>
       <c r="L286" s="3"/>
     </row>
     <row r="287" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F287" s="3"/>
+      <c r="F287" s="13"/>
       <c r="G287" s="3"/>
-      <c r="H287" s="3"/>
-      <c r="I287" s="3"/>
-      <c r="K287" s="3"/>
+      <c r="H287" s="13"/>
+      <c r="I287" s="13"/>
+      <c r="K287" s="13"/>
       <c r="L287" s="3"/>
     </row>
     <row r="288" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F288" s="3"/>
+      <c r="F288" s="13"/>
       <c r="G288" s="3"/>
-      <c r="H288" s="3"/>
-      <c r="I288" s="3"/>
-      <c r="K288" s="3"/>
+      <c r="H288" s="13"/>
+      <c r="I288" s="13"/>
+      <c r="K288" s="13"/>
       <c r="L288" s="3"/>
     </row>
     <row r="289" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F289" s="3"/>
+      <c r="F289" s="13"/>
       <c r="G289" s="3"/>
-      <c r="H289" s="3"/>
-      <c r="I289" s="3"/>
-      <c r="K289" s="3"/>
+      <c r="H289" s="13"/>
+      <c r="I289" s="13"/>
+      <c r="K289" s="13"/>
       <c r="L289" s="3"/>
     </row>
     <row r="290" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F290" s="3"/>
+      <c r="F290" s="13"/>
       <c r="G290" s="3"/>
-      <c r="H290" s="3"/>
-      <c r="I290" s="3"/>
-      <c r="K290" s="3"/>
+      <c r="H290" s="13"/>
+      <c r="I290" s="13"/>
+      <c r="K290" s="13"/>
       <c r="L290" s="3"/>
     </row>
     <row r="291" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F291" s="3"/>
+      <c r="F291" s="13"/>
       <c r="G291" s="3"/>
-      <c r="H291" s="3"/>
-      <c r="I291" s="3"/>
-      <c r="K291" s="3"/>
+      <c r="H291" s="13"/>
+      <c r="I291" s="13"/>
+      <c r="K291" s="13"/>
       <c r="L291" s="3"/>
     </row>
     <row r="292" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F292" s="3"/>
+      <c r="F292" s="13"/>
       <c r="G292" s="3"/>
-      <c r="H292" s="3"/>
-      <c r="I292" s="3"/>
-      <c r="K292" s="3"/>
+      <c r="H292" s="13"/>
+      <c r="I292" s="13"/>
+      <c r="K292" s="13"/>
       <c r="L292" s="3"/>
     </row>
     <row r="293" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F293" s="3"/>
+      <c r="F293" s="13"/>
       <c r="G293" s="3"/>
-      <c r="H293" s="3"/>
-      <c r="I293" s="3"/>
-      <c r="K293" s="3"/>
+      <c r="H293" s="13"/>
+      <c r="I293" s="13"/>
+      <c r="K293" s="13"/>
       <c r="L293" s="3"/>
     </row>
     <row r="294" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F294" s="3"/>
+      <c r="F294" s="13"/>
       <c r="G294" s="3"/>
-      <c r="H294" s="3"/>
-      <c r="I294" s="3"/>
-      <c r="K294" s="3"/>
+      <c r="H294" s="13"/>
+      <c r="I294" s="13"/>
+      <c r="K294" s="13"/>
       <c r="L294" s="3"/>
     </row>
     <row r="295" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F295" s="3"/>
+      <c r="F295" s="13"/>
       <c r="G295" s="3"/>
-      <c r="H295" s="3"/>
-      <c r="I295" s="3"/>
-      <c r="K295" s="3"/>
+      <c r="H295" s="13"/>
+      <c r="I295" s="13"/>
+      <c r="K295" s="13"/>
       <c r="L295" s="3"/>
     </row>
     <row r="296" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F296" s="3"/>
+      <c r="F296" s="13"/>
       <c r="G296" s="3"/>
-      <c r="H296" s="3"/>
-      <c r="I296" s="3"/>
-      <c r="K296" s="3"/>
+      <c r="H296" s="13"/>
+      <c r="I296" s="13"/>
+      <c r="K296" s="13"/>
       <c r="L296" s="3"/>
     </row>
     <row r="297" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F297" s="3"/>
+      <c r="F297" s="13"/>
       <c r="G297" s="3"/>
-      <c r="H297" s="3"/>
-      <c r="I297" s="3"/>
-      <c r="K297" s="3"/>
+      <c r="H297" s="13"/>
+      <c r="I297" s="13"/>
+      <c r="K297" s="13"/>
       <c r="L297" s="3"/>
     </row>
     <row r="298" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F298" s="3"/>
+      <c r="F298" s="13"/>
       <c r="G298" s="3"/>
-      <c r="H298" s="3"/>
-      <c r="I298" s="3"/>
-      <c r="K298" s="3"/>
+      <c r="H298" s="13"/>
+      <c r="I298" s="13"/>
+      <c r="K298" s="13"/>
       <c r="L298" s="3"/>
     </row>
     <row r="299" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F299" s="3"/>
+      <c r="F299" s="13"/>
       <c r="G299" s="3"/>
-      <c r="H299" s="3"/>
-      <c r="I299" s="3"/>
-      <c r="K299" s="3"/>
+      <c r="H299" s="13"/>
+      <c r="I299" s="13"/>
+      <c r="K299" s="13"/>
       <c r="L299" s="3"/>
     </row>
     <row r="300" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F300" s="3"/>
+      <c r="F300" s="13"/>
       <c r="G300" s="3"/>
-      <c r="H300" s="3"/>
-      <c r="I300" s="3"/>
-      <c r="K300" s="3"/>
+      <c r="H300" s="13"/>
+      <c r="I300" s="13"/>
+      <c r="K300" s="13"/>
       <c r="L300" s="3"/>
     </row>
     <row r="301" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F301" s="3"/>
+      <c r="F301" s="13"/>
       <c r="G301" s="3"/>
-      <c r="H301" s="3"/>
-      <c r="I301" s="3"/>
-      <c r="K301" s="3"/>
+      <c r="H301" s="13"/>
+      <c r="I301" s="13"/>
+      <c r="K301" s="13"/>
       <c r="L301" s="3"/>
     </row>
     <row r="302" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F302" s="3"/>
+      <c r="F302" s="13"/>
       <c r="G302" s="3"/>
-      <c r="H302" s="3"/>
-      <c r="I302" s="3"/>
-      <c r="K302" s="3"/>
+      <c r="H302" s="13"/>
+      <c r="I302" s="13"/>
+      <c r="K302" s="13"/>
       <c r="L302" s="3"/>
     </row>
     <row r="303" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F303" s="3"/>
+      <c r="F303" s="13"/>
       <c r="G303" s="3"/>
-      <c r="H303" s="3"/>
-      <c r="I303" s="3"/>
-      <c r="K303" s="3"/>
+      <c r="H303" s="13"/>
+      <c r="I303" s="13"/>
+      <c r="K303" s="13"/>
       <c r="L303" s="3"/>
     </row>
     <row r="304" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F304" s="3"/>
+      <c r="F304" s="13"/>
       <c r="G304" s="3"/>
-      <c r="H304" s="3"/>
-      <c r="I304" s="3"/>
-      <c r="K304" s="3"/>
+      <c r="H304" s="13"/>
+      <c r="I304" s="13"/>
+      <c r="K304" s="13"/>
       <c r="L304" s="3"/>
     </row>
     <row r="305" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F305" s="3"/>
+      <c r="F305" s="13"/>
       <c r="G305" s="3"/>
-      <c r="H305" s="3"/>
-      <c r="I305" s="3"/>
-      <c r="K305" s="3"/>
+      <c r="H305" s="13"/>
+      <c r="I305" s="13"/>
+      <c r="K305" s="13"/>
       <c r="L305" s="3"/>
     </row>
     <row r="306" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F306" s="3"/>
+      <c r="F306" s="13"/>
       <c r="G306" s="3"/>
-      <c r="H306" s="3"/>
-      <c r="I306" s="3"/>
-      <c r="K306" s="3"/>
+      <c r="H306" s="13"/>
+      <c r="I306" s="13"/>
+      <c r="K306" s="13"/>
       <c r="L306" s="3"/>
     </row>
     <row r="307" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F307" s="3"/>
+      <c r="F307" s="13"/>
       <c r="G307" s="3"/>
-      <c r="H307" s="3"/>
-      <c r="I307" s="3"/>
-      <c r="K307" s="3"/>
+      <c r="H307" s="13"/>
+      <c r="I307" s="13"/>
+      <c r="K307" s="13"/>
       <c r="L307" s="3"/>
     </row>
     <row r="308" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F308" s="3"/>
+      <c r="F308" s="13"/>
       <c r="G308" s="3"/>
-      <c r="H308" s="3"/>
-      <c r="I308" s="3"/>
-      <c r="K308" s="3"/>
+      <c r="H308" s="13"/>
+      <c r="I308" s="13"/>
+      <c r="K308" s="13"/>
       <c r="L308" s="3"/>
     </row>
     <row r="309" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F309" s="3"/>
+      <c r="F309" s="13"/>
       <c r="G309" s="3"/>
-      <c r="H309" s="3"/>
-      <c r="I309" s="3"/>
-      <c r="K309" s="3"/>
+      <c r="H309" s="13"/>
+      <c r="I309" s="13"/>
+      <c r="K309" s="13"/>
       <c r="L309" s="3"/>
     </row>
     <row r="310" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F310" s="3"/>
+      <c r="F310" s="13"/>
       <c r="G310" s="3"/>
-      <c r="H310" s="3"/>
-      <c r="I310" s="3"/>
-      <c r="K310" s="3"/>
+      <c r="H310" s="13"/>
+      <c r="I310" s="13"/>
+      <c r="K310" s="13"/>
       <c r="L310" s="3"/>
     </row>
     <row r="311" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F311" s="3"/>
+      <c r="F311" s="13"/>
       <c r="G311" s="3"/>
-      <c r="H311" s="3"/>
-      <c r="I311" s="3"/>
-      <c r="K311" s="3"/>
+      <c r="H311" s="13"/>
+      <c r="I311" s="13"/>
+      <c r="K311" s="13"/>
       <c r="L311" s="3"/>
     </row>
     <row r="312" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F312" s="3"/>
+      <c r="F312" s="13"/>
       <c r="G312" s="3"/>
-      <c r="H312" s="3"/>
-      <c r="I312" s="3"/>
-      <c r="K312" s="3"/>
+      <c r="H312" s="13"/>
+      <c r="I312" s="13"/>
+      <c r="K312" s="13"/>
       <c r="L312" s="3"/>
     </row>
     <row r="313" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F313" s="3"/>
+      <c r="F313" s="13"/>
       <c r="G313" s="3"/>
-      <c r="H313" s="3"/>
-      <c r="I313" s="3"/>
-      <c r="K313" s="3"/>
+      <c r="H313" s="13"/>
+      <c r="I313" s="13"/>
+      <c r="K313" s="13"/>
       <c r="L313" s="3"/>
     </row>
     <row r="314" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F314" s="3"/>
+      <c r="F314" s="13"/>
       <c r="G314" s="3"/>
-      <c r="H314" s="3"/>
-      <c r="I314" s="3"/>
-      <c r="K314" s="3"/>
+      <c r="H314" s="13"/>
+      <c r="I314" s="13"/>
+      <c r="K314" s="13"/>
       <c r="L314" s="3"/>
     </row>
     <row r="315" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F315" s="3"/>
+      <c r="F315" s="13"/>
       <c r="G315" s="3"/>
-      <c r="H315" s="3"/>
-      <c r="I315" s="3"/>
-      <c r="K315" s="3"/>
+      <c r="H315" s="13"/>
+      <c r="I315" s="13"/>
+      <c r="K315" s="13"/>
       <c r="L315" s="3"/>
     </row>
     <row r="316" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F316" s="3"/>
+      <c r="F316" s="13"/>
       <c r="G316" s="3"/>
-      <c r="H316" s="3"/>
-      <c r="I316" s="3"/>
-      <c r="K316" s="3"/>
+      <c r="H316" s="13"/>
+      <c r="I316" s="13"/>
+      <c r="K316" s="13"/>
       <c r="L316" s="3"/>
     </row>
     <row r="317" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F317" s="3"/>
+      <c r="F317" s="13"/>
       <c r="G317" s="3"/>
-      <c r="H317" s="3"/>
-      <c r="I317" s="3"/>
-      <c r="K317" s="3"/>
+      <c r="H317" s="13"/>
+      <c r="I317" s="13"/>
+      <c r="K317" s="13"/>
       <c r="L317" s="3"/>
     </row>
     <row r="318" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F318" s="3"/>
+      <c r="F318" s="13"/>
       <c r="G318" s="3"/>
-      <c r="H318" s="3"/>
-      <c r="I318" s="3"/>
-      <c r="K318" s="3"/>
+      <c r="H318" s="13"/>
+      <c r="I318" s="13"/>
+      <c r="K318" s="13"/>
       <c r="L318" s="3"/>
     </row>
     <row r="319" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F319" s="3"/>
+      <c r="F319" s="13"/>
       <c r="G319" s="3"/>
-      <c r="H319" s="3"/>
-      <c r="I319" s="3"/>
-      <c r="K319" s="3"/>
+      <c r="H319" s="13"/>
+      <c r="I319" s="13"/>
+      <c r="K319" s="13"/>
       <c r="L319" s="3"/>
     </row>
     <row r="320" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F320" s="3"/>
+      <c r="F320" s="13"/>
       <c r="G320" s="3"/>
-      <c r="H320" s="3"/>
-      <c r="I320" s="3"/>
-      <c r="K320" s="3"/>
+      <c r="H320" s="13"/>
+      <c r="I320" s="13"/>
+      <c r="K320" s="13"/>
       <c r="L320" s="3"/>
     </row>
     <row r="321" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F321" s="3"/>
+      <c r="F321" s="13"/>
       <c r="G321" s="3"/>
-      <c r="H321" s="3"/>
-      <c r="I321" s="3"/>
-      <c r="K321" s="3"/>
+      <c r="H321" s="13"/>
+      <c r="I321" s="13"/>
+      <c r="K321" s="13"/>
       <c r="L321" s="3"/>
     </row>
     <row r="322" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F322" s="3"/>
+      <c r="F322" s="13"/>
       <c r="G322" s="3"/>
-      <c r="H322" s="3"/>
-      <c r="I322" s="3"/>
-      <c r="K322" s="3"/>
+      <c r="H322" s="13"/>
+      <c r="I322" s="13"/>
+      <c r="K322" s="13"/>
       <c r="L322" s="3"/>
     </row>
     <row r="323" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F323" s="3"/>
+      <c r="F323" s="13"/>
       <c r="G323" s="3"/>
-      <c r="H323" s="3"/>
-      <c r="I323" s="3"/>
-      <c r="K323" s="3"/>
+      <c r="H323" s="13"/>
+      <c r="I323" s="13"/>
+      <c r="K323" s="13"/>
       <c r="L323" s="3"/>
     </row>
     <row r="324" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F324" s="3"/>
+      <c r="F324" s="13"/>
       <c r="G324" s="3"/>
-      <c r="H324" s="3"/>
-      <c r="I324" s="3"/>
-      <c r="K324" s="3"/>
+      <c r="H324" s="13"/>
+      <c r="I324" s="13"/>
+      <c r="K324" s="13"/>
       <c r="L324" s="3"/>
     </row>
     <row r="325" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F325" s="3"/>
+      <c r="F325" s="13"/>
       <c r="G325" s="3"/>
-      <c r="H325" s="3"/>
-      <c r="I325" s="3"/>
-      <c r="K325" s="3"/>
+      <c r="H325" s="13"/>
+      <c r="I325" s="13"/>
+      <c r="K325" s="13"/>
       <c r="L325" s="3"/>
     </row>
     <row r="326" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F326" s="3"/>
+      <c r="F326" s="13"/>
       <c r="G326" s="3"/>
-      <c r="H326" s="3"/>
-      <c r="I326" s="3"/>
-      <c r="K326" s="3"/>
+      <c r="H326" s="13"/>
+      <c r="I326" s="13"/>
+      <c r="K326" s="13"/>
       <c r="L326" s="3"/>
     </row>
     <row r="327" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F327" s="3"/>
+      <c r="F327" s="13"/>
       <c r="G327" s="3"/>
-      <c r="H327" s="3"/>
-      <c r="I327" s="3"/>
-      <c r="K327" s="3"/>
+      <c r="H327" s="13"/>
+      <c r="I327" s="13"/>
+      <c r="K327" s="13"/>
       <c r="L327" s="3"/>
     </row>
     <row r="328" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F328" s="3"/>
+      <c r="F328" s="13"/>
       <c r="G328" s="3"/>
-      <c r="H328" s="3"/>
-      <c r="I328" s="3"/>
-      <c r="K328" s="3"/>
+      <c r="H328" s="13"/>
+      <c r="I328" s="13"/>
+      <c r="K328" s="13"/>
       <c r="L328" s="3"/>
     </row>
     <row r="329" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F329" s="3"/>
+      <c r="F329" s="13"/>
       <c r="G329" s="3"/>
-      <c r="H329" s="3"/>
-      <c r="I329" s="3"/>
-      <c r="K329" s="3"/>
+      <c r="H329" s="13"/>
+      <c r="I329" s="13"/>
+      <c r="K329" s="13"/>
       <c r="L329" s="3"/>
     </row>
     <row r="330" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F330" s="3"/>
+      <c r="F330" s="13"/>
       <c r="G330" s="3"/>
-      <c r="H330" s="3"/>
-      <c r="I330" s="3"/>
-      <c r="K330" s="3"/>
+      <c r="H330" s="13"/>
+      <c r="I330" s="13"/>
+      <c r="K330" s="13"/>
       <c r="L330" s="3"/>
     </row>
     <row r="331" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F331" s="3"/>
+      <c r="F331" s="13"/>
       <c r="G331" s="3"/>
-      <c r="H331" s="3"/>
-      <c r="I331" s="3"/>
-      <c r="K331" s="3"/>
+      <c r="H331" s="13"/>
+      <c r="I331" s="13"/>
+      <c r="K331" s="13"/>
       <c r="L331" s="3"/>
     </row>
     <row r="332" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F332" s="3"/>
+      <c r="F332" s="13"/>
       <c r="G332" s="3"/>
-      <c r="H332" s="3"/>
-      <c r="I332" s="3"/>
-      <c r="K332" s="3"/>
+      <c r="H332" s="13"/>
+      <c r="I332" s="13"/>
+      <c r="K332" s="13"/>
       <c r="L332" s="3"/>
     </row>
     <row r="333" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F333" s="3"/>
+      <c r="F333" s="13"/>
       <c r="G333" s="3"/>
-      <c r="H333" s="3"/>
-      <c r="I333" s="3"/>
-      <c r="K333" s="3"/>
+      <c r="H333" s="13"/>
+      <c r="I333" s="13"/>
+      <c r="K333" s="13"/>
       <c r="L333" s="3"/>
     </row>
     <row r="334" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F334" s="3"/>
+      <c r="F334" s="13"/>
       <c r="G334" s="3"/>
-      <c r="H334" s="3"/>
-      <c r="I334" s="3"/>
-      <c r="K334" s="3"/>
+      <c r="H334" s="13"/>
+      <c r="I334" s="13"/>
+      <c r="K334" s="13"/>
       <c r="L334" s="3"/>
     </row>
     <row r="335" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F335" s="3"/>
+      <c r="F335" s="13"/>
       <c r="G335" s="3"/>
-      <c r="H335" s="3"/>
-      <c r="I335" s="3"/>
-      <c r="K335" s="3"/>
+      <c r="H335" s="13"/>
+      <c r="I335" s="13"/>
+      <c r="K335" s="13"/>
       <c r="L335" s="3"/>
     </row>
     <row r="336" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F336" s="3"/>
+      <c r="F336" s="13"/>
       <c r="G336" s="3"/>
-      <c r="H336" s="3"/>
-      <c r="I336" s="3"/>
-      <c r="K336" s="3"/>
+      <c r="H336" s="13"/>
+      <c r="I336" s="13"/>
+      <c r="K336" s="13"/>
       <c r="L336" s="3"/>
     </row>
     <row r="337" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F337" s="3"/>
+      <c r="F337" s="13"/>
       <c r="G337" s="3"/>
-      <c r="H337" s="3"/>
-      <c r="I337" s="3"/>
-      <c r="K337" s="3"/>
+      <c r="H337" s="13"/>
+      <c r="I337" s="13"/>
+      <c r="K337" s="13"/>
       <c r="L337" s="3"/>
     </row>
     <row r="338" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F338" s="3"/>
+      <c r="F338" s="13"/>
       <c r="G338" s="3"/>
-      <c r="H338" s="3"/>
-      <c r="I338" s="3"/>
-      <c r="K338" s="3"/>
+      <c r="H338" s="13"/>
+      <c r="I338" s="13"/>
+      <c r="K338" s="13"/>
       <c r="L338" s="3"/>
     </row>
     <row r="339" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F339" s="3"/>
+      <c r="F339" s="13"/>
       <c r="G339" s="3"/>
-      <c r="H339" s="3"/>
-      <c r="I339" s="3"/>
-      <c r="K339" s="3"/>
+      <c r="H339" s="13"/>
+      <c r="I339" s="13"/>
+      <c r="K339" s="13"/>
       <c r="L339" s="3"/>
     </row>
     <row r="340" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F340" s="3"/>
+      <c r="F340" s="13"/>
       <c r="G340" s="3"/>
-      <c r="H340" s="3"/>
-      <c r="I340" s="3"/>
-      <c r="K340" s="3"/>
+      <c r="H340" s="13"/>
+      <c r="I340" s="13"/>
+      <c r="K340" s="13"/>
       <c r="L340" s="3"/>
     </row>
     <row r="341" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F341" s="3"/>
+      <c r="F341" s="13"/>
       <c r="G341" s="3"/>
-      <c r="H341" s="3"/>
-      <c r="I341" s="3"/>
-      <c r="K341" s="3"/>
+      <c r="H341" s="13"/>
+      <c r="I341" s="13"/>
+      <c r="K341" s="13"/>
       <c r="L341" s="3"/>
     </row>
     <row r="342" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F342" s="3"/>
+      <c r="F342" s="13"/>
       <c r="G342" s="3"/>
-      <c r="H342" s="3"/>
-      <c r="I342" s="3"/>
-      <c r="K342" s="3"/>
+      <c r="H342" s="13"/>
+      <c r="I342" s="13"/>
+      <c r="K342" s="13"/>
       <c r="L342" s="3"/>
     </row>
     <row r="343" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F343" s="3"/>
+      <c r="F343" s="13"/>
       <c r="G343" s="3"/>
-      <c r="H343" s="3"/>
-      <c r="I343" s="3"/>
-      <c r="K343" s="3"/>
+      <c r="H343" s="13"/>
+      <c r="I343" s="13"/>
+      <c r="K343" s="13"/>
       <c r="L343" s="3"/>
     </row>
     <row r="344" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F344" s="3"/>
+      <c r="F344" s="13"/>
       <c r="G344" s="3"/>
-      <c r="H344" s="3"/>
-      <c r="I344" s="3"/>
-      <c r="K344" s="3"/>
+      <c r="H344" s="13"/>
+      <c r="I344" s="13"/>
+      <c r="K344" s="13"/>
       <c r="L344" s="3"/>
     </row>
     <row r="345" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F345" s="3"/>
+      <c r="F345" s="13"/>
       <c r="G345" s="3"/>
-      <c r="H345" s="3"/>
-      <c r="I345" s="3"/>
-      <c r="K345" s="3"/>
+      <c r="H345" s="13"/>
+      <c r="I345" s="13"/>
+      <c r="K345" s="13"/>
       <c r="L345" s="3"/>
     </row>
     <row r="346" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F346" s="3"/>
+      <c r="F346" s="13"/>
       <c r="G346" s="3"/>
-      <c r="H346" s="3"/>
-      <c r="I346" s="3"/>
-      <c r="K346" s="3"/>
+      <c r="H346" s="13"/>
+      <c r="I346" s="13"/>
+      <c r="K346" s="13"/>
       <c r="L346" s="3"/>
     </row>
     <row r="347" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F347" s="3"/>
+      <c r="F347" s="13"/>
       <c r="G347" s="3"/>
-      <c r="H347" s="3"/>
-      <c r="I347" s="3"/>
-      <c r="K347" s="3"/>
+      <c r="H347" s="13"/>
+      <c r="I347" s="13"/>
+      <c r="K347" s="13"/>
       <c r="L347" s="3"/>
     </row>
     <row r="348" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F348" s="3"/>
+      <c r="F348" s="13"/>
       <c r="G348" s="3"/>
-      <c r="H348" s="3"/>
-      <c r="I348" s="3"/>
-      <c r="K348" s="3"/>
+      <c r="H348" s="13"/>
+      <c r="I348" s="13"/>
+      <c r="K348" s="13"/>
       <c r="L348" s="3"/>
     </row>
     <row r="349" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F349" s="3"/>
+      <c r="F349" s="13"/>
       <c r="G349" s="3"/>
-      <c r="H349" s="3"/>
-      <c r="I349" s="3"/>
-      <c r="K349" s="3"/>
+      <c r="H349" s="13"/>
+      <c r="I349" s="13"/>
+      <c r="K349" s="13"/>
       <c r="L349" s="3"/>
     </row>
     <row r="350" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F350" s="3"/>
+      <c r="F350" s="13"/>
       <c r="G350" s="3"/>
-      <c r="H350" s="3"/>
-      <c r="I350" s="3"/>
-      <c r="K350" s="3"/>
+      <c r="H350" s="13"/>
+      <c r="I350" s="13"/>
+      <c r="K350" s="13"/>
       <c r="L350" s="3"/>
     </row>
     <row r="351" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F351" s="3"/>
+      <c r="F351" s="13"/>
       <c r="G351" s="3"/>
-      <c r="H351" s="3"/>
-      <c r="I351" s="3"/>
-      <c r="K351" s="3"/>
+      <c r="H351" s="13"/>
+      <c r="I351" s="13"/>
+      <c r="K351" s="13"/>
       <c r="L351" s="3"/>
     </row>
     <row r="352" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F352" s="3"/>
+      <c r="F352" s="13"/>
       <c r="G352" s="3"/>
-      <c r="H352" s="3"/>
-      <c r="I352" s="3"/>
-      <c r="K352" s="3"/>
+      <c r="H352" s="13"/>
+      <c r="I352" s="13"/>
+      <c r="K352" s="13"/>
       <c r="L352" s="3"/>
     </row>
     <row r="353" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F353" s="3"/>
+      <c r="F353" s="13"/>
       <c r="G353" s="3"/>
-      <c r="H353" s="3"/>
-      <c r="I353" s="3"/>
-      <c r="K353" s="3"/>
+      <c r="H353" s="13"/>
+      <c r="I353" s="13"/>
+      <c r="K353" s="13"/>
       <c r="L353" s="3"/>
     </row>
     <row r="354" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F354" s="3"/>
+      <c r="F354" s="13"/>
       <c r="G354" s="3"/>
-      <c r="H354" s="3"/>
-      <c r="I354" s="3"/>
-      <c r="K354" s="3"/>
+      <c r="H354" s="13"/>
+      <c r="I354" s="13"/>
+      <c r="K354" s="13"/>
       <c r="L354" s="3"/>
     </row>
     <row r="355" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F355" s="3"/>
+      <c r="F355" s="13"/>
       <c r="G355" s="3"/>
-      <c r="H355" s="3"/>
-      <c r="I355" s="3"/>
-      <c r="K355" s="3"/>
+      <c r="H355" s="13"/>
+      <c r="I355" s="13"/>
+      <c r="K355" s="13"/>
       <c r="L355" s="3"/>
     </row>
     <row r="356" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F356" s="3"/>
+      <c r="F356" s="13"/>
       <c r="G356" s="3"/>
-      <c r="H356" s="3"/>
-      <c r="I356" s="3"/>
-      <c r="K356" s="3"/>
+      <c r="H356" s="13"/>
+      <c r="I356" s="13"/>
+      <c r="K356" s="13"/>
       <c r="L356" s="3"/>
     </row>
     <row r="357" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F357" s="3"/>
+      <c r="F357" s="13"/>
       <c r="G357" s="3"/>
-      <c r="H357" s="3"/>
-      <c r="I357" s="3"/>
-      <c r="K357" s="3"/>
+      <c r="H357" s="13"/>
+      <c r="I357" s="13"/>
+      <c r="K357" s="13"/>
       <c r="L357" s="3"/>
     </row>
     <row r="358" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F358" s="3"/>
+      <c r="F358" s="13"/>
       <c r="G358" s="3"/>
-      <c r="H358" s="3"/>
-      <c r="I358" s="3"/>
-      <c r="K358" s="3"/>
+      <c r="H358" s="13"/>
+      <c r="I358" s="13"/>
+      <c r="K358" s="13"/>
       <c r="L358" s="3"/>
     </row>
     <row r="359" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F359" s="3"/>
+      <c r="F359" s="13"/>
       <c r="G359" s="3"/>
-      <c r="H359" s="3"/>
-      <c r="I359" s="3"/>
-      <c r="K359" s="3"/>
+      <c r="H359" s="13"/>
+      <c r="I359" s="13"/>
+      <c r="K359" s="13"/>
       <c r="L359" s="3"/>
     </row>
     <row r="360" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F360" s="3"/>
+      <c r="F360" s="13"/>
       <c r="G360" s="3"/>
-      <c r="H360" s="3"/>
-      <c r="I360" s="3"/>
-      <c r="K360" s="3"/>
+      <c r="H360" s="13"/>
+      <c r="I360" s="13"/>
+      <c r="K360" s="13"/>
       <c r="L360" s="3"/>
     </row>
     <row r="361" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F361" s="3"/>
+      <c r="F361" s="13"/>
       <c r="G361" s="3"/>
-      <c r="H361" s="3"/>
-      <c r="I361" s="3"/>
-      <c r="K361" s="3"/>
+      <c r="H361" s="13"/>
+      <c r="I361" s="13"/>
+      <c r="K361" s="13"/>
       <c r="L361" s="3"/>
     </row>
     <row r="362" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F362" s="3"/>
+      <c r="F362" s="13"/>
       <c r="G362" s="3"/>
-      <c r="H362" s="3"/>
-      <c r="I362" s="3"/>
-      <c r="K362" s="3"/>
+      <c r="H362" s="13"/>
+      <c r="I362" s="13"/>
+      <c r="K362" s="13"/>
       <c r="L362" s="3"/>
     </row>
     <row r="363" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F363" s="3"/>
+      <c r="F363" s="13"/>
       <c r="G363" s="3"/>
-      <c r="H363" s="3"/>
-      <c r="I363" s="3"/>
-      <c r="K363" s="3"/>
+      <c r="H363" s="13"/>
+      <c r="I363" s="13"/>
+      <c r="K363" s="13"/>
       <c r="L363" s="3"/>
     </row>
     <row r="364" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F364" s="3"/>
+      <c r="F364" s="13"/>
       <c r="G364" s="3"/>
-      <c r="H364" s="3"/>
-      <c r="I364" s="3"/>
-      <c r="K364" s="3"/>
+      <c r="H364" s="13"/>
+      <c r="I364" s="13"/>
+      <c r="K364" s="13"/>
       <c r="L364" s="3"/>
     </row>
     <row r="365" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F365" s="3"/>
+      <c r="F365" s="13"/>
       <c r="G365" s="3"/>
-      <c r="H365" s="3"/>
-      <c r="I365" s="3"/>
-      <c r="K365" s="3"/>
+      <c r="H365" s="13"/>
+      <c r="I365" s="13"/>
+      <c r="K365" s="13"/>
       <c r="L365" s="3"/>
     </row>
     <row r="366" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F366" s="3"/>
+      <c r="F366" s="13"/>
       <c r="G366" s="3"/>
-      <c r="H366" s="3"/>
-      <c r="I366" s="3"/>
-      <c r="K366" s="3"/>
+      <c r="H366" s="13"/>
+      <c r="I366" s="13"/>
+      <c r="K366" s="13"/>
       <c r="L366" s="3"/>
     </row>
     <row r="367" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F367" s="3"/>
+      <c r="F367" s="13"/>
       <c r="G367" s="3"/>
-      <c r="H367" s="3"/>
-      <c r="I367" s="3"/>
-      <c r="K367" s="3"/>
+      <c r="H367" s="13"/>
+      <c r="I367" s="13"/>
+      <c r="K367" s="13"/>
       <c r="L367" s="3"/>
     </row>
     <row r="368" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F368" s="3"/>
+      <c r="F368" s="13"/>
       <c r="G368" s="3"/>
-      <c r="H368" s="3"/>
-      <c r="I368" s="3"/>
-      <c r="K368" s="3"/>
+      <c r="H368" s="13"/>
+      <c r="I368" s="13"/>
+      <c r="K368" s="13"/>
       <c r="L368" s="3"/>
     </row>
     <row r="369" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F369" s="3"/>
+      <c r="F369" s="13"/>
       <c r="G369" s="3"/>
-      <c r="H369" s="3"/>
-      <c r="I369" s="3"/>
-      <c r="K369" s="3"/>
+      <c r="H369" s="13"/>
+      <c r="I369" s="13"/>
+      <c r="K369" s="13"/>
       <c r="L369" s="3"/>
     </row>
     <row r="370" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F370" s="3"/>
+      <c r="F370" s="13"/>
       <c r="G370" s="3"/>
-      <c r="H370" s="3"/>
-      <c r="I370" s="3"/>
-      <c r="K370" s="3"/>
+      <c r="H370" s="13"/>
+      <c r="I370" s="13"/>
+      <c r="K370" s="13"/>
       <c r="L370" s="3"/>
     </row>
     <row r="371" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F371" s="3"/>
+      <c r="F371" s="13"/>
       <c r="G371" s="3"/>
-      <c r="H371" s="3"/>
-      <c r="I371" s="3"/>
-      <c r="K371" s="3"/>
+      <c r="H371" s="13"/>
+      <c r="I371" s="13"/>
+      <c r="K371" s="13"/>
       <c r="L371" s="3"/>
     </row>
     <row r="372" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F372" s="3"/>
+      <c r="F372" s="13"/>
       <c r="G372" s="3"/>
-      <c r="H372" s="3"/>
-      <c r="I372" s="3"/>
-      <c r="K372" s="3"/>
+      <c r="H372" s="13"/>
+      <c r="I372" s="13"/>
+      <c r="K372" s="13"/>
       <c r="L372" s="3"/>
     </row>
     <row r="373" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F373" s="3"/>
+      <c r="F373" s="13"/>
       <c r="G373" s="3"/>
-      <c r="H373" s="3"/>
-      <c r="I373" s="3"/>
-      <c r="K373" s="3"/>
+      <c r="H373" s="13"/>
+      <c r="I373" s="13"/>
+      <c r="K373" s="13"/>
       <c r="L373" s="3"/>
     </row>
     <row r="374" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F374" s="3"/>
+      <c r="F374" s="13"/>
       <c r="G374" s="3"/>
-      <c r="H374" s="3"/>
-      <c r="I374" s="3"/>
-      <c r="K374" s="3"/>
+      <c r="H374" s="13"/>
+      <c r="I374" s="13"/>
+      <c r="K374" s="13"/>
       <c r="L374" s="3"/>
     </row>
     <row r="375" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F375" s="3"/>
+      <c r="F375" s="13"/>
       <c r="G375" s="3"/>
-      <c r="H375" s="3"/>
-      <c r="I375" s="3"/>
-      <c r="K375" s="3"/>
+      <c r="H375" s="13"/>
+      <c r="I375" s="13"/>
+      <c r="K375" s="13"/>
       <c r="L375" s="3"/>
     </row>
     <row r="376" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F376" s="3"/>
+      <c r="F376" s="13"/>
       <c r="G376" s="3"/>
-      <c r="H376" s="3"/>
-      <c r="I376" s="3"/>
-      <c r="K376" s="3"/>
+      <c r="H376" s="13"/>
+      <c r="I376" s="13"/>
+      <c r="K376" s="13"/>
       <c r="L376" s="3"/>
     </row>
     <row r="377" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F377" s="3"/>
+      <c r="F377" s="13"/>
       <c r="G377" s="3"/>
-      <c r="H377" s="3"/>
-      <c r="I377" s="3"/>
-      <c r="K377" s="3"/>
+      <c r="H377" s="13"/>
+      <c r="I377" s="13"/>
+      <c r="K377" s="13"/>
       <c r="L377" s="3"/>
     </row>
     <row r="378" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F378" s="3"/>
+      <c r="F378" s="13"/>
       <c r="G378" s="3"/>
-      <c r="H378" s="3"/>
-      <c r="I378" s="3"/>
-      <c r="K378" s="3"/>
+      <c r="H378" s="13"/>
+      <c r="I378" s="13"/>
+      <c r="K378" s="13"/>
       <c r="L378" s="3"/>
     </row>
     <row r="379" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F379" s="3"/>
+      <c r="F379" s="13"/>
       <c r="G379" s="3"/>
-      <c r="H379" s="3"/>
-      <c r="I379" s="3"/>
-      <c r="K379" s="3"/>
+      <c r="H379" s="13"/>
+      <c r="I379" s="13"/>
+      <c r="K379" s="13"/>
       <c r="L379" s="3"/>
     </row>
     <row r="380" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F380" s="3"/>
+      <c r="F380" s="13"/>
       <c r="G380" s="3"/>
-      <c r="H380" s="3"/>
-      <c r="I380" s="3"/>
-      <c r="K380" s="3"/>
+      <c r="H380" s="13"/>
+      <c r="I380" s="13"/>
+      <c r="K380" s="13"/>
       <c r="L380" s="3"/>
     </row>
     <row r="381" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F381" s="3"/>
+      <c r="F381" s="13"/>
       <c r="G381" s="3"/>
-      <c r="H381" s="3"/>
-      <c r="I381" s="3"/>
-      <c r="K381" s="3"/>
+      <c r="H381" s="13"/>
+      <c r="I381" s="13"/>
+      <c r="K381" s="13"/>
       <c r="L381" s="3"/>
     </row>
     <row r="382" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F382" s="3"/>
+      <c r="F382" s="13"/>
       <c r="G382" s="3"/>
-      <c r="H382" s="3"/>
-      <c r="I382" s="3"/>
-      <c r="K382" s="3"/>
+      <c r="H382" s="13"/>
+      <c r="I382" s="13"/>
+      <c r="K382" s="13"/>
       <c r="L382" s="3"/>
     </row>
     <row r="383" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F383" s="3"/>
+      <c r="F383" s="13"/>
       <c r="G383" s="3"/>
-      <c r="H383" s="3"/>
-      <c r="I383" s="3"/>
-      <c r="K383" s="3"/>
+      <c r="H383" s="13"/>
+      <c r="I383" s="13"/>
+      <c r="K383" s="13"/>
       <c r="L383" s="3"/>
     </row>
     <row r="384" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F384" s="3"/>
+      <c r="F384" s="13"/>
       <c r="G384" s="3"/>
-      <c r="H384" s="3"/>
-      <c r="I384" s="3"/>
-      <c r="K384" s="3"/>
+      <c r="H384" s="13"/>
+      <c r="I384" s="13"/>
+      <c r="K384" s="13"/>
       <c r="L384" s="3"/>
     </row>
     <row r="385" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F385" s="3"/>
+      <c r="F385" s="13"/>
       <c r="G385" s="3"/>
-      <c r="H385" s="3"/>
-      <c r="I385" s="3"/>
-      <c r="K385" s="3"/>
+      <c r="H385" s="13"/>
+      <c r="I385" s="13"/>
+      <c r="K385" s="13"/>
       <c r="L385" s="3"/>
     </row>
     <row r="386" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F386" s="3"/>
+      <c r="F386" s="13"/>
       <c r="G386" s="3"/>
-      <c r="H386" s="3"/>
-      <c r="I386" s="3"/>
-      <c r="K386" s="3"/>
+      <c r="H386" s="13"/>
+      <c r="I386" s="13"/>
+      <c r="K386" s="13"/>
       <c r="L386" s="3"/>
     </row>
     <row r="387" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F387" s="3"/>
+      <c r="F387" s="13"/>
       <c r="G387" s="3"/>
-      <c r="H387" s="3"/>
-      <c r="I387" s="3"/>
-      <c r="K387" s="3"/>
+      <c r="H387" s="13"/>
+      <c r="I387" s="13"/>
+      <c r="K387" s="13"/>
       <c r="L387" s="3"/>
     </row>
     <row r="388" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F388" s="3"/>
+      <c r="F388" s="13"/>
       <c r="G388" s="3"/>
-      <c r="H388" s="3"/>
-      <c r="I388" s="3"/>
-      <c r="K388" s="3"/>
+      <c r="H388" s="13"/>
+      <c r="I388" s="13"/>
+      <c r="K388" s="13"/>
       <c r="L388" s="3"/>
     </row>
     <row r="389" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F389" s="3"/>
+      <c r="F389" s="13"/>
       <c r="G389" s="3"/>
-      <c r="H389" s="3"/>
-      <c r="I389" s="3"/>
-      <c r="K389" s="3"/>
+      <c r="H389" s="13"/>
+      <c r="I389" s="13"/>
+      <c r="K389" s="13"/>
       <c r="L389" s="3"/>
     </row>
     <row r="390" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F390" s="3"/>
+      <c r="F390" s="13"/>
       <c r="G390" s="3"/>
-      <c r="H390" s="3"/>
-      <c r="I390" s="3"/>
-      <c r="K390" s="3"/>
+      <c r="H390" s="13"/>
+      <c r="I390" s="13"/>
+      <c r="K390" s="13"/>
       <c r="L390" s="3"/>
     </row>
     <row r="391" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F391" s="3"/>
+      <c r="F391" s="13"/>
       <c r="G391" s="3"/>
-      <c r="H391" s="3"/>
-      <c r="I391" s="3"/>
-      <c r="K391" s="3"/>
+      <c r="H391" s="13"/>
+      <c r="I391" s="13"/>
+      <c r="K391" s="13"/>
       <c r="L391" s="3"/>
     </row>
     <row r="392" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F392" s="3"/>
+      <c r="F392" s="13"/>
       <c r="G392" s="3"/>
-      <c r="H392" s="3"/>
-      <c r="I392" s="3"/>
-      <c r="K392" s="3"/>
+      <c r="H392" s="13"/>
+      <c r="I392" s="13"/>
+      <c r="K392" s="13"/>
       <c r="L392" s="3"/>
     </row>
     <row r="393" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F393" s="3"/>
+      <c r="F393" s="13"/>
       <c r="G393" s="3"/>
-      <c r="H393" s="3"/>
-      <c r="I393" s="3"/>
-      <c r="K393" s="3"/>
+      <c r="H393" s="13"/>
+      <c r="I393" s="13"/>
+      <c r="K393" s="13"/>
       <c r="L393" s="3"/>
     </row>
     <row r="394" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F394" s="3"/>
+      <c r="F394" s="13"/>
       <c r="G394" s="3"/>
-      <c r="H394" s="3"/>
-      <c r="I394" s="3"/>
-      <c r="K394" s="3"/>
+      <c r="H394" s="13"/>
+      <c r="I394" s="13"/>
+      <c r="K394" s="13"/>
       <c r="L394" s="3"/>
     </row>
     <row r="395" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F395" s="3"/>
+      <c r="F395" s="13"/>
       <c r="G395" s="3"/>
-      <c r="H395" s="3"/>
-      <c r="I395" s="3"/>
-      <c r="K395" s="3"/>
+      <c r="H395" s="13"/>
+      <c r="I395" s="13"/>
+      <c r="K395" s="13"/>
       <c r="L395" s="3"/>
     </row>
     <row r="396" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F396" s="3"/>
+      <c r="F396" s="13"/>
       <c r="G396" s="3"/>
-      <c r="H396" s="3"/>
-      <c r="I396" s="3"/>
-      <c r="K396" s="3"/>
+      <c r="H396" s="13"/>
+      <c r="I396" s="13"/>
+      <c r="K396" s="13"/>
       <c r="L396" s="3"/>
     </row>
     <row r="397" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F397" s="3"/>
+      <c r="F397" s="13"/>
       <c r="G397" s="3"/>
-      <c r="H397" s="3"/>
-      <c r="I397" s="3"/>
-      <c r="K397" s="3"/>
+      <c r="H397" s="13"/>
+      <c r="I397" s="13"/>
+      <c r="K397" s="13"/>
       <c r="L397" s="3"/>
     </row>
     <row r="398" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F398" s="3"/>
+      <c r="F398" s="13"/>
       <c r="G398" s="3"/>
-      <c r="H398" s="3"/>
-      <c r="I398" s="3"/>
-      <c r="K398" s="3"/>
+      <c r="H398" s="13"/>
+      <c r="I398" s="13"/>
+      <c r="K398" s="13"/>
       <c r="L398" s="3"/>
     </row>
     <row r="399" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F399" s="3"/>
+      <c r="F399" s="13"/>
       <c r="G399" s="3"/>
-      <c r="H399" s="3"/>
-      <c r="I399" s="3"/>
-      <c r="K399" s="3"/>
+      <c r="H399" s="13"/>
+      <c r="I399" s="13"/>
+      <c r="K399" s="13"/>
       <c r="L399" s="3"/>
     </row>
     <row r="400" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F400" s="3"/>
+      <c r="F400" s="13"/>
       <c r="G400" s="3"/>
-      <c r="H400" s="3"/>
-      <c r="I400" s="3"/>
-      <c r="K400" s="3"/>
+      <c r="H400" s="13"/>
+      <c r="I400" s="13"/>
+      <c r="K400" s="13"/>
       <c r="L400" s="3"/>
     </row>
     <row r="401" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F401" s="3"/>
+      <c r="F401" s="13"/>
       <c r="G401" s="3"/>
-      <c r="H401" s="3"/>
-      <c r="I401" s="3"/>
-      <c r="K401" s="3"/>
+      <c r="H401" s="13"/>
+      <c r="I401" s="13"/>
+      <c r="K401" s="13"/>
       <c r="L401" s="3"/>
     </row>
     <row r="402" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F402" s="3"/>
+      <c r="F402" s="13"/>
       <c r="G402" s="3"/>
-      <c r="H402" s="3"/>
-      <c r="I402" s="3"/>
-      <c r="K402" s="3"/>
+      <c r="H402" s="13"/>
+      <c r="I402" s="13"/>
+      <c r="K402" s="13"/>
       <c r="L402" s="3"/>
     </row>
     <row r="403" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F403" s="3"/>
+      <c r="F403" s="13"/>
       <c r="G403" s="3"/>
-      <c r="H403" s="3"/>
-      <c r="I403" s="3"/>
-      <c r="K403" s="3"/>
+      <c r="H403" s="13"/>
+      <c r="I403" s="13"/>
+      <c r="K403" s="13"/>
       <c r="L403" s="3"/>
     </row>
     <row r="404" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F404" s="3"/>
+      <c r="F404" s="13"/>
       <c r="G404" s="3"/>
-      <c r="H404" s="3"/>
-      <c r="I404" s="3"/>
-      <c r="K404" s="3"/>
+      <c r="H404" s="13"/>
+      <c r="I404" s="13"/>
+      <c r="K404" s="13"/>
       <c r="L404" s="3"/>
     </row>
     <row r="405" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F405" s="3"/>
+      <c r="F405" s="13"/>
       <c r="G405" s="3"/>
-      <c r="H405" s="3"/>
-      <c r="I405" s="3"/>
-      <c r="K405" s="3"/>
+      <c r="H405" s="13"/>
+      <c r="I405" s="13"/>
+      <c r="K405" s="13"/>
       <c r="L405" s="3"/>
     </row>
     <row r="406" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F406" s="3"/>
+      <c r="F406" s="13"/>
       <c r="G406" s="3"/>
-      <c r="H406" s="3"/>
-      <c r="I406" s="3"/>
-      <c r="K406" s="3"/>
+      <c r="H406" s="13"/>
+      <c r="I406" s="13"/>
+      <c r="K406" s="13"/>
       <c r="L406" s="3"/>
     </row>
     <row r="407" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F407" s="3"/>
+      <c r="F407" s="13"/>
       <c r="G407" s="3"/>
-      <c r="H407" s="3"/>
-      <c r="I407" s="3"/>
-      <c r="K407" s="3"/>
+      <c r="H407" s="13"/>
+      <c r="I407" s="13"/>
+      <c r="K407" s="13"/>
       <c r="L407" s="3"/>
     </row>
     <row r="408" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F408" s="3"/>
+      <c r="F408" s="13"/>
       <c r="G408" s="3"/>
-      <c r="H408" s="3"/>
-      <c r="I408" s="3"/>
-      <c r="K408" s="3"/>
+      <c r="H408" s="13"/>
+      <c r="I408" s="13"/>
+      <c r="K408" s="13"/>
       <c r="L408" s="3"/>
     </row>
     <row r="409" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F409" s="3"/>
+      <c r="F409" s="13"/>
       <c r="G409" s="3"/>
-      <c r="H409" s="3"/>
-      <c r="I409" s="3"/>
-      <c r="K409" s="3"/>
+      <c r="H409" s="13"/>
+      <c r="I409" s="13"/>
+      <c r="K409" s="13"/>
       <c r="L409" s="3"/>
     </row>
     <row r="410" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F410" s="3"/>
+      <c r="F410" s="13"/>
       <c r="G410" s="3"/>
-      <c r="H410" s="3"/>
-      <c r="I410" s="3"/>
-      <c r="K410" s="3"/>
+      <c r="H410" s="13"/>
+      <c r="I410" s="13"/>
+      <c r="K410" s="13"/>
       <c r="L410" s="3"/>
     </row>
     <row r="411" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F411" s="3"/>
+      <c r="F411" s="13"/>
       <c r="G411" s="3"/>
-      <c r="H411" s="3"/>
-      <c r="I411" s="3"/>
-      <c r="K411" s="3"/>
+      <c r="H411" s="13"/>
+      <c r="I411" s="13"/>
+      <c r="K411" s="13"/>
       <c r="L411" s="3"/>
     </row>
     <row r="412" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F412" s="3"/>
+      <c r="F412" s="13"/>
       <c r="G412" s="3"/>
-      <c r="H412" s="3"/>
-      <c r="I412" s="3"/>
-      <c r="K412" s="3"/>
+      <c r="H412" s="13"/>
+      <c r="I412" s="13"/>
+      <c r="K412" s="13"/>
       <c r="L412" s="3"/>
     </row>
     <row r="413" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F413" s="3"/>
+      <c r="F413" s="13"/>
       <c r="G413" s="3"/>
-      <c r="H413" s="3"/>
-      <c r="I413" s="3"/>
-      <c r="K413" s="3"/>
+      <c r="H413" s="13"/>
+      <c r="I413" s="13"/>
+      <c r="K413" s="13"/>
       <c r="L413" s="3"/>
     </row>
     <row r="414" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F414" s="3"/>
+      <c r="F414" s="13"/>
       <c r="G414" s="3"/>
-      <c r="H414" s="3"/>
-      <c r="I414" s="3"/>
-      <c r="K414" s="3"/>
+      <c r="H414" s="13"/>
+      <c r="I414" s="13"/>
+      <c r="K414" s="13"/>
       <c r="L414" s="3"/>
     </row>
     <row r="415" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F415" s="3"/>
+      <c r="F415" s="13"/>
       <c r="G415" s="3"/>
-      <c r="H415" s="3"/>
-      <c r="I415" s="3"/>
-      <c r="K415" s="3"/>
+      <c r="H415" s="13"/>
+      <c r="I415" s="13"/>
+      <c r="K415" s="13"/>
       <c r="L415" s="3"/>
     </row>
     <row r="416" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F416" s="3"/>
+      <c r="F416" s="13"/>
       <c r="G416" s="3"/>
-      <c r="H416" s="3"/>
-      <c r="I416" s="3"/>
-      <c r="K416" s="3"/>
+      <c r="H416" s="13"/>
+      <c r="I416" s="13"/>
+      <c r="K416" s="13"/>
       <c r="L416" s="3"/>
     </row>
     <row r="417" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F417" s="3"/>
+      <c r="F417" s="13"/>
       <c r="G417" s="3"/>
-      <c r="H417" s="3"/>
-      <c r="I417" s="3"/>
-      <c r="K417" s="3"/>
+      <c r="H417" s="13"/>
+      <c r="I417" s="13"/>
+      <c r="K417" s="13"/>
       <c r="L417" s="3"/>
     </row>
     <row r="418" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F418" s="3"/>
+      <c r="F418" s="13"/>
       <c r="G418" s="3"/>
-      <c r="H418" s="3"/>
-      <c r="I418" s="3"/>
-      <c r="K418" s="3"/>
+      <c r="H418" s="13"/>
+      <c r="I418" s="13"/>
+      <c r="K418" s="13"/>
       <c r="L418" s="3"/>
     </row>
     <row r="419" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F419" s="3"/>
+      <c r="F419" s="13"/>
       <c r="G419" s="3"/>
-      <c r="H419" s="3"/>
-      <c r="I419" s="3"/>
-      <c r="K419" s="3"/>
+      <c r="H419" s="13"/>
+      <c r="I419" s="13"/>
+      <c r="K419" s="13"/>
       <c r="L419" s="3"/>
     </row>
     <row r="420" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F420" s="3"/>
+      <c r="F420" s="13"/>
       <c r="G420" s="3"/>
-      <c r="H420" s="3"/>
-      <c r="I420" s="3"/>
-      <c r="K420" s="3"/>
+      <c r="H420" s="13"/>
+      <c r="I420" s="13"/>
+      <c r="K420" s="13"/>
       <c r="L420" s="3"/>
     </row>
     <row r="421" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F421" s="3"/>
+      <c r="F421" s="13"/>
       <c r="G421" s="3"/>
-      <c r="H421" s="3"/>
-      <c r="I421" s="3"/>
-      <c r="K421" s="3"/>
+      <c r="H421" s="13"/>
+      <c r="I421" s="13"/>
+      <c r="K421" s="13"/>
       <c r="L421" s="3"/>
     </row>
     <row r="422" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F422" s="3"/>
+      <c r="F422" s="13"/>
       <c r="G422" s="3"/>
-      <c r="H422" s="3"/>
-      <c r="I422" s="3"/>
-      <c r="K422" s="3"/>
+      <c r="H422" s="13"/>
+      <c r="I422" s="13"/>
+      <c r="K422" s="13"/>
       <c r="L422" s="3"/>
     </row>
     <row r="423" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F423" s="3"/>
+      <c r="F423" s="13"/>
       <c r="G423" s="3"/>
-      <c r="H423" s="3"/>
-      <c r="I423" s="3"/>
-      <c r="K423" s="3"/>
+      <c r="H423" s="13"/>
+      <c r="I423" s="13"/>
+      <c r="K423" s="13"/>
       <c r="L423" s="3"/>
     </row>
     <row r="424" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F424" s="3"/>
+      <c r="F424" s="13"/>
       <c r="G424" s="3"/>
-      <c r="H424" s="3"/>
-      <c r="I424" s="3"/>
-      <c r="K424" s="3"/>
+      <c r="H424" s="13"/>
+      <c r="I424" s="13"/>
+      <c r="K424" s="13"/>
       <c r="L424" s="3"/>
     </row>
     <row r="425" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F425" s="3"/>
+      <c r="F425" s="13"/>
       <c r="G425" s="3"/>
-      <c r="H425" s="3"/>
-      <c r="I425" s="3"/>
-      <c r="K425" s="3"/>
+      <c r="H425" s="13"/>
+      <c r="I425" s="13"/>
+      <c r="K425" s="13"/>
       <c r="L425" s="3"/>
     </row>
     <row r="426" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F426" s="3"/>
+      <c r="F426" s="13"/>
       <c r="G426" s="3"/>
-      <c r="H426" s="3"/>
-      <c r="I426" s="3"/>
-      <c r="K426" s="3"/>
+      <c r="H426" s="13"/>
+      <c r="I426" s="13"/>
+      <c r="K426" s="13"/>
       <c r="L426" s="3"/>
     </row>
     <row r="427" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F427" s="3"/>
+      <c r="F427" s="13"/>
       <c r="G427" s="3"/>
-      <c r="H427" s="3"/>
-      <c r="I427" s="3"/>
-      <c r="K427" s="3"/>
+      <c r="H427" s="13"/>
+      <c r="I427" s="13"/>
+      <c r="K427" s="13"/>
       <c r="L427" s="3"/>
     </row>
     <row r="428" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F428" s="3"/>
+      <c r="F428" s="13"/>
       <c r="G428" s="3"/>
-      <c r="H428" s="3"/>
-      <c r="I428" s="3"/>
-      <c r="K428" s="3"/>
+      <c r="H428" s="13"/>
+      <c r="I428" s="13"/>
+      <c r="K428" s="13"/>
       <c r="L428" s="3"/>
     </row>
     <row r="429" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F429" s="3"/>
+      <c r="F429" s="13"/>
       <c r="G429" s="3"/>
-      <c r="H429" s="3"/>
-      <c r="I429" s="3"/>
-      <c r="K429" s="3"/>
+      <c r="H429" s="13"/>
+      <c r="I429" s="13"/>
+      <c r="K429" s="13"/>
       <c r="L429" s="3"/>
     </row>
     <row r="430" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F430" s="3"/>
+      <c r="F430" s="13"/>
       <c r="G430" s="3"/>
-      <c r="H430" s="3"/>
-      <c r="I430" s="3"/>
-      <c r="K430" s="3"/>
+      <c r="H430" s="13"/>
+      <c r="I430" s="13"/>
+      <c r="K430" s="13"/>
       <c r="L430" s="3"/>
     </row>
     <row r="431" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F431" s="3"/>
+      <c r="F431" s="13"/>
       <c r="G431" s="3"/>
-      <c r="H431" s="3"/>
-      <c r="I431" s="3"/>
-      <c r="K431" s="3"/>
+      <c r="H431" s="13"/>
+      <c r="I431" s="13"/>
+      <c r="K431" s="13"/>
       <c r="L431" s="3"/>
     </row>
     <row r="432" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F432" s="3"/>
+      <c r="F432" s="13"/>
       <c r="G432" s="3"/>
-      <c r="H432" s="3"/>
-      <c r="I432" s="3"/>
-      <c r="K432" s="3"/>
+      <c r="H432" s="13"/>
+      <c r="I432" s="13"/>
+      <c r="K432" s="13"/>
       <c r="L432" s="3"/>
     </row>
     <row r="433" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F433" s="3"/>
+      <c r="F433" s="13"/>
       <c r="G433" s="3"/>
-      <c r="H433" s="3"/>
-      <c r="I433" s="3"/>
-      <c r="K433" s="3"/>
+      <c r="H433" s="13"/>
+      <c r="I433" s="13"/>
+      <c r="K433" s="13"/>
       <c r="L433" s="3"/>
     </row>
     <row r="434" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F434" s="3"/>
+      <c r="F434" s="13"/>
       <c r="G434" s="3"/>
-      <c r="H434" s="3"/>
-      <c r="I434" s="3"/>
-      <c r="K434" s="3"/>
+      <c r="H434" s="13"/>
+      <c r="I434" s="13"/>
+      <c r="K434" s="13"/>
       <c r="L434" s="3"/>
     </row>
     <row r="435" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F435" s="3"/>
+      <c r="F435" s="13"/>
       <c r="G435" s="3"/>
-      <c r="H435" s="3"/>
-      <c r="I435" s="3"/>
-      <c r="K435" s="3"/>
+      <c r="H435" s="13"/>
+      <c r="I435" s="13"/>
+      <c r="K435" s="13"/>
       <c r="L435" s="3"/>
     </row>
     <row r="436" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F436" s="3"/>
+      <c r="F436" s="13"/>
       <c r="G436" s="3"/>
-      <c r="H436" s="3"/>
-      <c r="I436" s="3"/>
-      <c r="K436" s="3"/>
+      <c r="H436" s="13"/>
+      <c r="I436" s="13"/>
+      <c r="K436" s="13"/>
       <c r="L436" s="3"/>
     </row>
     <row r="437" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F437" s="3"/>
+      <c r="F437" s="13"/>
       <c r="G437" s="3"/>
-      <c r="H437" s="3"/>
-      <c r="I437" s="3"/>
-      <c r="K437" s="3"/>
+      <c r="H437" s="13"/>
+      <c r="I437" s="13"/>
+      <c r="K437" s="13"/>
       <c r="L437" s="3"/>
     </row>
     <row r="438" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F438" s="3"/>
+      <c r="F438" s="13"/>
       <c r="G438" s="3"/>
-      <c r="H438" s="3"/>
-      <c r="I438" s="3"/>
-      <c r="K438" s="3"/>
+      <c r="H438" s="13"/>
+      <c r="I438" s="13"/>
+      <c r="K438" s="13"/>
       <c r="L438" s="3"/>
     </row>
     <row r="439" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F439" s="3"/>
+      <c r="F439" s="13"/>
       <c r="G439" s="3"/>
-      <c r="H439" s="3"/>
-      <c r="I439" s="3"/>
-      <c r="K439" s="3"/>
+      <c r="H439" s="13"/>
+      <c r="I439" s="13"/>
+      <c r="K439" s="13"/>
       <c r="L439" s="3"/>
     </row>
     <row r="440" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F440" s="3"/>
+      <c r="F440" s="13"/>
       <c r="G440" s="3"/>
-      <c r="H440" s="3"/>
-      <c r="I440" s="3"/>
-      <c r="K440" s="3"/>
+      <c r="H440" s="13"/>
+      <c r="I440" s="13"/>
+      <c r="K440" s="13"/>
       <c r="L440" s="3"/>
     </row>
     <row r="441" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F441" s="3"/>
+      <c r="F441" s="13"/>
       <c r="G441" s="3"/>
-      <c r="H441" s="3"/>
-      <c r="I441" s="3"/>
-      <c r="K441" s="3"/>
+      <c r="H441" s="13"/>
+      <c r="I441" s="13"/>
+      <c r="K441" s="13"/>
       <c r="L441" s="3"/>
     </row>
     <row r="442" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F442" s="3"/>
+      <c r="F442" s="13"/>
       <c r="G442" s="3"/>
-      <c r="H442" s="3"/>
-      <c r="I442" s="3"/>
-      <c r="K442" s="3"/>
+      <c r="H442" s="13"/>
+      <c r="I442" s="13"/>
+      <c r="K442" s="13"/>
       <c r="L442" s="3"/>
     </row>
     <row r="443" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F443" s="3"/>
+      <c r="F443" s="13"/>
       <c r="G443" s="3"/>
-      <c r="H443" s="3"/>
-      <c r="I443" s="3"/>
-      <c r="K443" s="3"/>
+      <c r="H443" s="13"/>
+      <c r="I443" s="13"/>
+      <c r="K443" s="13"/>
       <c r="L443" s="3"/>
     </row>
     <row r="444" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F444" s="3"/>
+      <c r="F444" s="13"/>
       <c r="G444" s="3"/>
-      <c r="H444" s="3"/>
-      <c r="I444" s="3"/>
-      <c r="K444" s="3"/>
+      <c r="H444" s="13"/>
+      <c r="I444" s="13"/>
+      <c r="K444" s="13"/>
       <c r="L444" s="3"/>
     </row>
     <row r="445" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F445" s="3"/>
+      <c r="F445" s="13"/>
       <c r="G445" s="3"/>
-      <c r="H445" s="3"/>
-      <c r="I445" s="3"/>
-      <c r="K445" s="3"/>
+      <c r="H445" s="13"/>
+      <c r="I445" s="13"/>
+      <c r="K445" s="13"/>
       <c r="L445" s="3"/>
     </row>
     <row r="446" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F446" s="3"/>
+      <c r="F446" s="13"/>
       <c r="G446" s="3"/>
-      <c r="H446" s="3"/>
-      <c r="I446" s="3"/>
-      <c r="K446" s="3"/>
+      <c r="H446" s="13"/>
+      <c r="I446" s="13"/>
+      <c r="K446" s="13"/>
       <c r="L446" s="3"/>
     </row>
     <row r="447" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F447" s="3"/>
+      <c r="F447" s="13"/>
       <c r="G447" s="3"/>
-      <c r="H447" s="3"/>
-      <c r="I447" s="3"/>
-      <c r="K447" s="3"/>
+      <c r="H447" s="13"/>
+      <c r="I447" s="13"/>
+      <c r="K447" s="13"/>
       <c r="L447" s="3"/>
     </row>
     <row r="448" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F448" s="3"/>
+      <c r="F448" s="13"/>
       <c r="G448" s="3"/>
-      <c r="H448" s="3"/>
-      <c r="I448" s="3"/>
-      <c r="K448" s="3"/>
+      <c r="H448" s="13"/>
+      <c r="I448" s="13"/>
+      <c r="K448" s="13"/>
       <c r="L448" s="3"/>
     </row>
     <row r="449" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F449" s="3"/>
+      <c r="F449" s="13"/>
       <c r="G449" s="3"/>
-      <c r="H449" s="3"/>
-      <c r="I449" s="3"/>
-      <c r="K449" s="3"/>
+      <c r="H449" s="13"/>
+      <c r="I449" s="13"/>
+      <c r="K449" s="13"/>
       <c r="L449" s="3"/>
     </row>
     <row r="450" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F450" s="3"/>
+      <c r="F450" s="13"/>
       <c r="G450" s="3"/>
-      <c r="H450" s="3"/>
-      <c r="I450" s="3"/>
-      <c r="K450" s="3"/>
+      <c r="H450" s="13"/>
+      <c r="I450" s="13"/>
+      <c r="K450" s="13"/>
       <c r="L450" s="3"/>
     </row>
     <row r="451" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F451" s="3"/>
+      <c r="F451" s="13"/>
       <c r="G451" s="3"/>
-      <c r="H451" s="3"/>
-      <c r="I451" s="3"/>
-      <c r="K451" s="3"/>
+      <c r="H451" s="13"/>
+      <c r="I451" s="13"/>
+      <c r="K451" s="13"/>
       <c r="L451" s="3"/>
     </row>
     <row r="452" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F452" s="3"/>
+      <c r="F452" s="13"/>
       <c r="G452" s="3"/>
-      <c r="H452" s="3"/>
-      <c r="I452" s="3"/>
-      <c r="K452" s="3"/>
+      <c r="H452" s="13"/>
+      <c r="I452" s="13"/>
+      <c r="K452" s="13"/>
       <c r="L452" s="3"/>
     </row>
     <row r="453" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F453" s="3"/>
+      <c r="F453" s="13"/>
       <c r="G453" s="3"/>
-      <c r="H453" s="3"/>
-      <c r="I453" s="3"/>
-      <c r="K453" s="3"/>
+      <c r="H453" s="13"/>
+      <c r="I453" s="13"/>
+      <c r="K453" s="13"/>
       <c r="L453" s="3"/>
     </row>
     <row r="454" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F454" s="3"/>
+      <c r="F454" s="13"/>
       <c r="G454" s="3"/>
-      <c r="H454" s="3"/>
-      <c r="I454" s="3"/>
-      <c r="K454" s="3"/>
+      <c r="H454" s="13"/>
+      <c r="I454" s="13"/>
+      <c r="K454" s="13"/>
       <c r="L454" s="3"/>
     </row>
     <row r="455" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F455" s="3"/>
+      <c r="F455" s="13"/>
       <c r="G455" s="3"/>
-      <c r="H455" s="3"/>
-      <c r="I455" s="3"/>
-      <c r="K455" s="3"/>
+      <c r="H455" s="13"/>
+      <c r="I455" s="13"/>
+      <c r="K455" s="13"/>
       <c r="L455" s="3"/>
     </row>
     <row r="456" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F456" s="3"/>
+      <c r="F456" s="13"/>
       <c r="G456" s="3"/>
-      <c r="H456" s="3"/>
-      <c r="I456" s="3"/>
-      <c r="K456" s="3"/>
+      <c r="H456" s="13"/>
+      <c r="I456" s="13"/>
+      <c r="K456" s="13"/>
       <c r="L456" s="3"/>
     </row>
     <row r="457" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F457" s="3"/>
+      <c r="F457" s="13"/>
       <c r="G457" s="3"/>
-      <c r="H457" s="3"/>
-      <c r="I457" s="3"/>
-      <c r="K457" s="3"/>
+      <c r="H457" s="13"/>
+      <c r="I457" s="13"/>
+      <c r="K457" s="13"/>
       <c r="L457" s="3"/>
     </row>
     <row r="458" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F458" s="3"/>
+      <c r="F458" s="13"/>
       <c r="G458" s="3"/>
-      <c r="H458" s="3"/>
-      <c r="I458" s="3"/>
-      <c r="K458" s="3"/>
+      <c r="H458" s="13"/>
+      <c r="I458" s="13"/>
+      <c r="K458" s="13"/>
       <c r="L458" s="3"/>
     </row>
     <row r="459" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F459" s="3"/>
+      <c r="F459" s="13"/>
       <c r="G459" s="3"/>
-      <c r="H459" s="3"/>
-      <c r="I459" s="3"/>
-      <c r="K459" s="3"/>
+      <c r="H459" s="13"/>
+      <c r="I459" s="13"/>
+      <c r="K459" s="13"/>
       <c r="L459" s="3"/>
     </row>
     <row r="460" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F460" s="3"/>
+      <c r="F460" s="13"/>
       <c r="G460" s="3"/>
-      <c r="H460" s="3"/>
-      <c r="I460" s="3"/>
-      <c r="K460" s="3"/>
+      <c r="H460" s="13"/>
+      <c r="I460" s="13"/>
+      <c r="K460" s="13"/>
       <c r="L460" s="3"/>
     </row>
     <row r="461" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F461" s="3"/>
+      <c r="F461" s="13"/>
       <c r="G461" s="3"/>
-      <c r="H461" s="3"/>
-      <c r="I461" s="3"/>
-      <c r="K461" s="3"/>
+      <c r="H461" s="13"/>
+      <c r="I461" s="13"/>
+      <c r="K461" s="13"/>
       <c r="L461" s="3"/>
     </row>
     <row r="462" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F462" s="3"/>
+      <c r="F462" s="13"/>
       <c r="G462" s="3"/>
-      <c r="H462" s="3"/>
-      <c r="I462" s="3"/>
-      <c r="K462" s="3"/>
+      <c r="H462" s="13"/>
+      <c r="I462" s="13"/>
+      <c r="K462" s="13"/>
       <c r="L462" s="3"/>
     </row>
     <row r="463" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F463" s="3"/>
+      <c r="F463" s="13"/>
       <c r="G463" s="3"/>
-      <c r="H463" s="3"/>
-      <c r="I463" s="3"/>
-      <c r="K463" s="3"/>
+      <c r="H463" s="13"/>
+      <c r="I463" s="13"/>
+      <c r="K463" s="13"/>
       <c r="L463" s="3"/>
     </row>
     <row r="464" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F464" s="3"/>
+      <c r="F464" s="13"/>
       <c r="G464" s="3"/>
-      <c r="H464" s="3"/>
-      <c r="I464" s="3"/>
-      <c r="K464" s="3"/>
+      <c r="H464" s="13"/>
+      <c r="I464" s="13"/>
+      <c r="K464" s="13"/>
       <c r="L464" s="3"/>
     </row>
     <row r="465" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F465" s="3"/>
+      <c r="F465" s="13"/>
       <c r="G465" s="3"/>
-      <c r="H465" s="3"/>
-      <c r="I465" s="3"/>
-      <c r="K465" s="3"/>
+      <c r="H465" s="13"/>
+      <c r="I465" s="13"/>
+      <c r="K465" s="13"/>
       <c r="L465" s="3"/>
     </row>
     <row r="466" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F466" s="3"/>
+      <c r="F466" s="13"/>
       <c r="G466" s="3"/>
-      <c r="H466" s="3"/>
-      <c r="I466" s="3"/>
-      <c r="K466" s="3"/>
+      <c r="H466" s="13"/>
+      <c r="I466" s="13"/>
+      <c r="K466" s="13"/>
       <c r="L466" s="3"/>
     </row>
     <row r="467" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F467" s="3"/>
+      <c r="F467" s="13"/>
       <c r="G467" s="3"/>
-      <c r="H467" s="3"/>
-      <c r="I467" s="3"/>
-      <c r="K467" s="3"/>
+      <c r="H467" s="13"/>
+      <c r="I467" s="13"/>
+      <c r="K467" s="13"/>
       <c r="L467" s="3"/>
     </row>
     <row r="468" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F468" s="3"/>
+      <c r="F468" s="13"/>
       <c r="G468" s="3"/>
-      <c r="H468" s="3"/>
-      <c r="I468" s="3"/>
-      <c r="K468" s="3"/>
+      <c r="H468" s="13"/>
+      <c r="I468" s="13"/>
+      <c r="K468" s="13"/>
       <c r="L468" s="3"/>
     </row>
     <row r="469" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F469" s="3"/>
+      <c r="F469" s="13"/>
       <c r="G469" s="3"/>
-      <c r="H469" s="3"/>
-      <c r="I469" s="3"/>
-      <c r="K469" s="3"/>
+      <c r="H469" s="13"/>
+      <c r="I469" s="13"/>
+      <c r="K469" s="13"/>
       <c r="L469" s="3"/>
     </row>
     <row r="470" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F470" s="3"/>
+      <c r="F470" s="13"/>
       <c r="G470" s="3"/>
-      <c r="H470" s="3"/>
-      <c r="I470" s="3"/>
-      <c r="K470" s="3"/>
+      <c r="H470" s="13"/>
+      <c r="I470" s="13"/>
+      <c r="K470" s="13"/>
       <c r="L470" s="3"/>
     </row>
     <row r="471" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F471" s="3"/>
+      <c r="F471" s="13"/>
       <c r="G471" s="3"/>
-      <c r="H471" s="3"/>
-      <c r="I471" s="3"/>
-      <c r="K471" s="3"/>
+      <c r="H471" s="13"/>
+      <c r="I471" s="13"/>
+      <c r="K471" s="13"/>
       <c r="L471" s="3"/>
     </row>
     <row r="472" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F472" s="3"/>
+      <c r="F472" s="13"/>
       <c r="G472" s="3"/>
-      <c r="H472" s="3"/>
-      <c r="I472" s="3"/>
-      <c r="K472" s="3"/>
+      <c r="H472" s="13"/>
+      <c r="I472" s="13"/>
+      <c r="K472" s="13"/>
       <c r="L472" s="3"/>
     </row>
     <row r="473" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F473" s="3"/>
+      <c r="F473" s="13"/>
       <c r="G473" s="3"/>
-      <c r="H473" s="3"/>
-      <c r="I473" s="3"/>
-      <c r="K473" s="3"/>
+      <c r="H473" s="13"/>
+      <c r="I473" s="13"/>
+      <c r="K473" s="13"/>
       <c r="L473" s="3"/>
     </row>
     <row r="474" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F474" s="3"/>
+      <c r="F474" s="13"/>
       <c r="G474" s="3"/>
-      <c r="H474" s="3"/>
-      <c r="I474" s="3"/>
-      <c r="K474" s="3"/>
+      <c r="H474" s="13"/>
+      <c r="I474" s="13"/>
+      <c r="K474" s="13"/>
       <c r="L474" s="3"/>
     </row>
     <row r="475" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F475" s="3"/>
+      <c r="F475" s="13"/>
       <c r="G475" s="3"/>
-      <c r="H475" s="3"/>
-      <c r="I475" s="3"/>
-      <c r="K475" s="3"/>
+      <c r="H475" s="13"/>
+      <c r="I475" s="13"/>
+      <c r="K475" s="13"/>
       <c r="L475" s="3"/>
     </row>
     <row r="476" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F476" s="3"/>
+      <c r="F476" s="13"/>
       <c r="G476" s="3"/>
-      <c r="H476" s="3"/>
-      <c r="I476" s="3"/>
-      <c r="K476" s="3"/>
+      <c r="H476" s="13"/>
+      <c r="I476" s="13"/>
+      <c r="K476" s="13"/>
       <c r="L476" s="3"/>
     </row>
     <row r="477" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F477" s="3"/>
+      <c r="F477" s="13"/>
       <c r="G477" s="3"/>
-      <c r="H477" s="3"/>
-      <c r="I477" s="3"/>
-      <c r="K477" s="3"/>
+      <c r="H477" s="13"/>
+      <c r="I477" s="13"/>
+      <c r="K477" s="13"/>
       <c r="L477" s="3"/>
     </row>
     <row r="478" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F478" s="3"/>
+      <c r="F478" s="13"/>
       <c r="G478" s="3"/>
-      <c r="H478" s="3"/>
-      <c r="I478" s="3"/>
-      <c r="K478" s="3"/>
+      <c r="H478" s="13"/>
+      <c r="I478" s="13"/>
+      <c r="K478" s="13"/>
       <c r="L478" s="3"/>
     </row>
     <row r="479" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F479" s="3"/>
+      <c r="F479" s="13"/>
       <c r="G479" s="3"/>
-      <c r="H479" s="3"/>
-      <c r="I479" s="3"/>
-      <c r="K479" s="3"/>
+      <c r="H479" s="13"/>
+      <c r="I479" s="13"/>
+      <c r="K479" s="13"/>
       <c r="L479" s="3"/>
     </row>
     <row r="480" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F480" s="3"/>
+      <c r="F480" s="13"/>
       <c r="G480" s="3"/>
-      <c r="H480" s="3"/>
-      <c r="I480" s="3"/>
-      <c r="K480" s="3"/>
+      <c r="H480" s="13"/>
+      <c r="I480" s="13"/>
+      <c r="K480" s="13"/>
       <c r="L480" s="3"/>
     </row>
     <row r="481" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F481" s="3"/>
+      <c r="F481" s="13"/>
       <c r="G481" s="3"/>
-      <c r="H481" s="3"/>
-      <c r="I481" s="3"/>
-      <c r="K481" s="3"/>
+      <c r="H481" s="13"/>
+      <c r="I481" s="13"/>
+      <c r="K481" s="13"/>
       <c r="L481" s="3"/>
     </row>
     <row r="482" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F482" s="3"/>
+      <c r="F482" s="13"/>
       <c r="G482" s="3"/>
-      <c r="H482" s="3"/>
-      <c r="I482" s="3"/>
-      <c r="K482" s="3"/>
+      <c r="H482" s="13"/>
+      <c r="I482" s="13"/>
+      <c r="K482" s="13"/>
       <c r="L482" s="3"/>
     </row>
     <row r="483" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F483" s="3"/>
+      <c r="F483" s="13"/>
       <c r="G483" s="3"/>
-      <c r="H483" s="3"/>
-      <c r="I483" s="3"/>
-      <c r="K483" s="3"/>
+      <c r="H483" s="13"/>
+      <c r="I483" s="13"/>
+      <c r="K483" s="13"/>
       <c r="L483" s="3"/>
     </row>
     <row r="484" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F484" s="3"/>
+      <c r="F484" s="13"/>
       <c r="G484" s="3"/>
-      <c r="H484" s="3"/>
-      <c r="I484" s="3"/>
-      <c r="K484" s="3"/>
+      <c r="H484" s="13"/>
+      <c r="I484" s="13"/>
+      <c r="K484" s="13"/>
       <c r="L484" s="3"/>
     </row>
     <row r="485" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F485" s="3"/>
+      <c r="F485" s="13"/>
       <c r="G485" s="3"/>
-      <c r="H485" s="3"/>
-      <c r="I485" s="3"/>
-      <c r="K485" s="3"/>
+      <c r="H485" s="13"/>
+      <c r="I485" s="13"/>
+      <c r="K485" s="13"/>
       <c r="L485" s="3"/>
     </row>
     <row r="486" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F486" s="3"/>
+      <c r="F486" s="13"/>
       <c r="G486" s="3"/>
-      <c r="H486" s="3"/>
-      <c r="I486" s="3"/>
-      <c r="K486" s="3"/>
+      <c r="H486" s="13"/>
+      <c r="I486" s="13"/>
+      <c r="K486" s="13"/>
       <c r="L486" s="3"/>
     </row>
     <row r="487" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F487" s="3"/>
+      <c r="F487" s="13"/>
       <c r="G487" s="3"/>
-      <c r="H487" s="3"/>
-      <c r="I487" s="3"/>
-      <c r="K487" s="3"/>
+      <c r="H487" s="13"/>
+      <c r="I487" s="13"/>
+      <c r="K487" s="13"/>
       <c r="L487" s="3"/>
     </row>
     <row r="488" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F488" s="3"/>
+      <c r="F488" s="13"/>
       <c r="G488" s="3"/>
-      <c r="H488" s="3"/>
-      <c r="I488" s="3"/>
-      <c r="K488" s="3"/>
+      <c r="H488" s="13"/>
+      <c r="I488" s="13"/>
+      <c r="K488" s="13"/>
       <c r="L488" s="3"/>
     </row>
     <row r="489" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F489" s="3"/>
+      <c r="F489" s="13"/>
       <c r="G489" s="3"/>
-      <c r="H489" s="3"/>
-      <c r="I489" s="3"/>
-      <c r="K489" s="3"/>
+      <c r="H489" s="13"/>
+      <c r="I489" s="13"/>
+      <c r="K489" s="13"/>
       <c r="L489" s="3"/>
     </row>
     <row r="490" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F490" s="3"/>
+      <c r="F490" s="13"/>
       <c r="G490" s="3"/>
-      <c r="H490" s="3"/>
-      <c r="I490" s="3"/>
-      <c r="K490" s="3"/>
+      <c r="H490" s="13"/>
+      <c r="I490" s="13"/>
+      <c r="K490" s="13"/>
       <c r="L490" s="3"/>
     </row>
     <row r="491" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F491" s="3"/>
+      <c r="F491" s="13"/>
       <c r="G491" s="3"/>
-      <c r="H491" s="3"/>
-      <c r="I491" s="3"/>
-      <c r="K491" s="3"/>
+      <c r="H491" s="13"/>
+      <c r="I491" s="13"/>
+      <c r="K491" s="13"/>
       <c r="L491" s="3"/>
     </row>
     <row r="492" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F492" s="3"/>
+      <c r="F492" s="13"/>
       <c r="G492" s="3"/>
-      <c r="H492" s="3"/>
-      <c r="I492" s="3"/>
-      <c r="K492" s="3"/>
+      <c r="H492" s="13"/>
+      <c r="I492" s="13"/>
+      <c r="K492" s="13"/>
       <c r="L492" s="3"/>
     </row>
     <row r="493" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F493" s="3"/>
+      <c r="F493" s="13"/>
       <c r="G493" s="3"/>
-      <c r="H493" s="3"/>
-      <c r="I493" s="3"/>
-      <c r="K493" s="3"/>
+      <c r="H493" s="13"/>
+      <c r="I493" s="13"/>
+      <c r="K493" s="13"/>
       <c r="L493" s="3"/>
     </row>
     <row r="494" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F494" s="3"/>
+      <c r="F494" s="13"/>
       <c r="G494" s="3"/>
-      <c r="H494" s="3"/>
-      <c r="I494" s="3"/>
-      <c r="K494" s="3"/>
+      <c r="H494" s="13"/>
+      <c r="I494" s="13"/>
+      <c r="K494" s="13"/>
       <c r="L494" s="3"/>
     </row>
     <row r="495" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F495" s="3"/>
+      <c r="F495" s="13"/>
       <c r="G495" s="3"/>
-      <c r="H495" s="3"/>
-      <c r="I495" s="3"/>
-      <c r="K495" s="3"/>
+      <c r="H495" s="13"/>
+      <c r="I495" s="13"/>
+      <c r="K495" s="13"/>
       <c r="L495" s="3"/>
     </row>
     <row r="496" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F496" s="3"/>
+      <c r="F496" s="13"/>
       <c r="G496" s="3"/>
-      <c r="H496" s="3"/>
-      <c r="I496" s="3"/>
-      <c r="K496" s="3"/>
+      <c r="H496" s="13"/>
+      <c r="I496" s="13"/>
+      <c r="K496" s="13"/>
       <c r="L496" s="3"/>
     </row>
     <row r="497" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F497" s="3"/>
+      <c r="F497" s="13"/>
       <c r="G497" s="3"/>
-      <c r="H497" s="3"/>
-      <c r="I497" s="3"/>
-      <c r="K497" s="3"/>
+      <c r="H497" s="13"/>
+      <c r="I497" s="13"/>
+      <c r="K497" s="13"/>
       <c r="L497" s="3"/>
     </row>
     <row r="498" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F498" s="3"/>
+      <c r="F498" s="13"/>
       <c r="G498" s="3"/>
-      <c r="H498" s="3"/>
-      <c r="I498" s="3"/>
-      <c r="K498" s="3"/>
+      <c r="H498" s="13"/>
+      <c r="I498" s="13"/>
+      <c r="K498" s="13"/>
       <c r="L498" s="3"/>
     </row>
     <row r="499" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F499" s="3"/>
+      <c r="F499" s="13"/>
       <c r="G499" s="3"/>
-      <c r="H499" s="3"/>
-      <c r="I499" s="3"/>
-      <c r="K499" s="3"/>
+      <c r="H499" s="13"/>
+      <c r="I499" s="13"/>
+      <c r="K499" s="13"/>
       <c r="L499" s="3"/>
     </row>
     <row r="500" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F500" s="3"/>
+      <c r="F500" s="13"/>
       <c r="G500" s="3"/>
-      <c r="H500" s="3"/>
-      <c r="I500" s="3"/>
-      <c r="K500" s="3"/>
+      <c r="H500" s="13"/>
+      <c r="I500" s="13"/>
+      <c r="K500" s="13"/>
       <c r="L500" s="3"/>
     </row>
     <row r="501" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F501" s="3"/>
+      <c r="F501" s="13"/>
       <c r="G501" s="3"/>
-      <c r="H501" s="3"/>
-      <c r="I501" s="3"/>
-      <c r="K501" s="3"/>
+      <c r="H501" s="13"/>
+      <c r="I501" s="13"/>
+      <c r="K501" s="13"/>
       <c r="L501" s="3"/>
     </row>
     <row r="502" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F502" s="3"/>
+      <c r="F502" s="13"/>
       <c r="G502" s="3"/>
-      <c r="H502" s="3"/>
-      <c r="I502" s="3"/>
-      <c r="K502" s="3"/>
+      <c r="H502" s="13"/>
+      <c r="I502" s="13"/>
+      <c r="K502" s="13"/>
       <c r="L502" s="3"/>
     </row>
     <row r="503" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F503" s="3"/>
+      <c r="F503" s="13"/>
       <c r="G503" s="3"/>
-      <c r="H503" s="3"/>
-      <c r="I503" s="3"/>
-      <c r="K503" s="3"/>
+      <c r="H503" s="13"/>
+      <c r="I503" s="13"/>
+      <c r="K503" s="13"/>
       <c r="L503" s="3"/>
     </row>
     <row r="504" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F504" s="3"/>
+      <c r="F504" s="13"/>
       <c r="G504" s="3"/>
-      <c r="H504" s="3"/>
-      <c r="I504" s="3"/>
-      <c r="K504" s="3"/>
+      <c r="H504" s="13"/>
+      <c r="I504" s="13"/>
+      <c r="K504" s="13"/>
       <c r="L504" s="3"/>
     </row>
     <row r="505" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F505" s="3"/>
+      <c r="F505" s="13"/>
       <c r="G505" s="3"/>
-      <c r="H505" s="3"/>
-      <c r="I505" s="3"/>
-      <c r="K505" s="3"/>
+      <c r="H505" s="13"/>
+      <c r="I505" s="13"/>
+      <c r="K505" s="13"/>
       <c r="L505" s="3"/>
     </row>
     <row r="506" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F506" s="3"/>
+      <c r="F506" s="13"/>
       <c r="G506" s="3"/>
-      <c r="H506" s="3"/>
-      <c r="I506" s="3"/>
-      <c r="K506" s="3"/>
+      <c r="H506" s="13"/>
+      <c r="I506" s="13"/>
+      <c r="K506" s="13"/>
       <c r="L506" s="3"/>
     </row>
     <row r="507" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F507" s="3"/>
+      <c r="F507" s="13"/>
       <c r="G507" s="3"/>
-      <c r="H507" s="3"/>
-      <c r="I507" s="3"/>
-      <c r="K507" s="3"/>
+      <c r="H507" s="13"/>
+      <c r="I507" s="13"/>
+      <c r="K507" s="13"/>
       <c r="L507" s="3"/>
     </row>
     <row r="508" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F508" s="3"/>
+      <c r="F508" s="13"/>
       <c r="G508" s="3"/>
-      <c r="H508" s="3"/>
-      <c r="I508" s="3"/>
-      <c r="K508" s="3"/>
+      <c r="H508" s="13"/>
+      <c r="I508" s="13"/>
+      <c r="K508" s="13"/>
       <c r="L508" s="3"/>
     </row>
     <row r="509" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F509" s="3"/>
+      <c r="F509" s="13"/>
       <c r="G509" s="3"/>
-      <c r="H509" s="3"/>
-      <c r="I509" s="3"/>
-      <c r="K509" s="3"/>
+      <c r="H509" s="13"/>
+      <c r="I509" s="13"/>
+      <c r="K509" s="13"/>
       <c r="L509" s="3"/>
     </row>
     <row r="510" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F510" s="3"/>
+      <c r="F510" s="13"/>
       <c r="G510" s="3"/>
-      <c r="H510" s="3"/>
-      <c r="I510" s="3"/>
-      <c r="K510" s="3"/>
+      <c r="H510" s="13"/>
+      <c r="I510" s="13"/>
+      <c r="K510" s="13"/>
       <c r="L510" s="3"/>
     </row>
     <row r="511" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F511" s="3"/>
+      <c r="F511" s="13"/>
       <c r="G511" s="3"/>
-      <c r="H511" s="3"/>
-      <c r="I511" s="3"/>
-      <c r="K511" s="3"/>
+      <c r="H511" s="13"/>
+      <c r="I511" s="13"/>
+      <c r="K511" s="13"/>
       <c r="L511" s="3"/>
     </row>
     <row r="512" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F512" s="3"/>
+      <c r="F512" s="13"/>
       <c r="G512" s="3"/>
-      <c r="H512" s="3"/>
-      <c r="I512" s="3"/>
-      <c r="K512" s="3"/>
+      <c r="H512" s="13"/>
+      <c r="I512" s="13"/>
+      <c r="K512" s="13"/>
       <c r="L512" s="3"/>
     </row>
     <row r="513" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F513" s="3"/>
+      <c r="F513" s="13"/>
       <c r="G513" s="3"/>
-      <c r="H513" s="3"/>
-      <c r="I513" s="3"/>
-      <c r="K513" s="3"/>
+      <c r="H513" s="13"/>
+      <c r="I513" s="13"/>
+      <c r="K513" s="13"/>
       <c r="L513" s="3"/>
     </row>
     <row r="514" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F514" s="3"/>
+      <c r="F514" s="13"/>
       <c r="G514" s="3"/>
-      <c r="H514" s="3"/>
-      <c r="I514" s="3"/>
-      <c r="K514" s="3"/>
+      <c r="H514" s="13"/>
+      <c r="I514" s="13"/>
+      <c r="K514" s="13"/>
       <c r="L514" s="3"/>
     </row>
     <row r="515" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F515" s="3"/>
+      <c r="F515" s="13"/>
       <c r="G515" s="3"/>
-      <c r="H515" s="3"/>
-      <c r="I515" s="3"/>
-      <c r="K515" s="3"/>
+      <c r="H515" s="13"/>
+      <c r="I515" s="13"/>
+      <c r="K515" s="13"/>
       <c r="L515" s="3"/>
     </row>
     <row r="516" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F516" s="3"/>
+      <c r="F516" s="13"/>
       <c r="G516" s="3"/>
-      <c r="H516" s="3"/>
-      <c r="I516" s="3"/>
-      <c r="K516" s="3"/>
+      <c r="H516" s="13"/>
+      <c r="I516" s="13"/>
+      <c r="K516" s="13"/>
       <c r="L516" s="3"/>
     </row>
     <row r="517" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F517" s="3"/>
+      <c r="F517" s="13"/>
       <c r="G517" s="3"/>
-      <c r="H517" s="3"/>
-      <c r="I517" s="3"/>
-      <c r="K517" s="3"/>
+      <c r="H517" s="13"/>
+      <c r="I517" s="13"/>
+      <c r="K517" s="13"/>
       <c r="L517" s="3"/>
     </row>
     <row r="518" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F518" s="3"/>
+      <c r="F518" s="13"/>
       <c r="G518" s="3"/>
-      <c r="H518" s="3"/>
-      <c r="I518" s="3"/>
-      <c r="K518" s="3"/>
+      <c r="H518" s="13"/>
+      <c r="I518" s="13"/>
+      <c r="K518" s="13"/>
       <c r="L518" s="3"/>
     </row>
     <row r="519" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F519" s="3"/>
+      <c r="F519" s="13"/>
       <c r="G519" s="3"/>
-      <c r="H519" s="3"/>
-      <c r="I519" s="3"/>
-      <c r="K519" s="3"/>
+      <c r="H519" s="13"/>
+      <c r="I519" s="13"/>
+      <c r="K519" s="13"/>
       <c r="L519" s="3"/>
     </row>
     <row r="520" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F520" s="3"/>
+      <c r="F520" s="13"/>
       <c r="G520" s="3"/>
-      <c r="H520" s="3"/>
-      <c r="I520" s="3"/>
-      <c r="K520" s="3"/>
+      <c r="H520" s="13"/>
+      <c r="I520" s="13"/>
+      <c r="K520" s="13"/>
       <c r="L520" s="3"/>
     </row>
     <row r="521" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F521" s="3"/>
+      <c r="F521" s="13"/>
       <c r="G521" s="3"/>
-      <c r="H521" s="3"/>
-      <c r="I521" s="3"/>
-      <c r="K521" s="3"/>
+      <c r="H521" s="13"/>
+      <c r="I521" s="13"/>
+      <c r="K521" s="13"/>
       <c r="L521" s="3"/>
     </row>
     <row r="522" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F522" s="3"/>
+      <c r="F522" s="13"/>
       <c r="G522" s="3"/>
-      <c r="H522" s="3"/>
-      <c r="I522" s="3"/>
-      <c r="K522" s="3"/>
+      <c r="H522" s="13"/>
+      <c r="I522" s="13"/>
+      <c r="K522" s="13"/>
       <c r="L522" s="3"/>
     </row>
     <row r="523" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F523" s="3"/>
+      <c r="F523" s="13"/>
       <c r="G523" s="3"/>
-      <c r="H523" s="3"/>
-      <c r="I523" s="3"/>
-      <c r="K523" s="3"/>
+      <c r="H523" s="13"/>
+      <c r="I523" s="13"/>
+      <c r="K523" s="13"/>
       <c r="L523" s="3"/>
     </row>
     <row r="524" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F524" s="3"/>
+      <c r="F524" s="13"/>
       <c r="G524" s="3"/>
-      <c r="H524" s="3"/>
-      <c r="I524" s="3"/>
-      <c r="K524" s="3"/>
+      <c r="H524" s="13"/>
+      <c r="I524" s="13"/>
+      <c r="K524" s="13"/>
       <c r="L524" s="3"/>
     </row>
   </sheetData>

--- a/bin/supplment_analysis/个性化汇总-9月.xlsx
+++ b/bin/supplment_analysis/个性化汇总-9月.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$197</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$197</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="492">
   <si>
     <t>20180902-001</t>
   </si>
@@ -1418,12 +1418,6 @@
     <t>项目管理交付时间</t>
   </si>
   <si>
-    <t>预计周期</t>
-  </si>
-  <si>
-    <t>实际周期</t>
-  </si>
-  <si>
     <t>20180903-001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1504,31 +1498,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>驳回</t>
+  </si>
+  <si>
+    <t>取消，下bms单</t>
+  </si>
+  <si>
+    <t>沟通更改为标准分析</t>
+  </si>
+  <si>
+    <t>驳回，改下BMS单</t>
+  </si>
+  <si>
+    <t>项管发邮件暂停项目</t>
+  </si>
+  <si>
+    <t>项管发邮件终止项目</t>
+  </si>
+  <si>
+    <t>项目问题沟通</t>
+  </si>
+  <si>
+    <t>预计交付时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>售前评估</t>
-  </si>
-  <si>
-    <t>驳回</t>
-  </si>
-  <si>
-    <t>取消，下bms单</t>
-  </si>
-  <si>
-    <t>沟通更改为标准分析</t>
-  </si>
-  <si>
-    <t>驳回，改下BMS单</t>
-  </si>
-  <si>
-    <t>项管发邮件暂停项目</t>
-  </si>
-  <si>
-    <t>项管发邮件终止项目</t>
-  </si>
-  <si>
-    <t>项目问题沟通</t>
-  </si>
-  <si>
-    <t>预计交付时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1973,12 +1968,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO524"/>
+  <dimension ref="A1:BL524"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="O201" sqref="O201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1996,13 +1991,12 @@
     <col min="12" max="12" width="12.5" style="11" customWidth="1"/>
     <col min="13" max="13" width="9.25" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="9" style="3"/>
-    <col min="16" max="16" width="11.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9" style="3"/>
-    <col min="19" max="67" width="9" style="1"/>
-    <col min="68" max="16384" width="9" style="3"/>
+    <col min="16" max="16" width="25.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="64" width="9" style="1"/>
+    <col min="65" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>448</v>
       </c>
@@ -2028,7 +2022,7 @@
         <v>455</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>456</v>
@@ -2051,12 +2045,8 @@
       <c r="P1" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>464</v>
-      </c>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
@@ -2103,11 +2093,8 @@
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
-      <c r="BM1" s="1"/>
-      <c r="BN1" s="1"/>
-      <c r="BO1" s="1"/>
-    </row>
-    <row r="2" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>961</v>
       </c>
@@ -2150,8 +2137,8 @@
       <c r="P2" s="5">
         <v>43350</v>
       </c>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -2198,11 +2185,8 @@
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
-      <c r="BM2" s="1"/>
-      <c r="BN2" s="1"/>
-      <c r="BO2" s="1"/>
-    </row>
-    <row r="3" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>962</v>
       </c>
@@ -2241,8 +2225,8 @@
       <c r="P3" s="5">
         <v>43350</v>
       </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
@@ -2289,11 +2273,8 @@
       <c r="BJ3" s="1"/>
       <c r="BK3" s="1"/>
       <c r="BL3" s="1"/>
-      <c r="BM3" s="1"/>
-      <c r="BN3" s="1"/>
-      <c r="BO3" s="1"/>
-    </row>
-    <row r="4" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>963</v>
       </c>
@@ -2332,8 +2313,8 @@
       <c r="P4" s="5">
         <v>43350</v>
       </c>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
@@ -2380,11 +2361,8 @@
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
-      <c r="BM4" s="1"/>
-      <c r="BN4" s="1"/>
-      <c r="BO4" s="1"/>
-    </row>
-    <row r="5" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>964</v>
       </c>
@@ -2423,8 +2401,8 @@
       <c r="P5" s="5">
         <v>43353</v>
       </c>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -2471,11 +2449,8 @@
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
-      <c r="BM5" s="1"/>
-      <c r="BN5" s="1"/>
-      <c r="BO5" s="1"/>
-    </row>
-    <row r="6" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>965</v>
       </c>
@@ -2514,8 +2489,8 @@
       <c r="P6" s="5">
         <v>43353</v>
       </c>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -2562,11 +2537,8 @@
       <c r="BJ6" s="1"/>
       <c r="BK6" s="1"/>
       <c r="BL6" s="1"/>
-      <c r="BM6" s="1"/>
-      <c r="BN6" s="1"/>
-      <c r="BO6" s="1"/>
-    </row>
-    <row r="7" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>966</v>
       </c>
@@ -2605,8 +2577,8 @@
       <c r="P7" s="5">
         <v>43350</v>
       </c>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
@@ -2653,16 +2625,13 @@
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
-      <c r="BM7" s="1"/>
-      <c r="BN7" s="1"/>
-      <c r="BO7" s="1"/>
-    </row>
-    <row r="8" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>967</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>17</v>
@@ -2686,7 +2655,7 @@
         <v>43353</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="K8" s="9">
         <v>43350</v>
@@ -2702,8 +2671,8 @@
       <c r="P8" s="5">
         <v>43350</v>
       </c>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -2750,11 +2719,8 @@
       <c r="BJ8" s="1"/>
       <c r="BK8" s="1"/>
       <c r="BL8" s="1"/>
-      <c r="BM8" s="1"/>
-      <c r="BN8" s="1"/>
-      <c r="BO8" s="1"/>
-    </row>
-    <row r="9" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>968</v>
       </c>
@@ -2793,8 +2759,8 @@
       <c r="P9" s="5">
         <v>43349</v>
       </c>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -2841,11 +2807,8 @@
       <c r="BJ9" s="1"/>
       <c r="BK9" s="1"/>
       <c r="BL9" s="1"/>
-      <c r="BM9" s="1"/>
-      <c r="BN9" s="1"/>
-      <c r="BO9" s="1"/>
-    </row>
-    <row r="10" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>969</v>
       </c>
@@ -2888,8 +2851,8 @@
       <c r="P10" s="5">
         <v>43357</v>
       </c>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -2936,11 +2899,8 @@
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
       <c r="BL10" s="1"/>
-      <c r="BM10" s="1"/>
-      <c r="BN10" s="1"/>
-      <c r="BO10" s="1"/>
-    </row>
-    <row r="11" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>970</v>
       </c>
@@ -2979,8 +2939,8 @@
       <c r="P11" s="5">
         <v>43351</v>
       </c>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -3027,11 +2987,8 @@
       <c r="BJ11" s="1"/>
       <c r="BK11" s="1"/>
       <c r="BL11" s="1"/>
-      <c r="BM11" s="1"/>
-      <c r="BN11" s="1"/>
-      <c r="BO11" s="1"/>
-    </row>
-    <row r="12" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>971</v>
       </c>
@@ -3070,8 +3027,8 @@
       <c r="P12" s="5">
         <v>43353</v>
       </c>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -3118,11 +3075,8 @@
       <c r="BJ12" s="1"/>
       <c r="BK12" s="1"/>
       <c r="BL12" s="1"/>
-      <c r="BM12" s="1"/>
-      <c r="BN12" s="1"/>
-      <c r="BO12" s="1"/>
-    </row>
-    <row r="13" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>972</v>
       </c>
@@ -3161,8 +3115,8 @@
       <c r="P13" s="5">
         <v>43353</v>
       </c>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -3209,11 +3163,8 @@
       <c r="BJ13" s="1"/>
       <c r="BK13" s="1"/>
       <c r="BL13" s="1"/>
-      <c r="BM13" s="1"/>
-      <c r="BN13" s="1"/>
-      <c r="BO13" s="1"/>
-    </row>
-    <row r="14" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>973</v>
       </c>
@@ -3242,7 +3193,7 @@
         <v>43355</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="K14" s="9">
         <v>43354</v>
@@ -3254,8 +3205,8 @@
       <c r="P14" s="5">
         <v>43354</v>
       </c>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -3302,11 +3253,8 @@
       <c r="BJ14" s="1"/>
       <c r="BK14" s="1"/>
       <c r="BL14" s="1"/>
-      <c r="BM14" s="1"/>
-      <c r="BN14" s="1"/>
-      <c r="BO14" s="1"/>
-    </row>
-    <row r="15" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>974</v>
       </c>
@@ -3347,8 +3295,8 @@
       <c r="P15" s="5">
         <v>43351</v>
       </c>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -3395,11 +3343,8 @@
       <c r="BJ15" s="1"/>
       <c r="BK15" s="1"/>
       <c r="BL15" s="1"/>
-      <c r="BM15" s="1"/>
-      <c r="BN15" s="1"/>
-      <c r="BO15" s="1"/>
-    </row>
-    <row r="16" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>975</v>
       </c>
@@ -3440,8 +3385,8 @@
       <c r="P16" s="5">
         <v>43351</v>
       </c>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -3488,11 +3433,8 @@
       <c r="BJ16" s="1"/>
       <c r="BK16" s="1"/>
       <c r="BL16" s="1"/>
-      <c r="BM16" s="1"/>
-      <c r="BN16" s="1"/>
-      <c r="BO16" s="1"/>
-    </row>
-    <row r="17" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>976</v>
       </c>
@@ -3535,8 +3477,8 @@
       <c r="P17" s="5">
         <v>43353</v>
       </c>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -3583,11 +3525,8 @@
       <c r="BJ17" s="1"/>
       <c r="BK17" s="1"/>
       <c r="BL17" s="1"/>
-      <c r="BM17" s="1"/>
-      <c r="BN17" s="1"/>
-      <c r="BO17" s="1"/>
-    </row>
-    <row r="18" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>977</v>
       </c>
@@ -3626,8 +3565,8 @@
       <c r="P18" s="5">
         <v>43350</v>
       </c>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -3674,11 +3613,8 @@
       <c r="BJ18" s="1"/>
       <c r="BK18" s="1"/>
       <c r="BL18" s="1"/>
-      <c r="BM18" s="1"/>
-      <c r="BN18" s="1"/>
-      <c r="BO18" s="1"/>
-    </row>
-    <row r="19" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>978</v>
       </c>
@@ -3700,11 +3636,11 @@
       <c r="G19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>485</v>
+      <c r="H19" s="9">
+        <v>43347</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="9">
@@ -3717,8 +3653,8 @@
       <c r="P19" s="5">
         <v>43347</v>
       </c>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -3765,11 +3701,8 @@
       <c r="BJ19" s="1"/>
       <c r="BK19" s="1"/>
       <c r="BL19" s="1"/>
-      <c r="BM19" s="1"/>
-      <c r="BN19" s="1"/>
-      <c r="BO19" s="1"/>
-    </row>
-    <row r="20" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>979</v>
       </c>
@@ -3808,8 +3741,8 @@
       <c r="P20" s="5">
         <v>43349</v>
       </c>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
@@ -3856,11 +3789,8 @@
       <c r="BJ20" s="1"/>
       <c r="BK20" s="1"/>
       <c r="BL20" s="1"/>
-      <c r="BM20" s="1"/>
-      <c r="BN20" s="1"/>
-      <c r="BO20" s="1"/>
-    </row>
-    <row r="21" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>980</v>
       </c>
@@ -3903,8 +3833,8 @@
       <c r="P21" s="5">
         <v>43353</v>
       </c>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
@@ -3951,11 +3881,8 @@
       <c r="BJ21" s="1"/>
       <c r="BK21" s="1"/>
       <c r="BL21" s="1"/>
-      <c r="BM21" s="1"/>
-      <c r="BN21" s="1"/>
-      <c r="BO21" s="1"/>
-    </row>
-    <row r="22" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>981</v>
       </c>
@@ -3994,8 +3921,8 @@
       <c r="P22" s="5">
         <v>43355</v>
       </c>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
@@ -4042,11 +3969,8 @@
       <c r="BJ22" s="1"/>
       <c r="BK22" s="1"/>
       <c r="BL22" s="1"/>
-      <c r="BM22" s="1"/>
-      <c r="BN22" s="1"/>
-      <c r="BO22" s="1"/>
-    </row>
-    <row r="23" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>982</v>
       </c>
@@ -4089,8 +4013,8 @@
       <c r="P23" s="5">
         <v>43355</v>
       </c>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
@@ -4137,11 +4061,8 @@
       <c r="BJ23" s="1"/>
       <c r="BK23" s="1"/>
       <c r="BL23" s="1"/>
-      <c r="BM23" s="1"/>
-      <c r="BN23" s="1"/>
-      <c r="BO23" s="1"/>
-    </row>
-    <row r="24" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>983</v>
       </c>
@@ -4180,8 +4101,8 @@
       <c r="P24" s="5">
         <v>43353</v>
       </c>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
@@ -4228,11 +4149,8 @@
       <c r="BJ24" s="1"/>
       <c r="BK24" s="1"/>
       <c r="BL24" s="1"/>
-      <c r="BM24" s="1"/>
-      <c r="BN24" s="1"/>
-      <c r="BO24" s="1"/>
-    </row>
-    <row r="25" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>984</v>
       </c>
@@ -4271,8 +4189,8 @@
       <c r="P25" s="5">
         <v>43351</v>
       </c>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
@@ -4319,11 +4237,8 @@
       <c r="BJ25" s="1"/>
       <c r="BK25" s="1"/>
       <c r="BL25" s="1"/>
-      <c r="BM25" s="1"/>
-      <c r="BN25" s="1"/>
-      <c r="BO25" s="1"/>
-    </row>
-    <row r="26" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>985</v>
       </c>
@@ -4358,8 +4273,8 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="5"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
@@ -4406,11 +4321,8 @@
       <c r="BJ26" s="1"/>
       <c r="BK26" s="1"/>
       <c r="BL26" s="1"/>
-      <c r="BM26" s="1"/>
-      <c r="BN26" s="1"/>
-      <c r="BO26" s="1"/>
-    </row>
-    <row r="27" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>986</v>
       </c>
@@ -4453,8 +4365,8 @@
       <c r="P27" s="5">
         <v>43357</v>
       </c>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
@@ -4501,11 +4413,8 @@
       <c r="BJ27" s="1"/>
       <c r="BK27" s="1"/>
       <c r="BL27" s="1"/>
-      <c r="BM27" s="1"/>
-      <c r="BN27" s="1"/>
-      <c r="BO27" s="1"/>
-    </row>
-    <row r="28" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>987</v>
       </c>
@@ -4534,7 +4443,7 @@
         <v>43363</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="K28" s="9">
         <v>43361</v>
@@ -4550,8 +4459,8 @@
       <c r="P28" s="5">
         <v>43361</v>
       </c>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
@@ -4598,11 +4507,8 @@
       <c r="BJ28" s="1"/>
       <c r="BK28" s="1"/>
       <c r="BL28" s="1"/>
-      <c r="BM28" s="1"/>
-      <c r="BN28" s="1"/>
-      <c r="BO28" s="1"/>
-    </row>
-    <row r="29" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>988</v>
       </c>
@@ -4645,8 +4551,8 @@
       <c r="P29" s="5">
         <v>43354</v>
       </c>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
@@ -4693,11 +4599,8 @@
       <c r="BJ29" s="1"/>
       <c r="BK29" s="1"/>
       <c r="BL29" s="1"/>
-      <c r="BM29" s="1"/>
-      <c r="BN29" s="1"/>
-      <c r="BO29" s="1"/>
-    </row>
-    <row r="30" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>989</v>
       </c>
@@ -4740,8 +4643,8 @@
       <c r="P30" s="5">
         <v>43355</v>
       </c>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
@@ -4788,11 +4691,8 @@
       <c r="BJ30" s="1"/>
       <c r="BK30" s="1"/>
       <c r="BL30" s="1"/>
-      <c r="BM30" s="1"/>
-      <c r="BN30" s="1"/>
-      <c r="BO30" s="1"/>
-    </row>
-    <row r="31" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>990</v>
       </c>
@@ -4835,8 +4735,8 @@
       <c r="P31" s="5">
         <v>43349</v>
       </c>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
@@ -4883,11 +4783,8 @@
       <c r="BJ31" s="1"/>
       <c r="BK31" s="1"/>
       <c r="BL31" s="1"/>
-      <c r="BM31" s="1"/>
-      <c r="BN31" s="1"/>
-      <c r="BO31" s="1"/>
-    </row>
-    <row r="32" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>991</v>
       </c>
@@ -4930,8 +4827,8 @@
       <c r="P32" s="5">
         <v>43348</v>
       </c>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
@@ -4978,11 +4875,8 @@
       <c r="BJ32" s="1"/>
       <c r="BK32" s="1"/>
       <c r="BL32" s="1"/>
-      <c r="BM32" s="1"/>
-      <c r="BN32" s="1"/>
-      <c r="BO32" s="1"/>
-    </row>
-    <row r="33" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>992</v>
       </c>
@@ -5008,7 +4902,7 @@
         <v>43348</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="9"/>
@@ -5019,8 +4913,8 @@
       <c r="P33" s="5">
         <v>43357</v>
       </c>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
@@ -5067,11 +4961,8 @@
       <c r="BJ33" s="1"/>
       <c r="BK33" s="1"/>
       <c r="BL33" s="1"/>
-      <c r="BM33" s="1"/>
-      <c r="BN33" s="1"/>
-      <c r="BO33" s="1"/>
-    </row>
-    <row r="34" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>993</v>
       </c>
@@ -5110,8 +5001,8 @@
       <c r="P34" s="5">
         <v>43349</v>
       </c>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
@@ -5158,11 +5049,8 @@
       <c r="BJ34" s="1"/>
       <c r="BK34" s="1"/>
       <c r="BL34" s="1"/>
-      <c r="BM34" s="1"/>
-      <c r="BN34" s="1"/>
-      <c r="BO34" s="1"/>
-    </row>
-    <row r="35" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>994</v>
       </c>
@@ -5207,8 +5095,8 @@
       <c r="P35" s="5">
         <v>43357</v>
       </c>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
@@ -5255,11 +5143,8 @@
       <c r="BJ35" s="1"/>
       <c r="BK35" s="1"/>
       <c r="BL35" s="1"/>
-      <c r="BM35" s="1"/>
-      <c r="BN35" s="1"/>
-      <c r="BO35" s="1"/>
-    </row>
-    <row r="36" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>995</v>
       </c>
@@ -5304,8 +5189,8 @@
       <c r="P36" s="5">
         <v>43357</v>
       </c>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
@@ -5352,11 +5237,8 @@
       <c r="BJ36" s="1"/>
       <c r="BK36" s="1"/>
       <c r="BL36" s="1"/>
-      <c r="BM36" s="1"/>
-      <c r="BN36" s="1"/>
-      <c r="BO36" s="1"/>
-    </row>
-    <row r="37" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>996</v>
       </c>
@@ -5401,8 +5283,8 @@
       <c r="P37" s="5">
         <v>43353</v>
       </c>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
@@ -5449,11 +5331,8 @@
       <c r="BJ37" s="1"/>
       <c r="BK37" s="1"/>
       <c r="BL37" s="1"/>
-      <c r="BM37" s="1"/>
-      <c r="BN37" s="1"/>
-      <c r="BO37" s="1"/>
-    </row>
-    <row r="38" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>997</v>
       </c>
@@ -5492,8 +5371,8 @@
       <c r="P38" s="5">
         <v>43355</v>
       </c>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
@@ -5540,11 +5419,8 @@
       <c r="BJ38" s="1"/>
       <c r="BK38" s="1"/>
       <c r="BL38" s="1"/>
-      <c r="BM38" s="1"/>
-      <c r="BN38" s="1"/>
-      <c r="BO38" s="1"/>
-    </row>
-    <row r="39" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>998</v>
       </c>
@@ -5583,8 +5459,8 @@
       <c r="P39" s="5">
         <v>43354</v>
       </c>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
@@ -5631,11 +5507,8 @@
       <c r="BJ39" s="1"/>
       <c r="BK39" s="1"/>
       <c r="BL39" s="1"/>
-      <c r="BM39" s="1"/>
-      <c r="BN39" s="1"/>
-      <c r="BO39" s="1"/>
-    </row>
-    <row r="40" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>999</v>
       </c>
@@ -5676,8 +5549,8 @@
       <c r="P40" s="5">
         <v>43355</v>
       </c>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
@@ -5724,11 +5597,8 @@
       <c r="BJ40" s="1"/>
       <c r="BK40" s="1"/>
       <c r="BL40" s="1"/>
-      <c r="BM40" s="1"/>
-      <c r="BN40" s="1"/>
-      <c r="BO40" s="1"/>
-    </row>
-    <row r="41" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>1000</v>
       </c>
@@ -5767,8 +5637,8 @@
       <c r="P41" s="5">
         <v>43355</v>
       </c>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
@@ -5815,11 +5685,8 @@
       <c r="BJ41" s="1"/>
       <c r="BK41" s="1"/>
       <c r="BL41" s="1"/>
-      <c r="BM41" s="1"/>
-      <c r="BN41" s="1"/>
-      <c r="BO41" s="1"/>
-    </row>
-    <row r="42" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>1001</v>
       </c>
@@ -5842,10 +5709,10 @@
         <v>122</v>
       </c>
       <c r="H42" s="9">
-        <v>43714</v>
+        <v>43349</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="9"/>
@@ -5856,8 +5723,8 @@
       <c r="P42" s="5">
         <v>43357</v>
       </c>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
@@ -5904,11 +5771,8 @@
       <c r="BJ42" s="1"/>
       <c r="BK42" s="1"/>
       <c r="BL42" s="1"/>
-      <c r="BM42" s="1"/>
-      <c r="BN42" s="1"/>
-      <c r="BO42" s="1"/>
-    </row>
-    <row r="43" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>1002</v>
       </c>
@@ -5928,13 +5792,13 @@
         <v>43349</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H43" s="9">
         <v>43349</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="9"/>
@@ -5945,8 +5809,8 @@
       <c r="P43" s="5">
         <v>43357</v>
       </c>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
@@ -5993,11 +5857,8 @@
       <c r="BJ43" s="1"/>
       <c r="BK43" s="1"/>
       <c r="BL43" s="1"/>
-      <c r="BM43" s="1"/>
-      <c r="BN43" s="1"/>
-      <c r="BO43" s="1"/>
-    </row>
-    <row r="44" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>1003</v>
       </c>
@@ -6036,8 +5897,8 @@
       <c r="P44" s="5">
         <v>43353</v>
       </c>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
@@ -6084,11 +5945,8 @@
       <c r="BJ44" s="1"/>
       <c r="BK44" s="1"/>
       <c r="BL44" s="1"/>
-      <c r="BM44" s="1"/>
-      <c r="BN44" s="1"/>
-      <c r="BO44" s="1"/>
-    </row>
-    <row r="45" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>1004</v>
       </c>
@@ -6127,8 +5985,8 @@
       <c r="P45" s="5">
         <v>43356</v>
       </c>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
@@ -6175,11 +6033,8 @@
       <c r="BJ45" s="1"/>
       <c r="BK45" s="1"/>
       <c r="BL45" s="1"/>
-      <c r="BM45" s="1"/>
-      <c r="BN45" s="1"/>
-      <c r="BO45" s="1"/>
-    </row>
-    <row r="46" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4">
         <v>1005</v>
       </c>
@@ -6222,8 +6077,8 @@
       <c r="P46" s="5">
         <v>43357</v>
       </c>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
@@ -6270,11 +6125,8 @@
       <c r="BJ46" s="1"/>
       <c r="BK46" s="1"/>
       <c r="BL46" s="1"/>
-      <c r="BM46" s="1"/>
-      <c r="BN46" s="1"/>
-      <c r="BO46" s="1"/>
-    </row>
-    <row r="47" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>1006</v>
       </c>
@@ -6317,8 +6169,8 @@
       <c r="P47" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
@@ -6365,11 +6217,8 @@
       <c r="BJ47" s="1"/>
       <c r="BK47" s="1"/>
       <c r="BL47" s="1"/>
-      <c r="BM47" s="1"/>
-      <c r="BN47" s="1"/>
-      <c r="BO47" s="1"/>
-    </row>
-    <row r="48" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
         <v>1007</v>
       </c>
@@ -6412,8 +6261,8 @@
       <c r="P48" s="5">
         <v>43360</v>
       </c>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
@@ -6460,11 +6309,8 @@
       <c r="BJ48" s="1"/>
       <c r="BK48" s="1"/>
       <c r="BL48" s="1"/>
-      <c r="BM48" s="1"/>
-      <c r="BN48" s="1"/>
-      <c r="BO48" s="1"/>
-    </row>
-    <row r="49" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
         <v>1008</v>
       </c>
@@ -6503,8 +6349,8 @@
       <c r="P49" s="5">
         <v>43360</v>
       </c>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
@@ -6551,11 +6397,8 @@
       <c r="BJ49" s="1"/>
       <c r="BK49" s="1"/>
       <c r="BL49" s="1"/>
-      <c r="BM49" s="1"/>
-      <c r="BN49" s="1"/>
-      <c r="BO49" s="1"/>
-    </row>
-    <row r="50" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
         <v>1009</v>
       </c>
@@ -6594,8 +6437,8 @@
       <c r="P50" s="5">
         <v>43355</v>
       </c>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
@@ -6642,11 +6485,8 @@
       <c r="BJ50" s="1"/>
       <c r="BK50" s="1"/>
       <c r="BL50" s="1"/>
-      <c r="BM50" s="1"/>
-      <c r="BN50" s="1"/>
-      <c r="BO50" s="1"/>
-    </row>
-    <row r="51" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>1010</v>
       </c>
@@ -6689,8 +6529,8 @@
       <c r="P51" s="5">
         <v>43369</v>
       </c>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
@@ -6737,11 +6577,8 @@
       <c r="BJ51" s="1"/>
       <c r="BK51" s="1"/>
       <c r="BL51" s="1"/>
-      <c r="BM51" s="1"/>
-      <c r="BN51" s="1"/>
-      <c r="BO51" s="1"/>
-    </row>
-    <row r="52" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4">
         <v>1011</v>
       </c>
@@ -6780,8 +6617,8 @@
       <c r="P52" s="5">
         <v>43353</v>
       </c>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
@@ -6828,11 +6665,8 @@
       <c r="BJ52" s="1"/>
       <c r="BK52" s="1"/>
       <c r="BL52" s="1"/>
-      <c r="BM52" s="1"/>
-      <c r="BN52" s="1"/>
-      <c r="BO52" s="1"/>
-    </row>
-    <row r="53" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4">
         <v>1012</v>
       </c>
@@ -6871,8 +6705,8 @@
       <c r="P53" s="5">
         <v>43357</v>
       </c>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
@@ -6919,11 +6753,8 @@
       <c r="BJ53" s="1"/>
       <c r="BK53" s="1"/>
       <c r="BL53" s="1"/>
-      <c r="BM53" s="1"/>
-      <c r="BN53" s="1"/>
-      <c r="BO53" s="1"/>
-    </row>
-    <row r="54" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4">
         <v>1013</v>
       </c>
@@ -6943,13 +6774,13 @@
         <v>43353</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="H54" s="9">
         <v>43353</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="9"/>
@@ -6960,8 +6791,8 @@
       <c r="P54" s="5">
         <v>43357</v>
       </c>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
@@ -7008,11 +6839,8 @@
       <c r="BJ54" s="1"/>
       <c r="BK54" s="1"/>
       <c r="BL54" s="1"/>
-      <c r="BM54" s="1"/>
-      <c r="BN54" s="1"/>
-      <c r="BO54" s="1"/>
-    </row>
-    <row r="55" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4">
         <v>1014</v>
       </c>
@@ -7055,8 +6883,8 @@
       <c r="P55" s="5">
         <v>43360</v>
       </c>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
@@ -7103,11 +6931,8 @@
       <c r="BJ55" s="1"/>
       <c r="BK55" s="1"/>
       <c r="BL55" s="1"/>
-      <c r="BM55" s="1"/>
-      <c r="BN55" s="1"/>
-      <c r="BO55" s="1"/>
-    </row>
-    <row r="56" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4">
         <v>1015</v>
       </c>
@@ -7133,7 +6958,7 @@
         <v>43353</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="9"/>
@@ -7144,8 +6969,8 @@
       <c r="P56" s="5">
         <v>43357</v>
       </c>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
@@ -7192,11 +7017,8 @@
       <c r="BJ56" s="1"/>
       <c r="BK56" s="1"/>
       <c r="BL56" s="1"/>
-      <c r="BM56" s="1"/>
-      <c r="BN56" s="1"/>
-      <c r="BO56" s="1"/>
-    </row>
-    <row r="57" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>1016</v>
       </c>
@@ -7239,8 +7061,8 @@
       <c r="P57" s="5">
         <v>43363</v>
       </c>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
@@ -7287,11 +7109,8 @@
       <c r="BJ57" s="1"/>
       <c r="BK57" s="1"/>
       <c r="BL57" s="1"/>
-      <c r="BM57" s="1"/>
-      <c r="BN57" s="1"/>
-      <c r="BO57" s="1"/>
-    </row>
-    <row r="58" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4">
         <v>1017</v>
       </c>
@@ -7330,8 +7149,8 @@
       <c r="P58" s="5">
         <v>43360</v>
       </c>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
@@ -7378,11 +7197,8 @@
       <c r="BJ58" s="1"/>
       <c r="BK58" s="1"/>
       <c r="BL58" s="1"/>
-      <c r="BM58" s="1"/>
-      <c r="BN58" s="1"/>
-      <c r="BO58" s="1"/>
-    </row>
-    <row r="59" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4">
         <v>1018</v>
       </c>
@@ -7427,8 +7243,8 @@
       <c r="P59" s="5">
         <v>43360</v>
       </c>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
@@ -7475,11 +7291,8 @@
       <c r="BJ59" s="1"/>
       <c r="BK59" s="1"/>
       <c r="BL59" s="1"/>
-      <c r="BM59" s="1"/>
-      <c r="BN59" s="1"/>
-      <c r="BO59" s="1"/>
-    </row>
-    <row r="60" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4">
         <v>1019</v>
       </c>
@@ -7518,8 +7331,8 @@
       <c r="P60" s="5">
         <v>43354</v>
       </c>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
@@ -7566,11 +7379,8 @@
       <c r="BJ60" s="1"/>
       <c r="BK60" s="1"/>
       <c r="BL60" s="1"/>
-      <c r="BM60" s="1"/>
-      <c r="BN60" s="1"/>
-      <c r="BO60" s="1"/>
-    </row>
-    <row r="61" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4">
         <v>1020</v>
       </c>
@@ -7600,7 +7410,7 @@
       </c>
       <c r="J61" s="4"/>
       <c r="K61" s="9">
-        <v>76229</v>
+        <v>43357</v>
       </c>
       <c r="L61" s="8"/>
       <c r="M61" s="4"/>
@@ -7609,8 +7419,8 @@
       <c r="P61" s="5">
         <v>43357</v>
       </c>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
@@ -7657,11 +7467,8 @@
       <c r="BJ61" s="1"/>
       <c r="BK61" s="1"/>
       <c r="BL61" s="1"/>
-      <c r="BM61" s="1"/>
-      <c r="BN61" s="1"/>
-      <c r="BO61" s="1"/>
-    </row>
-    <row r="62" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4">
         <v>1021</v>
       </c>
@@ -7700,8 +7507,8 @@
       <c r="P62" s="5">
         <v>43357</v>
       </c>
-      <c r="Q62" s="4"/>
-      <c r="R62" s="4"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
@@ -7748,11 +7555,8 @@
       <c r="BJ62" s="1"/>
       <c r="BK62" s="1"/>
       <c r="BL62" s="1"/>
-      <c r="BM62" s="1"/>
-      <c r="BN62" s="1"/>
-      <c r="BO62" s="1"/>
-    </row>
-    <row r="63" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
         <v>1022</v>
       </c>
@@ -7795,8 +7599,8 @@
       <c r="P63" s="5">
         <v>43357</v>
       </c>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
@@ -7843,11 +7647,8 @@
       <c r="BJ63" s="1"/>
       <c r="BK63" s="1"/>
       <c r="BL63" s="1"/>
-      <c r="BM63" s="1"/>
-      <c r="BN63" s="1"/>
-      <c r="BO63" s="1"/>
-    </row>
-    <row r="64" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4">
         <v>1023</v>
       </c>
@@ -7890,8 +7691,8 @@
       </c>
       <c r="O64" s="4"/>
       <c r="P64" s="5"/>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="4"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
@@ -7938,11 +7739,8 @@
       <c r="BJ64" s="1"/>
       <c r="BK64" s="1"/>
       <c r="BL64" s="1"/>
-      <c r="BM64" s="1"/>
-      <c r="BN64" s="1"/>
-      <c r="BO64" s="1"/>
-    </row>
-    <row r="65" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4">
         <v>1024</v>
       </c>
@@ -7985,8 +7783,8 @@
       <c r="P65" s="5">
         <v>43362</v>
       </c>
-      <c r="Q65" s="4"/>
-      <c r="R65" s="4"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
@@ -8033,11 +7831,8 @@
       <c r="BJ65" s="1"/>
       <c r="BK65" s="1"/>
       <c r="BL65" s="1"/>
-      <c r="BM65" s="1"/>
-      <c r="BN65" s="1"/>
-      <c r="BO65" s="1"/>
-    </row>
-    <row r="66" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4">
         <v>1025</v>
       </c>
@@ -8076,8 +7871,8 @@
       <c r="P66" s="5">
         <v>43363</v>
       </c>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
@@ -8124,11 +7919,8 @@
       <c r="BJ66" s="1"/>
       <c r="BK66" s="1"/>
       <c r="BL66" s="1"/>
-      <c r="BM66" s="1"/>
-      <c r="BN66" s="1"/>
-      <c r="BO66" s="1"/>
-    </row>
-    <row r="67" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4">
         <v>1026</v>
       </c>
@@ -8167,8 +7959,8 @@
       <c r="P67" s="5">
         <v>43361</v>
       </c>
-      <c r="Q67" s="4"/>
-      <c r="R67" s="4"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
@@ -8215,11 +8007,8 @@
       <c r="BJ67" s="1"/>
       <c r="BK67" s="1"/>
       <c r="BL67" s="1"/>
-      <c r="BM67" s="1"/>
-      <c r="BN67" s="1"/>
-      <c r="BO67" s="1"/>
-    </row>
-    <row r="68" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4">
         <v>1027</v>
       </c>
@@ -8258,8 +8047,8 @@
       <c r="P68" s="5">
         <v>43361</v>
       </c>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="4"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
@@ -8306,11 +8095,8 @@
       <c r="BJ68" s="1"/>
       <c r="BK68" s="1"/>
       <c r="BL68" s="1"/>
-      <c r="BM68" s="1"/>
-      <c r="BN68" s="1"/>
-      <c r="BO68" s="1"/>
-    </row>
-    <row r="69" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4">
         <v>1028</v>
       </c>
@@ -8349,8 +8135,8 @@
       <c r="P69" s="5">
         <v>43361</v>
       </c>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="4"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
@@ -8397,11 +8183,8 @@
       <c r="BJ69" s="1"/>
       <c r="BK69" s="1"/>
       <c r="BL69" s="1"/>
-      <c r="BM69" s="1"/>
-      <c r="BN69" s="1"/>
-      <c r="BO69" s="1"/>
-    </row>
-    <row r="70" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4">
         <v>1029</v>
       </c>
@@ -8446,8 +8229,8 @@
       <c r="P70" s="5">
         <v>43362</v>
       </c>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="4"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
@@ -8494,11 +8277,8 @@
       <c r="BJ70" s="1"/>
       <c r="BK70" s="1"/>
       <c r="BL70" s="1"/>
-      <c r="BM70" s="1"/>
-      <c r="BN70" s="1"/>
-      <c r="BO70" s="1"/>
-    </row>
-    <row r="71" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4">
         <v>1030</v>
       </c>
@@ -8543,8 +8323,8 @@
       <c r="P71" s="5">
         <v>43362</v>
       </c>
-      <c r="Q71" s="4"/>
-      <c r="R71" s="4"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
@@ -8591,11 +8371,8 @@
       <c r="BJ71" s="1"/>
       <c r="BK71" s="1"/>
       <c r="BL71" s="1"/>
-      <c r="BM71" s="1"/>
-      <c r="BN71" s="1"/>
-      <c r="BO71" s="1"/>
-    </row>
-    <row r="72" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4">
         <v>1031</v>
       </c>
@@ -8638,8 +8415,8 @@
       <c r="P72" s="5">
         <v>43369</v>
       </c>
-      <c r="Q72" s="4"/>
-      <c r="R72" s="4"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
@@ -8686,11 +8463,8 @@
       <c r="BJ72" s="1"/>
       <c r="BK72" s="1"/>
       <c r="BL72" s="1"/>
-      <c r="BM72" s="1"/>
-      <c r="BN72" s="1"/>
-      <c r="BO72" s="1"/>
-    </row>
-    <row r="73" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="73" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4">
         <v>1032</v>
       </c>
@@ -8729,8 +8503,8 @@
       <c r="P73" s="5">
         <v>43357</v>
       </c>
-      <c r="Q73" s="4"/>
-      <c r="R73" s="4"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
@@ -8777,11 +8551,8 @@
       <c r="BJ73" s="1"/>
       <c r="BK73" s="1"/>
       <c r="BL73" s="1"/>
-      <c r="BM73" s="1"/>
-      <c r="BN73" s="1"/>
-      <c r="BO73" s="1"/>
-    </row>
-    <row r="74" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4">
         <v>1033</v>
       </c>
@@ -8816,8 +8587,8 @@
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
       <c r="P74" s="5"/>
-      <c r="Q74" s="4"/>
-      <c r="R74" s="4"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
@@ -8864,11 +8635,8 @@
       <c r="BJ74" s="1"/>
       <c r="BK74" s="1"/>
       <c r="BL74" s="1"/>
-      <c r="BM74" s="1"/>
-      <c r="BN74" s="1"/>
-      <c r="BO74" s="1"/>
-    </row>
-    <row r="75" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="75" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4">
         <v>1034</v>
       </c>
@@ -8911,8 +8679,8 @@
       <c r="P75" s="5">
         <v>43357</v>
       </c>
-      <c r="Q75" s="4"/>
-      <c r="R75" s="4"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
@@ -8959,11 +8727,8 @@
       <c r="BJ75" s="1"/>
       <c r="BK75" s="1"/>
       <c r="BL75" s="1"/>
-      <c r="BM75" s="1"/>
-      <c r="BN75" s="1"/>
-      <c r="BO75" s="1"/>
-    </row>
-    <row r="76" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4">
         <v>1035</v>
       </c>
@@ -9002,8 +8767,8 @@
       <c r="P76" s="5">
         <v>43360</v>
       </c>
-      <c r="Q76" s="4"/>
-      <c r="R76" s="4"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
@@ -9050,11 +8815,8 @@
       <c r="BJ76" s="1"/>
       <c r="BK76" s="1"/>
       <c r="BL76" s="1"/>
-      <c r="BM76" s="1"/>
-      <c r="BN76" s="1"/>
-      <c r="BO76" s="1"/>
-    </row>
-    <row r="77" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="77" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4">
         <v>1036</v>
       </c>
@@ -9093,8 +8855,8 @@
       <c r="P77" s="5">
         <v>43362</v>
       </c>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
@@ -9141,11 +8903,8 @@
       <c r="BJ77" s="1"/>
       <c r="BK77" s="1"/>
       <c r="BL77" s="1"/>
-      <c r="BM77" s="1"/>
-      <c r="BN77" s="1"/>
-      <c r="BO77" s="1"/>
-    </row>
-    <row r="78" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4">
         <v>1037</v>
       </c>
@@ -9184,8 +8943,8 @@
       <c r="P78" s="5">
         <v>43363</v>
       </c>
-      <c r="Q78" s="4"/>
-      <c r="R78" s="4"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
@@ -9232,11 +8991,8 @@
       <c r="BJ78" s="1"/>
       <c r="BK78" s="1"/>
       <c r="BL78" s="1"/>
-      <c r="BM78" s="1"/>
-      <c r="BN78" s="1"/>
-      <c r="BO78" s="1"/>
-    </row>
-    <row r="79" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="79" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4">
         <v>1038</v>
       </c>
@@ -9279,8 +9035,8 @@
       <c r="P79" s="5">
         <v>43357</v>
       </c>
-      <c r="Q79" s="4"/>
-      <c r="R79" s="4"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
@@ -9327,11 +9083,8 @@
       <c r="BJ79" s="1"/>
       <c r="BK79" s="1"/>
       <c r="BL79" s="1"/>
-      <c r="BM79" s="1"/>
-      <c r="BN79" s="1"/>
-      <c r="BO79" s="1"/>
-    </row>
-    <row r="80" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="80" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4">
         <v>1039</v>
       </c>
@@ -9374,8 +9127,8 @@
       <c r="P80" s="5">
         <v>43359</v>
       </c>
-      <c r="Q80" s="4"/>
-      <c r="R80" s="4"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
@@ -9422,11 +9175,8 @@
       <c r="BJ80" s="1"/>
       <c r="BK80" s="1"/>
       <c r="BL80" s="1"/>
-      <c r="BM80" s="1"/>
-      <c r="BN80" s="1"/>
-      <c r="BO80" s="1"/>
-    </row>
-    <row r="81" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="81" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4">
         <v>1040</v>
       </c>
@@ -9469,8 +9219,8 @@
       <c r="P81" s="5">
         <v>43361</v>
       </c>
-      <c r="Q81" s="4"/>
-      <c r="R81" s="4"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
@@ -9517,11 +9267,8 @@
       <c r="BJ81" s="1"/>
       <c r="BK81" s="1"/>
       <c r="BL81" s="1"/>
-      <c r="BM81" s="1"/>
-      <c r="BN81" s="1"/>
-      <c r="BO81" s="1"/>
-    </row>
-    <row r="82" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="82" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4">
         <v>1041</v>
       </c>
@@ -9560,8 +9307,8 @@
       <c r="P82" s="5">
         <v>43360</v>
       </c>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
@@ -9608,11 +9355,8 @@
       <c r="BJ82" s="1"/>
       <c r="BK82" s="1"/>
       <c r="BL82" s="1"/>
-      <c r="BM82" s="1"/>
-      <c r="BN82" s="1"/>
-      <c r="BO82" s="1"/>
-    </row>
-    <row r="83" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="83" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4">
         <v>1042</v>
       </c>
@@ -9655,8 +9399,8 @@
       <c r="P83" s="5">
         <v>43363</v>
       </c>
-      <c r="Q83" s="4"/>
-      <c r="R83" s="4"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
@@ -9703,11 +9447,8 @@
       <c r="BJ83" s="1"/>
       <c r="BK83" s="1"/>
       <c r="BL83" s="1"/>
-      <c r="BM83" s="1"/>
-      <c r="BN83" s="1"/>
-      <c r="BO83" s="1"/>
-    </row>
-    <row r="84" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="84" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4">
         <v>1043</v>
       </c>
@@ -9746,8 +9487,8 @@
       <c r="P84" s="5">
         <v>43356</v>
       </c>
-      <c r="Q84" s="4"/>
-      <c r="R84" s="4"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
@@ -9794,11 +9535,8 @@
       <c r="BJ84" s="1"/>
       <c r="BK84" s="1"/>
       <c r="BL84" s="1"/>
-      <c r="BM84" s="1"/>
-      <c r="BN84" s="1"/>
-      <c r="BO84" s="1"/>
-    </row>
-    <row r="85" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="85" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4">
         <v>1044</v>
       </c>
@@ -9837,8 +9575,8 @@
       <c r="P85" s="5">
         <v>43360</v>
       </c>
-      <c r="Q85" s="4"/>
-      <c r="R85" s="4"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
@@ -9885,11 +9623,8 @@
       <c r="BJ85" s="1"/>
       <c r="BK85" s="1"/>
       <c r="BL85" s="1"/>
-      <c r="BM85" s="1"/>
-      <c r="BN85" s="1"/>
-      <c r="BO85" s="1"/>
-    </row>
-    <row r="86" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="86" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4">
         <v>1045</v>
       </c>
@@ -9932,8 +9667,8 @@
       <c r="P86" s="5">
         <v>43361</v>
       </c>
-      <c r="Q86" s="4"/>
-      <c r="R86" s="4"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
@@ -9980,11 +9715,8 @@
       <c r="BJ86" s="1"/>
       <c r="BK86" s="1"/>
       <c r="BL86" s="1"/>
-      <c r="BM86" s="1"/>
-      <c r="BN86" s="1"/>
-      <c r="BO86" s="1"/>
-    </row>
-    <row r="87" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="87" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4">
         <v>1046</v>
       </c>
@@ -10023,8 +9755,8 @@
       <c r="P87" s="5">
         <v>43360</v>
       </c>
-      <c r="Q87" s="4"/>
-      <c r="R87" s="4"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
@@ -10071,11 +9803,8 @@
       <c r="BJ87" s="1"/>
       <c r="BK87" s="1"/>
       <c r="BL87" s="1"/>
-      <c r="BM87" s="1"/>
-      <c r="BN87" s="1"/>
-      <c r="BO87" s="1"/>
-    </row>
-    <row r="88" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="88" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4">
         <v>1047</v>
       </c>
@@ -10101,7 +9830,7 @@
         <v>43356</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="J88" s="4"/>
       <c r="K88" s="9"/>
@@ -10112,8 +9841,8 @@
       <c r="P88" s="5">
         <v>43357</v>
       </c>
-      <c r="Q88" s="4"/>
-      <c r="R88" s="4"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
@@ -10160,11 +9889,8 @@
       <c r="BJ88" s="1"/>
       <c r="BK88" s="1"/>
       <c r="BL88" s="1"/>
-      <c r="BM88" s="1"/>
-      <c r="BN88" s="1"/>
-      <c r="BO88" s="1"/>
-    </row>
-    <row r="89" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="89" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4">
         <v>1048</v>
       </c>
@@ -10203,8 +9929,8 @@
       <c r="P89" s="5">
         <v>43360</v>
       </c>
-      <c r="Q89" s="4"/>
-      <c r="R89" s="4"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
@@ -10251,16 +9977,13 @@
       <c r="BJ89" s="1"/>
       <c r="BK89" s="1"/>
       <c r="BL89" s="1"/>
-      <c r="BM89" s="1"/>
-      <c r="BN89" s="1"/>
-      <c r="BO89" s="1"/>
-    </row>
-    <row r="90" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="90" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4">
         <v>1049</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>227</v>
@@ -10292,8 +10015,8 @@
       <c r="P90" s="5">
         <v>43368</v>
       </c>
-      <c r="Q90" s="4"/>
-      <c r="R90" s="4"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
@@ -10340,11 +10063,8 @@
       <c r="BJ90" s="1"/>
       <c r="BK90" s="1"/>
       <c r="BL90" s="1"/>
-      <c r="BM90" s="1"/>
-      <c r="BN90" s="1"/>
-      <c r="BO90" s="1"/>
-    </row>
-    <row r="91" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="91" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4">
         <v>1050</v>
       </c>
@@ -10383,8 +10103,8 @@
       <c r="P91" s="5">
         <v>43361</v>
       </c>
-      <c r="Q91" s="4"/>
-      <c r="R91" s="4"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
@@ -10431,11 +10151,8 @@
       <c r="BJ91" s="1"/>
       <c r="BK91" s="1"/>
       <c r="BL91" s="1"/>
-      <c r="BM91" s="1"/>
-      <c r="BN91" s="1"/>
-      <c r="BO91" s="1"/>
-    </row>
-    <row r="92" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="92" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4">
         <v>1051</v>
       </c>
@@ -10478,8 +10195,8 @@
       <c r="P92" s="5">
         <v>43363</v>
       </c>
-      <c r="Q92" s="4"/>
-      <c r="R92" s="4"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
@@ -10526,11 +10243,8 @@
       <c r="BJ92" s="1"/>
       <c r="BK92" s="1"/>
       <c r="BL92" s="1"/>
-      <c r="BM92" s="1"/>
-      <c r="BN92" s="1"/>
-      <c r="BO92" s="1"/>
-    </row>
-    <row r="93" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="93" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4">
         <v>1052</v>
       </c>
@@ -10573,8 +10287,8 @@
       <c r="P93" s="5">
         <v>43363</v>
       </c>
-      <c r="Q93" s="4"/>
-      <c r="R93" s="4"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
@@ -10621,11 +10335,8 @@
       <c r="BJ93" s="1"/>
       <c r="BK93" s="1"/>
       <c r="BL93" s="1"/>
-      <c r="BM93" s="1"/>
-      <c r="BN93" s="1"/>
-      <c r="BO93" s="1"/>
-    </row>
-    <row r="94" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="94" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4">
         <v>1053</v>
       </c>
@@ -10668,8 +10379,8 @@
       <c r="P94" s="5">
         <v>43363</v>
       </c>
-      <c r="Q94" s="4"/>
-      <c r="R94" s="4"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
@@ -10716,11 +10427,8 @@
       <c r="BJ94" s="1"/>
       <c r="BK94" s="1"/>
       <c r="BL94" s="1"/>
-      <c r="BM94" s="1"/>
-      <c r="BN94" s="1"/>
-      <c r="BO94" s="1"/>
-    </row>
-    <row r="95" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="95" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4">
         <v>1054</v>
       </c>
@@ -10763,8 +10471,8 @@
       <c r="P95" s="5">
         <v>43363</v>
       </c>
-      <c r="Q95" s="4"/>
-      <c r="R95" s="4"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
@@ -10811,11 +10519,8 @@
       <c r="BJ95" s="1"/>
       <c r="BK95" s="1"/>
       <c r="BL95" s="1"/>
-      <c r="BM95" s="1"/>
-      <c r="BN95" s="1"/>
-      <c r="BO95" s="1"/>
-    </row>
-    <row r="96" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="96" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4">
         <v>1055</v>
       </c>
@@ -10854,8 +10559,8 @@
       <c r="P96" s="5">
         <v>43368</v>
       </c>
-      <c r="Q96" s="4"/>
-      <c r="R96" s="4"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
@@ -10902,11 +10607,8 @@
       <c r="BJ96" s="1"/>
       <c r="BK96" s="1"/>
       <c r="BL96" s="1"/>
-      <c r="BM96" s="1"/>
-      <c r="BN96" s="1"/>
-      <c r="BO96" s="1"/>
-    </row>
-    <row r="97" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="97" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4">
         <v>1056</v>
       </c>
@@ -10945,8 +10647,8 @@
       <c r="P97" s="5">
         <v>43368</v>
       </c>
-      <c r="Q97" s="4"/>
-      <c r="R97" s="4"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
@@ -10993,11 +10695,8 @@
       <c r="BJ97" s="1"/>
       <c r="BK97" s="1"/>
       <c r="BL97" s="1"/>
-      <c r="BM97" s="1"/>
-      <c r="BN97" s="1"/>
-      <c r="BO97" s="1"/>
-    </row>
-    <row r="98" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="98" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4">
         <v>1057</v>
       </c>
@@ -11034,8 +10733,8 @@
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
       <c r="P98" s="5"/>
-      <c r="Q98" s="4"/>
-      <c r="R98" s="4"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
@@ -11082,11 +10781,8 @@
       <c r="BJ98" s="1"/>
       <c r="BK98" s="1"/>
       <c r="BL98" s="1"/>
-      <c r="BM98" s="1"/>
-      <c r="BN98" s="1"/>
-      <c r="BO98" s="1"/>
-    </row>
-    <row r="99" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="99" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4">
         <v>1058</v>
       </c>
@@ -11106,13 +10802,13 @@
         <v>43357</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H99" s="9">
         <v>43357</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="J99" s="4"/>
       <c r="K99" s="9"/>
@@ -11121,8 +10817,8 @@
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
       <c r="P99" s="5"/>
-      <c r="Q99" s="4"/>
-      <c r="R99" s="4"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
       <c r="U99" s="1"/>
@@ -11169,11 +10865,8 @@
       <c r="BJ99" s="1"/>
       <c r="BK99" s="1"/>
       <c r="BL99" s="1"/>
-      <c r="BM99" s="1"/>
-      <c r="BN99" s="1"/>
-      <c r="BO99" s="1"/>
-    </row>
-    <row r="100" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="100" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4">
         <v>1059</v>
       </c>
@@ -11216,8 +10909,8 @@
       <c r="P100" s="5">
         <v>43362</v>
       </c>
-      <c r="Q100" s="4"/>
-      <c r="R100" s="4"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
@@ -11264,11 +10957,8 @@
       <c r="BJ100" s="1"/>
       <c r="BK100" s="1"/>
       <c r="BL100" s="1"/>
-      <c r="BM100" s="1"/>
-      <c r="BN100" s="1"/>
-      <c r="BO100" s="1"/>
-    </row>
-    <row r="101" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="101" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4">
         <v>1060</v>
       </c>
@@ -11311,8 +11001,8 @@
       <c r="P101" s="5">
         <v>43360</v>
       </c>
-      <c r="Q101" s="4"/>
-      <c r="R101" s="4"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
@@ -11359,11 +11049,8 @@
       <c r="BJ101" s="1"/>
       <c r="BK101" s="1"/>
       <c r="BL101" s="1"/>
-      <c r="BM101" s="1"/>
-      <c r="BN101" s="1"/>
-      <c r="BO101" s="1"/>
-    </row>
-    <row r="102" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="102" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4">
         <v>1061</v>
       </c>
@@ -11410,8 +11097,8 @@
       <c r="P102" s="5">
         <v>43357</v>
       </c>
-      <c r="Q102" s="4"/>
-      <c r="R102" s="4"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
       <c r="U102" s="1"/>
@@ -11458,16 +11145,13 @@
       <c r="BJ102" s="1"/>
       <c r="BK102" s="1"/>
       <c r="BL102" s="1"/>
-      <c r="BM102" s="1"/>
-      <c r="BN102" s="1"/>
-      <c r="BO102" s="1"/>
-    </row>
-    <row r="103" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="103" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4">
         <v>1062</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>254</v>
@@ -11482,13 +11166,13 @@
         <v>43357</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H103" s="9">
         <v>43368</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="J103" s="4"/>
       <c r="K103" s="9"/>
@@ -11497,8 +11181,8 @@
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
       <c r="P103" s="5"/>
-      <c r="Q103" s="4"/>
-      <c r="R103" s="4"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
@@ -11545,11 +11229,8 @@
       <c r="BJ103" s="1"/>
       <c r="BK103" s="1"/>
       <c r="BL103" s="1"/>
-      <c r="BM103" s="1"/>
-      <c r="BN103" s="1"/>
-      <c r="BO103" s="1"/>
-    </row>
-    <row r="104" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="104" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4">
         <v>1063</v>
       </c>
@@ -11588,8 +11269,8 @@
       <c r="P104" s="5">
         <v>43362</v>
       </c>
-      <c r="Q104" s="4"/>
-      <c r="R104" s="4"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
       <c r="U104" s="1"/>
@@ -11636,11 +11317,8 @@
       <c r="BJ104" s="1"/>
       <c r="BK104" s="1"/>
       <c r="BL104" s="1"/>
-      <c r="BM104" s="1"/>
-      <c r="BN104" s="1"/>
-      <c r="BO104" s="1"/>
-    </row>
-    <row r="105" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="105" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4">
         <v>1064</v>
       </c>
@@ -11679,8 +11357,8 @@
       <c r="P105" s="5">
         <v>43363</v>
       </c>
-      <c r="Q105" s="4"/>
-      <c r="R105" s="4"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
       <c r="U105" s="1"/>
@@ -11727,11 +11405,8 @@
       <c r="BJ105" s="1"/>
       <c r="BK105" s="1"/>
       <c r="BL105" s="1"/>
-      <c r="BM105" s="1"/>
-      <c r="BN105" s="1"/>
-      <c r="BO105" s="1"/>
-    </row>
-    <row r="106" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="106" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4">
         <v>1065</v>
       </c>
@@ -11778,8 +11453,8 @@
       <c r="P106" s="5">
         <v>43362</v>
       </c>
-      <c r="Q106" s="4"/>
-      <c r="R106" s="4"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
       <c r="U106" s="1"/>
@@ -11826,16 +11501,13 @@
       <c r="BJ106" s="1"/>
       <c r="BK106" s="1"/>
       <c r="BL106" s="1"/>
-      <c r="BM106" s="1"/>
-      <c r="BN106" s="1"/>
-      <c r="BO106" s="1"/>
-    </row>
-    <row r="107" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="107" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4">
         <v>1066</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>261</v>
@@ -11869,8 +11541,8 @@
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
       <c r="P107" s="5"/>
-      <c r="Q107" s="4"/>
-      <c r="R107" s="4"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
@@ -11917,11 +11589,8 @@
       <c r="BJ107" s="1"/>
       <c r="BK107" s="1"/>
       <c r="BL107" s="1"/>
-      <c r="BM107" s="1"/>
-      <c r="BN107" s="1"/>
-      <c r="BO107" s="1"/>
-    </row>
-    <row r="108" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="108" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4">
         <v>1067</v>
       </c>
@@ -11964,8 +11633,8 @@
       <c r="P108" s="5">
         <v>43362</v>
       </c>
-      <c r="Q108" s="4"/>
-      <c r="R108" s="4"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
       <c r="U108" s="1"/>
@@ -12012,11 +11681,8 @@
       <c r="BJ108" s="1"/>
       <c r="BK108" s="1"/>
       <c r="BL108" s="1"/>
-      <c r="BM108" s="1"/>
-      <c r="BN108" s="1"/>
-      <c r="BO108" s="1"/>
-    </row>
-    <row r="109" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="109" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4">
         <v>1068</v>
       </c>
@@ -12055,8 +11721,8 @@
       <c r="P109" s="5">
         <v>43361</v>
       </c>
-      <c r="Q109" s="4"/>
-      <c r="R109" s="4"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
       <c r="U109" s="1"/>
@@ -12103,11 +11769,8 @@
       <c r="BJ109" s="1"/>
       <c r="BK109" s="1"/>
       <c r="BL109" s="1"/>
-      <c r="BM109" s="1"/>
-      <c r="BN109" s="1"/>
-      <c r="BO109" s="1"/>
-    </row>
-    <row r="110" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="110" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4">
         <v>1070</v>
       </c>
@@ -12150,8 +11813,8 @@
       <c r="P110" s="5">
         <v>43364</v>
       </c>
-      <c r="Q110" s="4"/>
-      <c r="R110" s="4"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
       <c r="U110" s="1"/>
@@ -12198,11 +11861,8 @@
       <c r="BJ110" s="1"/>
       <c r="BK110" s="1"/>
       <c r="BL110" s="1"/>
-      <c r="BM110" s="1"/>
-      <c r="BN110" s="1"/>
-      <c r="BO110" s="1"/>
-    </row>
-    <row r="111" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="111" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4">
         <v>1071</v>
       </c>
@@ -12247,8 +11907,8 @@
       <c r="P111" s="5">
         <v>43363</v>
       </c>
-      <c r="Q111" s="4"/>
-      <c r="R111" s="4"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
       <c r="U111" s="1"/>
@@ -12295,11 +11955,8 @@
       <c r="BJ111" s="1"/>
       <c r="BK111" s="1"/>
       <c r="BL111" s="1"/>
-      <c r="BM111" s="1"/>
-      <c r="BN111" s="1"/>
-      <c r="BO111" s="1"/>
-    </row>
-    <row r="112" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="112" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4">
         <v>1072</v>
       </c>
@@ -12338,8 +11995,8 @@
       <c r="P112" s="5">
         <v>43368</v>
       </c>
-      <c r="Q112" s="4"/>
-      <c r="R112" s="4"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
       <c r="U112" s="1"/>
@@ -12386,11 +12043,8 @@
       <c r="BJ112" s="1"/>
       <c r="BK112" s="1"/>
       <c r="BL112" s="1"/>
-      <c r="BM112" s="1"/>
-      <c r="BN112" s="1"/>
-      <c r="BO112" s="1"/>
-    </row>
-    <row r="113" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="113" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4">
         <v>1073</v>
       </c>
@@ -12429,8 +12083,8 @@
       <c r="P113" s="5">
         <v>43368</v>
       </c>
-      <c r="Q113" s="4"/>
-      <c r="R113" s="4"/>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1"/>
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
       <c r="U113" s="1"/>
@@ -12477,11 +12131,8 @@
       <c r="BJ113" s="1"/>
       <c r="BK113" s="1"/>
       <c r="BL113" s="1"/>
-      <c r="BM113" s="1"/>
-      <c r="BN113" s="1"/>
-      <c r="BO113" s="1"/>
-    </row>
-    <row r="114" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="114" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4">
         <v>1074</v>
       </c>
@@ -12518,8 +12169,8 @@
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
       <c r="P114" s="5"/>
-      <c r="Q114" s="4"/>
-      <c r="R114" s="4"/>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="1"/>
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
       <c r="U114" s="1"/>
@@ -12566,11 +12217,8 @@
       <c r="BJ114" s="1"/>
       <c r="BK114" s="1"/>
       <c r="BL114" s="1"/>
-      <c r="BM114" s="1"/>
-      <c r="BN114" s="1"/>
-      <c r="BO114" s="1"/>
-    </row>
-    <row r="115" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="115" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4">
         <v>1075</v>
       </c>
@@ -12613,8 +12261,8 @@
       </c>
       <c r="O115" s="4"/>
       <c r="P115" s="5"/>
-      <c r="Q115" s="4"/>
-      <c r="R115" s="4"/>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="1"/>
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
       <c r="U115" s="1"/>
@@ -12661,11 +12309,8 @@
       <c r="BJ115" s="1"/>
       <c r="BK115" s="1"/>
       <c r="BL115" s="1"/>
-      <c r="BM115" s="1"/>
-      <c r="BN115" s="1"/>
-      <c r="BO115" s="1"/>
-    </row>
-    <row r="116" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="116" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4">
         <v>1076</v>
       </c>
@@ -12685,13 +12330,13 @@
         <v>43362</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H116" s="9">
         <v>43362</v>
       </c>
       <c r="I116" s="9" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="J116" s="4"/>
       <c r="K116" s="9"/>
@@ -12700,8 +12345,8 @@
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
       <c r="P116" s="5"/>
-      <c r="Q116" s="4"/>
-      <c r="R116" s="4"/>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1"/>
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
       <c r="U116" s="1"/>
@@ -12748,11 +12393,8 @@
       <c r="BJ116" s="1"/>
       <c r="BK116" s="1"/>
       <c r="BL116" s="1"/>
-      <c r="BM116" s="1"/>
-      <c r="BN116" s="1"/>
-      <c r="BO116" s="1"/>
-    </row>
-    <row r="117" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="117" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4">
         <v>1077</v>
       </c>
@@ -12791,8 +12433,8 @@
       <c r="P117" s="5">
         <v>43368</v>
       </c>
-      <c r="Q117" s="4"/>
-      <c r="R117" s="4"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
       <c r="U117" s="1"/>
@@ -12839,11 +12481,8 @@
       <c r="BJ117" s="1"/>
       <c r="BK117" s="1"/>
       <c r="BL117" s="1"/>
-      <c r="BM117" s="1"/>
-      <c r="BN117" s="1"/>
-      <c r="BO117" s="1"/>
-    </row>
-    <row r="118" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="118" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4">
         <v>1078</v>
       </c>
@@ -12882,8 +12521,8 @@
       <c r="P118" s="5">
         <v>43362</v>
       </c>
-      <c r="Q118" s="4"/>
-      <c r="R118" s="4"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
       <c r="U118" s="1"/>
@@ -12930,11 +12569,8 @@
       <c r="BJ118" s="1"/>
       <c r="BK118" s="1"/>
       <c r="BL118" s="1"/>
-      <c r="BM118" s="1"/>
-      <c r="BN118" s="1"/>
-      <c r="BO118" s="1"/>
-    </row>
-    <row r="119" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="119" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4">
         <v>1079</v>
       </c>
@@ -12973,8 +12609,8 @@
       <c r="P119" s="5">
         <v>43368</v>
       </c>
-      <c r="Q119" s="4"/>
-      <c r="R119" s="4"/>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1"/>
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
       <c r="U119" s="1"/>
@@ -13021,11 +12657,8 @@
       <c r="BJ119" s="1"/>
       <c r="BK119" s="1"/>
       <c r="BL119" s="1"/>
-      <c r="BM119" s="1"/>
-      <c r="BN119" s="1"/>
-      <c r="BO119" s="1"/>
-    </row>
-    <row r="120" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="120" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4">
         <v>1080</v>
       </c>
@@ -13064,8 +12697,8 @@
       <c r="P120" s="5">
         <v>43369</v>
       </c>
-      <c r="Q120" s="4"/>
-      <c r="R120" s="4"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
       <c r="U120" s="1"/>
@@ -13112,11 +12745,8 @@
       <c r="BJ120" s="1"/>
       <c r="BK120" s="1"/>
       <c r="BL120" s="1"/>
-      <c r="BM120" s="1"/>
-      <c r="BN120" s="1"/>
-      <c r="BO120" s="1"/>
-    </row>
-    <row r="121" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="121" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4">
         <v>1081</v>
       </c>
@@ -13155,8 +12785,8 @@
       <c r="P121" s="5">
         <v>43364</v>
       </c>
-      <c r="Q121" s="4"/>
-      <c r="R121" s="4"/>
+      <c r="Q121" s="1"/>
+      <c r="R121" s="1"/>
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
       <c r="U121" s="1"/>
@@ -13203,11 +12833,8 @@
       <c r="BJ121" s="1"/>
       <c r="BK121" s="1"/>
       <c r="BL121" s="1"/>
-      <c r="BM121" s="1"/>
-      <c r="BN121" s="1"/>
-      <c r="BO121" s="1"/>
-    </row>
-    <row r="122" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="122" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4">
         <v>1082</v>
       </c>
@@ -13252,8 +12879,8 @@
       <c r="P122" s="5">
         <v>43369</v>
       </c>
-      <c r="Q122" s="4"/>
-      <c r="R122" s="4"/>
+      <c r="Q122" s="1"/>
+      <c r="R122" s="1"/>
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
       <c r="U122" s="1"/>
@@ -13300,16 +12927,13 @@
       <c r="BJ122" s="1"/>
       <c r="BK122" s="1"/>
       <c r="BL122" s="1"/>
-      <c r="BM122" s="1"/>
-      <c r="BN122" s="1"/>
-      <c r="BO122" s="1"/>
-    </row>
-    <row r="123" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="123" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4">
         <v>1083</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>294</v>
@@ -13341,8 +12965,8 @@
       <c r="N123" s="4"/>
       <c r="O123" s="4"/>
       <c r="P123" s="5"/>
-      <c r="Q123" s="4"/>
-      <c r="R123" s="4"/>
+      <c r="Q123" s="1"/>
+      <c r="R123" s="1"/>
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
       <c r="U123" s="1"/>
@@ -13389,11 +13013,8 @@
       <c r="BJ123" s="1"/>
       <c r="BK123" s="1"/>
       <c r="BL123" s="1"/>
-      <c r="BM123" s="1"/>
-      <c r="BN123" s="1"/>
-      <c r="BO123" s="1"/>
-    </row>
-    <row r="124" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="124" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4">
         <v>1084</v>
       </c>
@@ -13438,8 +13059,8 @@
       <c r="P124" s="5">
         <v>43370</v>
       </c>
-      <c r="Q124" s="4"/>
-      <c r="R124" s="4"/>
+      <c r="Q124" s="1"/>
+      <c r="R124" s="1"/>
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
       <c r="U124" s="1"/>
@@ -13486,11 +13107,8 @@
       <c r="BJ124" s="1"/>
       <c r="BK124" s="1"/>
       <c r="BL124" s="1"/>
-      <c r="BM124" s="1"/>
-      <c r="BN124" s="1"/>
-      <c r="BO124" s="1"/>
-    </row>
-    <row r="125" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="125" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4">
         <v>1085</v>
       </c>
@@ -13535,8 +13153,8 @@
       <c r="P125" s="5">
         <v>43368</v>
       </c>
-      <c r="Q125" s="4"/>
-      <c r="R125" s="4"/>
+      <c r="Q125" s="1"/>
+      <c r="R125" s="1"/>
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
       <c r="U125" s="1"/>
@@ -13583,11 +13201,8 @@
       <c r="BJ125" s="1"/>
       <c r="BK125" s="1"/>
       <c r="BL125" s="1"/>
-      <c r="BM125" s="1"/>
-      <c r="BN125" s="1"/>
-      <c r="BO125" s="1"/>
-    </row>
-    <row r="126" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="126" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4">
         <v>1086</v>
       </c>
@@ -13626,8 +13241,8 @@
       <c r="N126" s="4"/>
       <c r="O126" s="4"/>
       <c r="P126" s="5"/>
-      <c r="Q126" s="4"/>
-      <c r="R126" s="4"/>
+      <c r="Q126" s="1"/>
+      <c r="R126" s="1"/>
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
       <c r="U126" s="1"/>
@@ -13674,11 +13289,8 @@
       <c r="BJ126" s="1"/>
       <c r="BK126" s="1"/>
       <c r="BL126" s="1"/>
-      <c r="BM126" s="1"/>
-      <c r="BN126" s="1"/>
-      <c r="BO126" s="1"/>
-    </row>
-    <row r="127" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="127" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4">
         <v>1087</v>
       </c>
@@ -13721,8 +13333,8 @@
       <c r="P127" s="5">
         <v>43368</v>
       </c>
-      <c r="Q127" s="4"/>
-      <c r="R127" s="4"/>
+      <c r="Q127" s="1"/>
+      <c r="R127" s="1"/>
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
       <c r="U127" s="1"/>
@@ -13769,11 +13381,8 @@
       <c r="BJ127" s="1"/>
       <c r="BK127" s="1"/>
       <c r="BL127" s="1"/>
-      <c r="BM127" s="1"/>
-      <c r="BN127" s="1"/>
-      <c r="BO127" s="1"/>
-    </row>
-    <row r="128" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="128" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4">
         <v>1088</v>
       </c>
@@ -13810,8 +13419,8 @@
       <c r="N128" s="4"/>
       <c r="O128" s="4"/>
       <c r="P128" s="5"/>
-      <c r="Q128" s="4"/>
-      <c r="R128" s="4"/>
+      <c r="Q128" s="1"/>
+      <c r="R128" s="1"/>
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
       <c r="U128" s="1"/>
@@ -13858,11 +13467,8 @@
       <c r="BJ128" s="1"/>
       <c r="BK128" s="1"/>
       <c r="BL128" s="1"/>
-      <c r="BM128" s="1"/>
-      <c r="BN128" s="1"/>
-      <c r="BO128" s="1"/>
-    </row>
-    <row r="129" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="129" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4">
         <v>1089</v>
       </c>
@@ -13905,8 +13511,8 @@
       <c r="P129" s="5">
         <v>43368</v>
       </c>
-      <c r="Q129" s="4"/>
-      <c r="R129" s="4"/>
+      <c r="Q129" s="1"/>
+      <c r="R129" s="1"/>
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
       <c r="U129" s="1"/>
@@ -13953,11 +13559,8 @@
       <c r="BJ129" s="1"/>
       <c r="BK129" s="1"/>
       <c r="BL129" s="1"/>
-      <c r="BM129" s="1"/>
-      <c r="BN129" s="1"/>
-      <c r="BO129" s="1"/>
-    </row>
-    <row r="130" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="130" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4">
         <v>1090</v>
       </c>
@@ -14000,8 +13603,8 @@
       <c r="P130" s="5">
         <v>43364</v>
       </c>
-      <c r="Q130" s="4"/>
-      <c r="R130" s="4"/>
+      <c r="Q130" s="1"/>
+      <c r="R130" s="1"/>
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
       <c r="U130" s="1"/>
@@ -14048,11 +13651,8 @@
       <c r="BJ130" s="1"/>
       <c r="BK130" s="1"/>
       <c r="BL130" s="1"/>
-      <c r="BM130" s="1"/>
-      <c r="BN130" s="1"/>
-      <c r="BO130" s="1"/>
-    </row>
-    <row r="131" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="131" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4">
         <v>1091</v>
       </c>
@@ -14095,8 +13695,8 @@
       </c>
       <c r="O131" s="4"/>
       <c r="P131" s="5"/>
-      <c r="Q131" s="4"/>
-      <c r="R131" s="4"/>
+      <c r="Q131" s="1"/>
+      <c r="R131" s="1"/>
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
       <c r="U131" s="1"/>
@@ -14143,11 +13743,8 @@
       <c r="BJ131" s="1"/>
       <c r="BK131" s="1"/>
       <c r="BL131" s="1"/>
-      <c r="BM131" s="1"/>
-      <c r="BN131" s="1"/>
-      <c r="BO131" s="1"/>
-    </row>
-    <row r="132" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="132" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4">
         <v>1092</v>
       </c>
@@ -14190,8 +13787,8 @@
       <c r="P132" s="5">
         <v>43370</v>
       </c>
-      <c r="Q132" s="4"/>
-      <c r="R132" s="4"/>
+      <c r="Q132" s="1"/>
+      <c r="R132" s="1"/>
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
       <c r="U132" s="1"/>
@@ -14238,11 +13835,8 @@
       <c r="BJ132" s="1"/>
       <c r="BK132" s="1"/>
       <c r="BL132" s="1"/>
-      <c r="BM132" s="1"/>
-      <c r="BN132" s="1"/>
-      <c r="BO132" s="1"/>
-    </row>
-    <row r="133" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="133" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4">
         <v>1093</v>
       </c>
@@ -14285,8 +13879,8 @@
       <c r="P133" s="5">
         <v>43364</v>
       </c>
-      <c r="Q133" s="4"/>
-      <c r="R133" s="4"/>
+      <c r="Q133" s="1"/>
+      <c r="R133" s="1"/>
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
       <c r="U133" s="1"/>
@@ -14333,11 +13927,8 @@
       <c r="BJ133" s="1"/>
       <c r="BK133" s="1"/>
       <c r="BL133" s="1"/>
-      <c r="BM133" s="1"/>
-      <c r="BN133" s="1"/>
-      <c r="BO133" s="1"/>
-    </row>
-    <row r="134" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="134" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4">
         <v>1094</v>
       </c>
@@ -14378,8 +13969,8 @@
       <c r="N134" s="4"/>
       <c r="O134" s="4"/>
       <c r="P134" s="5"/>
-      <c r="Q134" s="4"/>
-      <c r="R134" s="4"/>
+      <c r="Q134" s="1"/>
+      <c r="R134" s="1"/>
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
       <c r="U134" s="1"/>
@@ -14426,11 +14017,8 @@
       <c r="BJ134" s="1"/>
       <c r="BK134" s="1"/>
       <c r="BL134" s="1"/>
-      <c r="BM134" s="1"/>
-      <c r="BN134" s="1"/>
-      <c r="BO134" s="1"/>
-    </row>
-    <row r="135" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="135" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4">
         <v>1095</v>
       </c>
@@ -14467,8 +14055,8 @@
       <c r="N135" s="4"/>
       <c r="O135" s="4"/>
       <c r="P135" s="5"/>
-      <c r="Q135" s="4"/>
-      <c r="R135" s="4"/>
+      <c r="Q135" s="1"/>
+      <c r="R135" s="1"/>
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
       <c r="U135" s="1"/>
@@ -14515,16 +14103,13 @@
       <c r="BJ135" s="1"/>
       <c r="BK135" s="1"/>
       <c r="BL135" s="1"/>
-      <c r="BM135" s="1"/>
-      <c r="BN135" s="1"/>
-      <c r="BO135" s="1"/>
-    </row>
-    <row r="136" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="136" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4">
         <v>1096</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>323</v>
@@ -14539,13 +14124,13 @@
         <v>43364</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H136" s="9">
         <v>43364</v>
       </c>
       <c r="I136" s="9" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="J136" s="4"/>
       <c r="K136" s="9"/>
@@ -14554,8 +14139,8 @@
       <c r="N136" s="4"/>
       <c r="O136" s="4"/>
       <c r="P136" s="5"/>
-      <c r="Q136" s="4"/>
-      <c r="R136" s="4"/>
+      <c r="Q136" s="1"/>
+      <c r="R136" s="1"/>
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
       <c r="U136" s="1"/>
@@ -14602,11 +14187,8 @@
       <c r="BJ136" s="1"/>
       <c r="BK136" s="1"/>
       <c r="BL136" s="1"/>
-      <c r="BM136" s="1"/>
-      <c r="BN136" s="1"/>
-      <c r="BO136" s="1"/>
-    </row>
-    <row r="137" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="137" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4">
         <v>1097</v>
       </c>
@@ -14643,8 +14225,8 @@
       <c r="N137" s="4"/>
       <c r="O137" s="4"/>
       <c r="P137" s="5"/>
-      <c r="Q137" s="4"/>
-      <c r="R137" s="4"/>
+      <c r="Q137" s="1"/>
+      <c r="R137" s="1"/>
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
       <c r="U137" s="1"/>
@@ -14691,19 +14273,16 @@
       <c r="BJ137" s="1"/>
       <c r="BK137" s="1"/>
       <c r="BL137" s="1"/>
-      <c r="BM137" s="1"/>
-      <c r="BN137" s="1"/>
-      <c r="BO137" s="1"/>
-    </row>
-    <row r="138" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="138" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4">
         <v>1098</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>326</v>
@@ -14730,8 +14309,8 @@
       <c r="N138" s="4"/>
       <c r="O138" s="4"/>
       <c r="P138" s="5"/>
-      <c r="Q138" s="4"/>
-      <c r="R138" s="4"/>
+      <c r="Q138" s="1"/>
+      <c r="R138" s="1"/>
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
       <c r="U138" s="1"/>
@@ -14778,11 +14357,8 @@
       <c r="BJ138" s="1"/>
       <c r="BK138" s="1"/>
       <c r="BL138" s="1"/>
-      <c r="BM138" s="1"/>
-      <c r="BN138" s="1"/>
-      <c r="BO138" s="1"/>
-    </row>
-    <row r="139" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="139" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4">
         <v>1099</v>
       </c>
@@ -14819,8 +14395,8 @@
       <c r="N139" s="4"/>
       <c r="O139" s="4"/>
       <c r="P139" s="5"/>
-      <c r="Q139" s="4"/>
-      <c r="R139" s="4"/>
+      <c r="Q139" s="1"/>
+      <c r="R139" s="1"/>
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
       <c r="U139" s="1"/>
@@ -14867,11 +14443,8 @@
       <c r="BJ139" s="1"/>
       <c r="BK139" s="1"/>
       <c r="BL139" s="1"/>
-      <c r="BM139" s="1"/>
-      <c r="BN139" s="1"/>
-      <c r="BO139" s="1"/>
-    </row>
-    <row r="140" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="140" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4">
         <v>1100</v>
       </c>
@@ -14908,8 +14481,8 @@
       <c r="N140" s="4"/>
       <c r="O140" s="4"/>
       <c r="P140" s="5"/>
-      <c r="Q140" s="4"/>
-      <c r="R140" s="4"/>
+      <c r="Q140" s="1"/>
+      <c r="R140" s="1"/>
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
       <c r="U140" s="1"/>
@@ -14956,11 +14529,8 @@
       <c r="BJ140" s="1"/>
       <c r="BK140" s="1"/>
       <c r="BL140" s="1"/>
-      <c r="BM140" s="1"/>
-      <c r="BN140" s="1"/>
-      <c r="BO140" s="1"/>
-    </row>
-    <row r="141" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="141" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4">
         <v>1101</v>
       </c>
@@ -15001,8 +14571,8 @@
       <c r="N141" s="4"/>
       <c r="O141" s="4"/>
       <c r="P141" s="5"/>
-      <c r="Q141" s="4"/>
-      <c r="R141" s="4"/>
+      <c r="Q141" s="1"/>
+      <c r="R141" s="1"/>
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
       <c r="U141" s="1"/>
@@ -15049,11 +14619,8 @@
       <c r="BJ141" s="1"/>
       <c r="BK141" s="1"/>
       <c r="BL141" s="1"/>
-      <c r="BM141" s="1"/>
-      <c r="BN141" s="1"/>
-      <c r="BO141" s="1"/>
-    </row>
-    <row r="142" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="142" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4">
         <v>1102</v>
       </c>
@@ -15090,8 +14657,8 @@
       <c r="N142" s="4"/>
       <c r="O142" s="4"/>
       <c r="P142" s="5"/>
-      <c r="Q142" s="4"/>
-      <c r="R142" s="4"/>
+      <c r="Q142" s="1"/>
+      <c r="R142" s="1"/>
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
       <c r="U142" s="1"/>
@@ -15138,16 +14705,13 @@
       <c r="BJ142" s="1"/>
       <c r="BK142" s="1"/>
       <c r="BL142" s="1"/>
-      <c r="BM142" s="1"/>
-      <c r="BN142" s="1"/>
-      <c r="BO142" s="1"/>
-    </row>
-    <row r="143" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="143" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4">
         <v>1103</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>336</v>
@@ -15168,7 +14732,7 @@
         <v>43364</v>
       </c>
       <c r="I143" s="9" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="J143" s="4"/>
       <c r="K143" s="9"/>
@@ -15177,8 +14741,8 @@
       <c r="N143" s="4"/>
       <c r="O143" s="4"/>
       <c r="P143" s="5"/>
-      <c r="Q143" s="4"/>
-      <c r="R143" s="4"/>
+      <c r="Q143" s="1"/>
+      <c r="R143" s="1"/>
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
       <c r="U143" s="1"/>
@@ -15225,11 +14789,8 @@
       <c r="BJ143" s="1"/>
       <c r="BK143" s="1"/>
       <c r="BL143" s="1"/>
-      <c r="BM143" s="1"/>
-      <c r="BN143" s="1"/>
-      <c r="BO143" s="1"/>
-    </row>
-    <row r="144" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="144" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4">
         <v>1104</v>
       </c>
@@ -15270,8 +14831,8 @@
       <c r="N144" s="4"/>
       <c r="O144" s="4"/>
       <c r="P144" s="5"/>
-      <c r="Q144" s="4"/>
-      <c r="R144" s="4"/>
+      <c r="Q144" s="1"/>
+      <c r="R144" s="1"/>
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
       <c r="U144" s="1"/>
@@ -15318,11 +14879,8 @@
       <c r="BJ144" s="1"/>
       <c r="BK144" s="1"/>
       <c r="BL144" s="1"/>
-      <c r="BM144" s="1"/>
-      <c r="BN144" s="1"/>
-      <c r="BO144" s="1"/>
-    </row>
-    <row r="145" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="145" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4">
         <v>1105</v>
       </c>
@@ -15359,8 +14917,8 @@
       <c r="N145" s="4"/>
       <c r="O145" s="4"/>
       <c r="P145" s="5"/>
-      <c r="Q145" s="4"/>
-      <c r="R145" s="4"/>
+      <c r="Q145" s="1"/>
+      <c r="R145" s="1"/>
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
       <c r="U145" s="1"/>
@@ -15407,11 +14965,8 @@
       <c r="BJ145" s="1"/>
       <c r="BK145" s="1"/>
       <c r="BL145" s="1"/>
-      <c r="BM145" s="1"/>
-      <c r="BN145" s="1"/>
-      <c r="BO145" s="1"/>
-    </row>
-    <row r="146" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="146" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4">
         <v>1106</v>
       </c>
@@ -15448,8 +15003,8 @@
       <c r="N146" s="4"/>
       <c r="O146" s="4"/>
       <c r="P146" s="5"/>
-      <c r="Q146" s="4"/>
-      <c r="R146" s="4"/>
+      <c r="Q146" s="1"/>
+      <c r="R146" s="1"/>
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
       <c r="U146" s="1"/>
@@ -15496,11 +15051,8 @@
       <c r="BJ146" s="1"/>
       <c r="BK146" s="1"/>
       <c r="BL146" s="1"/>
-      <c r="BM146" s="1"/>
-      <c r="BN146" s="1"/>
-      <c r="BO146" s="1"/>
-    </row>
-    <row r="147" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="147" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4">
         <v>1107</v>
       </c>
@@ -15539,8 +15091,8 @@
       <c r="P147" s="5">
         <v>43369</v>
       </c>
-      <c r="Q147" s="4"/>
-      <c r="R147" s="4"/>
+      <c r="Q147" s="1"/>
+      <c r="R147" s="1"/>
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
       <c r="U147" s="1"/>
@@ -15587,11 +15139,8 @@
       <c r="BJ147" s="1"/>
       <c r="BK147" s="1"/>
       <c r="BL147" s="1"/>
-      <c r="BM147" s="1"/>
-      <c r="BN147" s="1"/>
-      <c r="BO147" s="1"/>
-    </row>
-    <row r="148" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="148" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4">
         <v>1108</v>
       </c>
@@ -15630,8 +15179,8 @@
       <c r="P148" s="5">
         <v>43369</v>
       </c>
-      <c r="Q148" s="4"/>
-      <c r="R148" s="4"/>
+      <c r="Q148" s="1"/>
+      <c r="R148" s="1"/>
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
       <c r="U148" s="1"/>
@@ -15678,11 +15227,8 @@
       <c r="BJ148" s="1"/>
       <c r="BK148" s="1"/>
       <c r="BL148" s="1"/>
-      <c r="BM148" s="1"/>
-      <c r="BN148" s="1"/>
-      <c r="BO148" s="1"/>
-    </row>
-    <row r="149" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="149" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4">
         <v>1109</v>
       </c>
@@ -15721,8 +15267,8 @@
       <c r="P149" s="5">
         <v>43370</v>
       </c>
-      <c r="Q149" s="4"/>
-      <c r="R149" s="4"/>
+      <c r="Q149" s="1"/>
+      <c r="R149" s="1"/>
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
       <c r="U149" s="1"/>
@@ -15769,11 +15315,8 @@
       <c r="BJ149" s="1"/>
       <c r="BK149" s="1"/>
       <c r="BL149" s="1"/>
-      <c r="BM149" s="1"/>
-      <c r="BN149" s="1"/>
-      <c r="BO149" s="1"/>
-    </row>
-    <row r="150" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="150" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4">
         <v>1110</v>
       </c>
@@ -15812,8 +15355,8 @@
       <c r="P150" s="5">
         <v>43369</v>
       </c>
-      <c r="Q150" s="4"/>
-      <c r="R150" s="4"/>
+      <c r="Q150" s="1"/>
+      <c r="R150" s="1"/>
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
       <c r="U150" s="1"/>
@@ -15860,11 +15403,8 @@
       <c r="BJ150" s="1"/>
       <c r="BK150" s="1"/>
       <c r="BL150" s="1"/>
-      <c r="BM150" s="1"/>
-      <c r="BN150" s="1"/>
-      <c r="BO150" s="1"/>
-    </row>
-    <row r="151" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="151" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4">
         <v>1111</v>
       </c>
@@ -15909,8 +15449,8 @@
       <c r="P151" s="5">
         <v>43371</v>
       </c>
-      <c r="Q151" s="4"/>
-      <c r="R151" s="4"/>
+      <c r="Q151" s="1"/>
+      <c r="R151" s="1"/>
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
       <c r="U151" s="1"/>
@@ -15957,11 +15497,8 @@
       <c r="BJ151" s="1"/>
       <c r="BK151" s="1"/>
       <c r="BL151" s="1"/>
-      <c r="BM151" s="1"/>
-      <c r="BN151" s="1"/>
-      <c r="BO151" s="1"/>
-    </row>
-    <row r="152" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="152" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4">
         <v>1112</v>
       </c>
@@ -15987,7 +15524,7 @@
         <v>43368</v>
       </c>
       <c r="I152" s="9" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="J152" s="4"/>
       <c r="K152" s="9"/>
@@ -15996,8 +15533,8 @@
       <c r="N152" s="4"/>
       <c r="O152" s="4"/>
       <c r="P152" s="5"/>
-      <c r="Q152" s="4"/>
-      <c r="R152" s="4"/>
+      <c r="Q152" s="1"/>
+      <c r="R152" s="1"/>
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
       <c r="U152" s="1"/>
@@ -16044,11 +15581,8 @@
       <c r="BJ152" s="1"/>
       <c r="BK152" s="1"/>
       <c r="BL152" s="1"/>
-      <c r="BM152" s="1"/>
-      <c r="BN152" s="1"/>
-      <c r="BO152" s="1"/>
-    </row>
-    <row r="153" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="153" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4">
         <v>1113</v>
       </c>
@@ -16074,7 +15608,7 @@
         <v>43368</v>
       </c>
       <c r="I153" s="9" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="J153" s="4"/>
       <c r="K153" s="9"/>
@@ -16083,8 +15617,8 @@
       <c r="N153" s="4"/>
       <c r="O153" s="4"/>
       <c r="P153" s="5"/>
-      <c r="Q153" s="4"/>
-      <c r="R153" s="4"/>
+      <c r="Q153" s="1"/>
+      <c r="R153" s="1"/>
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
       <c r="U153" s="1"/>
@@ -16131,11 +15665,8 @@
       <c r="BJ153" s="1"/>
       <c r="BK153" s="1"/>
       <c r="BL153" s="1"/>
-      <c r="BM153" s="1"/>
-      <c r="BN153" s="1"/>
-      <c r="BO153" s="1"/>
-    </row>
-    <row r="154" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="154" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4">
         <v>1114</v>
       </c>
@@ -16176,8 +15707,8 @@
       <c r="N154" s="4"/>
       <c r="O154" s="4"/>
       <c r="P154" s="5"/>
-      <c r="Q154" s="4"/>
-      <c r="R154" s="4"/>
+      <c r="Q154" s="1"/>
+      <c r="R154" s="1"/>
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
       <c r="U154" s="1"/>
@@ -16224,16 +15755,13 @@
       <c r="BJ154" s="1"/>
       <c r="BK154" s="1"/>
       <c r="BL154" s="1"/>
-      <c r="BM154" s="1"/>
-      <c r="BN154" s="1"/>
-      <c r="BO154" s="1"/>
-    </row>
-    <row r="155" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="155" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4">
         <v>1115</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>358</v>
@@ -16254,7 +15782,7 @@
         <v>43368</v>
       </c>
       <c r="I155" s="9" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="J155" s="4"/>
       <c r="K155" s="9"/>
@@ -16263,8 +15791,8 @@
       <c r="N155" s="4"/>
       <c r="O155" s="4"/>
       <c r="P155" s="5"/>
-      <c r="Q155" s="4"/>
-      <c r="R155" s="4"/>
+      <c r="Q155" s="1"/>
+      <c r="R155" s="1"/>
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
       <c r="U155" s="1"/>
@@ -16311,11 +15839,8 @@
       <c r="BJ155" s="1"/>
       <c r="BK155" s="1"/>
       <c r="BL155" s="1"/>
-      <c r="BM155" s="1"/>
-      <c r="BN155" s="1"/>
-      <c r="BO155" s="1"/>
-    </row>
-    <row r="156" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="156" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4">
         <v>1116</v>
       </c>
@@ -16341,7 +15866,7 @@
         <v>43368</v>
       </c>
       <c r="I156" s="9" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="J156" s="4"/>
       <c r="K156" s="9"/>
@@ -16350,8 +15875,8 @@
       <c r="N156" s="4"/>
       <c r="O156" s="4"/>
       <c r="P156" s="5"/>
-      <c r="Q156" s="4"/>
-      <c r="R156" s="4"/>
+      <c r="Q156" s="1"/>
+      <c r="R156" s="1"/>
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
       <c r="U156" s="1"/>
@@ -16398,11 +15923,8 @@
       <c r="BJ156" s="1"/>
       <c r="BK156" s="1"/>
       <c r="BL156" s="1"/>
-      <c r="BM156" s="1"/>
-      <c r="BN156" s="1"/>
-      <c r="BO156" s="1"/>
-    </row>
-    <row r="157" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="157" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4">
         <v>1117</v>
       </c>
@@ -16437,8 +15959,8 @@
       <c r="N157" s="4"/>
       <c r="O157" s="4"/>
       <c r="P157" s="5"/>
-      <c r="Q157" s="4"/>
-      <c r="R157" s="4"/>
+      <c r="Q157" s="1"/>
+      <c r="R157" s="1"/>
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
       <c r="U157" s="1"/>
@@ -16485,11 +16007,8 @@
       <c r="BJ157" s="1"/>
       <c r="BK157" s="1"/>
       <c r="BL157" s="1"/>
-      <c r="BM157" s="1"/>
-      <c r="BN157" s="1"/>
-      <c r="BO157" s="1"/>
-    </row>
-    <row r="158" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="158" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4">
         <v>1118</v>
       </c>
@@ -16524,8 +16043,8 @@
       <c r="N158" s="4"/>
       <c r="O158" s="4"/>
       <c r="P158" s="5"/>
-      <c r="Q158" s="4"/>
-      <c r="R158" s="4"/>
+      <c r="Q158" s="1"/>
+      <c r="R158" s="1"/>
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
       <c r="U158" s="1"/>
@@ -16572,11 +16091,8 @@
       <c r="BJ158" s="1"/>
       <c r="BK158" s="1"/>
       <c r="BL158" s="1"/>
-      <c r="BM158" s="1"/>
-      <c r="BN158" s="1"/>
-      <c r="BO158" s="1"/>
-    </row>
-    <row r="159" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="159" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4">
         <v>1119</v>
       </c>
@@ -16611,8 +16127,8 @@
       <c r="N159" s="4"/>
       <c r="O159" s="4"/>
       <c r="P159" s="5"/>
-      <c r="Q159" s="4"/>
-      <c r="R159" s="4"/>
+      <c r="Q159" s="1"/>
+      <c r="R159" s="1"/>
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
       <c r="U159" s="1"/>
@@ -16659,11 +16175,8 @@
       <c r="BJ159" s="1"/>
       <c r="BK159" s="1"/>
       <c r="BL159" s="1"/>
-      <c r="BM159" s="1"/>
-      <c r="BN159" s="1"/>
-      <c r="BO159" s="1"/>
-    </row>
-    <row r="160" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="160" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4">
         <v>1120</v>
       </c>
@@ -16698,8 +16211,8 @@
       <c r="N160" s="4"/>
       <c r="O160" s="4"/>
       <c r="P160" s="5"/>
-      <c r="Q160" s="4"/>
-      <c r="R160" s="4"/>
+      <c r="Q160" s="1"/>
+      <c r="R160" s="1"/>
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
       <c r="U160" s="1"/>
@@ -16746,11 +16259,8 @@
       <c r="BJ160" s="1"/>
       <c r="BK160" s="1"/>
       <c r="BL160" s="1"/>
-      <c r="BM160" s="1"/>
-      <c r="BN160" s="1"/>
-      <c r="BO160" s="1"/>
-    </row>
-    <row r="161" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="161" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4">
         <v>1121</v>
       </c>
@@ -16785,8 +16295,8 @@
       <c r="N161" s="4"/>
       <c r="O161" s="4"/>
       <c r="P161" s="5"/>
-      <c r="Q161" s="4"/>
-      <c r="R161" s="4"/>
+      <c r="Q161" s="1"/>
+      <c r="R161" s="1"/>
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
       <c r="U161" s="1"/>
@@ -16833,11 +16343,8 @@
       <c r="BJ161" s="1"/>
       <c r="BK161" s="1"/>
       <c r="BL161" s="1"/>
-      <c r="BM161" s="1"/>
-      <c r="BN161" s="1"/>
-      <c r="BO161" s="1"/>
-    </row>
-    <row r="162" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="162" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4">
         <v>1122</v>
       </c>
@@ -16880,8 +16387,8 @@
       <c r="P162" s="5">
         <v>43369</v>
       </c>
-      <c r="Q162" s="4"/>
-      <c r="R162" s="4"/>
+      <c r="Q162" s="1"/>
+      <c r="R162" s="1"/>
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
       <c r="U162" s="1"/>
@@ -16928,11 +16435,8 @@
       <c r="BJ162" s="1"/>
       <c r="BK162" s="1"/>
       <c r="BL162" s="1"/>
-      <c r="BM162" s="1"/>
-      <c r="BN162" s="1"/>
-      <c r="BO162" s="1"/>
-    </row>
-    <row r="163" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="163" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4">
         <v>1123</v>
       </c>
@@ -16969,8 +16473,8 @@
       <c r="N163" s="4"/>
       <c r="O163" s="4"/>
       <c r="P163" s="5"/>
-      <c r="Q163" s="4"/>
-      <c r="R163" s="4"/>
+      <c r="Q163" s="1"/>
+      <c r="R163" s="1"/>
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
       <c r="U163" s="1"/>
@@ -17017,11 +16521,8 @@
       <c r="BJ163" s="1"/>
       <c r="BK163" s="1"/>
       <c r="BL163" s="1"/>
-      <c r="BM163" s="1"/>
-      <c r="BN163" s="1"/>
-      <c r="BO163" s="1"/>
-    </row>
-    <row r="164" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="164" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4">
         <v>1124</v>
       </c>
@@ -17064,8 +16565,8 @@
       </c>
       <c r="O164" s="4"/>
       <c r="P164" s="5"/>
-      <c r="Q164" s="4"/>
-      <c r="R164" s="4"/>
+      <c r="Q164" s="1"/>
+      <c r="R164" s="1"/>
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
       <c r="U164" s="1"/>
@@ -17112,11 +16613,8 @@
       <c r="BJ164" s="1"/>
       <c r="BK164" s="1"/>
       <c r="BL164" s="1"/>
-      <c r="BM164" s="1"/>
-      <c r="BN164" s="1"/>
-      <c r="BO164" s="1"/>
-    </row>
-    <row r="165" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="165" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4">
         <v>1125</v>
       </c>
@@ -17142,7 +16640,7 @@
         <v>43369</v>
       </c>
       <c r="I165" s="9" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="J165" s="4"/>
       <c r="K165" s="9"/>
@@ -17153,8 +16651,8 @@
       <c r="P165" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="Q165" s="4"/>
-      <c r="R165" s="4"/>
+      <c r="Q165" s="1"/>
+      <c r="R165" s="1"/>
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
       <c r="U165" s="1"/>
@@ -17201,11 +16699,8 @@
       <c r="BJ165" s="1"/>
       <c r="BK165" s="1"/>
       <c r="BL165" s="1"/>
-      <c r="BM165" s="1"/>
-      <c r="BN165" s="1"/>
-      <c r="BO165" s="1"/>
-    </row>
-    <row r="166" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="166" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4">
         <v>1126</v>
       </c>
@@ -17231,7 +16726,7 @@
         <v>43369</v>
       </c>
       <c r="I166" s="9" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="J166" s="4"/>
       <c r="K166" s="9"/>
@@ -17240,8 +16735,8 @@
       <c r="N166" s="4"/>
       <c r="O166" s="4"/>
       <c r="P166" s="5"/>
-      <c r="Q166" s="4"/>
-      <c r="R166" s="4"/>
+      <c r="Q166" s="1"/>
+      <c r="R166" s="1"/>
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
       <c r="U166" s="1"/>
@@ -17288,11 +16783,8 @@
       <c r="BJ166" s="1"/>
       <c r="BK166" s="1"/>
       <c r="BL166" s="1"/>
-      <c r="BM166" s="1"/>
-      <c r="BN166" s="1"/>
-      <c r="BO166" s="1"/>
-    </row>
-    <row r="167" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="167" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4">
         <v>1127</v>
       </c>
@@ -17322,7 +16814,7 @@
       </c>
       <c r="J167" s="4"/>
       <c r="K167" s="9">
-        <v>43338</v>
+        <v>43369</v>
       </c>
       <c r="L167" s="8">
         <v>3</v>
@@ -17333,8 +16825,8 @@
       <c r="N167" s="4"/>
       <c r="O167" s="4"/>
       <c r="P167" s="5"/>
-      <c r="Q167" s="4"/>
-      <c r="R167" s="4"/>
+      <c r="Q167" s="1"/>
+      <c r="R167" s="1"/>
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
       <c r="U167" s="1"/>
@@ -17381,11 +16873,8 @@
       <c r="BJ167" s="1"/>
       <c r="BK167" s="1"/>
       <c r="BL167" s="1"/>
-      <c r="BM167" s="1"/>
-      <c r="BN167" s="1"/>
-      <c r="BO167" s="1"/>
-    </row>
-    <row r="168" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="168" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4">
         <v>1128</v>
       </c>
@@ -17426,8 +16915,8 @@
       <c r="N168" s="4"/>
       <c r="O168" s="4"/>
       <c r="P168" s="5"/>
-      <c r="Q168" s="4"/>
-      <c r="R168" s="4"/>
+      <c r="Q168" s="1"/>
+      <c r="R168" s="1"/>
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
       <c r="U168" s="1"/>
@@ -17474,11 +16963,8 @@
       <c r="BJ168" s="1"/>
       <c r="BK168" s="1"/>
       <c r="BL168" s="1"/>
-      <c r="BM168" s="1"/>
-      <c r="BN168" s="1"/>
-      <c r="BO168" s="1"/>
-    </row>
-    <row r="169" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="169" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4">
         <v>1129</v>
       </c>
@@ -17521,8 +17007,8 @@
       </c>
       <c r="O169" s="4"/>
       <c r="P169" s="5"/>
-      <c r="Q169" s="4"/>
-      <c r="R169" s="4"/>
+      <c r="Q169" s="1"/>
+      <c r="R169" s="1"/>
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
       <c r="U169" s="1"/>
@@ -17569,11 +17055,8 @@
       <c r="BJ169" s="1"/>
       <c r="BK169" s="1"/>
       <c r="BL169" s="1"/>
-      <c r="BM169" s="1"/>
-      <c r="BN169" s="1"/>
-      <c r="BO169" s="1"/>
-    </row>
-    <row r="170" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="170" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4">
         <v>1130</v>
       </c>
@@ -17612,8 +17095,8 @@
       <c r="P170" s="5">
         <v>43372</v>
       </c>
-      <c r="Q170" s="4"/>
-      <c r="R170" s="4"/>
+      <c r="Q170" s="1"/>
+      <c r="R170" s="1"/>
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
       <c r="U170" s="1"/>
@@ -17660,11 +17143,8 @@
       <c r="BJ170" s="1"/>
       <c r="BK170" s="1"/>
       <c r="BL170" s="1"/>
-      <c r="BM170" s="1"/>
-      <c r="BN170" s="1"/>
-      <c r="BO170" s="1"/>
-    </row>
-    <row r="171" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="171" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4">
         <v>1131</v>
       </c>
@@ -17701,8 +17181,8 @@
       <c r="N171" s="4"/>
       <c r="O171" s="4"/>
       <c r="P171" s="5"/>
-      <c r="Q171" s="4"/>
-      <c r="R171" s="4"/>
+      <c r="Q171" s="1"/>
+      <c r="R171" s="1"/>
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
       <c r="U171" s="1"/>
@@ -17749,11 +17229,8 @@
       <c r="BJ171" s="1"/>
       <c r="BK171" s="1"/>
       <c r="BL171" s="1"/>
-      <c r="BM171" s="1"/>
-      <c r="BN171" s="1"/>
-      <c r="BO171" s="1"/>
-    </row>
-    <row r="172" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="172" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4">
         <v>1132</v>
       </c>
@@ -17790,8 +17267,8 @@
       <c r="N172" s="4"/>
       <c r="O172" s="4"/>
       <c r="P172" s="5"/>
-      <c r="Q172" s="4"/>
-      <c r="R172" s="4"/>
+      <c r="Q172" s="1"/>
+      <c r="R172" s="1"/>
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
       <c r="U172" s="1"/>
@@ -17838,11 +17315,8 @@
       <c r="BJ172" s="1"/>
       <c r="BK172" s="1"/>
       <c r="BL172" s="1"/>
-      <c r="BM172" s="1"/>
-      <c r="BN172" s="1"/>
-      <c r="BO172" s="1"/>
-    </row>
-    <row r="173" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="173" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4">
         <v>1133</v>
       </c>
@@ -17879,8 +17353,8 @@
       <c r="N173" s="4"/>
       <c r="O173" s="4"/>
       <c r="P173" s="5"/>
-      <c r="Q173" s="4"/>
-      <c r="R173" s="4"/>
+      <c r="Q173" s="1"/>
+      <c r="R173" s="1"/>
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
       <c r="U173" s="1"/>
@@ -17927,11 +17401,8 @@
       <c r="BJ173" s="1"/>
       <c r="BK173" s="1"/>
       <c r="BL173" s="1"/>
-      <c r="BM173" s="1"/>
-      <c r="BN173" s="1"/>
-      <c r="BO173" s="1"/>
-    </row>
-    <row r="174" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="174" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4">
         <v>1134</v>
       </c>
@@ -17968,8 +17439,8 @@
       <c r="N174" s="4"/>
       <c r="O174" s="4"/>
       <c r="P174" s="5"/>
-      <c r="Q174" s="4"/>
-      <c r="R174" s="4"/>
+      <c r="Q174" s="1"/>
+      <c r="R174" s="1"/>
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
       <c r="U174" s="1"/>
@@ -18016,11 +17487,8 @@
       <c r="BJ174" s="1"/>
       <c r="BK174" s="1"/>
       <c r="BL174" s="1"/>
-      <c r="BM174" s="1"/>
-      <c r="BN174" s="1"/>
-      <c r="BO174" s="1"/>
-    </row>
-    <row r="175" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="175" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4">
         <v>1135</v>
       </c>
@@ -18059,8 +17527,8 @@
       <c r="P175" s="5">
         <v>43371</v>
       </c>
-      <c r="Q175" s="4"/>
-      <c r="R175" s="4"/>
+      <c r="Q175" s="1"/>
+      <c r="R175" s="1"/>
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
       <c r="U175" s="1"/>
@@ -18107,11 +17575,8 @@
       <c r="BJ175" s="1"/>
       <c r="BK175" s="1"/>
       <c r="BL175" s="1"/>
-      <c r="BM175" s="1"/>
-      <c r="BN175" s="1"/>
-      <c r="BO175" s="1"/>
-    </row>
-    <row r="176" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="176" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4">
         <v>1136</v>
       </c>
@@ -18148,8 +17613,8 @@
       <c r="N176" s="4"/>
       <c r="O176" s="4"/>
       <c r="P176" s="5"/>
-      <c r="Q176" s="4"/>
-      <c r="R176" s="4"/>
+      <c r="Q176" s="1"/>
+      <c r="R176" s="1"/>
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
       <c r="U176" s="1"/>
@@ -18196,11 +17661,8 @@
       <c r="BJ176" s="1"/>
       <c r="BK176" s="1"/>
       <c r="BL176" s="1"/>
-      <c r="BM176" s="1"/>
-      <c r="BN176" s="1"/>
-      <c r="BO176" s="1"/>
-    </row>
-    <row r="177" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="177" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4">
         <v>1137</v>
       </c>
@@ -18237,8 +17699,8 @@
       <c r="N177" s="4"/>
       <c r="O177" s="4"/>
       <c r="P177" s="5"/>
-      <c r="Q177" s="4"/>
-      <c r="R177" s="4"/>
+      <c r="Q177" s="1"/>
+      <c r="R177" s="1"/>
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
       <c r="U177" s="1"/>
@@ -18285,11 +17747,8 @@
       <c r="BJ177" s="1"/>
       <c r="BK177" s="1"/>
       <c r="BL177" s="1"/>
-      <c r="BM177" s="1"/>
-      <c r="BN177" s="1"/>
-      <c r="BO177" s="1"/>
-    </row>
-    <row r="178" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="178" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4">
         <v>1138</v>
       </c>
@@ -18326,8 +17785,8 @@
       <c r="N178" s="4"/>
       <c r="O178" s="4"/>
       <c r="P178" s="5"/>
-      <c r="Q178" s="4"/>
-      <c r="R178" s="4"/>
+      <c r="Q178" s="1"/>
+      <c r="R178" s="1"/>
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
       <c r="U178" s="1"/>
@@ -18374,11 +17833,8 @@
       <c r="BJ178" s="1"/>
       <c r="BK178" s="1"/>
       <c r="BL178" s="1"/>
-      <c r="BM178" s="1"/>
-      <c r="BN178" s="1"/>
-      <c r="BO178" s="1"/>
-    </row>
-    <row r="179" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="179" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4">
         <v>1139</v>
       </c>
@@ -18415,8 +17871,8 @@
       <c r="N179" s="4"/>
       <c r="O179" s="4"/>
       <c r="P179" s="5"/>
-      <c r="Q179" s="4"/>
-      <c r="R179" s="4"/>
+      <c r="Q179" s="1"/>
+      <c r="R179" s="1"/>
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
       <c r="U179" s="1"/>
@@ -18463,11 +17919,8 @@
       <c r="BJ179" s="1"/>
       <c r="BK179" s="1"/>
       <c r="BL179" s="1"/>
-      <c r="BM179" s="1"/>
-      <c r="BN179" s="1"/>
-      <c r="BO179" s="1"/>
-    </row>
-    <row r="180" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="180" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4">
         <v>1140</v>
       </c>
@@ -18487,7 +17940,7 @@
         <v>43370</v>
       </c>
       <c r="G180" s="8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H180" s="9">
         <v>43373</v>
@@ -18502,8 +17955,8 @@
       <c r="N180" s="4"/>
       <c r="O180" s="4"/>
       <c r="P180" s="5"/>
-      <c r="Q180" s="4"/>
-      <c r="R180" s="4"/>
+      <c r="Q180" s="1"/>
+      <c r="R180" s="1"/>
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
       <c r="U180" s="1"/>
@@ -18550,11 +18003,8 @@
       <c r="BJ180" s="1"/>
       <c r="BK180" s="1"/>
       <c r="BL180" s="1"/>
-      <c r="BM180" s="1"/>
-      <c r="BN180" s="1"/>
-      <c r="BO180" s="1"/>
-    </row>
-    <row r="181" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="181" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4">
         <v>1141</v>
       </c>
@@ -18589,8 +18039,8 @@
       <c r="N181" s="4"/>
       <c r="O181" s="4"/>
       <c r="P181" s="5"/>
-      <c r="Q181" s="4"/>
-      <c r="R181" s="4"/>
+      <c r="Q181" s="1"/>
+      <c r="R181" s="1"/>
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
       <c r="U181" s="1"/>
@@ -18637,11 +18087,8 @@
       <c r="BJ181" s="1"/>
       <c r="BK181" s="1"/>
       <c r="BL181" s="1"/>
-      <c r="BM181" s="1"/>
-      <c r="BN181" s="1"/>
-      <c r="BO181" s="1"/>
-    </row>
-    <row r="182" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="182" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4">
         <v>1142</v>
       </c>
@@ -18678,8 +18125,8 @@
       <c r="N182" s="4"/>
       <c r="O182" s="4"/>
       <c r="P182" s="5"/>
-      <c r="Q182" s="4"/>
-      <c r="R182" s="4"/>
+      <c r="Q182" s="1"/>
+      <c r="R182" s="1"/>
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
       <c r="U182" s="1"/>
@@ -18726,11 +18173,8 @@
       <c r="BJ182" s="1"/>
       <c r="BK182" s="1"/>
       <c r="BL182" s="1"/>
-      <c r="BM182" s="1"/>
-      <c r="BN182" s="1"/>
-      <c r="BO182" s="1"/>
-    </row>
-    <row r="183" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="183" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4">
         <v>1143</v>
       </c>
@@ -18765,8 +18209,8 @@
       <c r="N183" s="7"/>
       <c r="O183" s="7"/>
       <c r="P183" s="2"/>
-      <c r="Q183" s="7"/>
-      <c r="R183" s="7"/>
+      <c r="Q183" s="1"/>
+      <c r="R183" s="1"/>
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
       <c r="U183" s="1"/>
@@ -18813,11 +18257,8 @@
       <c r="BJ183" s="1"/>
       <c r="BK183" s="1"/>
       <c r="BL183" s="1"/>
-      <c r="BM183" s="1"/>
-      <c r="BN183" s="1"/>
-      <c r="BO183" s="1"/>
-    </row>
-    <row r="184" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="184" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4">
         <v>1144</v>
       </c>
@@ -18852,8 +18293,8 @@
       <c r="N184" s="4"/>
       <c r="O184" s="4"/>
       <c r="P184" s="5"/>
-      <c r="Q184" s="4"/>
-      <c r="R184" s="4"/>
+      <c r="Q184" s="1"/>
+      <c r="R184" s="1"/>
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
       <c r="U184" s="1"/>
@@ -18900,11 +18341,8 @@
       <c r="BJ184" s="1"/>
       <c r="BK184" s="1"/>
       <c r="BL184" s="1"/>
-      <c r="BM184" s="1"/>
-      <c r="BN184" s="1"/>
-      <c r="BO184" s="1"/>
-    </row>
-    <row r="185" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="185" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4">
         <v>1145</v>
       </c>
@@ -18943,8 +18381,8 @@
       <c r="P185" s="5">
         <v>43373</v>
       </c>
-      <c r="Q185" s="4"/>
-      <c r="R185" s="4"/>
+      <c r="Q185" s="1"/>
+      <c r="R185" s="1"/>
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
       <c r="U185" s="1"/>
@@ -18991,11 +18429,8 @@
       <c r="BJ185" s="1"/>
       <c r="BK185" s="1"/>
       <c r="BL185" s="1"/>
-      <c r="BM185" s="1"/>
-      <c r="BN185" s="1"/>
-      <c r="BO185" s="1"/>
-    </row>
-    <row r="186" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="186" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4">
         <v>1146</v>
       </c>
@@ -19036,8 +18471,8 @@
       <c r="N186" s="4"/>
       <c r="O186" s="4"/>
       <c r="P186" s="5"/>
-      <c r="Q186" s="4"/>
-      <c r="R186" s="4"/>
+      <c r="Q186" s="1"/>
+      <c r="R186" s="1"/>
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
       <c r="U186" s="1"/>
@@ -19084,11 +18519,8 @@
       <c r="BJ186" s="1"/>
       <c r="BK186" s="1"/>
       <c r="BL186" s="1"/>
-      <c r="BM186" s="1"/>
-      <c r="BN186" s="1"/>
-      <c r="BO186" s="1"/>
-    </row>
-    <row r="187" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="187" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4">
         <v>1147</v>
       </c>
@@ -19123,8 +18555,8 @@
       <c r="N187" s="4"/>
       <c r="O187" s="4"/>
       <c r="P187" s="5"/>
-      <c r="Q187" s="4"/>
-      <c r="R187" s="4"/>
+      <c r="Q187" s="1"/>
+      <c r="R187" s="1"/>
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
       <c r="U187" s="1"/>
@@ -19171,11 +18603,8 @@
       <c r="BJ187" s="1"/>
       <c r="BK187" s="1"/>
       <c r="BL187" s="1"/>
-      <c r="BM187" s="1"/>
-      <c r="BN187" s="1"/>
-      <c r="BO187" s="1"/>
-    </row>
-    <row r="188" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="188" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4">
         <v>1148</v>
       </c>
@@ -19216,8 +18645,8 @@
       <c r="N188" s="4"/>
       <c r="O188" s="4"/>
       <c r="P188" s="5"/>
-      <c r="Q188" s="4"/>
-      <c r="R188" s="4"/>
+      <c r="Q188" s="1"/>
+      <c r="R188" s="1"/>
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
       <c r="U188" s="1"/>
@@ -19264,11 +18693,8 @@
       <c r="BJ188" s="1"/>
       <c r="BK188" s="1"/>
       <c r="BL188" s="1"/>
-      <c r="BM188" s="1"/>
-      <c r="BN188" s="1"/>
-      <c r="BO188" s="1"/>
-    </row>
-    <row r="189" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="189" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4">
         <v>1149</v>
       </c>
@@ -19303,8 +18729,8 @@
       <c r="N189" s="4"/>
       <c r="O189" s="4"/>
       <c r="P189" s="5"/>
-      <c r="Q189" s="4"/>
-      <c r="R189" s="4"/>
+      <c r="Q189" s="1"/>
+      <c r="R189" s="1"/>
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
       <c r="U189" s="1"/>
@@ -19351,11 +18777,8 @@
       <c r="BJ189" s="1"/>
       <c r="BK189" s="1"/>
       <c r="BL189" s="1"/>
-      <c r="BM189" s="1"/>
-      <c r="BN189" s="1"/>
-      <c r="BO189" s="1"/>
-    </row>
-    <row r="190" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="190" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4">
         <v>1150</v>
       </c>
@@ -19394,8 +18817,8 @@
       <c r="N190" s="4"/>
       <c r="O190" s="4"/>
       <c r="P190" s="5"/>
-      <c r="Q190" s="4"/>
-      <c r="R190" s="4"/>
+      <c r="Q190" s="1"/>
+      <c r="R190" s="1"/>
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
       <c r="U190" s="1"/>
@@ -19442,11 +18865,8 @@
       <c r="BJ190" s="1"/>
       <c r="BK190" s="1"/>
       <c r="BL190" s="1"/>
-      <c r="BM190" s="1"/>
-      <c r="BN190" s="1"/>
-      <c r="BO190" s="1"/>
-    </row>
-    <row r="191" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="191" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4">
         <v>1151</v>
       </c>
@@ -19472,7 +18892,7 @@
         <v>43372</v>
       </c>
       <c r="I191" s="9" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="J191" s="4"/>
       <c r="K191" s="9"/>
@@ -19481,8 +18901,8 @@
       <c r="N191" s="4"/>
       <c r="O191" s="4"/>
       <c r="P191" s="5"/>
-      <c r="Q191" s="4"/>
-      <c r="R191" s="4"/>
+      <c r="Q191" s="1"/>
+      <c r="R191" s="1"/>
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
       <c r="U191" s="1"/>
@@ -19529,11 +18949,8 @@
       <c r="BJ191" s="1"/>
       <c r="BK191" s="1"/>
       <c r="BL191" s="1"/>
-      <c r="BM191" s="1"/>
-      <c r="BN191" s="1"/>
-      <c r="BO191" s="1"/>
-    </row>
-    <row r="192" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="192" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4">
         <v>1152</v>
       </c>
@@ -19568,8 +18985,8 @@
       <c r="N192" s="4"/>
       <c r="O192" s="4"/>
       <c r="P192" s="5"/>
-      <c r="Q192" s="4"/>
-      <c r="R192" s="4"/>
+      <c r="Q192" s="1"/>
+      <c r="R192" s="1"/>
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
       <c r="U192" s="1"/>
@@ -19616,11 +19033,8 @@
       <c r="BJ192" s="1"/>
       <c r="BK192" s="1"/>
       <c r="BL192" s="1"/>
-      <c r="BM192" s="1"/>
-      <c r="BN192" s="1"/>
-      <c r="BO192" s="1"/>
-    </row>
-    <row r="193" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="193" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4">
         <v>1153</v>
       </c>
@@ -19653,8 +19067,8 @@
       <c r="N193" s="4"/>
       <c r="O193" s="4"/>
       <c r="P193" s="5"/>
-      <c r="Q193" s="4"/>
-      <c r="R193" s="4"/>
+      <c r="Q193" s="1"/>
+      <c r="R193" s="1"/>
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
       <c r="U193" s="1"/>
@@ -19701,11 +19115,8 @@
       <c r="BJ193" s="1"/>
       <c r="BK193" s="1"/>
       <c r="BL193" s="1"/>
-      <c r="BM193" s="1"/>
-      <c r="BN193" s="1"/>
-      <c r="BO193" s="1"/>
-    </row>
-    <row r="194" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="194" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4">
         <v>1154</v>
       </c>
@@ -19744,8 +19155,8 @@
       <c r="N194" s="4"/>
       <c r="O194" s="4"/>
       <c r="P194" s="5"/>
-      <c r="Q194" s="4"/>
-      <c r="R194" s="4"/>
+      <c r="Q194" s="1"/>
+      <c r="R194" s="1"/>
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
       <c r="U194" s="1"/>
@@ -19792,11 +19203,8 @@
       <c r="BJ194" s="1"/>
       <c r="BK194" s="1"/>
       <c r="BL194" s="1"/>
-      <c r="BM194" s="1"/>
-      <c r="BN194" s="1"/>
-      <c r="BO194" s="1"/>
-    </row>
-    <row r="195" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="195" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4">
         <v>1155</v>
       </c>
@@ -19831,8 +19239,8 @@
       <c r="N195" s="4"/>
       <c r="O195" s="4"/>
       <c r="P195" s="5"/>
-      <c r="Q195" s="4"/>
-      <c r="R195" s="4"/>
+      <c r="Q195" s="1"/>
+      <c r="R195" s="1"/>
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
       <c r="U195" s="1"/>
@@ -19879,11 +19287,8 @@
       <c r="BJ195" s="1"/>
       <c r="BK195" s="1"/>
       <c r="BL195" s="1"/>
-      <c r="BM195" s="1"/>
-      <c r="BN195" s="1"/>
-      <c r="BO195" s="1"/>
-    </row>
-    <row r="196" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="196" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4">
         <v>1156</v>
       </c>
@@ -19918,8 +19323,8 @@
       <c r="N196" s="4"/>
       <c r="O196" s="4"/>
       <c r="P196" s="5"/>
-      <c r="Q196" s="4"/>
-      <c r="R196" s="4"/>
+      <c r="Q196" s="1"/>
+      <c r="R196" s="1"/>
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
       <c r="U196" s="1"/>
@@ -19966,11 +19371,8 @@
       <c r="BJ196" s="1"/>
       <c r="BK196" s="1"/>
       <c r="BL196" s="1"/>
-      <c r="BM196" s="1"/>
-      <c r="BN196" s="1"/>
-      <c r="BO196" s="1"/>
-    </row>
-    <row r="197" spans="1:67" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="197" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4">
         <v>1157</v>
       </c>
@@ -19990,7 +19392,7 @@
         <v>43373</v>
       </c>
       <c r="G197" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H197" s="9">
         <v>43373</v>
@@ -20005,8 +19407,8 @@
       <c r="N197" s="4"/>
       <c r="O197" s="4"/>
       <c r="P197" s="5"/>
-      <c r="Q197" s="4"/>
-      <c r="R197" s="4"/>
+      <c r="Q197" s="1"/>
+      <c r="R197" s="1"/>
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
       <c r="U197" s="1"/>
@@ -20053,11 +19455,8 @@
       <c r="BJ197" s="1"/>
       <c r="BK197" s="1"/>
       <c r="BL197" s="1"/>
-      <c r="BM197" s="1"/>
-      <c r="BN197" s="1"/>
-      <c r="BO197" s="1"/>
-    </row>
-    <row r="198" spans="1:67" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:64" x14ac:dyDescent="0.3">
       <c r="F198" s="13"/>
       <c r="G198" s="3"/>
       <c r="H198" s="13"/>
@@ -20065,7 +19464,7 @@
       <c r="K198" s="13"/>
       <c r="L198" s="3"/>
     </row>
-    <row r="199" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:64" x14ac:dyDescent="0.3">
       <c r="F199" s="13"/>
       <c r="G199" s="3"/>
       <c r="H199" s="13"/>
@@ -20073,7 +19472,7 @@
       <c r="K199" s="13"/>
       <c r="L199" s="3"/>
     </row>
-    <row r="200" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:64" x14ac:dyDescent="0.3">
       <c r="F200" s="13"/>
       <c r="G200" s="3"/>
       <c r="H200" s="13"/>
@@ -20081,7 +19480,7 @@
       <c r="K200" s="13"/>
       <c r="L200" s="3"/>
     </row>
-    <row r="201" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:64" x14ac:dyDescent="0.3">
       <c r="F201" s="13"/>
       <c r="G201" s="3"/>
       <c r="H201" s="13"/>
@@ -20089,7 +19488,7 @@
       <c r="K201" s="13"/>
       <c r="L201" s="3"/>
     </row>
-    <row r="202" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:64" x14ac:dyDescent="0.3">
       <c r="F202" s="13"/>
       <c r="G202" s="3"/>
       <c r="H202" s="13"/>
@@ -20097,7 +19496,7 @@
       <c r="K202" s="13"/>
       <c r="L202" s="3"/>
     </row>
-    <row r="203" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:64" x14ac:dyDescent="0.3">
       <c r="F203" s="13"/>
       <c r="G203" s="3"/>
       <c r="H203" s="13"/>
@@ -20105,7 +19504,7 @@
       <c r="K203" s="13"/>
       <c r="L203" s="3"/>
     </row>
-    <row r="204" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:64" x14ac:dyDescent="0.3">
       <c r="F204" s="13"/>
       <c r="G204" s="3"/>
       <c r="H204" s="13"/>
@@ -20113,7 +19512,7 @@
       <c r="K204" s="13"/>
       <c r="L204" s="3"/>
     </row>
-    <row r="205" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:64" x14ac:dyDescent="0.3">
       <c r="F205" s="13"/>
       <c r="G205" s="3"/>
       <c r="H205" s="13"/>
@@ -20121,7 +19520,7 @@
       <c r="K205" s="13"/>
       <c r="L205" s="3"/>
     </row>
-    <row r="206" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:64" x14ac:dyDescent="0.3">
       <c r="F206" s="13"/>
       <c r="G206" s="3"/>
       <c r="H206" s="13"/>
@@ -20129,7 +19528,7 @@
       <c r="K206" s="13"/>
       <c r="L206" s="3"/>
     </row>
-    <row r="207" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:64" x14ac:dyDescent="0.3">
       <c r="F207" s="13"/>
       <c r="G207" s="3"/>
       <c r="H207" s="13"/>
@@ -20137,7 +19536,7 @@
       <c r="K207" s="13"/>
       <c r="L207" s="3"/>
     </row>
-    <row r="208" spans="1:67" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:64" x14ac:dyDescent="0.3">
       <c r="F208" s="13"/>
       <c r="G208" s="3"/>
       <c r="H208" s="13"/>
